--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gb_0900_jfk\teamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\팀프로젝트1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C64E1D-7786-4832-946A-067F9247BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -302,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -491,15 +492,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,6 +510,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="41" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,16 +536,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -598,6 +589,16 @@
     <dxf>
       <font>
         <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -929,11 +930,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:AH73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -953,106 +954,218 @@
     <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
-        <v>45682</v>
+        <v>45688</v>
       </c>
       <c r="G2" s="3">
-        <v>45683</v>
+        <v>45689</v>
       </c>
       <c r="H2" s="3">
-        <v>45684</v>
+        <v>45690</v>
       </c>
       <c r="I2" s="3">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="J2" s="3">
-        <v>45686</v>
+        <v>45692</v>
       </c>
       <c r="K2" s="3">
-        <v>45687</v>
+        <v>45693</v>
       </c>
       <c r="L2" s="3">
-        <v>45688</v>
+        <v>45694</v>
       </c>
       <c r="M2" s="3">
-        <v>45689</v>
+        <v>45695</v>
       </c>
       <c r="N2" s="3">
-        <v>45690</v>
+        <v>45696</v>
       </c>
       <c r="O2" s="3">
-        <v>45691</v>
+        <v>45697</v>
       </c>
       <c r="P2" s="3">
-        <v>45692</v>
+        <v>45698</v>
       </c>
       <c r="Q2" s="3">
-        <v>45693</v>
+        <v>45699</v>
       </c>
       <c r="R2" s="3">
-        <v>45694</v>
+        <v>45700</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45701</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45702</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45703</v>
+      </c>
+      <c r="V2" s="3">
+        <v>45704</v>
+      </c>
+      <c r="W2" s="3">
+        <v>45705</v>
+      </c>
+      <c r="X2" s="3">
+        <v>45706</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>45707</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>45708</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45709</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>45710</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>45711</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>45712</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>45713</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>45714</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>45715</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>45716</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F21,F26,F33,F40,F47,F50,F64,F66,F68,F71)</f>
+        <f t="shared" ref="F3:R3" si="0">AVERAGE(F21,F26,F33,F40,F47,F50,F64,F66,F68,F71)</f>
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G21,G26,G33,G40,G47,G50,G64,G66,G68,G71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H21,H26,H33,H40,H47,H50,H64,H66,H68,H71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I21,I26,I33,I40,I47,I50,I64,I66,I68,I71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J21,J26,J33,J40,J47,J50,J64,J66,J68,J71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K21,K26,K33,K40,K47,K50,K64,K66,K68,K71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L21,L26,L33,L40,L47,L50,L64,L66,L68,L71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M21,M26,M33,M40,M47,M50,M64,M66,M68,M71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N21,N26,N33,N40,N47,N50,N64,N66,N68,N71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O21,O26,O33,O40,O47,O50,O64,O66,O68,O71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="6">
-        <f>AVERAGE(P21,P26,P33,P40,P47,P50,P64,P66,P68,P71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="6">
-        <f>AVERAGE(Q21,Q26,Q33,Q40,Q47,Q50,Q64,Q66,Q68,Q71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="6">
-        <f>AVERAGE(R21,R26,R33,R40,R47,R50,R64,R66,R68,R71)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" ref="S3:AH3" si="1">AVERAGE(S21,S26,S33,S40,S47,S50,S64,S66,S68,S71)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1100,12 +1213,60 @@
       <c r="R5" s="3">
         <v>45694</v>
       </c>
+      <c r="S5" s="3">
+        <v>45695</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45696</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45697</v>
+      </c>
+      <c r="V5" s="3">
+        <v>45698</v>
+      </c>
+      <c r="W5" s="3">
+        <v>45699</v>
+      </c>
+      <c r="X5" s="3">
+        <v>45700</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>45701</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>45702</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>45703</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>45704</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>45705</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>45706</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>45707</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>45708</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>45709</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>45710</v>
+      </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1151,10 +1312,58 @@
       <c r="R6" s="9">
         <v>0</v>
       </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="7" t="s">
         <v>54</v>
       </c>
@@ -1198,10 +1407,58 @@
       <c r="R7" s="9">
         <v>0</v>
       </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1245,10 +1502,58 @@
       <c r="R8" s="9">
         <v>0</v>
       </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1292,10 +1597,58 @@
       <c r="R9" s="9">
         <v>0</v>
       </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1339,10 +1692,58 @@
       <c r="R10" s="9">
         <v>0</v>
       </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1386,10 +1787,58 @@
       <c r="R11" s="9">
         <v>0</v>
       </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="11"/>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1433,10 +1882,58 @@
       <c r="R12" s="9">
         <v>0</v>
       </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1480,10 +1977,58 @@
       <c r="R13" s="9">
         <v>0</v>
       </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1527,10 +2072,58 @@
       <c r="R14" s="9">
         <v>0</v>
       </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1574,10 +2167,58 @@
       <c r="R15" s="9">
         <v>0</v>
       </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="11"/>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1621,10 +2262,58 @@
       <c r="R16" s="9">
         <v>0</v>
       </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1668,10 +2357,58 @@
       <c r="R17" s="9">
         <v>0</v>
       </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="11"/>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1715,10 +2452,58 @@
       <c r="R18" s="9">
         <v>0</v>
       </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="11"/>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
@@ -1762,10 +2547,58 @@
       <c r="R19" s="9">
         <v>0</v>
       </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="11"/>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
@@ -1809,70 +2642,182 @@
       <c r="R20" s="9">
         <v>0</v>
       </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="2:18" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="12"/>
+    <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:R21" si="0">AVERAGE(F6:F20)</f>
+        <f t="shared" ref="F21:R21" si="2">AVERAGE(F6:F20)</f>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <f t="shared" ref="S21:AH21" si="3">AVERAGE(S6:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1918,10 +2863,58 @@
       <c r="R22" s="9">
         <v>0</v>
       </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" s="20"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
@@ -1965,10 +2958,58 @@
       <c r="R23" s="9">
         <v>0</v>
       </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" s="20"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="7" t="s">
         <v>25</v>
       </c>
@@ -2012,10 +3053,58 @@
       <c r="R24" s="9">
         <v>0</v>
       </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" s="20"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
@@ -2059,70 +3148,182 @@
       <c r="R25" s="9">
         <v>0</v>
       </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B26" s="21"/>
-      <c r="C26" s="18"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6">
-        <f t="shared" ref="F26:R26" si="1">AVERAGE(F22:F25)</f>
+        <f t="shared" ref="F26:R26" si="4">AVERAGE(F22:F25)</f>
         <v>0</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <f t="shared" ref="S26:AH26" si="5">AVERAGE(S22:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -2168,10 +3369,58 @@
       <c r="R27" s="9">
         <v>0</v>
       </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27" s="9">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="11"/>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
@@ -2215,10 +3464,58 @@
       <c r="R28" s="9">
         <v>0</v>
       </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+      <c r="W28" s="9">
+        <v>0</v>
+      </c>
+      <c r="X28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-      <c r="C29" s="11"/>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="7" t="s">
         <v>20</v>
       </c>
@@ -2262,10 +3559,58 @@
       <c r="R29" s="9">
         <v>0</v>
       </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <v>0</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0</v>
+      </c>
+      <c r="W29" s="9">
+        <v>0</v>
+      </c>
+      <c r="X29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="11"/>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="7" t="s">
         <v>21</v>
       </c>
@@ -2309,10 +3654,58 @@
       <c r="R30" s="9">
         <v>0</v>
       </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
+      <c r="V30" s="9">
+        <v>0</v>
+      </c>
+      <c r="W30" s="9">
+        <v>0</v>
+      </c>
+      <c r="X30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="11"/>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
@@ -2356,10 +3749,58 @@
       <c r="R31" s="9">
         <v>0</v>
       </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31" s="9">
+        <v>0</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0</v>
+      </c>
+      <c r="W31" s="9">
+        <v>0</v>
+      </c>
+      <c r="X31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
-      <c r="C32" s="11"/>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="7" t="s">
         <v>23</v>
       </c>
@@ -2403,70 +3844,182 @@
       <c r="R32" s="9">
         <v>0</v>
       </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+      <c r="U32" s="9">
+        <v>0</v>
+      </c>
+      <c r="V32" s="9">
+        <v>0</v>
+      </c>
+      <c r="W32" s="9">
+        <v>0</v>
+      </c>
+      <c r="X32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="12"/>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6">
-        <f t="shared" ref="F33:R33" si="2">AVERAGE(F27:F32)</f>
+        <f t="shared" ref="F33:R33" si="6">AVERAGE(F27:F32)</f>
         <v>0</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="6">
+        <f t="shared" ref="S33:AH33" si="7">AVERAGE(S27:S32)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="6">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -2512,10 +4065,58 @@
       <c r="R34" s="9">
         <v>0</v>
       </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <v>0</v>
+      </c>
+      <c r="V34" s="9">
+        <v>0</v>
+      </c>
+      <c r="W34" s="9">
+        <v>0</v>
+      </c>
+      <c r="X34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="14"/>
-      <c r="C35" s="17"/>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B35" s="11"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="7" t="s">
         <v>58</v>
       </c>
@@ -2559,10 +4160,58 @@
       <c r="R35" s="9">
         <v>0</v>
       </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
+      <c r="U35" s="9">
+        <v>0</v>
+      </c>
+      <c r="V35" s="9">
+        <v>0</v>
+      </c>
+      <c r="W35" s="9">
+        <v>0</v>
+      </c>
+      <c r="X35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="17"/>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="7" t="s">
         <v>64</v>
       </c>
@@ -2606,10 +4255,58 @@
       <c r="R36" s="9">
         <v>0</v>
       </c>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36" s="9">
+        <v>0</v>
+      </c>
+      <c r="V36" s="9">
+        <v>0</v>
+      </c>
+      <c r="W36" s="9">
+        <v>0</v>
+      </c>
+      <c r="X36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="17"/>
+    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="7" t="s">
         <v>59</v>
       </c>
@@ -2653,10 +4350,58 @@
       <c r="R37" s="9">
         <v>0</v>
       </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0</v>
+      </c>
+      <c r="U37" s="9">
+        <v>0</v>
+      </c>
+      <c r="V37" s="9">
+        <v>0</v>
+      </c>
+      <c r="W37" s="9">
+        <v>0</v>
+      </c>
+      <c r="X37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="17"/>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="7" t="s">
         <v>60</v>
       </c>
@@ -2700,10 +4445,58 @@
       <c r="R38" s="9">
         <v>0</v>
       </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+      <c r="U38" s="9">
+        <v>0</v>
+      </c>
+      <c r="V38" s="9">
+        <v>0</v>
+      </c>
+      <c r="W38" s="9">
+        <v>0</v>
+      </c>
+      <c r="X38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="17"/>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B39" s="11"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="7" t="s">
         <v>61</v>
       </c>
@@ -2747,70 +4540,182 @@
       <c r="R39" s="9">
         <v>0</v>
       </c>
+      <c r="S39" s="9">
+        <v>0</v>
+      </c>
+      <c r="T39" s="9">
+        <v>0</v>
+      </c>
+      <c r="U39" s="9">
+        <v>0</v>
+      </c>
+      <c r="V39" s="9">
+        <v>0</v>
+      </c>
+      <c r="W39" s="9">
+        <v>0</v>
+      </c>
+      <c r="X39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="18"/>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:R40" si="3">AVERAGE(F34:F37)</f>
+        <f>AVERAGE(F34:F39)</f>
         <v>0</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G40:AH40" si="8">AVERAGE(G34:G39)</f>
         <v>0</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="13" t="s">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2856,10 +4761,58 @@
       <c r="R41" s="9">
         <v>0</v>
       </c>
+      <c r="S41" s="9">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <v>0</v>
+      </c>
+      <c r="U41" s="9">
+        <v>0</v>
+      </c>
+      <c r="V41" s="9">
+        <v>0</v>
+      </c>
+      <c r="W41" s="9">
+        <v>0</v>
+      </c>
+      <c r="X41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="C42" s="17"/>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B42" s="11"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="7" t="s">
         <v>33</v>
       </c>
@@ -2903,10 +4856,58 @@
       <c r="R42" s="9">
         <v>0</v>
       </c>
+      <c r="S42" s="9">
+        <v>0</v>
+      </c>
+      <c r="T42" s="9">
+        <v>0</v>
+      </c>
+      <c r="U42" s="9">
+        <v>0</v>
+      </c>
+      <c r="V42" s="9">
+        <v>0</v>
+      </c>
+      <c r="W42" s="9">
+        <v>0</v>
+      </c>
+      <c r="X42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="17"/>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B43" s="11"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="7" t="s">
         <v>65</v>
       </c>
@@ -2950,10 +4951,58 @@
       <c r="R43" s="9">
         <v>0</v>
       </c>
+      <c r="S43" s="9">
+        <v>0</v>
+      </c>
+      <c r="T43" s="9">
+        <v>0</v>
+      </c>
+      <c r="U43" s="9">
+        <v>0</v>
+      </c>
+      <c r="V43" s="9">
+        <v>0</v>
+      </c>
+      <c r="W43" s="9">
+        <v>0</v>
+      </c>
+      <c r="X43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-      <c r="C44" s="17"/>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B44" s="11"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="7" t="s">
         <v>55</v>
       </c>
@@ -2997,10 +5046,58 @@
       <c r="R44" s="9">
         <v>0</v>
       </c>
+      <c r="S44" s="9">
+        <v>0</v>
+      </c>
+      <c r="T44" s="9">
+        <v>0</v>
+      </c>
+      <c r="U44" s="9">
+        <v>0</v>
+      </c>
+      <c r="V44" s="9">
+        <v>0</v>
+      </c>
+      <c r="W44" s="9">
+        <v>0</v>
+      </c>
+      <c r="X44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
-      <c r="C45" s="17"/>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3044,10 +5141,58 @@
       <c r="R45" s="9">
         <v>0</v>
       </c>
+      <c r="S45" s="9">
+        <v>0</v>
+      </c>
+      <c r="T45" s="9">
+        <v>0</v>
+      </c>
+      <c r="U45" s="9">
+        <v>0</v>
+      </c>
+      <c r="V45" s="9">
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
-      <c r="C46" s="17"/>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B46" s="11"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="7" t="s">
         <v>56</v>
       </c>
@@ -3091,70 +5236,182 @@
       <c r="R46" s="9">
         <v>0</v>
       </c>
+      <c r="S46" s="9">
+        <v>0</v>
+      </c>
+      <c r="T46" s="9">
+        <v>0</v>
+      </c>
+      <c r="U46" s="9">
+        <v>0</v>
+      </c>
+      <c r="V46" s="9">
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-      <c r="C47" s="18"/>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="6">
-        <f>AVERAGE(F41:F46)</f>
+        <f t="shared" ref="F47:R47" si="9">AVERAGE(F41:F46)</f>
         <v>0</v>
       </c>
       <c r="G47" s="6">
-        <f>AVERAGE(G41:G46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H47" s="6">
-        <f>AVERAGE(H41:H46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I47" s="6">
-        <f>AVERAGE(I41:I46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J47" s="6">
-        <f>AVERAGE(J41:J46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K47" s="6">
-        <f>AVERAGE(K41:K46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L47" s="6">
-        <f>AVERAGE(L41:L46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M47" s="6">
-        <f>AVERAGE(M41:M46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N47" s="6">
-        <f>AVERAGE(N41:N46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O47" s="6">
-        <f>AVERAGE(O41:O46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <f>AVERAGE(P41:P46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q47" s="6">
-        <f>AVERAGE(Q41:Q46)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R47" s="6">
-        <f>AVERAGE(R41:R46)</f>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="6">
+        <f t="shared" ref="S47" si="10">AVERAGE(S41:S46)</f>
+        <v>0</v>
+      </c>
+      <c r="T47" s="6">
+        <f t="shared" ref="T47" si="11">AVERAGE(T41:T46)</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="6">
+        <f t="shared" ref="U47" si="12">AVERAGE(U41:U46)</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="6">
+        <f t="shared" ref="V47" si="13">AVERAGE(V41:V46)</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="6">
+        <f t="shared" ref="W47" si="14">AVERAGE(W41:W46)</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="6">
+        <f t="shared" ref="X47" si="15">AVERAGE(X41:X46)</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="6">
+        <f t="shared" ref="Y47" si="16">AVERAGE(Y41:Y46)</f>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="6">
+        <f t="shared" ref="Z47" si="17">AVERAGE(Z41:Z46)</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="6">
+        <f t="shared" ref="AA47" si="18">AVERAGE(AA41:AA46)</f>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="6">
+        <f t="shared" ref="AB47" si="19">AVERAGE(AB41:AB46)</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="6">
+        <f t="shared" ref="AC47" si="20">AVERAGE(AC41:AC46)</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="6">
+        <f t="shared" ref="AD47" si="21">AVERAGE(AD41:AD46)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="6">
+        <f t="shared" ref="AE47" si="22">AVERAGE(AE41:AE46)</f>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="6">
+        <f t="shared" ref="AF47" si="23">AVERAGE(AF41:AF46)</f>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="6">
+        <f t="shared" ref="AG47" si="24">AVERAGE(AG41:AG46)</f>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="6">
+        <f t="shared" ref="AH47" si="25">AVERAGE(AH41:AH46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -3200,10 +5457,58 @@
       <c r="R48" s="9">
         <v>0</v>
       </c>
+      <c r="S48" s="9">
+        <v>0</v>
+      </c>
+      <c r="T48" s="9">
+        <v>0</v>
+      </c>
+      <c r="U48" s="9">
+        <v>0</v>
+      </c>
+      <c r="V48" s="9">
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-      <c r="C49" s="17"/>
+    <row r="49" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B49" s="11"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="7" t="s">
         <v>55</v>
       </c>
@@ -3247,70 +5552,182 @@
       <c r="R49" s="9">
         <v>0</v>
       </c>
+      <c r="S49" s="9">
+        <v>0</v>
+      </c>
+      <c r="T49" s="9">
+        <v>0</v>
+      </c>
+      <c r="U49" s="9">
+        <v>0</v>
+      </c>
+      <c r="V49" s="9">
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6">
-        <f>AVERAGE(F48:F48)</f>
+        <f>AVERAGE(F48:F49)</f>
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <f>AVERAGE(G48:G48)</f>
+        <f t="shared" ref="G50:AH50" si="26">AVERAGE(G48:G49)</f>
         <v>0</v>
       </c>
       <c r="H50" s="6">
-        <f>AVERAGE(H48:H48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I50" s="6">
-        <f>AVERAGE(I48:I48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J50" s="6">
-        <f>AVERAGE(J48:J48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K50" s="6">
-        <f>AVERAGE(K48:K48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L50" s="6">
-        <f>AVERAGE(L48:L48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M50" s="6">
-        <f>AVERAGE(M48:M48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <f>AVERAGE(N48:N48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O50" s="6">
-        <f>AVERAGE(O48:O48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <f>AVERAGE(P48:P48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q50" s="6">
-        <f>AVERAGE(Q48:Q48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R50" s="6">
-        <f>AVERAGE(R48:R48)</f>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AH50" s="6">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="13" t="s">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -3356,10 +5773,58 @@
       <c r="R51" s="9">
         <v>0</v>
       </c>
+      <c r="S51" s="9">
+        <v>0</v>
+      </c>
+      <c r="T51" s="9">
+        <v>0</v>
+      </c>
+      <c r="U51" s="9">
+        <v>0</v>
+      </c>
+      <c r="V51" s="9">
+        <v>0</v>
+      </c>
+      <c r="W51" s="9">
+        <v>0</v>
+      </c>
+      <c r="X51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-      <c r="C52" s="17"/>
+    <row r="52" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B52" s="11"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="7" t="s">
         <v>38</v>
       </c>
@@ -3403,10 +5868,58 @@
       <c r="R52" s="9">
         <v>0</v>
       </c>
+      <c r="S52" s="9">
+        <v>0</v>
+      </c>
+      <c r="T52" s="9">
+        <v>0</v>
+      </c>
+      <c r="U52" s="9">
+        <v>0</v>
+      </c>
+      <c r="V52" s="9">
+        <v>0</v>
+      </c>
+      <c r="W52" s="9">
+        <v>0</v>
+      </c>
+      <c r="X52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="14"/>
-      <c r="C53" s="17"/>
+    <row r="53" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B53" s="11"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="7" t="s">
         <v>39</v>
       </c>
@@ -3450,10 +5963,58 @@
       <c r="R53" s="9">
         <v>0</v>
       </c>
+      <c r="S53" s="9">
+        <v>0</v>
+      </c>
+      <c r="T53" s="9">
+        <v>0</v>
+      </c>
+      <c r="U53" s="9">
+        <v>0</v>
+      </c>
+      <c r="V53" s="9">
+        <v>0</v>
+      </c>
+      <c r="W53" s="9">
+        <v>0</v>
+      </c>
+      <c r="X53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="14"/>
-      <c r="C54" s="17"/>
+    <row r="54" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B54" s="11"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="7" t="s">
         <v>25</v>
       </c>
@@ -3497,10 +6058,58 @@
       <c r="R54" s="9">
         <v>0</v>
       </c>
+      <c r="S54" s="9">
+        <v>0</v>
+      </c>
+      <c r="T54" s="9">
+        <v>0</v>
+      </c>
+      <c r="U54" s="9">
+        <v>0</v>
+      </c>
+      <c r="V54" s="9">
+        <v>0</v>
+      </c>
+      <c r="W54" s="9">
+        <v>0</v>
+      </c>
+      <c r="X54" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="14"/>
-      <c r="C55" s="17"/>
+    <row r="55" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B55" s="11"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="7" t="s">
         <v>26</v>
       </c>
@@ -3544,10 +6153,58 @@
       <c r="R55" s="9">
         <v>0</v>
       </c>
+      <c r="S55" s="9">
+        <v>0</v>
+      </c>
+      <c r="T55" s="9">
+        <v>0</v>
+      </c>
+      <c r="U55" s="9">
+        <v>0</v>
+      </c>
+      <c r="V55" s="9">
+        <v>0</v>
+      </c>
+      <c r="W55" s="9">
+        <v>0</v>
+      </c>
+      <c r="X55" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="14"/>
-      <c r="C56" s="17"/>
+    <row r="56" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B56" s="11"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="7" t="s">
         <v>40</v>
       </c>
@@ -3591,10 +6248,58 @@
       <c r="R56" s="9">
         <v>0</v>
       </c>
+      <c r="S56" s="9">
+        <v>0</v>
+      </c>
+      <c r="T56" s="9">
+        <v>0</v>
+      </c>
+      <c r="U56" s="9">
+        <v>0</v>
+      </c>
+      <c r="V56" s="9">
+        <v>0</v>
+      </c>
+      <c r="W56" s="9">
+        <v>0</v>
+      </c>
+      <c r="X56" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="14"/>
-      <c r="C57" s="17"/>
+    <row r="57" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B57" s="11"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="7" t="s">
         <v>41</v>
       </c>
@@ -3638,10 +6343,58 @@
       <c r="R57" s="9">
         <v>0</v>
       </c>
+      <c r="S57" s="9">
+        <v>0</v>
+      </c>
+      <c r="T57" s="9">
+        <v>0</v>
+      </c>
+      <c r="U57" s="9">
+        <v>0</v>
+      </c>
+      <c r="V57" s="9">
+        <v>0</v>
+      </c>
+      <c r="W57" s="9">
+        <v>0</v>
+      </c>
+      <c r="X57" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="14"/>
-      <c r="C58" s="17"/>
+    <row r="58" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B58" s="11"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="7" t="s">
         <v>7</v>
       </c>
@@ -3685,10 +6438,58 @@
       <c r="R58" s="9">
         <v>0</v>
       </c>
+      <c r="S58" s="9">
+        <v>0</v>
+      </c>
+      <c r="T58" s="9">
+        <v>0</v>
+      </c>
+      <c r="U58" s="9">
+        <v>0</v>
+      </c>
+      <c r="V58" s="9">
+        <v>0</v>
+      </c>
+      <c r="W58" s="9">
+        <v>0</v>
+      </c>
+      <c r="X58" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B59" s="14"/>
-      <c r="C59" s="17"/>
+    <row r="59" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B59" s="11"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="7" t="s">
         <v>8</v>
       </c>
@@ -3732,10 +6533,58 @@
       <c r="R59" s="9">
         <v>0</v>
       </c>
+      <c r="S59" s="9">
+        <v>0</v>
+      </c>
+      <c r="T59" s="9">
+        <v>0</v>
+      </c>
+      <c r="U59" s="9">
+        <v>0</v>
+      </c>
+      <c r="V59" s="9">
+        <v>0</v>
+      </c>
+      <c r="W59" s="9">
+        <v>0</v>
+      </c>
+      <c r="X59" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="14"/>
-      <c r="C60" s="17"/>
+    <row r="60" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B60" s="11"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="7" t="s">
         <v>42</v>
       </c>
@@ -3779,10 +6628,58 @@
       <c r="R60" s="9">
         <v>0</v>
       </c>
+      <c r="S60" s="9">
+        <v>0</v>
+      </c>
+      <c r="T60" s="9">
+        <v>0</v>
+      </c>
+      <c r="U60" s="9">
+        <v>0</v>
+      </c>
+      <c r="V60" s="9">
+        <v>0</v>
+      </c>
+      <c r="W60" s="9">
+        <v>0</v>
+      </c>
+      <c r="X60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="14"/>
-      <c r="C61" s="17"/>
+    <row r="61" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B61" s="11"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="7" t="s">
         <v>43</v>
       </c>
@@ -3826,10 +6723,58 @@
       <c r="R61" s="9">
         <v>0</v>
       </c>
+      <c r="S61" s="9">
+        <v>0</v>
+      </c>
+      <c r="T61" s="9">
+        <v>0</v>
+      </c>
+      <c r="U61" s="9">
+        <v>0</v>
+      </c>
+      <c r="V61" s="9">
+        <v>0</v>
+      </c>
+      <c r="W61" s="9">
+        <v>0</v>
+      </c>
+      <c r="X61" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B62" s="14"/>
-      <c r="C62" s="17"/>
+    <row r="62" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B62" s="11"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="7" t="s">
         <v>44</v>
       </c>
@@ -3873,10 +6818,58 @@
       <c r="R62" s="9">
         <v>0</v>
       </c>
+      <c r="S62" s="9">
+        <v>0</v>
+      </c>
+      <c r="T62" s="9">
+        <v>0</v>
+      </c>
+      <c r="U62" s="9">
+        <v>0</v>
+      </c>
+      <c r="V62" s="9">
+        <v>0</v>
+      </c>
+      <c r="W62" s="9">
+        <v>0</v>
+      </c>
+      <c r="X62" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="14"/>
-      <c r="C63" s="17"/>
+    <row r="63" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B63" s="11"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="7" t="s">
         <v>45</v>
       </c>
@@ -3920,10 +6913,58 @@
       <c r="R63" s="9">
         <v>0</v>
       </c>
+      <c r="S63" s="9">
+        <v>0</v>
+      </c>
+      <c r="T63" s="9">
+        <v>0</v>
+      </c>
+      <c r="U63" s="9">
+        <v>0</v>
+      </c>
+      <c r="V63" s="9">
+        <v>0</v>
+      </c>
+      <c r="W63" s="9">
+        <v>0</v>
+      </c>
+      <c r="X63" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B64" s="12"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="6">
@@ -3931,59 +6972,123 @@
         <v>0</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" ref="G64:R64" si="4">AVERAGE(G51:G63)</f>
+        <f t="shared" ref="G64:R64" si="27">AVERAGE(G51:G63)</f>
         <v>0</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="6">
+        <f t="shared" ref="S64:AH64" si="28">AVERAGE(S51:S63)</f>
+        <v>0</v>
+      </c>
+      <c r="T64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="6">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="13" t="s">
+    <row r="65" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -4029,10 +7134,58 @@
       <c r="R65" s="9">
         <v>0</v>
       </c>
+      <c r="S65" s="9">
+        <v>0</v>
+      </c>
+      <c r="T65" s="9">
+        <v>0</v>
+      </c>
+      <c r="U65" s="9">
+        <v>0</v>
+      </c>
+      <c r="V65" s="9">
+        <v>0</v>
+      </c>
+      <c r="W65" s="9">
+        <v>0</v>
+      </c>
+      <c r="X65" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B66" s="15"/>
-      <c r="C66" s="12"/>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B66" s="12"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="6">
@@ -4040,59 +7193,123 @@
         <v>0</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" ref="G66" si="5">AVERAGE(G62:G65)</f>
+        <f t="shared" ref="G66" si="29">AVERAGE(G62:G65)</f>
         <v>0</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" ref="H66" si="6">AVERAGE(H62:H65)</f>
+        <f t="shared" ref="H66" si="30">AVERAGE(H62:H65)</f>
         <v>0</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" ref="I66" si="7">AVERAGE(I62:I65)</f>
+        <f t="shared" ref="I66" si="31">AVERAGE(I62:I65)</f>
         <v>0</v>
       </c>
       <c r="J66" s="6">
-        <f t="shared" ref="J66" si="8">AVERAGE(J62:J65)</f>
+        <f t="shared" ref="J66" si="32">AVERAGE(J62:J65)</f>
         <v>0</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" ref="K66" si="9">AVERAGE(K62:K65)</f>
+        <f t="shared" ref="K66" si="33">AVERAGE(K62:K65)</f>
         <v>0</v>
       </c>
       <c r="L66" s="6">
-        <f t="shared" ref="L66" si="10">AVERAGE(L62:L65)</f>
+        <f t="shared" ref="L66" si="34">AVERAGE(L62:L65)</f>
         <v>0</v>
       </c>
       <c r="M66" s="6">
-        <f t="shared" ref="M66" si="11">AVERAGE(M62:M65)</f>
+        <f t="shared" ref="M66" si="35">AVERAGE(M62:M65)</f>
         <v>0</v>
       </c>
       <c r="N66" s="6">
-        <f t="shared" ref="N66" si="12">AVERAGE(N62:N65)</f>
+        <f t="shared" ref="N66" si="36">AVERAGE(N62:N65)</f>
         <v>0</v>
       </c>
       <c r="O66" s="6">
-        <f t="shared" ref="O66" si="13">AVERAGE(O62:O65)</f>
+        <f t="shared" ref="O66" si="37">AVERAGE(O62:O65)</f>
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" ref="P66" si="14">AVERAGE(P62:P65)</f>
+        <f t="shared" ref="P66" si="38">AVERAGE(P62:P65)</f>
         <v>0</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" ref="Q66" si="15">AVERAGE(Q62:Q65)</f>
+        <f t="shared" ref="Q66" si="39">AVERAGE(Q62:Q65)</f>
         <v>0</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" ref="R66" si="16">AVERAGE(R62:R65)</f>
+        <f t="shared" ref="R66:AH66" si="40">AVERAGE(R62:R65)</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AE66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AH66" s="6">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B67" s="13" t="s">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B67" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D67" s="7" t="s">
@@ -4138,10 +7355,58 @@
       <c r="R67" s="9">
         <v>0</v>
       </c>
+      <c r="S67" s="9">
+        <v>0</v>
+      </c>
+      <c r="T67" s="9">
+        <v>0</v>
+      </c>
+      <c r="U67" s="9">
+        <v>0</v>
+      </c>
+      <c r="V67" s="9">
+        <v>0</v>
+      </c>
+      <c r="W67" s="9">
+        <v>0</v>
+      </c>
+      <c r="X67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="18"/>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B68" s="12"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="6">
@@ -4149,59 +7414,123 @@
         <v>0</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" ref="G68:R68" si="17">AVERAGE(G67)</f>
+        <f t="shared" ref="G68:R68" si="41">AVERAGE(G67)</f>
         <v>0</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="6">
+        <f t="shared" ref="S68:AH68" si="42">AVERAGE(S67)</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="6">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="13" t="s">
+    <row r="69" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D69" s="7" t="s">
@@ -4247,10 +7576,58 @@
       <c r="R69" s="9">
         <v>0</v>
       </c>
+      <c r="S69" s="9">
+        <v>0</v>
+      </c>
+      <c r="T69" s="9">
+        <v>0</v>
+      </c>
+      <c r="U69" s="9">
+        <v>0</v>
+      </c>
+      <c r="V69" s="9">
+        <v>0</v>
+      </c>
+      <c r="W69" s="9">
+        <v>0</v>
+      </c>
+      <c r="X69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B70" s="14"/>
-      <c r="C70" s="17"/>
+    <row r="70" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B70" s="11"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="7" t="s">
         <v>49</v>
       </c>
@@ -4294,87 +7671,187 @@
       <c r="R70" s="9">
         <v>0</v>
       </c>
+      <c r="S70" s="9">
+        <v>0</v>
+      </c>
+      <c r="T70" s="9">
+        <v>0</v>
+      </c>
+      <c r="U70" s="9">
+        <v>0</v>
+      </c>
+      <c r="V70" s="9">
+        <v>0</v>
+      </c>
+      <c r="W70" s="9">
+        <v>0</v>
+      </c>
+      <c r="X70" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B71" s="15"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B71" s="12"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="6">
-        <f t="shared" ref="F71:R71" si="18">AVERAGE(F69:F70)</f>
+        <f t="shared" ref="F71:R71" si="43">AVERAGE(F69:F70)</f>
         <v>0</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="6">
+        <f t="shared" ref="S71:AH71" si="44">AVERAGE(S69:S70)</f>
+        <v>0</v>
+      </c>
+      <c r="T71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="W71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AC71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AD71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AH71" s="6">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.3">
       <c r="E72" s="8"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.3">
       <c r="E73" s="8"/>
       <c r="F73" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C51:C64"/>
-    <mergeCell ref="B51:B64"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
     <mergeCell ref="C6:C21"/>
     <mergeCell ref="B6:B21"/>
     <mergeCell ref="B27:B33"/>
@@ -4383,6 +7860,18 @@
     <mergeCell ref="C34:C40"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C51:C64"/>
+    <mergeCell ref="B51:B64"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B69">
@@ -4405,33 +7894,38 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:E48 C51:E51 D52:E64 C65:E65 D66:E71 D50:E50">
-    <cfRule type="cellIs" dxfId="6" priority="112" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D6:D13">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D20">
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21 E22:E25 B51 B65">
-    <cfRule type="cellIs" dxfId="3" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D39">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:E48 D50:E50 C51:E51 D52:E64 C65:E65 D66:E71">
+    <cfRule type="cellIs" dxfId="1" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E20">
-    <cfRule type="cellIs" dxfId="1" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="393" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4463,8 +7957,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48 F51 F67 F52:R63 F65:R65">
-    <cfRule type="dataBar" priority="416">
+  <conditionalFormatting sqref="F38:F39">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4472,7 +7966,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65D6EC0D-952A-420C-9BCF-6E4C561DF568}</x14:id>
+          <x14:id>{D602E0EC-8368-4F0B-8C33-192409A1D82C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9A642850-F1AC-4A64-AB4F-37A40B9CA441}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4487,34 +7995,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BE0275C9-A13C-4221-B9B7-203BFE7719CD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G22 F24:G25 F23:R23">
-    <cfRule type="dataBar" priority="411">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33F6A3E8-F39F-4486-821E-EFC74CA33142}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69:R69 F70">
-    <cfRule type="dataBar" priority="427">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1CEE6841-AF6F-4430-AD73-2BF608979F81}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4547,6 +8027,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G39">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{18AF2DD8-6640-4119-B4E6-8CC0AB6FEEE7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G46 G41">
+    <cfRule type="dataBar" priority="439">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8221E45B-E79D-49CA-8786-7BDF441C575C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G48 G51 G67">
     <cfRule type="dataBar" priority="421">
       <dataBar>
@@ -4557,6 +8065,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{2D753DFF-0685-48F3-BDEF-449EB335D13E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4575,8 +8097,64 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:R20">
-    <cfRule type="dataBar" priority="406">
+  <conditionalFormatting sqref="F48 F51 F67 F52:AH63 F65:AH65">
+    <cfRule type="dataBar" priority="444">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{65D6EC0D-952A-420C-9BCF-6E4C561DF568}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:G22 F24:G25 F23:AH23">
+    <cfRule type="dataBar" priority="449">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{33F6A3E8-F39F-4486-821E-EFC74CA33142}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F46 F41 F42:AH42">
+    <cfRule type="dataBar" priority="452">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF147DFE-A319-4694-82C7-891FF6043D5B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69:AH69 F70">
+    <cfRule type="dataBar" priority="455">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1CEE6841-AF6F-4430-AD73-2BF608979F81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:AH20">
+    <cfRule type="dataBar" priority="457">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4589,8 +8167,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:R22 H24:R25">
-    <cfRule type="dataBar" priority="412">
+  <conditionalFormatting sqref="H22:AH22 H24:AH25">
+    <cfRule type="dataBar" priority="458">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4603,8 +8181,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:R32">
-    <cfRule type="dataBar" priority="409">
+  <conditionalFormatting sqref="H27:AH32">
+    <cfRule type="dataBar" priority="460">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4617,8 +8195,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:R37">
-    <cfRule type="dataBar" priority="401">
+  <conditionalFormatting sqref="H34:AH37">
+    <cfRule type="dataBar" priority="461">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4631,8 +8209,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:R48 H51:R51 H67:R67">
-    <cfRule type="dataBar" priority="424">
+  <conditionalFormatting sqref="H38:AH39">
+    <cfRule type="dataBar" priority="462">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:AH41 H43:AH46">
+    <cfRule type="dataBar" priority="463">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:AH48 H51:AH51 H67:AH67">
+    <cfRule type="dataBar" priority="465">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4645,97 +8251,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:R70">
-    <cfRule type="dataBar" priority="430">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E177B73-5E16-40E4-A603-861BA18F14AA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:R42 F41 F43:F46">
-    <cfRule type="dataBar" priority="431">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF147DFE-A319-4694-82C7-891FF6043D5B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:G46 G41">
-    <cfRule type="dataBar" priority="439">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8221E45B-E79D-49CA-8786-7BDF441C575C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:R41 H43:R46">
-    <cfRule type="dataBar" priority="443">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A642850-F1AC-4A64-AB4F-37A40B9CA441}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49:R49">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="H49:AH49">
+    <cfRule type="dataBar" priority="468">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4748,8 +8265,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F39">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H70:AH70">
+    <cfRule type="dataBar" priority="469">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4757,35 +8274,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D602E0EC-8368-4F0B-8C33-192409A1D82C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G39">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18AF2DD8-6640-4119-B4E6-8CC0AB6FEEE7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:R39">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}</x14:id>
+          <x14:id>{9E177B73-5E16-40E4-A603-861BA18F14AA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4818,7 +8307,7 @@
           <xm:sqref>F34:F37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
+          <x14:cfRule type="dataBar" id="{D602E0EC-8368-4F0B-8C33-192409A1D82C}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4826,7 +8315,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F48 F51 F67 F52:R63 F65:R65</xm:sqref>
+          <xm:sqref>F38:F39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
@@ -4838,28 +8338,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>F6:G20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33F6A3E8-F39F-4486-821E-EFC74CA33142}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F22:G22 F24:G25 F23:R23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F69:R69 F70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D4E863B-7ADB-4930-88E8-B15E0F7C56D2}">
@@ -4884,6 +8362,28 @@
           <xm:sqref>G34:G37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{18AF2DD8-6640-4119-B4E6-8CC0AB6FEEE7}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G38:G39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8221E45B-E79D-49CA-8786-7BDF441C575C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G43:G46 G41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D753DFF-0685-48F3-BDEF-449EB335D13E}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -4893,6 +8393,17 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>G48 G51 G67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
@@ -4906,6 +8417,50 @@
           <xm:sqref>G70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F48 F51 F67 F52:AH63 F65:AH65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{33F6A3E8-F39F-4486-821E-EFC74CA33142}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F22:G22 F24:G25 F23:AH23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F43:F46 F41 F42:AH42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F69:AH69 F70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -4914,7 +8469,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:R20</xm:sqref>
+          <xm:sqref>H6:AH20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BCD1C124-A451-49AA-9093-315C4E8AB1D8}">
@@ -4925,7 +8480,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22:R22 H24:R25</xm:sqref>
+          <xm:sqref>H22:AH22 H24:AH25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}">
@@ -4936,7 +8491,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H27:R32</xm:sqref>
+          <xm:sqref>H27:AH32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{39544BDF-3167-4345-B25E-E17EB47629D9}">
@@ -4947,7 +8502,29 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34:R37</xm:sqref>
+          <xm:sqref>H34:AH37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38:AH39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H41:AH41 H43:AH46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
@@ -4958,7 +8535,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48:R48 H51:R51 H67:R67</xm:sqref>
+          <xm:sqref>H48:AH48 H51:AH51 H67:AH67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H49:AH49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
@@ -4969,106 +8557,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H70:R70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F42:R42 F41 F43:F46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8221E45B-E79D-49CA-8786-7BDF441C575C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G43:G46 G41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H41:R41 H43:R46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H49:R49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D602E0EC-8368-4F0B-8C33-192409A1D82C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F38:F39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18AF2DD8-6640-4119-B4E6-8CC0AB6FEEE7}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G38:G39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H38:R39</xm:sqref>
+          <xm:sqref>H70:AH70</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\팀프로젝트1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KoreaIT\organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C64E1D-7786-4832-946A-067F9247BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A05D04-5679-4F1A-A064-49F2D9C0713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -299,6 +299,14 @@
     <t>모집 공고 상세</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>나의 후기목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -308,7 +316,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +358,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -461,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,6 +507,15 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,15 +534,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,6 +541,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AH73"/>
+  <dimension ref="B2:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:R3" si="0">AVERAGE(F21,F26,F33,F40,F47,F50,F64,F66,F68,F71)</f>
+        <f t="shared" ref="F3:R3" si="0">AVERAGE(F21,F26,F33,F42,F50,F53,F67,F69,F71,F74)</f>
         <v>0</v>
       </c>
       <c r="G3" s="6">
@@ -1101,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" ref="S3:AH3" si="1">AVERAGE(S21,S26,S33,S40,S47,S50,S64,S66,S68,S71)</f>
+        <f t="shared" ref="S3:AH3" si="1">AVERAGE(S21,S26,S33,S42,S50,S53,S67,S69,S71,S74)</f>
         <v>0</v>
       </c>
       <c r="T3" s="6">
@@ -1263,10 +1281,10 @@
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1362,8 +1380,8 @@
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="7" t="s">
         <v>54</v>
       </c>
@@ -1457,8 +1475,8 @@
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1552,8 +1570,8 @@
       </c>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1647,8 +1665,8 @@
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1742,8 +1760,8 @@
       </c>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1837,8 +1855,8 @@
       </c>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1932,8 +1950,8 @@
       </c>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -2027,8 +2045,8 @@
       </c>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2122,8 +2140,8 @@
       </c>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2217,8 +2235,8 @@
       </c>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2312,8 +2330,8 @@
       </c>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2407,8 +2425,8 @@
       </c>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2502,8 +2520,8 @@
       </c>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2597,8 +2615,8 @@
       </c>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
@@ -2692,8 +2710,8 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
@@ -2817,7 +2835,7 @@
       <c r="B22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2914,7 +2932,7 @@
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" s="20"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
@@ -3009,7 +3027,7 @@
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" s="20"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3104,7 +3122,7 @@
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" s="20"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
@@ -3199,7 +3217,7 @@
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B26" s="21"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6">
@@ -3320,10 +3338,10 @@
       </c>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -3419,8 +3437,8 @@
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
@@ -3514,8 +3532,8 @@
       </c>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="7" t="s">
         <v>20</v>
       </c>
@@ -3609,8 +3627,8 @@
       </c>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="7" t="s">
         <v>21</v>
       </c>
@@ -3704,8 +3722,8 @@
       </c>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
@@ -3799,8 +3817,8 @@
       </c>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="7" t="s">
         <v>23</v>
       </c>
@@ -3894,8 +3912,8 @@
       </c>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6">
@@ -4016,10 +4034,10 @@
       </c>
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -4115,8 +4133,8 @@
       </c>
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="7" t="s">
         <v>58</v>
       </c>
@@ -4210,8 +4228,8 @@
       </c>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="7" t="s">
         <v>64</v>
       </c>
@@ -4305,8 +4323,8 @@
       </c>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="7" t="s">
         <v>59</v>
       </c>
@@ -4400,9 +4418,9 @@
       </c>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="7" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="22" t="s">
         <v>60</v>
       </c>
       <c r="E38" s="7"/>
@@ -4495,9 +4513,9 @@
       </c>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="7" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E39" s="7"/>
@@ -4590,136 +4608,105 @@
       </c>
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="6">
-        <f>AVERAGE(F34:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" ref="G40:AH40" si="8">AVERAGE(G34:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="6">
-        <f t="shared" si="8"/>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+      <c r="R40" s="9">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0</v>
+      </c>
+      <c r="T40" s="9">
+        <v>0</v>
+      </c>
+      <c r="U40" s="9">
+        <v>0</v>
+      </c>
+      <c r="V40" s="9">
+        <v>0</v>
+      </c>
+      <c r="W40" s="9">
+        <v>0</v>
+      </c>
+      <c r="X40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>32</v>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="9">
@@ -4811,105 +4798,136 @@
       </c>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9">
-        <v>0</v>
-      </c>
-      <c r="N42" s="9">
-        <v>0</v>
-      </c>
-      <c r="O42" s="9">
-        <v>0</v>
-      </c>
-      <c r="P42" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="9">
-        <v>0</v>
-      </c>
-      <c r="R42" s="9">
-        <v>0</v>
-      </c>
-      <c r="S42" s="9">
-        <v>0</v>
-      </c>
-      <c r="T42" s="9">
-        <v>0</v>
-      </c>
-      <c r="U42" s="9">
-        <v>0</v>
-      </c>
-      <c r="V42" s="9">
-        <v>0</v>
-      </c>
-      <c r="W42" s="9">
-        <v>0</v>
-      </c>
-      <c r="X42" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="9">
+      <c r="F42" s="6">
+        <f>AVERAGE(F34:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" ref="G42:AH42" si="8">AVERAGE(G34:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="D43" s="7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="9">
@@ -5001,10 +5019,10 @@
       </c>
     </row>
     <row r="44" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -5096,10 +5114,10 @@
       </c>
     </row>
     <row r="45" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
@@ -5191,10 +5209,10 @@
       </c>
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B46" s="11"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="9">
@@ -5286,136 +5304,105 @@
       </c>
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E47" s="7"/>
-      <c r="F47" s="6">
-        <f t="shared" ref="F47:R47" si="9">AVERAGE(F41:F46)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="6">
-        <f t="shared" ref="S47" si="10">AVERAGE(S41:S46)</f>
-        <v>0</v>
-      </c>
-      <c r="T47" s="6">
-        <f t="shared" ref="T47" si="11">AVERAGE(T41:T46)</f>
-        <v>0</v>
-      </c>
-      <c r="U47" s="6">
-        <f t="shared" ref="U47" si="12">AVERAGE(U41:U46)</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="6">
-        <f t="shared" ref="V47" si="13">AVERAGE(V41:V46)</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="6">
-        <f t="shared" ref="W47" si="14">AVERAGE(W41:W46)</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="6">
-        <f t="shared" ref="X47" si="15">AVERAGE(X41:X46)</f>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="6">
-        <f t="shared" ref="Y47" si="16">AVERAGE(Y41:Y46)</f>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="6">
-        <f t="shared" ref="Z47" si="17">AVERAGE(Z41:Z46)</f>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="6">
-        <f t="shared" ref="AA47" si="18">AVERAGE(AA41:AA46)</f>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="6">
-        <f t="shared" ref="AB47" si="19">AVERAGE(AB41:AB46)</f>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="6">
-        <f t="shared" ref="AC47" si="20">AVERAGE(AC41:AC46)</f>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="6">
-        <f t="shared" ref="AD47" si="21">AVERAGE(AD41:AD46)</f>
-        <v>0</v>
-      </c>
-      <c r="AE47" s="6">
-        <f t="shared" ref="AE47" si="22">AVERAGE(AE41:AE46)</f>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="6">
-        <f t="shared" ref="AF47" si="23">AVERAGE(AF41:AF46)</f>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="6">
-        <f t="shared" ref="AG47" si="24">AVERAGE(AG41:AG46)</f>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="6">
-        <f t="shared" ref="AH47" si="25">AVERAGE(AH41:AH46)</f>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9">
+        <v>0</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>0</v>
+      </c>
+      <c r="R47" s="9">
+        <v>0</v>
+      </c>
+      <c r="S47" s="9">
+        <v>0</v>
+      </c>
+      <c r="T47" s="9">
+        <v>0</v>
+      </c>
+      <c r="U47" s="9">
+        <v>0</v>
+      </c>
+      <c r="V47" s="9">
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>34</v>
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="9">
@@ -5507,10 +5494,10 @@
       </c>
     </row>
     <row r="49" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B49" s="11"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="7" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="9">
@@ -5602,136 +5589,136 @@
       </c>
     </row>
     <row r="50" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6">
-        <f>AVERAGE(F48:F49)</f>
+        <f t="shared" ref="F50:R50" si="9">AVERAGE(F43:F48)</f>
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" ref="G50:AH50" si="26">AVERAGE(G48:G49)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="S50" si="10">AVERAGE(S43:S48)</f>
         <v>0</v>
       </c>
       <c r="T50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="T50" si="11">AVERAGE(T43:T48)</f>
         <v>0</v>
       </c>
       <c r="U50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="U50" si="12">AVERAGE(U43:U48)</f>
         <v>0</v>
       </c>
       <c r="V50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="V50" si="13">AVERAGE(V43:V48)</f>
         <v>0</v>
       </c>
       <c r="W50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="W50" si="14">AVERAGE(W43:W48)</f>
         <v>0</v>
       </c>
       <c r="X50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="X50" si="15">AVERAGE(X43:X48)</f>
         <v>0</v>
       </c>
       <c r="Y50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="Y50" si="16">AVERAGE(Y43:Y48)</f>
         <v>0</v>
       </c>
       <c r="Z50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="Z50" si="17">AVERAGE(Z43:Z48)</f>
         <v>0</v>
       </c>
       <c r="AA50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AA50" si="18">AVERAGE(AA43:AA48)</f>
         <v>0</v>
       </c>
       <c r="AB50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AB50" si="19">AVERAGE(AB43:AB48)</f>
         <v>0</v>
       </c>
       <c r="AC50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AC50" si="20">AVERAGE(AC43:AC48)</f>
         <v>0</v>
       </c>
       <c r="AD50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AD50" si="21">AVERAGE(AD43:AD48)</f>
         <v>0</v>
       </c>
       <c r="AE50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AE50" si="22">AVERAGE(AE43:AE48)</f>
         <v>0</v>
       </c>
       <c r="AF50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AF50" si="23">AVERAGE(AF43:AF48)</f>
         <v>0</v>
       </c>
       <c r="AG50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AG50" si="24">AVERAGE(AG43:AG48)</f>
         <v>0</v>
       </c>
       <c r="AH50" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AH50" si="25">AVERAGE(AH43:AH48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B51" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>36</v>
+      <c r="B51" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="9">
@@ -5823,10 +5810,10 @@
       </c>
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B52" s="11"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="9">
@@ -5918,105 +5905,136 @@
       </c>
     </row>
     <row r="53" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B53" s="11"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="9">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0</v>
-      </c>
-      <c r="J53" s="9">
-        <v>0</v>
-      </c>
-      <c r="K53" s="9">
-        <v>0</v>
-      </c>
-      <c r="L53" s="9">
-        <v>0</v>
-      </c>
-      <c r="M53" s="9">
-        <v>0</v>
-      </c>
-      <c r="N53" s="9">
-        <v>0</v>
-      </c>
-      <c r="O53" s="9">
-        <v>0</v>
-      </c>
-      <c r="P53" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="9">
-        <v>0</v>
-      </c>
-      <c r="R53" s="9">
-        <v>0</v>
-      </c>
-      <c r="S53" s="9">
-        <v>0</v>
-      </c>
-      <c r="T53" s="9">
-        <v>0</v>
-      </c>
-      <c r="U53" s="9">
-        <v>0</v>
-      </c>
-      <c r="V53" s="9">
-        <v>0</v>
-      </c>
-      <c r="W53" s="9">
-        <v>0</v>
-      </c>
-      <c r="X53" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="9">
+      <c r="F53" s="6">
+        <f>AVERAGE(F51:F52)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" ref="G53:AH53" si="26">AVERAGE(G51:G52)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="6">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B54" s="11"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="D54" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="9">
@@ -6108,10 +6126,10 @@
       </c>
     </row>
     <row r="55" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B55" s="11"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="9">
@@ -6203,10 +6221,10 @@
       </c>
     </row>
     <row r="56" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B56" s="11"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9">
@@ -6298,10 +6316,10 @@
       </c>
     </row>
     <row r="57" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B57" s="11"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="9">
@@ -6393,10 +6411,10 @@
       </c>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B58" s="11"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="9">
@@ -6488,10 +6506,10 @@
       </c>
     </row>
     <row r="59" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B59" s="11"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="7" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="9">
@@ -6583,10 +6601,10 @@
       </c>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B60" s="11"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="9">
@@ -6678,10 +6696,10 @@
       </c>
     </row>
     <row r="61" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B61" s="11"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="7" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="9">
@@ -6773,10 +6791,10 @@
       </c>
     </row>
     <row r="62" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B62" s="11"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="9">
@@ -6868,10 +6886,10 @@
       </c>
     </row>
     <row r="63" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B63" s="11"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="9">
@@ -6963,136 +6981,105 @@
       </c>
     </row>
     <row r="64" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="7"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E64" s="7"/>
-      <c r="F64" s="6">
-        <f>AVERAGE(F51:F63)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="6">
-        <f t="shared" ref="G64:R64" si="27">AVERAGE(G51:G63)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S64" s="6">
-        <f t="shared" ref="S64:AH64" si="28">AVERAGE(S51:S63)</f>
-        <v>0</v>
-      </c>
-      <c r="T64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="V64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="X64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Z64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AA64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AB64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AC64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AE64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG64" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AH64" s="6">
-        <f t="shared" si="28"/>
+      <c r="F64" s="9">
+        <v>0</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9">
+        <v>0</v>
+      </c>
+      <c r="J64" s="9">
+        <v>0</v>
+      </c>
+      <c r="K64" s="9">
+        <v>0</v>
+      </c>
+      <c r="L64" s="9">
+        <v>0</v>
+      </c>
+      <c r="M64" s="9">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9">
+        <v>0</v>
+      </c>
+      <c r="O64" s="9">
+        <v>0</v>
+      </c>
+      <c r="P64" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>0</v>
+      </c>
+      <c r="R64" s="9">
+        <v>0</v>
+      </c>
+      <c r="S64" s="9">
+        <v>0</v>
+      </c>
+      <c r="T64" s="9">
+        <v>0</v>
+      </c>
+      <c r="U64" s="9">
+        <v>0</v>
+      </c>
+      <c r="V64" s="9">
+        <v>0</v>
+      </c>
+      <c r="W64" s="9">
+        <v>0</v>
+      </c>
+      <c r="X64" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>46</v>
-      </c>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="9">
@@ -7184,452 +7171,452 @@
       </c>
     </row>
     <row r="66" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B66" s="12"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="17"/>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="6">
-        <f>AVERAGE(F65)</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="6">
-        <f t="shared" ref="G66" si="29">AVERAGE(G62:G65)</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="6">
-        <f t="shared" ref="H66" si="30">AVERAGE(H62:H65)</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="6">
-        <f t="shared" ref="I66" si="31">AVERAGE(I62:I65)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
-        <f t="shared" ref="J66" si="32">AVERAGE(J62:J65)</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="6">
-        <f t="shared" ref="K66" si="33">AVERAGE(K62:K65)</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="6">
-        <f t="shared" ref="L66" si="34">AVERAGE(L62:L65)</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="6">
-        <f t="shared" ref="M66" si="35">AVERAGE(M62:M65)</f>
-        <v>0</v>
-      </c>
-      <c r="N66" s="6">
-        <f t="shared" ref="N66" si="36">AVERAGE(N62:N65)</f>
-        <v>0</v>
-      </c>
-      <c r="O66" s="6">
-        <f t="shared" ref="O66" si="37">AVERAGE(O62:O65)</f>
-        <v>0</v>
-      </c>
-      <c r="P66" s="6">
-        <f t="shared" ref="P66" si="38">AVERAGE(P62:P65)</f>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="6">
-        <f t="shared" ref="Q66" si="39">AVERAGE(Q62:Q65)</f>
-        <v>0</v>
-      </c>
-      <c r="R66" s="6">
-        <f t="shared" ref="R66:AH66" si="40">AVERAGE(R62:R65)</f>
-        <v>0</v>
-      </c>
-      <c r="S66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Z66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AC66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AD66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AE66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AF66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AG66" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AH66" s="6">
-        <f t="shared" si="40"/>
+      <c r="F66" s="9">
+        <v>0</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0</v>
+      </c>
+      <c r="K66" s="9">
+        <v>0</v>
+      </c>
+      <c r="L66" s="9">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9">
+        <v>0</v>
+      </c>
+      <c r="O66" s="9">
+        <v>0</v>
+      </c>
+      <c r="P66" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>0</v>
+      </c>
+      <c r="R66" s="9">
+        <v>0</v>
+      </c>
+      <c r="S66" s="9">
+        <v>0</v>
+      </c>
+      <c r="T66" s="9">
+        <v>0</v>
+      </c>
+      <c r="U66" s="9">
+        <v>0</v>
+      </c>
+      <c r="V66" s="9">
+        <v>0</v>
+      </c>
+      <c r="W66" s="9">
+        <v>0</v>
+      </c>
+      <c r="X66" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6">
+        <f>AVERAGE(F54:F66)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" ref="G67:R67" si="27">AVERAGE(G54:G66)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="6">
+        <f t="shared" ref="S67:AH67" si="28">AVERAGE(S54:S66)</f>
+        <v>0</v>
+      </c>
+      <c r="T67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AC67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AH67" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="9">
-        <v>0</v>
-      </c>
-      <c r="G67" s="9">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9">
-        <v>0</v>
-      </c>
-      <c r="I67" s="9">
-        <v>0</v>
-      </c>
-      <c r="J67" s="9">
-        <v>0</v>
-      </c>
-      <c r="K67" s="9">
-        <v>0</v>
-      </c>
-      <c r="L67" s="9">
-        <v>0</v>
-      </c>
-      <c r="M67" s="9">
-        <v>0</v>
-      </c>
-      <c r="N67" s="9">
-        <v>0</v>
-      </c>
-      <c r="O67" s="9">
-        <v>0</v>
-      </c>
-      <c r="P67" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="9">
-        <v>0</v>
-      </c>
-      <c r="R67" s="9">
-        <v>0</v>
-      </c>
-      <c r="S67" s="9">
-        <v>0</v>
-      </c>
-      <c r="T67" s="9">
-        <v>0</v>
-      </c>
-      <c r="U67" s="9">
-        <v>0</v>
-      </c>
-      <c r="V67" s="9">
-        <v>0</v>
-      </c>
-      <c r="W67" s="9">
-        <v>0</v>
-      </c>
-      <c r="X67" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH67" s="9">
+      <c r="C68" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="9">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0</v>
+      </c>
+      <c r="I68" s="9">
+        <v>0</v>
+      </c>
+      <c r="J68" s="9">
+        <v>0</v>
+      </c>
+      <c r="K68" s="9">
+        <v>0</v>
+      </c>
+      <c r="L68" s="9">
+        <v>0</v>
+      </c>
+      <c r="M68" s="9">
+        <v>0</v>
+      </c>
+      <c r="N68" s="9">
+        <v>0</v>
+      </c>
+      <c r="O68" s="9">
+        <v>0</v>
+      </c>
+      <c r="P68" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="9">
+        <v>0</v>
+      </c>
+      <c r="R68" s="9">
+        <v>0</v>
+      </c>
+      <c r="S68" s="9">
+        <v>0</v>
+      </c>
+      <c r="T68" s="9">
+        <v>0</v>
+      </c>
+      <c r="U68" s="9">
+        <v>0</v>
+      </c>
+      <c r="V68" s="9">
+        <v>0</v>
+      </c>
+      <c r="W68" s="9">
+        <v>0</v>
+      </c>
+      <c r="X68" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="6">
-        <f>AVERAGE(F67)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="6">
-        <f t="shared" ref="G68:R68" si="41">AVERAGE(G67)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="R68" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="S68" s="6">
-        <f t="shared" ref="S68:AH68" si="42">AVERAGE(S67)</f>
-        <v>0</v>
-      </c>
-      <c r="T68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="X68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Y68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Z68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AA68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AB68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AC68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AD68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AE68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AF68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AH68" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>48</v>
-      </c>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B69" s="15"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="9">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9">
-        <v>0</v>
-      </c>
-      <c r="H69" s="9">
-        <v>0</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0</v>
-      </c>
-      <c r="J69" s="9">
-        <v>0</v>
-      </c>
-      <c r="K69" s="9">
-        <v>0</v>
-      </c>
-      <c r="L69" s="9">
-        <v>0</v>
-      </c>
-      <c r="M69" s="9">
-        <v>0</v>
-      </c>
-      <c r="N69" s="9">
-        <v>0</v>
-      </c>
-      <c r="O69" s="9">
-        <v>0</v>
-      </c>
-      <c r="P69" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="9">
-        <v>0</v>
-      </c>
-      <c r="R69" s="9">
-        <v>0</v>
-      </c>
-      <c r="S69" s="9">
-        <v>0</v>
-      </c>
-      <c r="T69" s="9">
-        <v>0</v>
-      </c>
-      <c r="U69" s="9">
-        <v>0</v>
-      </c>
-      <c r="V69" s="9">
-        <v>0</v>
-      </c>
-      <c r="W69" s="9">
-        <v>0</v>
-      </c>
-      <c r="X69" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="9">
+      <c r="F69" s="6">
+        <f>AVERAGE(F68)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" ref="G69" si="29">AVERAGE(G65:G68)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <f t="shared" ref="H69" si="30">AVERAGE(H65:H68)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" ref="I69" si="31">AVERAGE(I65:I68)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <f t="shared" ref="J69" si="32">AVERAGE(J65:J68)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <f t="shared" ref="K69" si="33">AVERAGE(K65:K68)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="6">
+        <f t="shared" ref="L69" si="34">AVERAGE(L65:L68)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <f t="shared" ref="M69" si="35">AVERAGE(M65:M68)</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="6">
+        <f t="shared" ref="N69" si="36">AVERAGE(N65:N68)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
+        <f t="shared" ref="O69" si="37">AVERAGE(O65:O68)</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="6">
+        <f t="shared" ref="P69" si="38">AVERAGE(P65:P68)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="6">
+        <f t="shared" ref="Q69" si="39">AVERAGE(Q65:Q68)</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="6">
+        <f t="shared" ref="R69:AH69" si="40">AVERAGE(R65:R68)</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AD69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AH69" s="6">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B70" s="11"/>
-      <c r="C70" s="14"/>
+      <c r="B70" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="D70" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="9">
@@ -7721,160 +7708,476 @@
       </c>
     </row>
     <row r="71" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B71" s="12"/>
-      <c r="C71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="6">
-        <f t="shared" ref="F71:R71" si="43">AVERAGE(F69:F70)</f>
+        <f>AVERAGE(F70)</f>
         <v>0</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="G71:R71" si="41">AVERAGE(G70)</f>
         <v>0</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S71" s="6">
-        <f t="shared" ref="S71:AH71" si="44">AVERAGE(S69:S70)</f>
+        <f t="shared" ref="S71:AH71" si="42">AVERAGE(S70)</f>
         <v>0</v>
       </c>
       <c r="T71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="W71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Y71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AC71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AF71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AG71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AH71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="E72" s="8"/>
-      <c r="F72" s="4"/>
+    <row r="72" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="9">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9">
+        <v>0</v>
+      </c>
+      <c r="J72" s="9">
+        <v>0</v>
+      </c>
+      <c r="K72" s="9">
+        <v>0</v>
+      </c>
+      <c r="L72" s="9">
+        <v>0</v>
+      </c>
+      <c r="M72" s="9">
+        <v>0</v>
+      </c>
+      <c r="N72" s="9">
+        <v>0</v>
+      </c>
+      <c r="O72" s="9">
+        <v>0</v>
+      </c>
+      <c r="P72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="9">
+        <v>0</v>
+      </c>
+      <c r="R72" s="9">
+        <v>0</v>
+      </c>
+      <c r="S72" s="9">
+        <v>0</v>
+      </c>
+      <c r="T72" s="9">
+        <v>0</v>
+      </c>
+      <c r="U72" s="9">
+        <v>0</v>
+      </c>
+      <c r="V72" s="9">
+        <v>0</v>
+      </c>
+      <c r="W72" s="9">
+        <v>0</v>
+      </c>
+      <c r="X72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="E73" s="8"/>
-      <c r="F73" s="4"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <v>0</v>
+      </c>
+      <c r="J73" s="9">
+        <v>0</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9">
+        <v>0</v>
+      </c>
+      <c r="N73" s="9">
+        <v>0</v>
+      </c>
+      <c r="O73" s="9">
+        <v>0</v>
+      </c>
+      <c r="P73" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="9">
+        <v>0</v>
+      </c>
+      <c r="R73" s="9">
+        <v>0</v>
+      </c>
+      <c r="S73" s="9">
+        <v>0</v>
+      </c>
+      <c r="T73" s="9">
+        <v>0</v>
+      </c>
+      <c r="U73" s="9">
+        <v>0</v>
+      </c>
+      <c r="V73" s="9">
+        <v>0</v>
+      </c>
+      <c r="W73" s="9">
+        <v>0</v>
+      </c>
+      <c r="X73" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B74" s="15"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6">
+        <f t="shared" ref="F74:R74" si="43">AVERAGE(F72:F73)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="6">
+        <f t="shared" ref="S74:AH74" si="44">AVERAGE(S72:S73)</f>
+        <v>0</v>
+      </c>
+      <c r="T74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AD74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AH74" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="E75" s="8"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="E76" s="8"/>
+      <c r="F76" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C54:C67"/>
+    <mergeCell ref="B54:B67"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
     <mergeCell ref="C6:C21"/>
     <mergeCell ref="B6:B21"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="C34:C42"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C51:C64"/>
-    <mergeCell ref="B51:B64"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B72">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -7889,7 +8192,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:D41 D41:D46">
+  <conditionalFormatting sqref="B43:D43 D43:D49">
     <cfRule type="cellIs" dxfId="7" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -7904,22 +8207,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21 E22:E25 B51 B65">
+  <conditionalFormatting sqref="D21 E22:E25 B54 B68">
     <cfRule type="cellIs" dxfId="4" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D39">
+  <conditionalFormatting sqref="D22:D41">
     <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:E48 D50:E50 C51:E51 D52:E64 C65:E65 D66:E71">
+  <conditionalFormatting sqref="D51:E51 D53:E53 C54:E54 D55:E67 C68:E68 D69:E74">
     <cfRule type="cellIs" dxfId="1" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -7957,7 +8260,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F39">
+  <conditionalFormatting sqref="F38:F41">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -7971,7 +8274,35 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F44:AH44 F43 F45:F49">
+    <cfRule type="dataBar" priority="452">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF147DFE-A319-4694-82C7-891FF6043D5B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51 F54 F70 F55:AH66 F68:AH68">
+    <cfRule type="dataBar" priority="444">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{65D6EC0D-952A-420C-9BCF-6E4C561DF568}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -7995,6 +8326,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BE0275C9-A13C-4221-B9B7-203BFE7719CD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:G22 F24:G25 F23:AH23">
+    <cfRule type="dataBar" priority="449">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{33F6A3E8-F39F-4486-821E-EFC74CA33142}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:AH72 F73">
+    <cfRule type="dataBar" priority="455">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1CEE6841-AF6F-4430-AD73-2BF608979F81}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8027,7 +8386,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G39">
+  <conditionalFormatting sqref="G38:G41">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -8041,7 +8400,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:G46 G41">
+  <conditionalFormatting sqref="G45:G49 G43">
     <cfRule type="dataBar" priority="439">
       <dataBar>
         <cfvo type="min"/>
@@ -8055,7 +8414,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48 G51 G67">
+  <conditionalFormatting sqref="G51 G54 G70">
     <cfRule type="dataBar" priority="421">
       <dataBar>
         <cfvo type="min"/>
@@ -8069,7 +8428,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G52">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -8083,7 +8442,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
+  <conditionalFormatting sqref="G73">
     <cfRule type="dataBar" priority="429">
       <dataBar>
         <cfvo type="min"/>
@@ -8093,62 +8452,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{6182F17D-C40E-44F1-A805-62C9A04B4BC8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48 F51 F67 F52:AH63 F65:AH65">
-    <cfRule type="dataBar" priority="444">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65D6EC0D-952A-420C-9BCF-6E4C561DF568}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G22 F24:G25 F23:AH23">
-    <cfRule type="dataBar" priority="449">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33F6A3E8-F39F-4486-821E-EFC74CA33142}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F46 F41 F42:AH42">
-    <cfRule type="dataBar" priority="452">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF147DFE-A319-4694-82C7-891FF6043D5B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69:AH69 F70">
-    <cfRule type="dataBar" priority="455">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1CEE6841-AF6F-4430-AD73-2BF608979F81}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8209,7 +8512,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:AH39">
+  <conditionalFormatting sqref="H38:AH41">
     <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
@@ -8223,7 +8526,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:AH41 H43:AH46">
+  <conditionalFormatting sqref="H43:AH43 H45:AH49">
     <cfRule type="dataBar" priority="463">
       <dataBar>
         <cfvo type="min"/>
@@ -8237,7 +8540,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:AH48 H51:AH51 H67:AH67">
+  <conditionalFormatting sqref="H51:AH51 H54:AH54 H70:AH70">
     <cfRule type="dataBar" priority="465">
       <dataBar>
         <cfvo type="min"/>
@@ -8251,7 +8554,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49:AH49">
+  <conditionalFormatting sqref="H52:AH52">
     <cfRule type="dataBar" priority="468">
       <dataBar>
         <cfvo type="min"/>
@@ -8265,7 +8568,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:AH70">
+  <conditionalFormatting sqref="H73:AH73">
     <cfRule type="dataBar" priority="469">
       <dataBar>
         <cfvo type="min"/>
@@ -8315,7 +8618,29 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F38:F39</xm:sqref>
+          <xm:sqref>F38:F41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F44:AH44 F43 F45:F49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F51 F54 F70 F55:AH66 F68:AH68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
@@ -8326,7 +8651,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F49</xm:sqref>
+          <xm:sqref>F52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
@@ -8338,6 +8663,28 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>F6:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{33F6A3E8-F39F-4486-821E-EFC74CA33142}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F22:G22 F24:G25 F23:AH23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F72:AH72 F73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D4E863B-7ADB-4930-88E8-B15E0F7C56D2}">
@@ -8370,7 +8717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G38:G39</xm:sqref>
+          <xm:sqref>G38:G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8221E45B-E79D-49CA-8786-7BDF441C575C}">
@@ -8381,7 +8728,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G43:G46 G41</xm:sqref>
+          <xm:sqref>G45:G49 G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D753DFF-0685-48F3-BDEF-449EB335D13E}">
@@ -8392,7 +8739,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G48 G51 G67</xm:sqref>
+          <xm:sqref>G51 G54 G70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
@@ -8403,7 +8750,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G49</xm:sqref>
+          <xm:sqref>G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
@@ -8414,51 +8761,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F48 F51 F67 F52:AH63 F65:AH65</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33F6A3E8-F39F-4486-821E-EFC74CA33142}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F22:G22 F24:G25 F23:AH23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F43:F46 F41 F42:AH42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F69:AH69 F70</xm:sqref>
+          <xm:sqref>G73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
@@ -8513,7 +8816,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38:AH39</xm:sqref>
+          <xm:sqref>H38:AH41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
@@ -8524,7 +8827,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41:AH41 H43:AH46</xm:sqref>
+          <xm:sqref>H43:AH43 H45:AH49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
@@ -8535,7 +8838,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48:AH48 H51:AH51 H67:AH67</xm:sqref>
+          <xm:sqref>H51:AH51 H54:AH54 H70:AH70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
@@ -8546,7 +8849,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H49:AH49</xm:sqref>
+          <xm:sqref>H52:AH52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
@@ -8557,7 +8860,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H70:AH70</xm:sqref>
+          <xm:sqref>H73:AH73</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KoreaIT\organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A05D04-5679-4F1A-A064-49F2D9C0713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B753F-D51E-48A7-8496-8E820E9F22FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,14 +164,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>추천 코스 상세</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>모집 공고 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>봉사 코스 상세</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -260,14 +252,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>모집 공고 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 모집공고 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>피드 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -296,15 +280,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>모집 공고 상세</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>나의 후기목록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>후기 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 계획목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획 상세</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천코스 상세</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +316,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,7 +364,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -507,15 +506,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,6 +523,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -952,10 +951,10 @@
   <dimension ref="B2:AH76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
@@ -972,7 +971,7 @@
     <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:34">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45688</v>
@@ -1062,7 +1061,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1079,7 @@
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
@@ -1183,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:34" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1280,15 +1279,15 @@
         <v>45710</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:34">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -1379,11 +1378,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
+    <row r="7" spans="2:34">
+      <c r="B7" s="11"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -1474,9 +1473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
+    <row r="8" spans="2:34">
+      <c r="B8" s="11"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1569,9 +1568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
+    <row r="9" spans="2:34">
+      <c r="B9" s="11"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1664,9 +1663,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
+    <row r="10" spans="2:34">
+      <c r="B10" s="11"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1759,9 +1758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
+    <row r="11" spans="2:34">
+      <c r="B11" s="11"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1854,9 +1853,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="11"/>
+    <row r="12" spans="2:34">
+      <c r="B12" s="11"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1949,9 +1948,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
+    <row r="13" spans="2:34">
+      <c r="B13" s="11"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -2044,9 +2043,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
+    <row r="14" spans="2:34">
+      <c r="B14" s="11"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2139,9 +2138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
+    <row r="15" spans="2:34">
+      <c r="B15" s="11"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2234,9 +2233,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="11"/>
+    <row r="16" spans="2:34">
+      <c r="B16" s="11"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2329,9 +2328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
+    <row r="17" spans="2:34">
+      <c r="B17" s="11"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2424,9 +2423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="11"/>
+    <row r="18" spans="2:34">
+      <c r="B18" s="11"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2519,9 +2518,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="11"/>
+    <row r="19" spans="2:34">
+      <c r="B19" s="11"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2614,9 +2613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="11"/>
+    <row r="20" spans="2:34">
+      <c r="B20" s="11"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
@@ -2709,9 +2708,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="12"/>
+    <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1">
+      <c r="B21" s="12"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
@@ -2831,11 +2830,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:34">
       <c r="B22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2930,9 +2929,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:34">
       <c r="B23" s="20"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
@@ -3025,9 +3024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:34">
       <c r="B24" s="20"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3120,9 +3119,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:34">
       <c r="B25" s="20"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
@@ -3215,9 +3214,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34">
       <c r="B26" s="21"/>
-      <c r="C26" s="18"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6">
@@ -3337,12 +3336,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="2:34">
+      <c r="B27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>51</v>
+      <c r="C27" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>19</v>
@@ -3436,9 +3435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="11"/>
+    <row r="28" spans="2:34">
+      <c r="B28" s="11"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
@@ -3531,9 +3530,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-      <c r="C29" s="11"/>
+    <row r="29" spans="2:34">
+      <c r="B29" s="11"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="7" t="s">
         <v>20</v>
       </c>
@@ -3626,9 +3625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="11"/>
+    <row r="30" spans="2:34">
+      <c r="B30" s="11"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="7" t="s">
         <v>21</v>
       </c>
@@ -3721,9 +3720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="11"/>
+    <row r="31" spans="2:34">
+      <c r="B31" s="11"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
@@ -3816,9 +3815,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
-      <c r="C32" s="11"/>
+    <row r="32" spans="2:34">
+      <c r="B32" s="11"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="7" t="s">
         <v>23</v>
       </c>
@@ -3911,9 +3910,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="12"/>
+    <row r="33" spans="2:34">
+      <c r="B33" s="12"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6">
@@ -4033,11 +4032,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="2:34">
+      <c r="B34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -4054,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
@@ -4132,11 +4131,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B35" s="14"/>
-      <c r="C35" s="17"/>
+    <row r="35" spans="2:34">
+      <c r="B35" s="11"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9">
@@ -4149,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -4227,11 +4226,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="17"/>
+    <row r="36" spans="2:34">
+      <c r="B36" s="11"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
@@ -4244,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="9">
         <v>0</v>
@@ -4322,11 +4321,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="17"/>
+    <row r="37" spans="2:34">
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="9">
@@ -4417,11 +4416,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="17"/>
+    <row r="38" spans="2:34">
+      <c r="B38" s="11"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="9">
@@ -4434,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="9">
         <v>0</v>
@@ -4512,11 +4511,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="17"/>
+    <row r="39" spans="2:34">
+      <c r="B39" s="11"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9">
@@ -4529,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="9">
         <v>0</v>
@@ -4607,11 +4606,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="17"/>
+    <row r="40" spans="2:34">
+      <c r="B40" s="11"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="9">
@@ -4702,11 +4701,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="17"/>
+    <row r="41" spans="2:34">
+      <c r="B41" s="11"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="9">
@@ -4797,9 +4796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="18"/>
+    <row r="42" spans="2:34">
+      <c r="B42" s="12"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6">
@@ -4816,7 +4815,7 @@
       </c>
       <c r="I42" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" si="8"/>
@@ -4919,15 +4918,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
+    <row r="43" spans="2:34">
+      <c r="B43" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="9">
@@ -4940,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
@@ -5018,11 +5017,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-      <c r="C44" s="17"/>
+    <row r="44" spans="2:34">
+      <c r="B44" s="11"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="7" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -5035,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J44" s="9">
         <v>0</v>
@@ -5113,9 +5112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
-      <c r="C45" s="17"/>
+    <row r="45" spans="2:34">
+      <c r="B45" s="11"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J45" s="9">
         <v>0</v>
@@ -5208,11 +5207,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
-      <c r="C46" s="17"/>
+    <row r="46" spans="2:34">
+      <c r="B46" s="11"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="9">
@@ -5225,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J46" s="9">
         <v>0</v>
@@ -5303,11 +5302,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B47" s="14"/>
-      <c r="C47" s="17"/>
+    <row r="47" spans="2:34">
+      <c r="B47" s="11"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="22" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="9">
@@ -5320,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="9">
         <v>0</v>
@@ -5398,11 +5397,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B48" s="14"/>
-      <c r="C48" s="17"/>
+    <row r="48" spans="2:34">
+      <c r="B48" s="11"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="22" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="9">
@@ -5415,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="9">
         <v>0</v>
@@ -5493,9 +5492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-      <c r="C49" s="17"/>
+    <row r="49" spans="2:34">
+      <c r="B49" s="11"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="9">
         <v>0</v>
@@ -5588,9 +5587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="2:34">
+      <c r="B50" s="12"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6">
@@ -5607,7 +5606,7 @@
       </c>
       <c r="I50" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.81666666666666676</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="9"/>
@@ -5710,15 +5709,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B51" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>63</v>
+    <row r="51" spans="2:34">
+      <c r="B51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="9">
@@ -5809,11 +5808,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-      <c r="C52" s="17"/>
+    <row r="52" spans="2:34">
+      <c r="B52" s="11"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="9">
@@ -5904,9 +5903,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
-      <c r="C53" s="18"/>
+    <row r="53" spans="2:34">
+      <c r="B53" s="12"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6">
@@ -6026,15 +6025,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B54" s="13" t="s">
+    <row r="54" spans="2:34">
+      <c r="B54" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="9">
@@ -6125,11 +6124,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B55" s="14"/>
-      <c r="C55" s="17"/>
+    <row r="55" spans="2:34">
+      <c r="B55" s="11"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="9">
@@ -6220,11 +6219,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B56" s="14"/>
-      <c r="C56" s="17"/>
+    <row r="56" spans="2:34">
+      <c r="B56" s="11"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9">
@@ -6315,9 +6314,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B57" s="14"/>
-      <c r="C57" s="17"/>
+    <row r="57" spans="2:34">
+      <c r="B57" s="11"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
@@ -6410,9 +6409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B58" s="14"/>
-      <c r="C58" s="17"/>
+    <row r="58" spans="2:34">
+      <c r="B58" s="11"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="7" t="s">
         <v>26</v>
       </c>
@@ -6505,11 +6504,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B59" s="14"/>
-      <c r="C59" s="17"/>
+    <row r="59" spans="2:34">
+      <c r="B59" s="11"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="9">
@@ -6600,11 +6599,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B60" s="14"/>
-      <c r="C60" s="17"/>
+    <row r="60" spans="2:34">
+      <c r="B60" s="11"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="9">
@@ -6695,9 +6694,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B61" s="14"/>
-      <c r="C61" s="17"/>
+    <row r="61" spans="2:34">
+      <c r="B61" s="11"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="7" t="s">
         <v>7</v>
       </c>
@@ -6790,9 +6789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B62" s="14"/>
-      <c r="C62" s="17"/>
+    <row r="62" spans="2:34">
+      <c r="B62" s="11"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
@@ -6885,11 +6884,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B63" s="14"/>
-      <c r="C63" s="17"/>
+    <row r="63" spans="2:34">
+      <c r="B63" s="11"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="9">
@@ -6980,11 +6979,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B64" s="14"/>
-      <c r="C64" s="17"/>
+    <row r="64" spans="2:34">
+      <c r="B64" s="11"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="9">
@@ -7075,11 +7074,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B65" s="14"/>
-      <c r="C65" s="17"/>
+    <row r="65" spans="2:34">
+      <c r="B65" s="11"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="9">
@@ -7170,11 +7169,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B66" s="14"/>
-      <c r="C66" s="17"/>
+    <row r="66" spans="2:34">
+      <c r="B66" s="11"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="9">
@@ -7265,9 +7264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B67" s="15"/>
-      <c r="C67" s="18"/>
+    <row r="67" spans="2:34">
+      <c r="B67" s="12"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="6">
@@ -7387,15 +7386,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>46</v>
+    <row r="68" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B68" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="9">
@@ -7486,9 +7485,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B69" s="15"/>
-      <c r="C69" s="12"/>
+    <row r="69" spans="2:34">
+      <c r="B69" s="12"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="6">
@@ -7608,15 +7607,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B70" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>50</v>
+    <row r="70" spans="2:34">
+      <c r="B70" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="9">
@@ -7707,9 +7706,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B71" s="15"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="2:34">
+      <c r="B71" s="12"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="6">
@@ -7829,15 +7828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>52</v>
+    <row r="72" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B72" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="9">
@@ -7928,11 +7927,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B73" s="14"/>
-      <c r="C73" s="17"/>
+    <row r="73" spans="2:34">
+      <c r="B73" s="11"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="9">
@@ -8023,9 +8022,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B74" s="15"/>
-      <c r="C74" s="18"/>
+    <row r="74" spans="2:34">
+      <c r="B74" s="12"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="6">
@@ -8145,28 +8144,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:34">
       <c r="E75" s="8"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:34">
       <c r="E76" s="8"/>
       <c r="F76" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C54:C67"/>
-    <mergeCell ref="B54:B67"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
     <mergeCell ref="C6:C21"/>
     <mergeCell ref="B6:B21"/>
     <mergeCell ref="B27:B33"/>
@@ -8175,6 +8162,18 @@
     <mergeCell ref="C34:C42"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C54:C67"/>
+    <mergeCell ref="B54:B67"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B69"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B72">
@@ -8274,20 +8273,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:AH44 F43 F45:F49">
-    <cfRule type="dataBar" priority="452">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF147DFE-A319-4694-82C7-891FF6043D5B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F51 F54 F70 F55:AH66 F68:AH68">
     <cfRule type="dataBar" priority="444">
       <dataBar>
@@ -8340,6 +8325,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{33F6A3E8-F39F-4486-821E-EFC74CA33142}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:AH44 F43 F45:F49">
+    <cfRule type="dataBar" priority="452">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF147DFE-A319-4694-82C7-891FF6043D5B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8621,17 +8620,6 @@
           <xm:sqref>F38:F41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F44:AH44 F43 F45:F49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -8674,6 +8662,17 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>F22:G22 F24:G25 F23:AH23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F44:AH44 F43 F45:F49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KoreaIT\organization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B753F-D51E-48A7-8496-8E820E9F22FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E3C175-A07B-4556-BE79-B2D53E4D7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,6 +506,18 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,15 +536,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,9 +543,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1067,19 +1067,19 @@
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:R3" si="0">AVERAGE(F21,F26,F33,F42,F50,F53,F67,F69,F71,F74)</f>
-        <v>0</v>
+        <v>5.8333333333333334E-2</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.21583333333333332</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0.16500000000000001</v>
+        <v>0</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
@@ -1280,10 +1280,10 @@
       </c>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1379,8 +1379,8 @@
       </c>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="11"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
@@ -1474,8 +1474,8 @@
       </c>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="11"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1569,8 +1569,8 @@
       </c>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="11"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1664,8 +1664,8 @@
       </c>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="11"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1759,8 +1759,8 @@
       </c>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="11"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1854,8 +1854,8 @@
       </c>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="11"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1949,8 +1949,8 @@
       </c>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="11"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -2044,8 +2044,8 @@
       </c>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="11"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2139,8 +2139,8 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="11"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2234,8 +2234,8 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="11"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2329,8 +2329,8 @@
       </c>
     </row>
     <row r="17" spans="2:34">
-      <c r="B17" s="11"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2424,8 +2424,8 @@
       </c>
     </row>
     <row r="18" spans="2:34">
-      <c r="B18" s="11"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2519,8 +2519,8 @@
       </c>
     </row>
     <row r="19" spans="2:34">
-      <c r="B19" s="11"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2614,8 +2614,8 @@
       </c>
     </row>
     <row r="20" spans="2:34">
-      <c r="B20" s="11"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
@@ -2709,8 +2709,8 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1">
-      <c r="B21" s="12"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
@@ -2831,10 +2831,10 @@
       </c>
     </row>
     <row r="22" spans="2:34">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2930,8 +2930,8 @@
       </c>
     </row>
     <row r="23" spans="2:34">
-      <c r="B23" s="20"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
@@ -3025,8 +3025,8 @@
       </c>
     </row>
     <row r="24" spans="2:34">
-      <c r="B24" s="20"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3120,8 +3120,8 @@
       </c>
     </row>
     <row r="25" spans="2:34">
-      <c r="B25" s="20"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
@@ -3215,8 +3215,8 @@
       </c>
     </row>
     <row r="26" spans="2:34">
-      <c r="B26" s="21"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6">
@@ -3337,10 +3337,10 @@
       </c>
     </row>
     <row r="27" spans="2:34">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -3348,13 +3348,13 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I27" s="9">
         <v>0</v>
@@ -3436,8 +3436,8 @@
       </c>
     </row>
     <row r="28" spans="2:34">
-      <c r="B28" s="11"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="9">
         <v>0</v>
@@ -3531,8 +3531,8 @@
       </c>
     </row>
     <row r="29" spans="2:34">
-      <c r="B29" s="11"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="7" t="s">
         <v>20</v>
       </c>
@@ -3626,8 +3626,8 @@
       </c>
     </row>
     <row r="30" spans="2:34">
-      <c r="B30" s="11"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="7" t="s">
         <v>21</v>
       </c>
@@ -3721,8 +3721,8 @@
       </c>
     </row>
     <row r="31" spans="2:34">
-      <c r="B31" s="11"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
@@ -3816,8 +3816,8 @@
       </c>
     </row>
     <row r="32" spans="2:34">
-      <c r="B32" s="11"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="7" t="s">
         <v>23</v>
       </c>
@@ -3911,21 +3911,21 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="12"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6">
         <f t="shared" ref="F33:R33" si="6">AVERAGE(F27:F32)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="6"/>
@@ -4033,10 +4033,10 @@
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -4050,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
@@ -4132,8 +4132,8 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="11"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="7" t="s">
         <v>54</v>
       </c>
@@ -4145,10 +4145,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -4227,8 +4227,8 @@
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="11"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="7" t="s">
         <v>60</v>
       </c>
@@ -4240,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="9">
         <v>0</v>
@@ -4322,8 +4322,8 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="7" t="s">
         <v>55</v>
       </c>
@@ -4417,9 +4417,9 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="11"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="22" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E38" s="7"/>
@@ -4430,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="9">
         <v>0</v>
@@ -4512,9 +4512,9 @@
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="11"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="22" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E39" s="7"/>
@@ -4525,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="9">
         <v>0</v>
@@ -4607,9 +4607,9 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="11"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="22" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E40" s="7"/>
@@ -4702,9 +4702,9 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="11"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="22" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E41" s="7"/>
@@ -4797,8 +4797,8 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="12"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6">
@@ -4811,11 +4811,11 @@
       </c>
       <c r="H42" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" si="8"/>
@@ -4919,10 +4919,10 @@
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -4936,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I43" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
@@ -5018,8 +5018,8 @@
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="11"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="7" t="s">
         <v>66</v>
       </c>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I44" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J44" s="9">
         <v>0</v>
@@ -5113,8 +5113,8 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="11"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
@@ -5126,10 +5126,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I45" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J45" s="9">
         <v>0</v>
@@ -5208,8 +5208,8 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="11"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="7" t="s">
         <v>53</v>
       </c>
@@ -5221,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I46" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J46" s="9">
         <v>0</v>
@@ -5303,9 +5303,9 @@
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="11"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="22" t="s">
+      <c r="B47" s="15"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="7"/>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="9">
         <v>0</v>
@@ -5398,9 +5398,9 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="11"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="22" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E48" s="7"/>
@@ -5411,10 +5411,10 @@
         <v>0</v>
       </c>
       <c r="H48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="9">
         <v>0</v>
@@ -5493,8 +5493,8 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="11"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -5506,10 +5506,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="9">
         <v>0</v>
@@ -5588,8 +5588,8 @@
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="12"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6">
@@ -5602,11 +5602,11 @@
       </c>
       <c r="H50" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.81666666666666676</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="9"/>
-        <v>0.81666666666666676</v>
+        <v>0</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="9"/>
@@ -5710,10 +5710,10 @@
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -5809,8 +5809,8 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="11"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="7" t="s">
         <v>53</v>
       </c>
@@ -5904,8 +5904,8 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="12"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6">
@@ -6026,10 +6026,10 @@
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -6125,8 +6125,8 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="11"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="7" t="s">
         <v>36</v>
       </c>
@@ -6220,8 +6220,8 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="11"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="7" t="s">
         <v>37</v>
       </c>
@@ -6315,8 +6315,8 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="11"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
@@ -6410,8 +6410,8 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="11"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="7" t="s">
         <v>26</v>
       </c>
@@ -6505,8 +6505,8 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="11"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="7" t="s">
         <v>38</v>
       </c>
@@ -6600,8 +6600,8 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="11"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="7" t="s">
         <v>39</v>
       </c>
@@ -6695,8 +6695,8 @@
       </c>
     </row>
     <row r="61" spans="2:34">
-      <c r="B61" s="11"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="7" t="s">
         <v>7</v>
       </c>
@@ -6790,8 +6790,8 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="11"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
@@ -6885,8 +6885,8 @@
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="11"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="7" t="s">
         <v>40</v>
       </c>
@@ -6980,8 +6980,8 @@
       </c>
     </row>
     <row r="64" spans="2:34">
-      <c r="B64" s="11"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="7" t="s">
         <v>41</v>
       </c>
@@ -7075,8 +7075,8 @@
       </c>
     </row>
     <row r="65" spans="2:34">
-      <c r="B65" s="11"/>
-      <c r="C65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="7" t="s">
         <v>42</v>
       </c>
@@ -7170,8 +7170,8 @@
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="11"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="7" t="s">
         <v>43</v>
       </c>
@@ -7265,8 +7265,8 @@
       </c>
     </row>
     <row r="67" spans="2:34">
-      <c r="B67" s="12"/>
-      <c r="C67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="6">
@@ -7387,10 +7387,10 @@
       </c>
     </row>
     <row r="68" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -7486,8 +7486,8 @@
       </c>
     </row>
     <row r="69" spans="2:34">
-      <c r="B69" s="12"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="6">
@@ -7608,10 +7608,10 @@
       </c>
     </row>
     <row r="70" spans="2:34">
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G70" s="9">
         <v>0</v>
@@ -7707,13 +7707,13 @@
       </c>
     </row>
     <row r="71" spans="2:34">
-      <c r="B71" s="12"/>
-      <c r="C71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="6">
         <f>AVERAGE(F70)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" ref="G71:R71" si="41">AVERAGE(G70)</f>
@@ -7829,10 +7829,10 @@
       </c>
     </row>
     <row r="72" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="G72" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H72" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I72" s="9">
         <v>0</v>
@@ -7928,8 +7928,8 @@
       </c>
     </row>
     <row r="73" spans="2:34">
-      <c r="B73" s="11"/>
-      <c r="C73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="7" t="s">
         <v>47</v>
       </c>
@@ -8023,8 +8023,8 @@
       </c>
     </row>
     <row r="74" spans="2:34">
-      <c r="B74" s="12"/>
-      <c r="C74" s="15"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="6">
@@ -8033,11 +8033,11 @@
       </c>
       <c r="G74" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H74" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="I74" s="6">
         <f t="shared" si="43"/>
@@ -8154,6 +8154,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C54:C67"/>
+    <mergeCell ref="B54:B67"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
     <mergeCell ref="C6:C21"/>
     <mergeCell ref="B6:B21"/>
     <mergeCell ref="B27:B33"/>
@@ -8162,18 +8174,6 @@
     <mergeCell ref="C34:C42"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C54:C67"/>
-    <mergeCell ref="B54:B67"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B69"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B72">
@@ -8329,7 +8329,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:AH44 F43 F45:F49">
+  <conditionalFormatting sqref="F45:F49 F43 F44:AH44">
     <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="min"/>
@@ -8672,7 +8672,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F44:AH44 F43 F45:F49</xm:sqref>
+          <xm:sqref>F45:F49 F43 F44:AH44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E3C175-A07B-4556-BE79-B2D53E4D7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752C052-89A0-41A2-8E38-288A58DFEEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>조승찬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>봉사 코스</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -312,8 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="7">
@@ -461,7 +456,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,11 +466,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,15 +501,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,19 +519,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -950,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1071,15 +1053,15 @@
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.21583333333333332</v>
+        <v>0.26583333333333331</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
@@ -1280,10 +1262,10 @@
       </c>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1379,8 +1361,8 @@
       </c>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="15"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
@@ -1474,8 +1456,8 @@
       </c>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1569,8 +1551,8 @@
       </c>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1664,8 +1646,8 @@
       </c>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="15"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1759,8 +1741,8 @@
       </c>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="15"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1854,8 +1836,8 @@
       </c>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1949,8 +1931,8 @@
       </c>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="15"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -2044,8 +2026,8 @@
       </c>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="15"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2139,8 +2121,8 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="15"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2234,8 +2216,8 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="15"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2329,8 +2311,8 @@
       </c>
     </row>
     <row r="17" spans="2:34">
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2424,8 +2406,8 @@
       </c>
     </row>
     <row r="18" spans="2:34">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2519,8 +2501,8 @@
       </c>
     </row>
     <row r="19" spans="2:34">
-      <c r="B19" s="15"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2614,8 +2596,8 @@
       </c>
     </row>
     <row r="20" spans="2:34">
-      <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
@@ -2709,8 +2691,8 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1">
-      <c r="B21" s="16"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
@@ -2831,10 +2813,8 @@
       </c>
     </row>
     <row r="22" spans="2:34">
-      <c r="B22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2930,8 +2910,8 @@
       </c>
     </row>
     <row r="23" spans="2:34">
-      <c r="B23" s="21"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
@@ -3025,8 +3005,8 @@
       </c>
     </row>
     <row r="24" spans="2:34">
-      <c r="B24" s="21"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3120,8 +3100,8 @@
       </c>
     </row>
     <row r="25" spans="2:34">
-      <c r="B25" s="21"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
@@ -3215,8 +3195,8 @@
       </c>
     </row>
     <row r="26" spans="2:34">
-      <c r="B26" s="22"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6">
@@ -3337,10 +3317,8 @@
       </c>
     </row>
     <row r="27" spans="2:34">
-      <c r="B27" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -3436,8 +3414,8 @@
       </c>
     </row>
     <row r="28" spans="2:34">
-      <c r="B28" s="15"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
@@ -3531,8 +3509,8 @@
       </c>
     </row>
     <row r="29" spans="2:34">
-      <c r="B29" s="15"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="7" t="s">
         <v>20</v>
       </c>
@@ -3626,8 +3604,8 @@
       </c>
     </row>
     <row r="30" spans="2:34">
-      <c r="B30" s="15"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="7" t="s">
         <v>21</v>
       </c>
@@ -3721,8 +3699,8 @@
       </c>
     </row>
     <row r="31" spans="2:34">
-      <c r="B31" s="15"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
@@ -3816,8 +3794,8 @@
       </c>
     </row>
     <row r="32" spans="2:34">
-      <c r="B32" s="15"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="7" t="s">
         <v>23</v>
       </c>
@@ -3911,8 +3889,8 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="16"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6">
@@ -4033,10 +4011,10 @@
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -4132,8 +4110,8 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="15"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="7" t="s">
         <v>54</v>
       </c>
@@ -4227,10 +4205,10 @@
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="15"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
@@ -4322,8 +4300,8 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="15"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="7" t="s">
         <v>55</v>
       </c>
@@ -4417,8 +4395,8 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="15"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="10" t="s">
         <v>56</v>
       </c>
@@ -4512,8 +4490,8 @@
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="15"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="10" t="s">
         <v>57</v>
       </c>
@@ -4607,10 +4585,10 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="15"/>
-      <c r="C40" s="18"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="9">
@@ -4702,10 +4680,10 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="15"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="9">
@@ -4797,8 +4775,8 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="16"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6">
@@ -4919,14 +4897,12 @@
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="9">
@@ -5018,10 +4994,10 @@
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="15"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -5113,10 +5089,10 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="15"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
@@ -5208,8 +5184,8 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="15"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="7" t="s">
         <v>53</v>
       </c>
@@ -5303,10 +5279,10 @@
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="15"/>
-      <c r="C47" s="18"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="9">
@@ -5398,10 +5374,10 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="15"/>
-      <c r="C48" s="18"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="9">
@@ -5493,8 +5469,8 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="15"/>
-      <c r="C49" s="18"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -5588,8 +5564,8 @@
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="16"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6">
@@ -5710,11 +5686,9 @@
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="12"/>
+      <c r="C51" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>32</v>
@@ -5809,8 +5783,8 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="15"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="7" t="s">
         <v>53</v>
       </c>
@@ -5904,8 +5878,8 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="16"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6">
@@ -6026,10 +6000,10 @@
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -6125,8 +6099,8 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="15"/>
-      <c r="C55" s="18"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="7" t="s">
         <v>36</v>
       </c>
@@ -6220,8 +6194,8 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="15"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="7" t="s">
         <v>37</v>
       </c>
@@ -6315,8 +6289,8 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="15"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
@@ -6410,8 +6384,8 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="15"/>
-      <c r="C58" s="18"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="7" t="s">
         <v>26</v>
       </c>
@@ -6505,8 +6479,8 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="15"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="7" t="s">
         <v>38</v>
       </c>
@@ -6600,8 +6574,8 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="15"/>
-      <c r="C60" s="18"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="7" t="s">
         <v>39</v>
       </c>
@@ -6695,8 +6669,8 @@
       </c>
     </row>
     <row r="61" spans="2:34">
-      <c r="B61" s="15"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="7" t="s">
         <v>7</v>
       </c>
@@ -6790,8 +6764,8 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="15"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
@@ -6885,8 +6859,8 @@
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="15"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="7" t="s">
         <v>40</v>
       </c>
@@ -6980,8 +6954,8 @@
       </c>
     </row>
     <row r="64" spans="2:34">
-      <c r="B64" s="15"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="7" t="s">
         <v>41</v>
       </c>
@@ -7075,8 +7049,8 @@
       </c>
     </row>
     <row r="65" spans="2:34">
-      <c r="B65" s="15"/>
-      <c r="C65" s="18"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="7" t="s">
         <v>42</v>
       </c>
@@ -7170,8 +7144,8 @@
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="15"/>
-      <c r="C66" s="18"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="7" t="s">
         <v>43</v>
       </c>
@@ -7265,8 +7239,8 @@
       </c>
     </row>
     <row r="67" spans="2:34">
-      <c r="B67" s="16"/>
-      <c r="C67" s="19"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="6">
@@ -7387,10 +7361,8 @@
       </c>
     </row>
     <row r="68" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B68" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -7486,8 +7458,8 @@
       </c>
     </row>
     <row r="69" spans="2:34">
-      <c r="B69" s="16"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="6">
@@ -7608,10 +7580,8 @@
       </c>
     </row>
     <row r="70" spans="2:34">
-      <c r="B70" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="17" t="s">
+      <c r="B70" s="12"/>
+      <c r="C70" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -7622,10 +7592,10 @@
         <v>0.5</v>
       </c>
       <c r="G70" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H70" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I70" s="9">
         <v>0</v>
@@ -7707,8 +7677,8 @@
       </c>
     </row>
     <row r="71" spans="2:34">
-      <c r="B71" s="16"/>
-      <c r="C71" s="19"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="6">
@@ -7717,11 +7687,11 @@
       </c>
       <c r="G71" s="6">
         <f t="shared" ref="G71:R71" si="41">AVERAGE(G70)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H71" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" si="41"/>
@@ -7829,10 +7799,8 @@
       </c>
     </row>
     <row r="72" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B72" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="17" t="s">
+      <c r="B72" s="12"/>
+      <c r="C72" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -7849,7 +7817,7 @@
         <v>0.75</v>
       </c>
       <c r="I72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="9">
         <v>0</v>
@@ -7928,8 +7896,8 @@
       </c>
     </row>
     <row r="73" spans="2:34">
-      <c r="B73" s="15"/>
-      <c r="C73" s="18"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="7" t="s">
         <v>47</v>
       </c>
@@ -7944,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J73" s="9">
         <v>0</v>
@@ -8023,8 +7991,8 @@
       </c>
     </row>
     <row r="74" spans="2:34">
-      <c r="B74" s="16"/>
-      <c r="C74" s="19"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="6">
@@ -8041,7 +8009,7 @@
       </c>
       <c r="I74" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="J74" s="6">
         <f t="shared" si="43"/>
@@ -8153,35 +8121,23 @@
       <c r="F76" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B43:B50"/>
+  <mergeCells count="13">
+    <mergeCell ref="C6:C21"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="B34:B53"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C54:C67"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B54:B74"/>
     <mergeCell ref="C43:C50"/>
-    <mergeCell ref="B51:B53"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C54:C67"/>
-    <mergeCell ref="B54:B67"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C6:C21"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27 E27:E28">
+  <conditionalFormatting sqref="C27 E27:E28">
     <cfRule type="cellIs" dxfId="9" priority="152" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -8191,7 +8147,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:D43 D43:D49">
+  <conditionalFormatting sqref="C43:D43 D43:D49">
     <cfRule type="cellIs" dxfId="7" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -8206,7 +8162,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21 E22:E25 B54 B68">
+  <conditionalFormatting sqref="D21 E22:E25 B54">
     <cfRule type="cellIs" dxfId="4" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -8273,7 +8229,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51 F54 F70 F55:AH66 F68:AH68">
+  <conditionalFormatting sqref="F45:F49 F43 F44:AH44">
+    <cfRule type="dataBar" priority="452">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF147DFE-A319-4694-82C7-891FF6043D5B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51 F54 F55:AH66 F68:AH68 F70:H70">
     <cfRule type="dataBar" priority="444">
       <dataBar>
         <cfvo type="min"/>
@@ -8325,20 +8295,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{33F6A3E8-F39F-4486-821E-EFC74CA33142}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F49 F43 F44:AH44">
-    <cfRule type="dataBar" priority="452">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF147DFE-A319-4694-82C7-891FF6043D5B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8413,7 +8369,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51 G54 G70">
+  <conditionalFormatting sqref="G54 G51">
     <cfRule type="dataBar" priority="421">
       <dataBar>
         <cfvo type="min"/>
@@ -8539,7 +8495,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:AH51 H54:AH54 H70:AH70">
+  <conditionalFormatting sqref="H51:AH51 H54:AH54 I70:AH70">
     <cfRule type="dataBar" priority="465">
       <dataBar>
         <cfvo type="min"/>
@@ -8620,6 +8576,17 @@
           <xm:sqref>F38:F41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F45:F49 F43 F44:AH44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -8628,7 +8595,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F51 F54 F70 F55:AH66 F68:AH68</xm:sqref>
+          <xm:sqref>F51 F54 F55:AH66 F68:AH68 F70:H70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
@@ -8662,17 +8629,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>F22:G22 F24:G25 F23:AH23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F45:F49 F43 F44:AH44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
@@ -8738,7 +8694,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G51 G54 G70</xm:sqref>
+          <xm:sqref>G54 G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
@@ -8837,7 +8793,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51:AH51 H54:AH54 H70:AH70</xm:sqref>
+          <xm:sqref>H51:AH51 H54:AH54 I70:AH70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gb_0900_jfk\organization\publishing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752C052-89A0-41A2-8E38-288A58DFEEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -307,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -501,14 +500,14 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,14 +518,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -534,7 +533,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -588,16 +587,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -929,11 +918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1061,11 +1050,11 @@
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>9.5000000000000001E-2</v>
+        <v>0.26166666666666666</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17316666666666666</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
@@ -1262,10 +1251,10 @@
       </c>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1361,8 +1350,8 @@
       </c>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="12"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
@@ -1456,8 +1445,8 @@
       </c>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="12"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1551,8 +1540,8 @@
       </c>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="12"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1646,8 +1635,8 @@
       </c>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="12"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1741,8 +1730,8 @@
       </c>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="12"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1836,8 +1825,8 @@
       </c>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="12"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1931,8 +1920,8 @@
       </c>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="12"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -2026,8 +2015,8 @@
       </c>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="12"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2121,8 +2110,8 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="12"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2216,8 +2205,8 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="12"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2311,8 +2300,8 @@
       </c>
     </row>
     <row r="17" spans="2:34">
-      <c r="B17" s="12"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2406,8 +2395,8 @@
       </c>
     </row>
     <row r="18" spans="2:34">
-      <c r="B18" s="12"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2501,8 +2490,8 @@
       </c>
     </row>
     <row r="19" spans="2:34">
-      <c r="B19" s="12"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2596,8 +2585,8 @@
       </c>
     </row>
     <row r="20" spans="2:34">
-      <c r="B20" s="12"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
@@ -2691,8 +2680,8 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1">
-      <c r="B21" s="12"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
@@ -2813,7 +2802,7 @@
       </c>
     </row>
     <row r="22" spans="2:34">
-      <c r="B22" s="12"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="14" t="s">
         <v>28</v>
       </c>
@@ -2910,7 +2899,7 @@
       </c>
     </row>
     <row r="23" spans="2:34">
-      <c r="B23" s="12"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="15"/>
       <c r="D23" s="7" t="s">
         <v>24</v>
@@ -3005,7 +2994,7 @@
       </c>
     </row>
     <row r="24" spans="2:34">
-      <c r="B24" s="12"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="15"/>
       <c r="D24" s="7" t="s">
         <v>25</v>
@@ -3100,7 +3089,7 @@
       </c>
     </row>
     <row r="25" spans="2:34">
-      <c r="B25" s="12"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="15"/>
       <c r="D25" s="7" t="s">
         <v>26</v>
@@ -3195,7 +3184,7 @@
       </c>
     </row>
     <row r="26" spans="2:34">
-      <c r="B26" s="12"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="16"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -3317,8 +3306,8 @@
       </c>
     </row>
     <row r="27" spans="2:34">
-      <c r="B27" s="12"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -3414,8 +3403,8 @@
       </c>
     </row>
     <row r="28" spans="2:34">
-      <c r="B28" s="12"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
@@ -3509,8 +3498,8 @@
       </c>
     </row>
     <row r="29" spans="2:34">
-      <c r="B29" s="12"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="7" t="s">
         <v>20</v>
       </c>
@@ -3604,8 +3593,8 @@
       </c>
     </row>
     <row r="30" spans="2:34">
-      <c r="B30" s="12"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="7" t="s">
         <v>21</v>
       </c>
@@ -3699,8 +3688,8 @@
       </c>
     </row>
     <row r="31" spans="2:34">
-      <c r="B31" s="12"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
@@ -3794,8 +3783,8 @@
       </c>
     </row>
     <row r="32" spans="2:34">
-      <c r="B32" s="12"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="7" t="s">
         <v>23</v>
       </c>
@@ -3889,8 +3878,8 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="13"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6">
@@ -4011,7 +4000,7 @@
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -4031,10 +4020,10 @@
         <v>1</v>
       </c>
       <c r="I34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="9">
         <v>0</v>
@@ -4110,7 +4099,7 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="12"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="15"/>
       <c r="D35" s="7" t="s">
         <v>54</v>
@@ -4126,10 +4115,10 @@
         <v>1</v>
       </c>
       <c r="I35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="9">
         <v>0</v>
@@ -4205,7 +4194,7 @@
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="12"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="15"/>
       <c r="D36" s="7" t="s">
         <v>59</v>
@@ -4221,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="I36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="9">
         <v>0</v>
@@ -4300,7 +4289,7 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="12"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="15"/>
       <c r="D37" s="7" t="s">
         <v>55</v>
@@ -4395,7 +4384,7 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="12"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="15"/>
       <c r="D38" s="10" t="s">
         <v>56</v>
@@ -4411,10 +4400,10 @@
         <v>1</v>
       </c>
       <c r="I38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="9">
         <v>0</v>
@@ -4490,7 +4479,7 @@
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="12"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="15"/>
       <c r="D39" s="10" t="s">
         <v>57</v>
@@ -4506,10 +4495,10 @@
         <v>1</v>
       </c>
       <c r="I39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="9">
         <v>0</v>
@@ -4585,7 +4574,7 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="12"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="15"/>
       <c r="D40" s="10" t="s">
         <v>60</v>
@@ -4680,7 +4669,7 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="12"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="15"/>
       <c r="D41" s="10" t="s">
         <v>61</v>
@@ -4775,7 +4764,7 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="12"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="16"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -4793,11 +4782,11 @@
       </c>
       <c r="I42" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K42" s="6">
         <f t="shared" si="8"/>
@@ -4897,7 +4886,7 @@
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="12"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="14" t="s">
         <v>31</v>
       </c>
@@ -4915,10 +4904,10 @@
         <v>0.8</v>
       </c>
       <c r="I43" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J43" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K43" s="9">
         <v>0</v>
@@ -4994,7 +4983,7 @@
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="12"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="15"/>
       <c r="D44" s="7" t="s">
         <v>65</v>
@@ -5010,10 +4999,10 @@
         <v>0.8</v>
       </c>
       <c r="I44" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J44" s="9">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="K44" s="9">
         <v>0</v>
@@ -5089,7 +5078,7 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="12"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="15"/>
       <c r="D45" s="7" t="s">
         <v>64</v>
@@ -5105,10 +5094,10 @@
         <v>0.5</v>
       </c>
       <c r="I45" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J45" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K45" s="9">
         <v>0</v>
@@ -5184,7 +5173,7 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="12"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="15"/>
       <c r="D46" s="7" t="s">
         <v>53</v>
@@ -5200,10 +5189,10 @@
         <v>0.8</v>
       </c>
       <c r="I46" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J46" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K46" s="9">
         <v>0</v>
@@ -5279,7 +5268,7 @@
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="12"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="15"/>
       <c r="D47" s="10" t="s">
         <v>63</v>
@@ -5295,10 +5284,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="9">
         <v>0</v>
@@ -5374,7 +5363,7 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="12"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="15"/>
       <c r="D48" s="10" t="s">
         <v>62</v>
@@ -5390,10 +5379,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="9">
         <v>0</v>
@@ -5469,7 +5458,7 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="12"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="15"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
@@ -5485,10 +5474,10 @@
         <v>1</v>
       </c>
       <c r="I49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="9">
         <v>0</v>
@@ -5564,7 +5553,7 @@
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="12"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="16"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -5582,11 +5571,11 @@
       </c>
       <c r="I50" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.89833333333333332</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="9"/>
@@ -5686,7 +5675,7 @@
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="12"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="15" t="s">
         <v>58</v>
       </c>
@@ -5783,7 +5772,7 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="12"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="15"/>
       <c r="D52" s="7" t="s">
         <v>53</v>
@@ -5878,7 +5867,7 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="13"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="16"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -6000,7 +5989,7 @@
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C54" s="14" t="s">
@@ -6099,7 +6088,7 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="12"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="15"/>
       <c r="D55" s="7" t="s">
         <v>36</v>
@@ -6194,7 +6183,7 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="12"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="15"/>
       <c r="D56" s="7" t="s">
         <v>37</v>
@@ -6289,7 +6278,7 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="12"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="15"/>
       <c r="D57" s="7" t="s">
         <v>25</v>
@@ -6384,7 +6373,7 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="12"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="15"/>
       <c r="D58" s="7" t="s">
         <v>26</v>
@@ -6479,7 +6468,7 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="12"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="15"/>
       <c r="D59" s="7" t="s">
         <v>38</v>
@@ -6574,7 +6563,7 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="12"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="15"/>
       <c r="D60" s="7" t="s">
         <v>39</v>
@@ -6669,7 +6658,7 @@
       </c>
     </row>
     <row r="61" spans="2:34">
-      <c r="B61" s="12"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="15"/>
       <c r="D61" s="7" t="s">
         <v>7</v>
@@ -6764,7 +6753,7 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="12"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="15"/>
       <c r="D62" s="7" t="s">
         <v>8</v>
@@ -6859,7 +6848,7 @@
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="12"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="15"/>
       <c r="D63" s="7" t="s">
         <v>40</v>
@@ -6954,7 +6943,7 @@
       </c>
     </row>
     <row r="64" spans="2:34">
-      <c r="B64" s="12"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="15"/>
       <c r="D64" s="7" t="s">
         <v>41</v>
@@ -7049,7 +7038,7 @@
       </c>
     </row>
     <row r="65" spans="2:34">
-      <c r="B65" s="12"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="15"/>
       <c r="D65" s="7" t="s">
         <v>42</v>
@@ -7144,7 +7133,7 @@
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="12"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="15"/>
       <c r="D66" s="7" t="s">
         <v>43</v>
@@ -7239,7 +7228,7 @@
       </c>
     </row>
     <row r="67" spans="2:34">
-      <c r="B67" s="12"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="16"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -7361,8 +7350,8 @@
       </c>
     </row>
     <row r="68" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B68" s="12"/>
-      <c r="C68" s="17" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -7458,8 +7447,8 @@
       </c>
     </row>
     <row r="69" spans="2:34">
-      <c r="B69" s="12"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="6">
@@ -7580,7 +7569,7 @@
       </c>
     </row>
     <row r="70" spans="2:34">
-      <c r="B70" s="12"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="14" t="s">
         <v>48</v>
       </c>
@@ -7677,7 +7666,7 @@
       </c>
     </row>
     <row r="71" spans="2:34">
-      <c r="B71" s="12"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="16"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -7799,7 +7788,7 @@
       </c>
     </row>
     <row r="72" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B72" s="12"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="14" t="s">
         <v>50</v>
       </c>
@@ -7896,7 +7885,7 @@
       </c>
     </row>
     <row r="73" spans="2:34">
-      <c r="B73" s="12"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="15"/>
       <c r="D73" s="7" t="s">
         <v>47</v>
@@ -7991,7 +7980,7 @@
       </c>
     </row>
     <row r="74" spans="2:34">
-      <c r="B74" s="13"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="16"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -8122,12 +8111,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C6:C21"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="B34:B53"/>
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="C54:C67"/>
     <mergeCell ref="C72:C74"/>
@@ -8135,60 +8118,66 @@
     <mergeCell ref="C43:C50"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C6:C21"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="B34:B53"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C27 E27:E28">
-    <cfRule type="cellIs" dxfId="9" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="159" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C34 E34:E35">
-    <cfRule type="cellIs" dxfId="8" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:D43 D43:D49">
-    <cfRule type="cellIs" dxfId="7" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D13">
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D20">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21 E22:E25 B54">
-    <cfRule type="cellIs" dxfId="4" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D41">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:E51 D53:E53 C54:E54 D55:E67 C68:E68 D69:E74">
-    <cfRule type="cellIs" dxfId="1" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="119" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E20">
-    <cfRule type="cellIs" dxfId="0" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="400" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F32">
-    <cfRule type="dataBar" priority="407">
+    <cfRule type="dataBar" priority="414">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8202,7 +8191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F37">
-    <cfRule type="dataBar" priority="399">
+    <cfRule type="dataBar" priority="406">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8216,7 +8205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F41">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8229,8 +8218,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F49 F43 F44:AH44">
-    <cfRule type="dataBar" priority="452">
+  <conditionalFormatting sqref="F45:F49 F43 F44:H44 J44:AH44">
+    <cfRule type="dataBar" priority="459">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8244,7 +8233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51 F54 F55:AH66 F68:AH68 F70:H70">
-    <cfRule type="dataBar" priority="444">
+    <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8258,7 +8247,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8272,7 +8261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:G20">
-    <cfRule type="dataBar" priority="405">
+    <cfRule type="dataBar" priority="412">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8286,7 +8275,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G22 F24:G25 F23:AH23">
-    <cfRule type="dataBar" priority="449">
+    <cfRule type="dataBar" priority="456">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8300,7 +8289,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:AH72 F73">
-    <cfRule type="dataBar" priority="455">
+    <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8314,7 +8303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G32">
-    <cfRule type="dataBar" priority="408">
+    <cfRule type="dataBar" priority="415">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8328,7 +8317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G37">
-    <cfRule type="dataBar" priority="400">
+    <cfRule type="dataBar" priority="407">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8342,7 +8331,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G41">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8356,7 +8345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G49 G43">
-    <cfRule type="dataBar" priority="439">
+    <cfRule type="dataBar" priority="446">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8370,7 +8359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54 G51">
-    <cfRule type="dataBar" priority="421">
+    <cfRule type="dataBar" priority="428">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8384,7 +8373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8398,7 +8387,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="dataBar" priority="429">
+    <cfRule type="dataBar" priority="436">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8412,7 +8401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:AH20">
-    <cfRule type="dataBar" priority="457">
+    <cfRule type="dataBar" priority="464">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8426,7 +8415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:AH22 H24:AH25">
-    <cfRule type="dataBar" priority="458">
+    <cfRule type="dataBar" priority="465">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8440,7 +8429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:AH32">
-    <cfRule type="dataBar" priority="460">
+    <cfRule type="dataBar" priority="467">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8453,8 +8442,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:AH37">
-    <cfRule type="dataBar" priority="461">
+  <conditionalFormatting sqref="H34:H37 K34:AH37">
+    <cfRule type="dataBar" priority="468">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8467,8 +8456,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:AH41">
-    <cfRule type="dataBar" priority="462">
+  <conditionalFormatting sqref="H38:H41 K38:AH41">
+    <cfRule type="dataBar" priority="469">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8481,8 +8470,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:AH43 H45:AH49">
-    <cfRule type="dataBar" priority="463">
+  <conditionalFormatting sqref="H45:H49 H43 J45:AH45 J43:AH43 K46:AH49">
+    <cfRule type="dataBar" priority="470">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8496,7 +8485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:AH51 H54:AH54 I70:AH70">
-    <cfRule type="dataBar" priority="465">
+    <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8510,7 +8499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:AH52">
-    <cfRule type="dataBar" priority="468">
+    <cfRule type="dataBar" priority="475">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8524,7 +8513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:AH73">
-    <cfRule type="dataBar" priority="469">
+    <cfRule type="dataBar" priority="476">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8533,6 +8522,104 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9E177B73-5E16-40E4-A603-861BA18F14AA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1C71E1E0-EA29-4171-9159-938FC2CFE6CA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:I49 I43">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1EB49D24-1482-4398-B2F7-B67E515088AC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0CAB636-D7F6-4060-9565-33FF484985B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I41">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EFF78A47-4D23-462B-A616-BA7687DFFB29}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:J37">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:J41">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{35DDF99D-E2AE-4FE5-A4EB-AC6AFA3114E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:J49">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8584,7 +8671,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F45:F49 F43 F44:AH44</xm:sqref>
+          <xm:sqref>F45:F49 F43 F44:H44 J44:AH44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
@@ -8760,7 +8847,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34:AH37</xm:sqref>
+          <xm:sqref>H34:H37 K34:AH37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
@@ -8771,7 +8858,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38:AH41</xm:sqref>
+          <xm:sqref>H38:H41 K38:AH41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
@@ -8782,7 +8869,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43:AH43 H45:AH49</xm:sqref>
+          <xm:sqref>H45:H49 H43 J45:AH45 J43:AH43 K46:AH49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
@@ -8817,6 +8904,83 @@
           </x14:cfRule>
           <xm:sqref>H73:AH73</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1C71E1E0-EA29-4171-9159-938FC2CFE6CA}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1EB49D24-1482-4398-B2F7-B67E515088AC}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I45:I49 I43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0CAB636-D7F6-4060-9565-33FF484985B4}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I34:I37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EFF78A47-4D23-462B-A616-BA7687DFFB29}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I38:I41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J34:J37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{35DDF99D-E2AE-4FE5-A4EB-AC6AFA3114E3}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J38:J41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J46:J49</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752C052-89A0-41A2-8E38-288A58DFEEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BAD59A-7A69-407F-BA39-DA948E49DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,6 +501,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,15 +517,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,7 +534,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -588,16 +588,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -932,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1053,19 +1043,19 @@
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>8.3333333333333343E-2</v>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.26583333333333331</v>
+        <v>0.27416666666666667</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>9.5000000000000001E-2</v>
+        <v>0.33499999999999996</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
@@ -1262,7 +1252,7 @@
       </c>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -1361,7 +1351,7 @@
       </c>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="12"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
         <v>52</v>
@@ -1456,7 +1446,7 @@
       </c>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="12"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="19"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
@@ -1551,7 +1541,7 @@
       </c>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="12"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
@@ -1646,7 +1636,7 @@
       </c>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="12"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="19"/>
       <c r="D10" s="7" t="s">
         <v>8</v>
@@ -1741,7 +1731,7 @@
       </c>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="19"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
@@ -1836,7 +1826,7 @@
       </c>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="19"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
@@ -1931,7 +1921,7 @@
       </c>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="12"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="19"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
@@ -2026,7 +2016,7 @@
       </c>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="12"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="19"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
@@ -2121,7 +2111,7 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="12"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="19"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
@@ -2216,7 +2206,7 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="12"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="19"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
@@ -2311,7 +2301,7 @@
       </c>
     </row>
     <row r="17" spans="2:34">
-      <c r="B17" s="12"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="19"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
@@ -2406,7 +2396,7 @@
       </c>
     </row>
     <row r="18" spans="2:34">
-      <c r="B18" s="12"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="19"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
@@ -2501,7 +2491,7 @@
       </c>
     </row>
     <row r="19" spans="2:34">
-      <c r="B19" s="12"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="19"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
@@ -2596,7 +2586,7 @@
       </c>
     </row>
     <row r="20" spans="2:34">
-      <c r="B20" s="12"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="19"/>
       <c r="D20" s="7" t="s">
         <v>18</v>
@@ -2691,7 +2681,7 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1">
-      <c r="B21" s="12"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="18"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -2813,8 +2803,8 @@
       </c>
     </row>
     <row r="22" spans="2:34">
-      <c r="B22" s="12"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2910,8 +2900,8 @@
       </c>
     </row>
     <row r="23" spans="2:34">
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
@@ -3005,8 +2995,8 @@
       </c>
     </row>
     <row r="24" spans="2:34">
-      <c r="B24" s="12"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3100,8 +3090,8 @@
       </c>
     </row>
     <row r="25" spans="2:34">
-      <c r="B25" s="12"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
@@ -3195,8 +3185,8 @@
       </c>
     </row>
     <row r="26" spans="2:34">
-      <c r="B26" s="12"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6">
@@ -3317,7 +3307,7 @@
       </c>
     </row>
     <row r="27" spans="2:34">
-      <c r="B27" s="12"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="17" t="s">
         <v>49</v>
       </c>
@@ -3329,13 +3319,13 @@
         <v>0.5</v>
       </c>
       <c r="G27" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="9">
         <v>0.8</v>
       </c>
       <c r="I27" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J27" s="9">
         <v>0</v>
@@ -3414,7 +3404,7 @@
       </c>
     </row>
     <row r="28" spans="2:34">
-      <c r="B28" s="12"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
         <v>3</v>
@@ -3427,10 +3417,10 @@
         <v>0.5</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I28" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J28" s="9">
         <v>0</v>
@@ -3509,7 +3499,7 @@
       </c>
     </row>
     <row r="29" spans="2:34">
-      <c r="B29" s="12"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="19"/>
       <c r="D29" s="7" t="s">
         <v>20</v>
@@ -3604,7 +3594,7 @@
       </c>
     </row>
     <row r="30" spans="2:34">
-      <c r="B30" s="12"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="19"/>
       <c r="D30" s="7" t="s">
         <v>21</v>
@@ -3699,7 +3689,7 @@
       </c>
     </row>
     <row r="31" spans="2:34">
-      <c r="B31" s="12"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="19"/>
       <c r="D31" s="7" t="s">
         <v>22</v>
@@ -3794,7 +3784,7 @@
       </c>
     </row>
     <row r="32" spans="2:34">
-      <c r="B32" s="12"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="19"/>
       <c r="D32" s="7" t="s">
         <v>23</v>
@@ -3889,7 +3879,7 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="13"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="18"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -3899,15 +3889,15 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="6"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="6"/>
-        <v>0.13333333333333333</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="6"/>
@@ -4011,10 +4001,10 @@
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -4031,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
@@ -4110,8 +4100,8 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="12"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="7" t="s">
         <v>54</v>
       </c>
@@ -4126,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -4205,8 +4195,8 @@
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="12"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="7" t="s">
         <v>59</v>
       </c>
@@ -4221,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="9">
         <v>0</v>
@@ -4300,8 +4290,8 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="12"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="7" t="s">
         <v>55</v>
       </c>
@@ -4395,8 +4385,8 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="12"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="10" t="s">
         <v>56</v>
       </c>
@@ -4411,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="9">
         <v>0</v>
@@ -4490,8 +4480,8 @@
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="12"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="10" t="s">
         <v>57</v>
       </c>
@@ -4506,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="9">
         <v>0</v>
@@ -4585,8 +4575,8 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="12"/>
-      <c r="C40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="10" t="s">
         <v>60</v>
       </c>
@@ -4680,8 +4670,8 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="12"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="10" t="s">
         <v>61</v>
       </c>
@@ -4775,8 +4765,8 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="12"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6">
@@ -4793,7 +4783,7 @@
       </c>
       <c r="I42" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" si="8"/>
@@ -4897,8 +4887,8 @@
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="12"/>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -4915,7 +4905,7 @@
         <v>0.8</v>
       </c>
       <c r="I43" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
@@ -4994,8 +4984,8 @@
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="12"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="7" t="s">
         <v>65</v>
       </c>
@@ -5010,7 +5000,7 @@
         <v>0.8</v>
       </c>
       <c r="I44" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J44" s="9">
         <v>0</v>
@@ -5089,8 +5079,8 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="12"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="7" t="s">
         <v>64</v>
       </c>
@@ -5105,7 +5095,7 @@
         <v>0.5</v>
       </c>
       <c r="I45" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J45" s="9">
         <v>0</v>
@@ -5184,8 +5174,8 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="12"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="7" t="s">
         <v>53</v>
       </c>
@@ -5200,7 +5190,7 @@
         <v>0.8</v>
       </c>
       <c r="I46" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J46" s="9">
         <v>0</v>
@@ -5279,8 +5269,8 @@
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="12"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="10" t="s">
         <v>63</v>
       </c>
@@ -5295,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="9">
         <v>0</v>
@@ -5374,8 +5364,8 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="12"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="10" t="s">
         <v>62</v>
       </c>
@@ -5390,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="9">
         <v>0</v>
@@ -5469,8 +5459,8 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="12"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -5485,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="9">
         <v>0</v>
@@ -5564,8 +5554,8 @@
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="12"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6">
@@ -5582,7 +5572,7 @@
       </c>
       <c r="I50" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="9"/>
@@ -5686,8 +5676,8 @@
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="12"/>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="15"/>
+      <c r="C51" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -5783,8 +5773,8 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="12"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="7" t="s">
         <v>53</v>
       </c>
@@ -5878,8 +5868,8 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="13"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6">
@@ -6000,10 +5990,10 @@
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -6099,8 +6089,8 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="12"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="7" t="s">
         <v>36</v>
       </c>
@@ -6194,8 +6184,8 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="12"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="7" t="s">
         <v>37</v>
       </c>
@@ -6289,8 +6279,8 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="12"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
@@ -6384,8 +6374,8 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="12"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="7" t="s">
         <v>26</v>
       </c>
@@ -6479,8 +6469,8 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="12"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="7" t="s">
         <v>38</v>
       </c>
@@ -6574,8 +6564,8 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="12"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="7" t="s">
         <v>39</v>
       </c>
@@ -6669,8 +6659,8 @@
       </c>
     </row>
     <row r="61" spans="2:34">
-      <c r="B61" s="12"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="7" t="s">
         <v>7</v>
       </c>
@@ -6764,8 +6754,8 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="12"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
@@ -6859,8 +6849,8 @@
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="12"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="7" t="s">
         <v>40</v>
       </c>
@@ -6954,8 +6944,8 @@
       </c>
     </row>
     <row r="64" spans="2:34">
-      <c r="B64" s="12"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="7" t="s">
         <v>41</v>
       </c>
@@ -7049,8 +7039,8 @@
       </c>
     </row>
     <row r="65" spans="2:34">
-      <c r="B65" s="12"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="7" t="s">
         <v>42</v>
       </c>
@@ -7144,8 +7134,8 @@
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="12"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="7" t="s">
         <v>43</v>
       </c>
@@ -7239,8 +7229,8 @@
       </c>
     </row>
     <row r="67" spans="2:34">
-      <c r="B67" s="12"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="6">
@@ -7361,7 +7351,7 @@
       </c>
     </row>
     <row r="68" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B68" s="12"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="17" t="s">
         <v>44</v>
       </c>
@@ -7458,7 +7448,7 @@
       </c>
     </row>
     <row r="69" spans="2:34">
-      <c r="B69" s="12"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="18"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -7580,8 +7570,8 @@
       </c>
     </row>
     <row r="70" spans="2:34">
-      <c r="B70" s="12"/>
-      <c r="C70" s="14" t="s">
+      <c r="B70" s="15"/>
+      <c r="C70" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -7598,10 +7588,10 @@
         <v>0.5</v>
       </c>
       <c r="I70" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J70" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="9">
         <v>0</v>
@@ -7677,8 +7667,8 @@
       </c>
     </row>
     <row r="71" spans="2:34">
-      <c r="B71" s="12"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="6">
@@ -7695,11 +7685,11 @@
       </c>
       <c r="I71" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="6">
         <f t="shared" si="41"/>
@@ -7799,8 +7789,8 @@
       </c>
     </row>
     <row r="72" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B72" s="12"/>
-      <c r="C72" s="14" t="s">
+      <c r="B72" s="15"/>
+      <c r="C72" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -7820,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="9">
         <v>0</v>
@@ -7896,8 +7886,8 @@
       </c>
     </row>
     <row r="73" spans="2:34">
-      <c r="B73" s="12"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="7" t="s">
         <v>47</v>
       </c>
@@ -7915,7 +7905,7 @@
         <v>0.9</v>
       </c>
       <c r="J73" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K73" s="9">
         <v>0</v>
@@ -7991,8 +7981,8 @@
       </c>
     </row>
     <row r="74" spans="2:34">
-      <c r="B74" s="13"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="12"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="6">
@@ -8013,7 +8003,7 @@
       </c>
       <c r="J74" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="K74" s="6">
         <f t="shared" si="43"/>
@@ -8137,13 +8127,13 @@
     <mergeCell ref="C68:C69"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C27 E27:E28">
-    <cfRule type="cellIs" dxfId="9" priority="152" operator="equal">
+  <conditionalFormatting sqref="B34:C34 E34:E35">
+    <cfRule type="cellIs" dxfId="9" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34 E34:E35">
-    <cfRule type="cellIs" dxfId="8" priority="85" operator="equal">
+  <conditionalFormatting sqref="C27 E27:E28">
+    <cfRule type="cellIs" dxfId="8" priority="152" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8187,7 +8177,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F32">
+  <conditionalFormatting sqref="F27:F32 G27">
     <cfRule type="dataBar" priority="407">
       <dataBar>
         <cfvo type="min"/>
@@ -8243,7 +8233,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51 F54 F55:AH66 F68:AH68 F70:H70">
+  <conditionalFormatting sqref="F51 F54 F55:AH66 F68:AH68 F70:I70">
     <cfRule type="dataBar" priority="444">
       <dataBar>
         <cfvo type="min"/>
@@ -8313,7 +8303,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G32">
+  <conditionalFormatting sqref="G28:G32 H28:I28">
     <cfRule type="dataBar" priority="408">
       <dataBar>
         <cfvo type="min"/>
@@ -8369,6 +8359,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G54 G51">
     <cfRule type="dataBar" priority="421">
       <dataBar>
@@ -8379,20 +8383,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{2D753DFF-0685-48F3-BDEF-449EB335D13E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8439,7 +8429,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:AH32">
+  <conditionalFormatting sqref="H27:AH27 H29:AH32 J28:AH28">
     <cfRule type="dataBar" priority="460">
       <dataBar>
         <cfvo type="min"/>
@@ -8495,7 +8485,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:AH51 H54:AH54 I70:AH70">
+  <conditionalFormatting sqref="H51:AH51 H54:AH54 J70:AH70">
     <cfRule type="dataBar" priority="465">
       <dataBar>
         <cfvo type="min"/>
@@ -8551,7 +8541,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F27:F32</xm:sqref>
+          <xm:sqref>F27:F32 G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9C91B573-7EDD-48F1-AAE4-F942D0F94FED}">
@@ -8595,7 +8585,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F51 F54 F55:AH66 F68:AH68 F70:H70</xm:sqref>
+          <xm:sqref>F51 F54 F55:AH66 F68:AH68 F70:I70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
@@ -8650,7 +8640,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G27:G32</xm:sqref>
+          <xm:sqref>G28:G32 H28:I28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85109038-BFED-4A1D-9EFD-DFC02076C006}">
@@ -8686,6 +8676,17 @@
           <xm:sqref>G45:G49 G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D753DFF-0685-48F3-BDEF-449EB335D13E}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -8695,17 +8696,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>G54 G51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
@@ -8749,7 +8739,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H27:AH32</xm:sqref>
+          <xm:sqref>H27:AH27 H29:AH32 J28:AH28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{39544BDF-3167-4345-B25E-E17EB47629D9}">
@@ -8793,7 +8783,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51:AH51 H54:AH54 I70:AH70</xm:sqref>
+          <xm:sqref>H51:AH51 H54:AH54 J70:AH70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gb_0900_jfk\organization\publishing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24EC5E3-5AFC-4A1C-911A-1936C50339D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-7995" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -112,14 +113,6 @@
   </si>
   <si>
     <t>회원 가입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 확인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -302,11 +295,23 @@
     <t>추천코스 상세</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>관리자 메인 페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입(이메일)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인 인증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -466,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -533,7 +541,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -557,16 +565,6 @@
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
       </font>
       <fill>
         <patternFill>
@@ -918,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AH76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:AI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1037,28 +1035,28 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:R3" si="0">AVERAGE(F21,F26,F33,F42,F50,F53,F67,F69,F71,F74)</f>
-        <v>5.8333333333333334E-2</v>
+        <f>AVERAGE(F22,F27,F33,F42,F50,F53,F68,F70,F72,F75)</f>
+        <v>0.06</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333343E-2</v>
+        <f t="shared" ref="G3:AH3" si="0">AVERAGE(G22,G27,G33,G42,G50,G53,G68,G70,G72,G75)</f>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.26583333333333331</v>
+        <v>0.24766666666666665</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0.26166666666666666</v>
+        <v>0.31883333333333336</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0.17316666666666666</v>
+        <v>0.45821428571428574</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
@@ -1089,67 +1087,67 @@
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" ref="S3:AH3" si="1">AVERAGE(S21,S26,S33,S42,S50,S53,S67,S69,S71,S74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1163,102 +1161,102 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>45682</v>
+        <v>45688</v>
       </c>
       <c r="G5" s="3">
-        <v>45683</v>
+        <v>45689</v>
       </c>
       <c r="H5" s="3">
-        <v>45684</v>
+        <v>45690</v>
       </c>
       <c r="I5" s="3">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="J5" s="3">
-        <v>45686</v>
+        <v>45692</v>
       </c>
       <c r="K5" s="3">
-        <v>45687</v>
+        <v>45693</v>
       </c>
       <c r="L5" s="3">
-        <v>45688</v>
+        <v>45694</v>
       </c>
       <c r="M5" s="3">
-        <v>45689</v>
+        <v>45695</v>
       </c>
       <c r="N5" s="3">
-        <v>45690</v>
+        <v>45696</v>
       </c>
       <c r="O5" s="3">
-        <v>45691</v>
+        <v>45697</v>
       </c>
       <c r="P5" s="3">
-        <v>45692</v>
+        <v>45698</v>
       </c>
       <c r="Q5" s="3">
-        <v>45693</v>
+        <v>45699</v>
       </c>
       <c r="R5" s="3">
-        <v>45694</v>
+        <v>45700</v>
       </c>
       <c r="S5" s="3">
-        <v>45695</v>
+        <v>45701</v>
       </c>
       <c r="T5" s="3">
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="U5" s="3">
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="V5" s="3">
-        <v>45698</v>
+        <v>45704</v>
       </c>
       <c r="W5" s="3">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="X5" s="3">
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="Y5" s="3">
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="Z5" s="3">
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="AA5" s="3">
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="AB5" s="3">
-        <v>45704</v>
+        <v>45710</v>
       </c>
       <c r="AC5" s="3">
-        <v>45705</v>
+        <v>45711</v>
       </c>
       <c r="AD5" s="3">
-        <v>45706</v>
+        <v>45712</v>
       </c>
       <c r="AE5" s="3">
-        <v>45707</v>
+        <v>45713</v>
       </c>
       <c r="AF5" s="3">
-        <v>45708</v>
+        <v>45714</v>
       </c>
       <c r="AG5" s="3">
-        <v>45709</v>
+        <v>45715</v>
       </c>
       <c r="AH5" s="3">
-        <v>45710</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>27</v>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -1350,10 +1348,10 @@
       </c>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="18"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -1445,8 +1443,8 @@
       </c>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="18"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1540,8 +1538,8 @@
       </c>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="18"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1635,8 +1633,8 @@
       </c>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="18"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1730,8 +1728,8 @@
       </c>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="18"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1825,8 +1823,8 @@
       </c>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="18"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1920,8 +1918,8 @@
       </c>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="18"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -2015,8 +2013,8 @@
       </c>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="18"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2110,8 +2108,8 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="18"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2205,8 +2203,8 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="18"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2299,9 +2297,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:34">
-      <c r="B17" s="18"/>
-      <c r="C17" s="12"/>
+    <row r="17" spans="2:35">
+      <c r="B17" s="19"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2394,9 +2392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:34">
-      <c r="B18" s="18"/>
-      <c r="C18" s="12"/>
+    <row r="18" spans="2:35">
+      <c r="B18" s="19"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2489,9 +2487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:34">
-      <c r="B19" s="18"/>
-      <c r="C19" s="12"/>
+    <row r="19" spans="2:35">
+      <c r="B19" s="19"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2584,11 +2582,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:34">
-      <c r="B20" s="18"/>
-      <c r="C20" s="12"/>
+    <row r="20" spans="2:35">
+      <c r="B20" s="19"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -2678,231 +2676,232 @@
       <c r="AH20" s="9">
         <v>0</v>
       </c>
+      <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1">
-      <c r="B21" s="18"/>
+    <row r="21" spans="2:35">
+      <c r="B21" s="19"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="6">
-        <f t="shared" ref="F21:R21" si="2">AVERAGE(F6:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" ht="16.149999999999999" customHeight="1">
+      <c r="B22" s="19"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:R22" si="1">AVERAGE(F6:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <f t="shared" ref="S22:AH22" si="2">AVERAGE(S6:S21)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="6">
+      <c r="U22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="6">
+      <c r="V22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="6">
+      <c r="W22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="6">
+      <c r="X22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="6">
+      <c r="Y22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="6">
+      <c r="Z22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="6">
+      <c r="AA22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="6">
+      <c r="AB22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="6">
+      <c r="AC22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="AD22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R21" s="6">
+      <c r="AE22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S21" s="6">
-        <f t="shared" ref="S21:AH21" si="3">AVERAGE(S6:S20)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="6">
-        <f t="shared" si="3"/>
+      <c r="AF22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:34">
-      <c r="B22" s="18"/>
-      <c r="C22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-      <c r="P22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
-        <v>0</v>
-      </c>
-      <c r="U22" s="9">
-        <v>0</v>
-      </c>
-      <c r="V22" s="9">
-        <v>0</v>
-      </c>
-      <c r="W22" s="9">
-        <v>0</v>
-      </c>
-      <c r="X22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34">
-      <c r="B23" s="18"/>
-      <c r="C23" s="15"/>
+    <row r="23" spans="2:35">
+      <c r="B23" s="19"/>
+      <c r="C23" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="D23" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
@@ -2918,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K23" s="9">
         <v>0</v>
@@ -2993,11 +2992,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:34">
-      <c r="B24" s="18"/>
-      <c r="C24" s="15"/>
+    <row r="24" spans="2:35">
+      <c r="B24" s="19"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
@@ -3088,11 +3087,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:34">
-      <c r="B25" s="18"/>
-      <c r="C25" s="15"/>
+    <row r="25" spans="2:35">
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -3183,246 +3182,246 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:34">
-      <c r="B26" s="18"/>
+    <row r="26" spans="2:35">
+      <c r="B26" s="19"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="6">
-        <f t="shared" ref="F26:R26" si="4">AVERAGE(F22:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35">
+      <c r="B27" s="19"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6">
+        <f t="shared" ref="F27:R27" si="3">AVERAGE(F23:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="6">
+        <f t="shared" ref="S27:AH27" si="4">AVERAGE(S23:S26)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H26" s="6">
+      <c r="U27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I26" s="6">
+      <c r="V27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J26" s="6">
+      <c r="W27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K26" s="6">
+      <c r="X27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="6">
+      <c r="Y27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M26" s="6">
+      <c r="Z27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N26" s="6">
+      <c r="AA27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O26" s="6">
+      <c r="AB27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P26" s="6">
+      <c r="AC27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="AD27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R26" s="6">
+      <c r="AE27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S26" s="6">
-        <f t="shared" ref="S26:AH26" si="5">AVERAGE(S22:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="6">
-        <f t="shared" si="5"/>
+      <c r="AF27" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:34">
-      <c r="B27" s="18"/>
-      <c r="C27" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="7" t="s">
+    <row r="28" spans="2:35">
+      <c r="B28" s="19"/>
+      <c r="C28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-      <c r="P27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>0</v>
-      </c>
-      <c r="R27" s="9">
-        <v>0</v>
-      </c>
-      <c r="S27" s="9">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9">
-        <v>0</v>
-      </c>
-      <c r="U27" s="9">
-        <v>0</v>
-      </c>
-      <c r="V27" s="9">
-        <v>0</v>
-      </c>
-      <c r="W27" s="9">
-        <v>0</v>
-      </c>
-      <c r="X27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34">
-      <c r="B28" s="18"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="9">
         <v>0</v>
@@ -3497,27 +3496,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:34">
-      <c r="B29" s="18"/>
-      <c r="C29" s="12"/>
+    <row r="29" spans="2:35">
+      <c r="B29" s="19"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="7" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
         <v>0</v>
       </c>
       <c r="G29" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
       </c>
       <c r="I29" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="9">
         <v>0</v>
@@ -3592,11 +3591,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:34">
-      <c r="B30" s="18"/>
-      <c r="C30" s="12"/>
+    <row r="30" spans="2:35">
+      <c r="B30" s="19"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -3612,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="9">
         <v>0</v>
@@ -3687,11 +3686,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:34">
-      <c r="B31" s="18"/>
-      <c r="C31" s="12"/>
+    <row r="31" spans="2:35">
+      <c r="B31" s="19"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -3707,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="9">
         <v>0</v>
@@ -3782,11 +3781,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:34">
-      <c r="B32" s="18"/>
-      <c r="C32" s="12"/>
+    <row r="32" spans="2:35">
+      <c r="B32" s="19"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -3802,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="9">
         <v>0</v>
@@ -3878,136 +3877,136 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="19"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6">
-        <f t="shared" ref="F33:R33" si="6">AVERAGE(F27:F32)</f>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" ref="F33:AH33" si="5">AVERAGE(F28:F32)</f>
+        <v>0.1</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="6"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.1</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="6"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="5"/>
+        <v>0.16</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.27999999999999997</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S33" s="6">
-        <f t="shared" ref="S33:AH33" si="7">AVERAGE(S27:S32)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>29</v>
+      <c r="C34" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9">
@@ -4099,10 +4098,10 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="18"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9">
@@ -4194,10 +4193,10 @@
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="18"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
@@ -4289,10 +4288,10 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="18"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="9">
@@ -4384,10 +4383,10 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="18"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="9">
@@ -4479,10 +4478,10 @@
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="18"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9">
@@ -4574,10 +4573,10 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="18"/>
-      <c r="C40" s="15"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="9">
@@ -4669,10 +4668,10 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="18"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="9">
@@ -4764,134 +4763,134 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="18"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6">
-        <f>AVERAGE(F34:F39)</f>
+        <f>AVERAGE(F34:F41)</f>
         <v>0</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" ref="G42:AH42" si="8">AVERAGE(G34:G39)</f>
+        <f t="shared" ref="G42:AH42" si="6">AVERAGE(G34:G41)</f>
         <v>0</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="6"/>
+        <v>0.625</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="6"/>
+        <v>0.625</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="6"/>
+        <v>0.625</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="18"/>
-      <c r="C43" s="14" t="s">
-        <v>31</v>
+      <c r="B43" s="19"/>
+      <c r="C43" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="9">
@@ -4983,10 +4982,10 @@
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="18"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -5002,7 +5001,7 @@
         <v>0.8</v>
       </c>
       <c r="J44" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K44" s="9">
         <v>0</v>
@@ -5078,10 +5077,10 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="18"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
@@ -5173,10 +5172,10 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="18"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="9">
@@ -5268,10 +5267,10 @@
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="18"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="9">
@@ -5363,10 +5362,10 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="18"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="9">
@@ -5458,8 +5457,8 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="18"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -5553,134 +5552,134 @@
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="18"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6">
-        <f t="shared" ref="F50:R50" si="9">AVERAGE(F43:F48)</f>
+        <f t="shared" ref="F50:R50" si="7">AVERAGE(F43:F48)</f>
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.81666666666666676</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="9"/>
-        <v>0.89833333333333332</v>
+        <f t="shared" si="7"/>
+        <v>0.9</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" ref="S50" si="10">AVERAGE(S43:S48)</f>
+        <f t="shared" ref="S50" si="8">AVERAGE(S43:S48)</f>
         <v>0</v>
       </c>
       <c r="T50" s="6">
-        <f t="shared" ref="T50" si="11">AVERAGE(T43:T48)</f>
+        <f t="shared" ref="T50" si="9">AVERAGE(T43:T48)</f>
         <v>0</v>
       </c>
       <c r="U50" s="6">
-        <f t="shared" ref="U50" si="12">AVERAGE(U43:U48)</f>
+        <f t="shared" ref="U50" si="10">AVERAGE(U43:U48)</f>
         <v>0</v>
       </c>
       <c r="V50" s="6">
-        <f t="shared" ref="V50" si="13">AVERAGE(V43:V48)</f>
+        <f t="shared" ref="V50" si="11">AVERAGE(V43:V48)</f>
         <v>0</v>
       </c>
       <c r="W50" s="6">
-        <f t="shared" ref="W50" si="14">AVERAGE(W43:W48)</f>
+        <f t="shared" ref="W50" si="12">AVERAGE(W43:W48)</f>
         <v>0</v>
       </c>
       <c r="X50" s="6">
-        <f t="shared" ref="X50" si="15">AVERAGE(X43:X48)</f>
+        <f t="shared" ref="X50" si="13">AVERAGE(X43:X48)</f>
         <v>0</v>
       </c>
       <c r="Y50" s="6">
-        <f t="shared" ref="Y50" si="16">AVERAGE(Y43:Y48)</f>
+        <f t="shared" ref="Y50" si="14">AVERAGE(Y43:Y48)</f>
         <v>0</v>
       </c>
       <c r="Z50" s="6">
-        <f t="shared" ref="Z50" si="17">AVERAGE(Z43:Z48)</f>
+        <f t="shared" ref="Z50" si="15">AVERAGE(Z43:Z48)</f>
         <v>0</v>
       </c>
       <c r="AA50" s="6">
-        <f t="shared" ref="AA50" si="18">AVERAGE(AA43:AA48)</f>
+        <f t="shared" ref="AA50" si="16">AVERAGE(AA43:AA48)</f>
         <v>0</v>
       </c>
       <c r="AB50" s="6">
-        <f t="shared" ref="AB50" si="19">AVERAGE(AB43:AB48)</f>
+        <f t="shared" ref="AB50" si="17">AVERAGE(AB43:AB48)</f>
         <v>0</v>
       </c>
       <c r="AC50" s="6">
-        <f t="shared" ref="AC50" si="20">AVERAGE(AC43:AC48)</f>
+        <f t="shared" ref="AC50" si="18">AVERAGE(AC43:AC48)</f>
         <v>0</v>
       </c>
       <c r="AD50" s="6">
-        <f t="shared" ref="AD50" si="21">AVERAGE(AD43:AD48)</f>
+        <f t="shared" ref="AD50" si="19">AVERAGE(AD43:AD48)</f>
         <v>0</v>
       </c>
       <c r="AE50" s="6">
-        <f t="shared" ref="AE50" si="22">AVERAGE(AE43:AE48)</f>
+        <f t="shared" ref="AE50" si="20">AVERAGE(AE43:AE48)</f>
         <v>0</v>
       </c>
       <c r="AF50" s="6">
-        <f t="shared" ref="AF50" si="23">AVERAGE(AF43:AF48)</f>
+        <f t="shared" ref="AF50" si="21">AVERAGE(AF43:AF48)</f>
         <v>0</v>
       </c>
       <c r="AG50" s="6">
-        <f t="shared" ref="AG50" si="24">AVERAGE(AG43:AG48)</f>
+        <f t="shared" ref="AG50" si="22">AVERAGE(AG43:AG48)</f>
         <v>0</v>
       </c>
       <c r="AH50" s="6">
-        <f t="shared" ref="AH50" si="25">AVERAGE(AH43:AH48)</f>
+        <f t="shared" ref="AH50" si="23">AVERAGE(AH43:AH48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="18"/>
-      <c r="C51" s="15" t="s">
-        <v>58</v>
+      <c r="B51" s="19"/>
+      <c r="C51" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="9">
@@ -5772,10 +5771,10 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="18"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="9">
@@ -5867,8 +5866,8 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="19"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6">
@@ -5876,127 +5875,127 @@
         <v>0</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" ref="G53:AH53" si="26">AVERAGE(G51:G52)</f>
+        <f t="shared" ref="G53:AH53" si="24">AVERAGE(G51:G52)</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AF53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AG53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>34</v>
+      <c r="B54" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="9">
@@ -6012,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="9">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="9">
         <v>0</v>
@@ -6088,10 +6087,10 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="18"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="9">
@@ -6183,10 +6182,10 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="18"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9">
@@ -6278,10 +6277,10 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="18"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="9">
@@ -6373,10 +6372,10 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="18"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="9">
@@ -6468,10 +6467,10 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="18"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="9">
@@ -6563,10 +6562,10 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="18"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="9">
@@ -6658,10 +6657,10 @@
       </c>
     </row>
     <row r="61" spans="2:34">
-      <c r="B61" s="18"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="7" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="9">
@@ -6753,10 +6752,10 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="18"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="9">
@@ -6848,10 +6847,10 @@
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="18"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="7" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="9">
@@ -6943,10 +6942,10 @@
       </c>
     </row>
     <row r="64" spans="2:34">
-      <c r="B64" s="18"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="9">
@@ -7038,10 +7037,10 @@
       </c>
     </row>
     <row r="65" spans="2:34">
-      <c r="B65" s="18"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="9">
@@ -7133,10 +7132,10 @@
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="18"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="9">
@@ -7228,683 +7227,683 @@
       </c>
     </row>
     <row r="67" spans="2:34">
-      <c r="B67" s="18"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="16"/>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="6">
-        <f>AVERAGE(F54:F66)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="6">
-        <f t="shared" ref="G67:R67" si="27">AVERAGE(G54:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="6">
-        <f t="shared" ref="S67:AH67" si="28">AVERAGE(S54:S66)</f>
-        <v>0</v>
-      </c>
-      <c r="T67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="V67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Z67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AC67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AE67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AH67" s="6">
-        <f t="shared" si="28"/>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0</v>
+      </c>
+      <c r="O67" s="9">
+        <v>0</v>
+      </c>
+      <c r="P67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="9">
+        <v>0</v>
+      </c>
+      <c r="R67" s="9">
+        <v>0</v>
+      </c>
+      <c r="S67" s="9">
+        <v>0</v>
+      </c>
+      <c r="T67" s="9">
+        <v>0</v>
+      </c>
+      <c r="U67" s="9">
+        <v>0</v>
+      </c>
+      <c r="V67" s="9">
+        <v>0</v>
+      </c>
+      <c r="W67" s="9">
+        <v>0</v>
+      </c>
+      <c r="X67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B68" s="18"/>
-      <c r="C68" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>44</v>
-      </c>
+    <row r="68" spans="2:34">
+      <c r="B68" s="19"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="9">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9">
-        <v>0</v>
-      </c>
-      <c r="I68" s="9">
-        <v>0</v>
-      </c>
-      <c r="J68" s="9">
-        <v>0</v>
-      </c>
-      <c r="K68" s="9">
-        <v>0</v>
-      </c>
-      <c r="L68" s="9">
-        <v>0</v>
-      </c>
-      <c r="M68" s="9">
-        <v>0</v>
-      </c>
-      <c r="N68" s="9">
-        <v>0</v>
-      </c>
-      <c r="O68" s="9">
-        <v>0</v>
-      </c>
-      <c r="P68" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="9">
-        <v>0</v>
-      </c>
-      <c r="R68" s="9">
-        <v>0</v>
-      </c>
-      <c r="S68" s="9">
-        <v>0</v>
-      </c>
-      <c r="T68" s="9">
-        <v>0</v>
-      </c>
-      <c r="U68" s="9">
-        <v>0</v>
-      </c>
-      <c r="V68" s="9">
-        <v>0</v>
-      </c>
-      <c r="W68" s="9">
-        <v>0</v>
-      </c>
-      <c r="X68" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="9">
+      <c r="F68" s="6">
+        <f>AVERAGE(F54:F67)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" ref="G68:R68" si="25">AVERAGE(G54:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <f t="shared" si="25"/>
+        <v>3.2142857142857147E-2</v>
+      </c>
+      <c r="K68" s="6">
+        <f t="shared" si="25"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="L68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="6">
+        <f t="shared" ref="S68:AH68" si="26">AVERAGE(S54:S67)</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="6">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:34">
-      <c r="B69" s="18"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="7"/>
+    <row r="69" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B69" s="19"/>
+      <c r="C69" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E69" s="7"/>
-      <c r="F69" s="6">
-        <f>AVERAGE(F68)</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="6">
-        <f t="shared" ref="G69" si="29">AVERAGE(G65:G68)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="6">
-        <f t="shared" ref="H69" si="30">AVERAGE(H65:H68)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="6">
-        <f t="shared" ref="I69" si="31">AVERAGE(I65:I68)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="6">
-        <f t="shared" ref="J69" si="32">AVERAGE(J65:J68)</f>
-        <v>0</v>
-      </c>
-      <c r="K69" s="6">
-        <f t="shared" ref="K69" si="33">AVERAGE(K65:K68)</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="6">
-        <f t="shared" ref="L69" si="34">AVERAGE(L65:L68)</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="6">
-        <f t="shared" ref="M69" si="35">AVERAGE(M65:M68)</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="6">
-        <f t="shared" ref="N69" si="36">AVERAGE(N65:N68)</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="6">
-        <f t="shared" ref="O69" si="37">AVERAGE(O65:O68)</f>
-        <v>0</v>
-      </c>
-      <c r="P69" s="6">
-        <f t="shared" ref="P69" si="38">AVERAGE(P65:P68)</f>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="6">
-        <f t="shared" ref="Q69" si="39">AVERAGE(Q65:Q68)</f>
-        <v>0</v>
-      </c>
-      <c r="R69" s="6">
-        <f t="shared" ref="R69:AH69" si="40">AVERAGE(R65:R68)</f>
-        <v>0</v>
-      </c>
-      <c r="S69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="W69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AA69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AD69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AE69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AF69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AG69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AH69" s="6">
-        <f t="shared" si="40"/>
+      <c r="F69" s="9">
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="9">
+        <v>0</v>
+      </c>
+      <c r="K69" s="9">
+        <v>0</v>
+      </c>
+      <c r="L69" s="9">
+        <v>0</v>
+      </c>
+      <c r="M69" s="9">
+        <v>0</v>
+      </c>
+      <c r="N69" s="9">
+        <v>0</v>
+      </c>
+      <c r="O69" s="9">
+        <v>0</v>
+      </c>
+      <c r="P69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>0</v>
+      </c>
+      <c r="R69" s="9">
+        <v>0</v>
+      </c>
+      <c r="S69" s="9">
+        <v>0</v>
+      </c>
+      <c r="T69" s="9">
+        <v>0</v>
+      </c>
+      <c r="U69" s="9">
+        <v>0</v>
+      </c>
+      <c r="V69" s="9">
+        <v>0</v>
+      </c>
+      <c r="W69" s="9">
+        <v>0</v>
+      </c>
+      <c r="X69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:34">
-      <c r="B70" s="18"/>
-      <c r="C70" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G70" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H70" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I70" s="9">
-        <v>0</v>
-      </c>
-      <c r="J70" s="9">
-        <v>0</v>
-      </c>
-      <c r="K70" s="9">
-        <v>0</v>
-      </c>
-      <c r="L70" s="9">
-        <v>0</v>
-      </c>
-      <c r="M70" s="9">
-        <v>0</v>
-      </c>
-      <c r="N70" s="9">
-        <v>0</v>
-      </c>
-      <c r="O70" s="9">
-        <v>0</v>
-      </c>
-      <c r="P70" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="9">
-        <v>0</v>
-      </c>
-      <c r="R70" s="9">
-        <v>0</v>
-      </c>
-      <c r="S70" s="9">
-        <v>0</v>
-      </c>
-      <c r="T70" s="9">
-        <v>0</v>
-      </c>
-      <c r="U70" s="9">
-        <v>0</v>
-      </c>
-      <c r="V70" s="9">
-        <v>0</v>
-      </c>
-      <c r="W70" s="9">
-        <v>0</v>
-      </c>
-      <c r="X70" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH70" s="9">
+      <c r="F70" s="6">
+        <f>AVERAGE(F69)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" ref="G70:AH70" si="27">AVERAGE(G69)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="6">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:34">
-      <c r="B71" s="18"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="6">
-        <f>AVERAGE(F70)</f>
+      <c r="F71" s="9">
         <v>0.5</v>
       </c>
-      <c r="G71" s="6">
-        <f t="shared" ref="G71:R71" si="41">AVERAGE(G70)</f>
+      <c r="G71" s="9">
         <v>0.5</v>
       </c>
-      <c r="H71" s="6">
-        <f t="shared" si="41"/>
+      <c r="H71" s="9">
         <v>0.5</v>
       </c>
-      <c r="I71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="R71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="S71" s="6">
-        <f t="shared" ref="S71:AH71" si="42">AVERAGE(S70)</f>
-        <v>0</v>
-      </c>
-      <c r="T71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="U71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="V71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="X71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Y71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Z71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AB71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AC71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AD71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AE71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AF71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AH71" s="6">
-        <f t="shared" si="42"/>
+      <c r="I71" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J71" s="9">
+        <v>1</v>
+      </c>
+      <c r="K71" s="9">
+        <v>0</v>
+      </c>
+      <c r="L71" s="9">
+        <v>0</v>
+      </c>
+      <c r="M71" s="9">
+        <v>0</v>
+      </c>
+      <c r="N71" s="9">
+        <v>0</v>
+      </c>
+      <c r="O71" s="9">
+        <v>0</v>
+      </c>
+      <c r="P71" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>0</v>
+      </c>
+      <c r="R71" s="9">
+        <v>0</v>
+      </c>
+      <c r="S71" s="9">
+        <v>0</v>
+      </c>
+      <c r="T71" s="9">
+        <v>0</v>
+      </c>
+      <c r="U71" s="9">
+        <v>0</v>
+      </c>
+      <c r="V71" s="9">
+        <v>0</v>
+      </c>
+      <c r="W71" s="9">
+        <v>0</v>
+      </c>
+      <c r="X71" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B72" s="18"/>
-      <c r="C72" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>46</v>
-      </c>
+    <row r="72" spans="2:34">
+      <c r="B72" s="19"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="9">
-        <v>0</v>
-      </c>
-      <c r="G72" s="9">
+      <c r="F72" s="6">
+        <f>AVERAGE(F71)</f>
         <v>0.5</v>
       </c>
-      <c r="H72" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="I72" s="9">
+      <c r="G72" s="6">
+        <f t="shared" ref="G72:R72" si="28">AVERAGE(G71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H72" s="6">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="J72" s="6">
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="J72" s="9">
-        <v>0</v>
-      </c>
-      <c r="K72" s="9">
-        <v>0</v>
-      </c>
-      <c r="L72" s="9">
-        <v>0</v>
-      </c>
-      <c r="M72" s="9">
-        <v>0</v>
-      </c>
-      <c r="N72" s="9">
-        <v>0</v>
-      </c>
-      <c r="O72" s="9">
-        <v>0</v>
-      </c>
-      <c r="P72" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="9">
-        <v>0</v>
-      </c>
-      <c r="R72" s="9">
-        <v>0</v>
-      </c>
-      <c r="S72" s="9">
-        <v>0</v>
-      </c>
-      <c r="T72" s="9">
-        <v>0</v>
-      </c>
-      <c r="U72" s="9">
-        <v>0</v>
-      </c>
-      <c r="V72" s="9">
-        <v>0</v>
-      </c>
-      <c r="W72" s="9">
-        <v>0</v>
-      </c>
-      <c r="X72" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH72" s="9">
+      <c r="K72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="6">
+        <f t="shared" ref="S72:AH72" si="29">AVERAGE(S71)</f>
+        <v>0</v>
+      </c>
+      <c r="T72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AD72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH72" s="6">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:34">
-      <c r="B73" s="18"/>
-      <c r="C73" s="15"/>
+    <row r="73" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B73" s="19"/>
+      <c r="C73" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="D73" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="9">
         <v>0</v>
       </c>
       <c r="G73" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H73" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I73" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J73" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="9">
         <v>0</v>
@@ -7982,202 +7981,292 @@
     <row r="74" spans="2:34">
       <c r="B74" s="19"/>
       <c r="C74" s="16"/>
-      <c r="D74" s="7"/>
+      <c r="D74" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E74" s="7"/>
-      <c r="F74" s="6">
-        <f t="shared" ref="F74:R74" si="43">AVERAGE(F72:F73)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="6">
-        <f t="shared" si="43"/>
-        <v>0.25</v>
-      </c>
-      <c r="H74" s="6">
-        <f t="shared" si="43"/>
-        <v>0.375</v>
-      </c>
-      <c r="I74" s="6">
-        <f t="shared" si="43"/>
-        <v>0.95</v>
-      </c>
-      <c r="J74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="6">
-        <f t="shared" ref="S74:AH74" si="44">AVERAGE(S72:S73)</f>
-        <v>0</v>
-      </c>
-      <c r="T74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="X74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AB74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AC74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AE74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AF74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AG74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AH74" s="6">
-        <f t="shared" si="44"/>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0</v>
+      </c>
+      <c r="H74" s="9">
+        <v>0</v>
+      </c>
+      <c r="I74" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J74" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K74" s="9">
+        <v>0</v>
+      </c>
+      <c r="L74" s="9">
+        <v>0</v>
+      </c>
+      <c r="M74" s="9">
+        <v>0</v>
+      </c>
+      <c r="N74" s="9">
+        <v>0</v>
+      </c>
+      <c r="O74" s="9">
+        <v>0</v>
+      </c>
+      <c r="P74" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>0</v>
+      </c>
+      <c r="R74" s="9">
+        <v>0</v>
+      </c>
+      <c r="S74" s="9">
+        <v>0</v>
+      </c>
+      <c r="T74" s="9">
+        <v>0</v>
+      </c>
+      <c r="U74" s="9">
+        <v>0</v>
+      </c>
+      <c r="V74" s="9">
+        <v>0</v>
+      </c>
+      <c r="W74" s="9">
+        <v>0</v>
+      </c>
+      <c r="X74" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:34">
-      <c r="E75" s="8"/>
-      <c r="F75" s="4"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="6">
+        <f t="shared" ref="F75:R75" si="30">AVERAGE(F73:F74)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="30"/>
+        <v>0.25</v>
+      </c>
+      <c r="H75" s="6">
+        <f t="shared" si="30"/>
+        <v>0.375</v>
+      </c>
+      <c r="I75" s="6">
+        <f t="shared" si="30"/>
+        <v>0.95</v>
+      </c>
+      <c r="J75" s="6">
+        <f t="shared" si="30"/>
+        <v>0.95</v>
+      </c>
+      <c r="K75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="6">
+        <f t="shared" ref="S75:AH75" si="31">AVERAGE(S73:S74)</f>
+        <v>0</v>
+      </c>
+      <c r="T75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AD75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="2:34">
       <c r="E76" s="8"/>
       <c r="F76" s="4"/>
     </row>
+    <row r="77" spans="2:34">
+      <c r="E77" s="8"/>
+      <c r="F77" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C54:C67"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B54:B74"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C54:C68"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="B54:B75"/>
     <mergeCell ref="C43:C50"/>
     <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C6:C21"/>
-    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C6:C22"/>
     <mergeCell ref="C34:C42"/>
-    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C23:C27"/>
     <mergeCell ref="B6:B33"/>
     <mergeCell ref="B34:B53"/>
+    <mergeCell ref="C28:C33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C27 E27:E28">
-    <cfRule type="cellIs" dxfId="9" priority="159" operator="equal">
+  <conditionalFormatting sqref="B34:C34 E34:E35">
+    <cfRule type="cellIs" dxfId="8" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34 E34:E35">
-    <cfRule type="cellIs" dxfId="8" priority="92" operator="equal">
+  <conditionalFormatting sqref="C28 E28:E29">
+    <cfRule type="cellIs" dxfId="7" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:D43 D43:D49">
-    <cfRule type="cellIs" dxfId="7" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D13">
-    <cfRule type="cellIs" dxfId="6" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D20">
-    <cfRule type="cellIs" dxfId="5" priority="24" operator="equal">
+  <conditionalFormatting sqref="D14:D21 D23:D41">
+    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21 E22:E25 B54">
-    <cfRule type="cellIs" dxfId="4" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D41">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+  <conditionalFormatting sqref="D22 E23:E26 B54:B55">
+    <cfRule type="cellIs" dxfId="3" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:E51 D53:E53 C54:E54 D55:E67 C68:E68 D69:E74">
-    <cfRule type="cellIs" dxfId="1" priority="119" operator="equal">
+  <conditionalFormatting sqref="D51:E51 D53:E53 C54:E55 D56:E68 C69:E69 D70:E75">
+    <cfRule type="cellIs" dxfId="1" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E20">
-    <cfRule type="cellIs" dxfId="0" priority="400" operator="equal">
+  <conditionalFormatting sqref="E6:E21">
+    <cfRule type="cellIs" dxfId="0" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F32">
-    <cfRule type="dataBar" priority="414">
+  <conditionalFormatting sqref="F28">
+    <cfRule type="dataBar" priority="505">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8190,8 +8279,64 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C9B1CBA6-8E8F-409E-969D-8814DC7288E9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C9CC8EE-9F85-4D1B-A9FD-8B4A25562878}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CDD693AD-B56D-4CB1-9D65-1694161B4B41}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C8DCD6B3-DF0C-45B8-A4AF-072C80C9651E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F34:F37">
-    <cfRule type="dataBar" priority="406">
+    <cfRule type="dataBar" priority="432">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8205,7 +8350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F41">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8218,8 +8363,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F49 F43 F44:H44 J44:AH44">
-    <cfRule type="dataBar" priority="459">
+  <conditionalFormatting sqref="F45:F49 F43 F44:H44 J44">
+    <cfRule type="dataBar" priority="485">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8232,8 +8377,50 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51 F54 F55:AH66 F68:AH68 F70:H70">
-    <cfRule type="dataBar" priority="451">
+  <conditionalFormatting sqref="F52">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9A642850-F1AC-4A64-AB4F-37A40B9CA441}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73:F74">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2AA71A7D-0A87-47E9-8455-1690A5BCBEDB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54:I67">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6DB883C9-1F88-4735-AB90-2C226539E60C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:I71 F51">
+    <cfRule type="dataBar" priority="477">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8246,22 +8433,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A642850-F1AC-4A64-AB4F-37A40B9CA441}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G20">
-    <cfRule type="dataBar" priority="412">
+  <conditionalFormatting sqref="F6:AH21">
+    <cfRule type="dataBar" priority="438">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8274,8 +8447,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G22 F24:G25 F23:AH23">
-    <cfRule type="dataBar" priority="456">
+  <conditionalFormatting sqref="F23:AH26">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8283,13 +8456,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33F6A3E8-F39F-4486-821E-EFC74CA33142}</x14:id>
+          <x14:id>{A0E20ECF-5663-478F-8E9F-449195CDAA9F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:AH72 F73">
-    <cfRule type="dataBar" priority="462">
+  <conditionalFormatting sqref="F69:AH69">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8297,13 +8470,27 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1CEE6841-AF6F-4430-AD73-2BF608979F81}</x14:id>
+          <x14:id>{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G32">
-    <cfRule type="dataBar" priority="415">
+  <conditionalFormatting sqref="G28">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{57A8B765-FFA7-434C-9523-5857F06016E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="dataBar" priority="514">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8316,8 +8503,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G32">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6B382747-E3CF-4F61-B632-A61A74466B47}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G34:G37">
-    <cfRule type="dataBar" priority="407">
+    <cfRule type="dataBar" priority="433">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8331,7 +8532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G41">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8345,7 +8546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G49 G43">
-    <cfRule type="dataBar" priority="446">
+    <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8358,8 +8559,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54 G51">
-    <cfRule type="dataBar" priority="428">
+  <conditionalFormatting sqref="G51">
+    <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8373,7 +8574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8387,7 +8588,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="dataBar" priority="436">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E848E527-F886-47F9-86FC-B4D9ACBF8A73}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8400,8 +8615,148 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:AH20">
-    <cfRule type="dataBar" priority="464">
+  <conditionalFormatting sqref="H29:H32">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3AE68020-C365-4ABF-939B-EF0068109146}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H36">
+    <cfRule type="dataBar" priority="494">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{39544BDF-3167-4345-B25E-E17EB47629D9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H39">
+    <cfRule type="dataBar" priority="495">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:H49 H43 J45 J43">
+    <cfRule type="dataBar" priority="496">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{106CA0D7-EA4D-4861-A022-D36678D0799F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DE68A3AD-D55D-4311-89F9-78D10FCA9D91}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:J28 I29:J29 J30:J32">
+    <cfRule type="dataBar" priority="523">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:J37">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1303D586-8258-463C-8ABD-037215FABF40}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:J41">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:J73">
+    <cfRule type="dataBar" priority="488">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1CEE6841-AF6F-4430-AD73-2BF608979F81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:AH21 AI20">
+    <cfRule type="dataBar" priority="490">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8414,92 +8769,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:AH22 H24:AH25">
-    <cfRule type="dataBar" priority="465">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BCD1C124-A451-49AA-9093-315C4E8AB1D8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:AH32">
-    <cfRule type="dataBar" priority="467">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H37 K34:AH37">
-    <cfRule type="dataBar" priority="468">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39544BDF-3167-4345-B25E-E17EB47629D9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H41 K38:AH41">
-    <cfRule type="dataBar" priority="469">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H49 H43 J45:AH45 J43:AH43 K46:AH49">
-    <cfRule type="dataBar" priority="470">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:AH51 H54:AH54 I70:AH70">
-    <cfRule type="dataBar" priority="472">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H52:AH52">
-    <cfRule type="dataBar" priority="475">
+    <cfRule type="dataBar" priority="501">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8512,8 +8783,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:AH73">
-    <cfRule type="dataBar" priority="476">
+  <conditionalFormatting sqref="I30:I32">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8521,13 +8792,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E177B73-5E16-40E4-A603-861BA18F14AA}</x14:id>
+          <x14:id>{1A303F07-6070-4189-AC1D-80357A0D5D47}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I36">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0CAB636-D7F6-4060-9565-33FF484985B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EFF78A47-4D23-462B-A616-BA7687DFFB29}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8541,7 +8840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:I49 I43">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8554,8 +8853,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I37">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="I74:J74">
+    <cfRule type="dataBar" priority="502">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8563,13 +8862,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A0CAB636-D7F6-4060-9565-33FF484985B4}</x14:id>
+          <x14:id>{9E177B73-5E16-40E4-A603-861BA18F14AA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I41">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="I51:AH51">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8577,13 +8876,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EFF78A47-4D23-462B-A616-BA7687DFFB29}</x14:id>
+          <x14:id>{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J37">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="J34:J36">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8596,8 +8895,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J41">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="J38:J39">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8611,7 +8910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:J49">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8620,6 +8919,132 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71 J54">
+    <cfRule type="dataBar" priority="498">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57:AH67 J55:J56">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90455EE3-E7AD-4F59-8325-47922778E0F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:AH32">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4C3D459D-49E3-462A-B846-0FE83B131D15}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:AH40">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:AH41">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79A6E942-BB28-4C5C-B051-63D2113FB72F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:AH49">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6C5573C3-41FA-4990-9C24-439EC153DA6C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:AH56">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{018A2B3E-2548-4772-A2CF-BD33006C0FDF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71:AH71">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CBE33775-0E9E-48FA-B07E-81B3AA0F642B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:AH74">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B769FDA4-52DD-48E5-B5B4-67E966D84479}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8638,7 +9063,51 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F27:F32</xm:sqref>
+          <xm:sqref>F28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C9B1CBA6-8E8F-409E-969D-8814DC7288E9}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C9CC8EE-9F85-4D1B-A9FD-8B4A25562878}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CDD693AD-B56D-4CB1-9D65-1694161B4B41}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C8DCD6B3-DF0C-45B8-A4AF-072C80C9651E}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9C91B573-7EDD-48F1-AAE4-F942D0F94FED}">
@@ -8671,18 +9140,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F45:F49 F43 F44:H44 J44:AH44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F51 F54 F55:AH66 F68:AH68 F70:H70</xm:sqref>
+          <xm:sqref>F45:F49 F43 F44:H44 J44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
@@ -8696,6 +9154,39 @@
           <xm:sqref>F52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2AA71A7D-0A87-47E9-8455-1690A5BCBEDB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F73:F74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6DB883C9-1F88-4735-AB90-2C226539E60C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F54:I67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F71:I71 F51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -8704,10 +9195,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G20</xm:sqref>
+          <xm:sqref>F6:AH21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33F6A3E8-F39F-4486-821E-EFC74CA33142}">
+          <x14:cfRule type="dataBar" id="{A0E20ECF-5663-478F-8E9F-449195CDAA9F}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8715,10 +9206,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F22:G22 F24:G25 F23:AH23</xm:sqref>
+          <xm:sqref>F23:AH26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
+          <x14:cfRule type="dataBar" id="{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8726,7 +9217,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F72:AH72 F73</xm:sqref>
+          <xm:sqref>F69:AH69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{57A8B765-FFA7-434C-9523-5857F06016E6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D4E863B-7ADB-4930-88E8-B15E0F7C56D2}">
@@ -8737,7 +9239,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G27:G32</xm:sqref>
+          <xm:sqref>G29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6B382747-E3CF-4F61-B632-A61A74466B47}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30:G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85109038-BFED-4A1D-9EFD-DFC02076C006}">
@@ -8781,7 +9294,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G54 G51</xm:sqref>
+          <xm:sqref>G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
@@ -8795,7 +9308,7 @@
           <xm:sqref>G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
+          <x14:cfRule type="dataBar" id="{E848E527-F886-47F9-86FC-B4D9ACBF8A73}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8806,7 +9319,7 @@
           <xm:sqref>G73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
+          <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8814,10 +9327,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:AH20</xm:sqref>
+          <xm:sqref>G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BCD1C124-A451-49AA-9093-315C4E8AB1D8}">
+          <x14:cfRule type="dataBar" id="{3AE68020-C365-4ABF-939B-EF0068109146}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8825,7 +9338,62 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22:AH22 H24:AH25</xm:sqref>
+          <xm:sqref>H29:H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{39544BDF-3167-4345-B25E-E17EB47629D9}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H34:H36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38:H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H45:H49 H43 J45 J43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{106CA0D7-EA4D-4861-A022-D36678D0799F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE68A3AD-D55D-4311-89F9-78D10FCA9D91}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}">
@@ -8836,10 +9404,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H27:AH32</xm:sqref>
+          <xm:sqref>H28:J28 I29:J29 J30:J32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39544BDF-3167-4345-B25E-E17EB47629D9}">
+          <x14:cfRule type="dataBar" id="{1303D586-8258-463C-8ABD-037215FABF40}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8847,10 +9415,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34:H37 K34:AH37</xm:sqref>
+          <xm:sqref>H37:J37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
+          <x14:cfRule type="dataBar" id="{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8858,10 +9426,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38:H41 K38:AH41</xm:sqref>
+          <xm:sqref>H40:J41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
+          <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8869,10 +9437,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45:H49 H43 J45:AH45 J43:AH43 K46:AH49</xm:sqref>
+          <xm:sqref>H73:J73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
+          <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8880,7 +9448,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51:AH51 H54:AH54 I70:AH70</xm:sqref>
+          <xm:sqref>H6:AH21 AI20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
@@ -8894,7 +9462,7 @@
           <xm:sqref>H52:AH52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
+          <x14:cfRule type="dataBar" id="{1A303F07-6070-4189-AC1D-80357A0D5D47}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8902,7 +9470,29 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H73:AH73</xm:sqref>
+          <xm:sqref>I30:I32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0CAB636-D7F6-4060-9565-33FF484985B4}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I34:I36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EFF78A47-4D23-462B-A616-BA7687DFFB29}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I38:I39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1C71E1E0-EA29-4171-9159-938FC2CFE6CA}">
@@ -8927,7 +9517,7 @@
           <xm:sqref>I45:I49 I43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0CAB636-D7F6-4060-9565-33FF484985B4}">
+          <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8935,10 +9525,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I34:I37</xm:sqref>
+          <xm:sqref>I74:J74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EFF78A47-4D23-462B-A616-BA7687DFFB29}">
+          <x14:cfRule type="dataBar" id="{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8946,7 +9536,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I38:I41</xm:sqref>
+          <xm:sqref>I51:AH51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}">
@@ -8957,7 +9547,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J34:J37</xm:sqref>
+          <xm:sqref>J34:J36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{35DDF99D-E2AE-4FE5-A4EB-AC6AFA3114E3}">
@@ -8968,7 +9558,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J38:J41</xm:sqref>
+          <xm:sqref>J38:J39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}">
@@ -8981,6 +9571,105 @@
           </x14:cfRule>
           <xm:sqref>J46:J49</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J71 J54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J57:AH67 J55:J56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4C3D459D-49E3-462A-B846-0FE83B131D15}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K28:AH32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K34:AH40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79A6E942-BB28-4C5C-B051-63D2113FB72F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K41:AH41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K43:AH49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{018A2B3E-2548-4772-A2CF-BD33006C0FDF}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K54:AH56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CBE33775-0E9E-48FA-B07E-81B3AA0F642B}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K71:AH71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B769FDA4-52DD-48E5-B5B4-67E966D84479}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K73:AH74</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -501,21 +501,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +517,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0.17316666666666666</v>
+        <v>0.18</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
@@ -1251,10 +1251,10 @@
       </c>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1350,8 +1350,8 @@
       </c>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="18"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="18"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1540,8 +1540,8 @@
       </c>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="18"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1635,8 +1635,8 @@
       </c>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="18"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1730,8 +1730,8 @@
       </c>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="18"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1825,8 +1825,8 @@
       </c>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="18"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1920,8 +1920,8 @@
       </c>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="18"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -2015,8 +2015,8 @@
       </c>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="18"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2110,8 +2110,8 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="18"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2205,8 +2205,8 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="18"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2300,8 +2300,8 @@
       </c>
     </row>
     <row r="17" spans="2:34">
-      <c r="B17" s="18"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2395,8 +2395,8 @@
       </c>
     </row>
     <row r="18" spans="2:34">
-      <c r="B18" s="18"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2490,8 +2490,8 @@
       </c>
     </row>
     <row r="19" spans="2:34">
-      <c r="B19" s="18"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2585,8 +2585,8 @@
       </c>
     </row>
     <row r="20" spans="2:34">
-      <c r="B20" s="18"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
@@ -2680,8 +2680,8 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1">
-      <c r="B21" s="18"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
@@ -2802,8 +2802,8 @@
       </c>
     </row>
     <row r="22" spans="2:34">
-      <c r="B22" s="18"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2899,8 +2899,8 @@
       </c>
     </row>
     <row r="23" spans="2:34">
-      <c r="B23" s="18"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
@@ -2994,8 +2994,8 @@
       </c>
     </row>
     <row r="24" spans="2:34">
-      <c r="B24" s="18"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3089,8 +3089,8 @@
       </c>
     </row>
     <row r="25" spans="2:34">
-      <c r="B25" s="18"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
@@ -3184,8 +3184,8 @@
       </c>
     </row>
     <row r="26" spans="2:34">
-      <c r="B26" s="18"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6">
@@ -3306,8 +3306,8 @@
       </c>
     </row>
     <row r="27" spans="2:34">
-      <c r="B27" s="18"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -3403,8 +3403,8 @@
       </c>
     </row>
     <row r="28" spans="2:34">
-      <c r="B28" s="18"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
@@ -3498,8 +3498,8 @@
       </c>
     </row>
     <row r="29" spans="2:34">
-      <c r="B29" s="18"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="7" t="s">
         <v>20</v>
       </c>
@@ -3593,8 +3593,8 @@
       </c>
     </row>
     <row r="30" spans="2:34">
-      <c r="B30" s="18"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="7" t="s">
         <v>21</v>
       </c>
@@ -3688,8 +3688,8 @@
       </c>
     </row>
     <row r="31" spans="2:34">
-      <c r="B31" s="18"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
@@ -3783,8 +3783,8 @@
       </c>
     </row>
     <row r="32" spans="2:34">
-      <c r="B32" s="18"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="7" t="s">
         <v>23</v>
       </c>
@@ -3878,8 +3878,8 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="19"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6">
@@ -4000,10 +4000,10 @@
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -4099,8 +4099,8 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="18"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="7" t="s">
         <v>54</v>
       </c>
@@ -4194,8 +4194,8 @@
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="18"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="7" t="s">
         <v>59</v>
       </c>
@@ -4289,8 +4289,8 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="18"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="7" t="s">
         <v>55</v>
       </c>
@@ -4384,8 +4384,8 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="18"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="10" t="s">
         <v>56</v>
       </c>
@@ -4479,8 +4479,8 @@
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="18"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="10" t="s">
         <v>57</v>
       </c>
@@ -4574,8 +4574,8 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="18"/>
-      <c r="C40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="10" t="s">
         <v>60</v>
       </c>
@@ -4669,8 +4669,8 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="18"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="10" t="s">
         <v>61</v>
       </c>
@@ -4764,8 +4764,8 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="18"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6">
@@ -4886,8 +4886,8 @@
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="18"/>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -4983,8 +4983,8 @@
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="18"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="7" t="s">
         <v>65</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0.8</v>
       </c>
       <c r="J44" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K44" s="9">
         <v>0</v>
@@ -5078,8 +5078,8 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="18"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="7" t="s">
         <v>64</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>0.6</v>
       </c>
       <c r="J45" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K45" s="9">
         <v>0</v>
@@ -5173,8 +5173,8 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="18"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="7" t="s">
         <v>53</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0.8</v>
       </c>
       <c r="J46" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K46" s="9">
         <v>0</v>
@@ -5268,8 +5268,8 @@
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="18"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="10" t="s">
         <v>63</v>
       </c>
@@ -5363,8 +5363,8 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="18"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="10" t="s">
         <v>62</v>
       </c>
@@ -5458,8 +5458,8 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="18"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -5553,8 +5553,8 @@
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="18"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="J50" s="6">
         <f t="shared" si="9"/>
-        <v>0.89833333333333332</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="9"/>
@@ -5675,8 +5675,8 @@
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="18"/>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="15"/>
+      <c r="C51" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -5772,8 +5772,8 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="18"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="7" t="s">
         <v>53</v>
       </c>
@@ -5867,8 +5867,8 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="19"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6">
@@ -5989,10 +5989,10 @@
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -6088,8 +6088,8 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="18"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="7" t="s">
         <v>36</v>
       </c>
@@ -6183,8 +6183,8 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="18"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="7" t="s">
         <v>37</v>
       </c>
@@ -6278,8 +6278,8 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="18"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
@@ -6373,8 +6373,8 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="18"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="7" t="s">
         <v>26</v>
       </c>
@@ -6468,8 +6468,8 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="18"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="7" t="s">
         <v>38</v>
       </c>
@@ -6563,8 +6563,8 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="18"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="7" t="s">
         <v>39</v>
       </c>
@@ -6658,8 +6658,8 @@
       </c>
     </row>
     <row r="61" spans="2:34">
-      <c r="B61" s="18"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="7" t="s">
         <v>7</v>
       </c>
@@ -6753,8 +6753,8 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="18"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
@@ -6848,8 +6848,8 @@
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="18"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="7" t="s">
         <v>40</v>
       </c>
@@ -6943,8 +6943,8 @@
       </c>
     </row>
     <row r="64" spans="2:34">
-      <c r="B64" s="18"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="7" t="s">
         <v>41</v>
       </c>
@@ -7038,8 +7038,8 @@
       </c>
     </row>
     <row r="65" spans="2:34">
-      <c r="B65" s="18"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="7" t="s">
         <v>42</v>
       </c>
@@ -7133,8 +7133,8 @@
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="18"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="7" t="s">
         <v>43</v>
       </c>
@@ -7228,8 +7228,8 @@
       </c>
     </row>
     <row r="67" spans="2:34">
-      <c r="B67" s="18"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="6">
@@ -7350,8 +7350,8 @@
       </c>
     </row>
     <row r="68" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B68" s="18"/>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -7447,8 +7447,8 @@
       </c>
     </row>
     <row r="69" spans="2:34">
-      <c r="B69" s="18"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="6">
@@ -7569,8 +7569,8 @@
       </c>
     </row>
     <row r="70" spans="2:34">
-      <c r="B70" s="18"/>
-      <c r="C70" s="14" t="s">
+      <c r="B70" s="15"/>
+      <c r="C70" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -7666,8 +7666,8 @@
       </c>
     </row>
     <row r="71" spans="2:34">
-      <c r="B71" s="18"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="6">
@@ -7788,8 +7788,8 @@
       </c>
     </row>
     <row r="72" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B72" s="18"/>
-      <c r="C72" s="14" t="s">
+      <c r="B72" s="15"/>
+      <c r="C72" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -7885,8 +7885,8 @@
       </c>
     </row>
     <row r="73" spans="2:34">
-      <c r="B73" s="18"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="7" t="s">
         <v>47</v>
       </c>
@@ -7980,8 +7980,8 @@
       </c>
     </row>
     <row r="74" spans="2:34">
-      <c r="B74" s="19"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="12"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="6">
@@ -8111,6 +8111,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C6:C21"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="B34:B53"/>
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="C54:C67"/>
     <mergeCell ref="C72:C74"/>
@@ -8118,12 +8124,6 @@
     <mergeCell ref="C43:C50"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C6:C21"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="B34:B53"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C27 E27:E28">

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gb_0900_jfk\organization\publishing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24EC5E3-5AFC-4A1C-911A-1936C50339D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-7995" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -112,14 +113,6 @@
   </si>
   <si>
     <t>회원 가입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 확인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -302,11 +295,23 @@
     <t>추천코스 상세</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>관리자 메인 페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입(이메일)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인 인증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -466,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,13 +505,25 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,22 +535,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -557,16 +565,6 @@
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
       </font>
       <fill>
         <patternFill>
@@ -918,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AH76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:AI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1037,28 +1035,28 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:R3" si="0">AVERAGE(F21,F26,F33,F42,F50,F53,F67,F69,F71,F74)</f>
-        <v>5.8333333333333334E-2</v>
+        <f>AVERAGE(F22,F27,F33,F42,F50,F53,F68,F70,F72,F75)</f>
+        <v>0.06</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333343E-2</v>
+        <f t="shared" ref="G3:AH3" si="0">AVERAGE(G22,G27,G33,G42,G50,G53,G68,G70,G72,G75)</f>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.26583333333333331</v>
+        <v>0.24766666666666665</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0.26166666666666666</v>
+        <v>0.31883333333333336</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.45821428571428574</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
@@ -1089,67 +1087,67 @@
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" ref="S3:AH3" si="1">AVERAGE(S21,S26,S33,S42,S50,S53,S67,S69,S71,S74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1163,102 +1161,102 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>45682</v>
+        <v>45688</v>
       </c>
       <c r="G5" s="3">
-        <v>45683</v>
+        <v>45689</v>
       </c>
       <c r="H5" s="3">
-        <v>45684</v>
+        <v>45690</v>
       </c>
       <c r="I5" s="3">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="J5" s="3">
-        <v>45686</v>
+        <v>45692</v>
       </c>
       <c r="K5" s="3">
-        <v>45687</v>
+        <v>45693</v>
       </c>
       <c r="L5" s="3">
-        <v>45688</v>
+        <v>45694</v>
       </c>
       <c r="M5" s="3">
-        <v>45689</v>
+        <v>45695</v>
       </c>
       <c r="N5" s="3">
-        <v>45690</v>
+        <v>45696</v>
       </c>
       <c r="O5" s="3">
-        <v>45691</v>
+        <v>45697</v>
       </c>
       <c r="P5" s="3">
-        <v>45692</v>
+        <v>45698</v>
       </c>
       <c r="Q5" s="3">
-        <v>45693</v>
+        <v>45699</v>
       </c>
       <c r="R5" s="3">
-        <v>45694</v>
+        <v>45700</v>
       </c>
       <c r="S5" s="3">
-        <v>45695</v>
+        <v>45701</v>
       </c>
       <c r="T5" s="3">
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="U5" s="3">
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="V5" s="3">
-        <v>45698</v>
+        <v>45704</v>
       </c>
       <c r="W5" s="3">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="X5" s="3">
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="Y5" s="3">
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="Z5" s="3">
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="AA5" s="3">
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="AB5" s="3">
-        <v>45704</v>
+        <v>45710</v>
       </c>
       <c r="AC5" s="3">
-        <v>45705</v>
+        <v>45711</v>
       </c>
       <c r="AD5" s="3">
-        <v>45706</v>
+        <v>45712</v>
       </c>
       <c r="AE5" s="3">
-        <v>45707</v>
+        <v>45713</v>
       </c>
       <c r="AF5" s="3">
-        <v>45708</v>
+        <v>45714</v>
       </c>
       <c r="AG5" s="3">
-        <v>45709</v>
+        <v>45715</v>
       </c>
       <c r="AH5" s="3">
-        <v>45710</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>27</v>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -1350,10 +1348,10 @@
       </c>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="15"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -1445,8 +1443,8 @@
       </c>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="15"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1540,8 +1538,8 @@
       </c>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="15"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1635,8 +1633,8 @@
       </c>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1730,8 +1728,8 @@
       </c>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1825,8 +1823,8 @@
       </c>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1920,8 +1918,8 @@
       </c>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="15"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -2015,8 +2013,8 @@
       </c>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="15"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2110,8 +2108,8 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="15"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2205,8 +2203,8 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="15"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2299,9 +2297,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:34">
-      <c r="B17" s="15"/>
-      <c r="C17" s="19"/>
+    <row r="17" spans="2:35">
+      <c r="B17" s="19"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2394,9 +2392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:34">
-      <c r="B18" s="15"/>
-      <c r="C18" s="19"/>
+    <row r="18" spans="2:35">
+      <c r="B18" s="19"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2489,9 +2487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:34">
-      <c r="B19" s="15"/>
-      <c r="C19" s="19"/>
+    <row r="19" spans="2:35">
+      <c r="B19" s="19"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2584,11 +2582,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:34">
-      <c r="B20" s="15"/>
-      <c r="C20" s="19"/>
+    <row r="20" spans="2:35">
+      <c r="B20" s="19"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -2678,231 +2676,232 @@
       <c r="AH20" s="9">
         <v>0</v>
       </c>
+      <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="2:34" ht="16.149999999999999" customHeight="1">
-      <c r="B21" s="15"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="7"/>
+    <row r="21" spans="2:35">
+      <c r="B21" s="19"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="6">
-        <f t="shared" ref="F21:R21" si="2">AVERAGE(F6:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" ht="16.149999999999999" customHeight="1">
+      <c r="B22" s="19"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:R22" si="1">AVERAGE(F6:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <f t="shared" ref="S22:AH22" si="2">AVERAGE(S6:S21)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="6">
+      <c r="U22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="6">
+      <c r="V22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="6">
+      <c r="W22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="6">
+      <c r="X22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="6">
+      <c r="Y22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="6">
+      <c r="Z22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="6">
+      <c r="AA22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="6">
+      <c r="AB22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="6">
+      <c r="AC22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="AD22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R21" s="6">
+      <c r="AE22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S21" s="6">
-        <f t="shared" ref="S21:AH21" si="3">AVERAGE(S6:S20)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="6">
-        <f t="shared" si="3"/>
+      <c r="AF22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:34">
-      <c r="B22" s="15"/>
-      <c r="C22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-      <c r="P22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
-        <v>0</v>
-      </c>
-      <c r="U22" s="9">
-        <v>0</v>
-      </c>
-      <c r="V22" s="9">
-        <v>0</v>
-      </c>
-      <c r="W22" s="9">
-        <v>0</v>
-      </c>
-      <c r="X22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34">
-      <c r="B23" s="15"/>
-      <c r="C23" s="13"/>
+    <row r="23" spans="2:35">
+      <c r="B23" s="19"/>
+      <c r="C23" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="D23" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
@@ -2918,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K23" s="9">
         <v>0</v>
@@ -2993,11 +2992,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:34">
-      <c r="B24" s="15"/>
-      <c r="C24" s="13"/>
+    <row r="24" spans="2:35">
+      <c r="B24" s="19"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
@@ -3088,11 +3087,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:34">
-      <c r="B25" s="15"/>
-      <c r="C25" s="13"/>
+    <row r="25" spans="2:35">
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -3183,246 +3182,246 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:34">
-      <c r="B26" s="15"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="7"/>
+    <row r="26" spans="2:35">
+      <c r="B26" s="19"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="6">
-        <f t="shared" ref="F26:R26" si="4">AVERAGE(F22:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35">
+      <c r="B27" s="19"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6">
+        <f t="shared" ref="F27:R27" si="3">AVERAGE(F23:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="6">
+        <f t="shared" ref="S27:AH27" si="4">AVERAGE(S23:S26)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H26" s="6">
+      <c r="U27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I26" s="6">
+      <c r="V27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J26" s="6">
+      <c r="W27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K26" s="6">
+      <c r="X27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="6">
+      <c r="Y27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M26" s="6">
+      <c r="Z27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N26" s="6">
+      <c r="AA27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O26" s="6">
+      <c r="AB27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P26" s="6">
+      <c r="AC27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="AD27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R26" s="6">
+      <c r="AE27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S26" s="6">
-        <f t="shared" ref="S26:AH26" si="5">AVERAGE(S22:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="6">
-        <f t="shared" si="5"/>
+      <c r="AF27" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:34">
-      <c r="B27" s="15"/>
-      <c r="C27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="7" t="s">
+    <row r="28" spans="2:35">
+      <c r="B28" s="19"/>
+      <c r="C28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-      <c r="P27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>0</v>
-      </c>
-      <c r="R27" s="9">
-        <v>0</v>
-      </c>
-      <c r="S27" s="9">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9">
-        <v>0</v>
-      </c>
-      <c r="U27" s="9">
-        <v>0</v>
-      </c>
-      <c r="V27" s="9">
-        <v>0</v>
-      </c>
-      <c r="W27" s="9">
-        <v>0</v>
-      </c>
-      <c r="X27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34">
-      <c r="B28" s="15"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="9">
         <v>0</v>
@@ -3497,27 +3496,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:34">
-      <c r="B29" s="15"/>
-      <c r="C29" s="19"/>
+    <row r="29" spans="2:35">
+      <c r="B29" s="19"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="7" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
         <v>0</v>
       </c>
       <c r="G29" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
       </c>
       <c r="I29" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="9">
         <v>0</v>
@@ -3592,11 +3591,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:34">
-      <c r="B30" s="15"/>
-      <c r="C30" s="19"/>
+    <row r="30" spans="2:35">
+      <c r="B30" s="19"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -3612,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="9">
         <v>0</v>
@@ -3687,11 +3686,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:34">
-      <c r="B31" s="15"/>
-      <c r="C31" s="19"/>
+    <row r="31" spans="2:35">
+      <c r="B31" s="19"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -3707,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="9">
         <v>0</v>
@@ -3782,11 +3781,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:34">
-      <c r="B32" s="15"/>
-      <c r="C32" s="19"/>
+    <row r="32" spans="2:35">
+      <c r="B32" s="19"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -3802,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="9">
         <v>0</v>
@@ -3878,136 +3877,136 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="16"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6">
-        <f t="shared" ref="F33:R33" si="6">AVERAGE(F27:F32)</f>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" ref="F33:AH33" si="5">AVERAGE(F28:F32)</f>
+        <v>0.1</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="6"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.1</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="6"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="5"/>
+        <v>0.16</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.27999999999999997</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S33" s="6">
-        <f t="shared" ref="S33:AH33" si="7">AVERAGE(S27:S32)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>29</v>
+      <c r="C34" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9">
@@ -4099,10 +4098,10 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="15"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9">
@@ -4194,10 +4193,10 @@
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="15"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
@@ -4289,10 +4288,10 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="15"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="9">
@@ -4384,10 +4383,10 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="15"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="9">
@@ -4479,10 +4478,10 @@
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9">
@@ -4574,10 +4573,10 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="15"/>
-      <c r="C40" s="13"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="9">
@@ -4669,10 +4668,10 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="15"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="9">
@@ -4764,134 +4763,134 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="15"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6">
-        <f>AVERAGE(F34:F39)</f>
+        <f>AVERAGE(F34:F41)</f>
         <v>0</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" ref="G42:AH42" si="8">AVERAGE(G34:G39)</f>
+        <f t="shared" ref="G42:AH42" si="6">AVERAGE(G34:G41)</f>
         <v>0</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="6"/>
+        <v>0.625</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="6"/>
+        <v>0.625</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="6"/>
+        <v>0.625</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="15"/>
-      <c r="C43" s="11" t="s">
-        <v>31</v>
+      <c r="B43" s="19"/>
+      <c r="C43" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="9">
@@ -4983,10 +4982,10 @@
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="15"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -5078,10 +5077,10 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="15"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
@@ -5097,7 +5096,7 @@
         <v>0.6</v>
       </c>
       <c r="J45" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K45" s="9">
         <v>0</v>
@@ -5173,10 +5172,10 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="15"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="9">
@@ -5192,7 +5191,7 @@
         <v>0.8</v>
       </c>
       <c r="J46" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K46" s="9">
         <v>0</v>
@@ -5268,10 +5267,10 @@
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="15"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="9">
@@ -5363,10 +5362,10 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="15"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="9">
@@ -5458,8 +5457,8 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="15"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -5553,134 +5552,134 @@
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="15"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6">
-        <f t="shared" ref="F50:R50" si="9">AVERAGE(F43:F48)</f>
+        <f t="shared" ref="F50:R50" si="7">AVERAGE(F43:F48)</f>
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.81666666666666676</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="9"/>
-        <v>0.96666666666666667</v>
+        <f t="shared" si="7"/>
+        <v>0.9</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" ref="S50" si="10">AVERAGE(S43:S48)</f>
+        <f t="shared" ref="S50" si="8">AVERAGE(S43:S48)</f>
         <v>0</v>
       </c>
       <c r="T50" s="6">
-        <f t="shared" ref="T50" si="11">AVERAGE(T43:T48)</f>
+        <f t="shared" ref="T50" si="9">AVERAGE(T43:T48)</f>
         <v>0</v>
       </c>
       <c r="U50" s="6">
-        <f t="shared" ref="U50" si="12">AVERAGE(U43:U48)</f>
+        <f t="shared" ref="U50" si="10">AVERAGE(U43:U48)</f>
         <v>0</v>
       </c>
       <c r="V50" s="6">
-        <f t="shared" ref="V50" si="13">AVERAGE(V43:V48)</f>
+        <f t="shared" ref="V50" si="11">AVERAGE(V43:V48)</f>
         <v>0</v>
       </c>
       <c r="W50" s="6">
-        <f t="shared" ref="W50" si="14">AVERAGE(W43:W48)</f>
+        <f t="shared" ref="W50" si="12">AVERAGE(W43:W48)</f>
         <v>0</v>
       </c>
       <c r="X50" s="6">
-        <f t="shared" ref="X50" si="15">AVERAGE(X43:X48)</f>
+        <f t="shared" ref="X50" si="13">AVERAGE(X43:X48)</f>
         <v>0</v>
       </c>
       <c r="Y50" s="6">
-        <f t="shared" ref="Y50" si="16">AVERAGE(Y43:Y48)</f>
+        <f t="shared" ref="Y50" si="14">AVERAGE(Y43:Y48)</f>
         <v>0</v>
       </c>
       <c r="Z50" s="6">
-        <f t="shared" ref="Z50" si="17">AVERAGE(Z43:Z48)</f>
+        <f t="shared" ref="Z50" si="15">AVERAGE(Z43:Z48)</f>
         <v>0</v>
       </c>
       <c r="AA50" s="6">
-        <f t="shared" ref="AA50" si="18">AVERAGE(AA43:AA48)</f>
+        <f t="shared" ref="AA50" si="16">AVERAGE(AA43:AA48)</f>
         <v>0</v>
       </c>
       <c r="AB50" s="6">
-        <f t="shared" ref="AB50" si="19">AVERAGE(AB43:AB48)</f>
+        <f t="shared" ref="AB50" si="17">AVERAGE(AB43:AB48)</f>
         <v>0</v>
       </c>
       <c r="AC50" s="6">
-        <f t="shared" ref="AC50" si="20">AVERAGE(AC43:AC48)</f>
+        <f t="shared" ref="AC50" si="18">AVERAGE(AC43:AC48)</f>
         <v>0</v>
       </c>
       <c r="AD50" s="6">
-        <f t="shared" ref="AD50" si="21">AVERAGE(AD43:AD48)</f>
+        <f t="shared" ref="AD50" si="19">AVERAGE(AD43:AD48)</f>
         <v>0</v>
       </c>
       <c r="AE50" s="6">
-        <f t="shared" ref="AE50" si="22">AVERAGE(AE43:AE48)</f>
+        <f t="shared" ref="AE50" si="20">AVERAGE(AE43:AE48)</f>
         <v>0</v>
       </c>
       <c r="AF50" s="6">
-        <f t="shared" ref="AF50" si="23">AVERAGE(AF43:AF48)</f>
+        <f t="shared" ref="AF50" si="21">AVERAGE(AF43:AF48)</f>
         <v>0</v>
       </c>
       <c r="AG50" s="6">
-        <f t="shared" ref="AG50" si="24">AVERAGE(AG43:AG48)</f>
+        <f t="shared" ref="AG50" si="22">AVERAGE(AG43:AG48)</f>
         <v>0</v>
       </c>
       <c r="AH50" s="6">
-        <f t="shared" ref="AH50" si="25">AVERAGE(AH43:AH48)</f>
+        <f t="shared" ref="AH50" si="23">AVERAGE(AH43:AH48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="15"/>
-      <c r="C51" s="13" t="s">
-        <v>58</v>
+      <c r="B51" s="19"/>
+      <c r="C51" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="9">
@@ -5772,10 +5771,10 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="15"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="9">
@@ -5867,8 +5866,8 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="16"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6">
@@ -5876,127 +5875,127 @@
         <v>0</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" ref="G53:AH53" si="26">AVERAGE(G51:G52)</f>
+        <f t="shared" ref="G53:AH53" si="24">AVERAGE(G51:G52)</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AF53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AG53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>34</v>
+      <c r="B54" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="9">
@@ -6012,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="9">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="9">
         <v>0</v>
@@ -6088,10 +6087,10 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="15"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="9">
@@ -6183,10 +6182,10 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="15"/>
-      <c r="C56" s="13"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9">
@@ -6278,10 +6277,10 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="15"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="9">
@@ -6373,10 +6372,10 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="15"/>
-      <c r="C58" s="13"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="9">
@@ -6468,10 +6467,10 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="15"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="9">
@@ -6563,10 +6562,10 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="15"/>
-      <c r="C60" s="13"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="9">
@@ -6658,10 +6657,10 @@
       </c>
     </row>
     <row r="61" spans="2:34">
-      <c r="B61" s="15"/>
-      <c r="C61" s="13"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="7" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="9">
@@ -6753,10 +6752,10 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="15"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="9">
@@ -6848,10 +6847,10 @@
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="15"/>
-      <c r="C63" s="13"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="7" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="9">
@@ -6943,10 +6942,10 @@
       </c>
     </row>
     <row r="64" spans="2:34">
-      <c r="B64" s="15"/>
-      <c r="C64" s="13"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="9">
@@ -7038,10 +7037,10 @@
       </c>
     </row>
     <row r="65" spans="2:34">
-      <c r="B65" s="15"/>
-      <c r="C65" s="13"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="9">
@@ -7133,10 +7132,10 @@
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="15"/>
-      <c r="C66" s="13"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="9">
@@ -7228,683 +7227,683 @@
       </c>
     </row>
     <row r="67" spans="2:34">
-      <c r="B67" s="15"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="7"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="6">
-        <f>AVERAGE(F54:F66)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="6">
-        <f t="shared" ref="G67:R67" si="27">AVERAGE(G54:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R67" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="6">
-        <f t="shared" ref="S67:AH67" si="28">AVERAGE(S54:S66)</f>
-        <v>0</v>
-      </c>
-      <c r="T67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="V67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Z67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AC67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AE67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG67" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AH67" s="6">
-        <f t="shared" si="28"/>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0</v>
+      </c>
+      <c r="O67" s="9">
+        <v>0</v>
+      </c>
+      <c r="P67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="9">
+        <v>0</v>
+      </c>
+      <c r="R67" s="9">
+        <v>0</v>
+      </c>
+      <c r="S67" s="9">
+        <v>0</v>
+      </c>
+      <c r="T67" s="9">
+        <v>0</v>
+      </c>
+      <c r="U67" s="9">
+        <v>0</v>
+      </c>
+      <c r="V67" s="9">
+        <v>0</v>
+      </c>
+      <c r="W67" s="9">
+        <v>0</v>
+      </c>
+      <c r="X67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B68" s="15"/>
-      <c r="C68" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>44</v>
-      </c>
+    <row r="68" spans="2:34">
+      <c r="B68" s="19"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="9">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9">
-        <v>0</v>
-      </c>
-      <c r="I68" s="9">
-        <v>0</v>
-      </c>
-      <c r="J68" s="9">
-        <v>0</v>
-      </c>
-      <c r="K68" s="9">
-        <v>0</v>
-      </c>
-      <c r="L68" s="9">
-        <v>0</v>
-      </c>
-      <c r="M68" s="9">
-        <v>0</v>
-      </c>
-      <c r="N68" s="9">
-        <v>0</v>
-      </c>
-      <c r="O68" s="9">
-        <v>0</v>
-      </c>
-      <c r="P68" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="9">
-        <v>0</v>
-      </c>
-      <c r="R68" s="9">
-        <v>0</v>
-      </c>
-      <c r="S68" s="9">
-        <v>0</v>
-      </c>
-      <c r="T68" s="9">
-        <v>0</v>
-      </c>
-      <c r="U68" s="9">
-        <v>0</v>
-      </c>
-      <c r="V68" s="9">
-        <v>0</v>
-      </c>
-      <c r="W68" s="9">
-        <v>0</v>
-      </c>
-      <c r="X68" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="9">
+      <c r="F68" s="6">
+        <f>AVERAGE(F54:F67)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" ref="G68:R68" si="25">AVERAGE(G54:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <f t="shared" si="25"/>
+        <v>3.2142857142857147E-2</v>
+      </c>
+      <c r="K68" s="6">
+        <f t="shared" si="25"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="L68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="6">
+        <f t="shared" ref="S68:AH68" si="26">AVERAGE(S54:S67)</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="6">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:34">
-      <c r="B69" s="15"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="7"/>
+    <row r="69" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B69" s="19"/>
+      <c r="C69" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E69" s="7"/>
-      <c r="F69" s="6">
-        <f>AVERAGE(F68)</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="6">
-        <f t="shared" ref="G69" si="29">AVERAGE(G65:G68)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="6">
-        <f t="shared" ref="H69" si="30">AVERAGE(H65:H68)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="6">
-        <f t="shared" ref="I69" si="31">AVERAGE(I65:I68)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="6">
-        <f t="shared" ref="J69" si="32">AVERAGE(J65:J68)</f>
-        <v>0</v>
-      </c>
-      <c r="K69" s="6">
-        <f t="shared" ref="K69" si="33">AVERAGE(K65:K68)</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="6">
-        <f t="shared" ref="L69" si="34">AVERAGE(L65:L68)</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="6">
-        <f t="shared" ref="M69" si="35">AVERAGE(M65:M68)</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="6">
-        <f t="shared" ref="N69" si="36">AVERAGE(N65:N68)</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="6">
-        <f t="shared" ref="O69" si="37">AVERAGE(O65:O68)</f>
-        <v>0</v>
-      </c>
-      <c r="P69" s="6">
-        <f t="shared" ref="P69" si="38">AVERAGE(P65:P68)</f>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="6">
-        <f t="shared" ref="Q69" si="39">AVERAGE(Q65:Q68)</f>
-        <v>0</v>
-      </c>
-      <c r="R69" s="6">
-        <f t="shared" ref="R69:AH69" si="40">AVERAGE(R65:R68)</f>
-        <v>0</v>
-      </c>
-      <c r="S69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="W69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AA69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AD69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AE69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AF69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AG69" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AH69" s="6">
-        <f t="shared" si="40"/>
+      <c r="F69" s="9">
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="9">
+        <v>0</v>
+      </c>
+      <c r="K69" s="9">
+        <v>0</v>
+      </c>
+      <c r="L69" s="9">
+        <v>0</v>
+      </c>
+      <c r="M69" s="9">
+        <v>0</v>
+      </c>
+      <c r="N69" s="9">
+        <v>0</v>
+      </c>
+      <c r="O69" s="9">
+        <v>0</v>
+      </c>
+      <c r="P69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>0</v>
+      </c>
+      <c r="R69" s="9">
+        <v>0</v>
+      </c>
+      <c r="S69" s="9">
+        <v>0</v>
+      </c>
+      <c r="T69" s="9">
+        <v>0</v>
+      </c>
+      <c r="U69" s="9">
+        <v>0</v>
+      </c>
+      <c r="V69" s="9">
+        <v>0</v>
+      </c>
+      <c r="W69" s="9">
+        <v>0</v>
+      </c>
+      <c r="X69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:34">
-      <c r="B70" s="15"/>
-      <c r="C70" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G70" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H70" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I70" s="9">
-        <v>0</v>
-      </c>
-      <c r="J70" s="9">
-        <v>0</v>
-      </c>
-      <c r="K70" s="9">
-        <v>0</v>
-      </c>
-      <c r="L70" s="9">
-        <v>0</v>
-      </c>
-      <c r="M70" s="9">
-        <v>0</v>
-      </c>
-      <c r="N70" s="9">
-        <v>0</v>
-      </c>
-      <c r="O70" s="9">
-        <v>0</v>
-      </c>
-      <c r="P70" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="9">
-        <v>0</v>
-      </c>
-      <c r="R70" s="9">
-        <v>0</v>
-      </c>
-      <c r="S70" s="9">
-        <v>0</v>
-      </c>
-      <c r="T70" s="9">
-        <v>0</v>
-      </c>
-      <c r="U70" s="9">
-        <v>0</v>
-      </c>
-      <c r="V70" s="9">
-        <v>0</v>
-      </c>
-      <c r="W70" s="9">
-        <v>0</v>
-      </c>
-      <c r="X70" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH70" s="9">
+      <c r="F70" s="6">
+        <f>AVERAGE(F69)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" ref="G70:AH70" si="27">AVERAGE(G69)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="6">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:34">
-      <c r="B71" s="15"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="6">
-        <f>AVERAGE(F70)</f>
+      <c r="F71" s="9">
         <v>0.5</v>
       </c>
-      <c r="G71" s="6">
-        <f t="shared" ref="G71:R71" si="41">AVERAGE(G70)</f>
+      <c r="G71" s="9">
         <v>0.5</v>
       </c>
-      <c r="H71" s="6">
-        <f t="shared" si="41"/>
+      <c r="H71" s="9">
         <v>0.5</v>
       </c>
-      <c r="I71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="R71" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="S71" s="6">
-        <f t="shared" ref="S71:AH71" si="42">AVERAGE(S70)</f>
-        <v>0</v>
-      </c>
-      <c r="T71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="U71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="V71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="X71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Y71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Z71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AB71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AC71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AD71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AE71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AF71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG71" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AH71" s="6">
-        <f t="shared" si="42"/>
+      <c r="I71" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J71" s="9">
+        <v>1</v>
+      </c>
+      <c r="K71" s="9">
+        <v>0</v>
+      </c>
+      <c r="L71" s="9">
+        <v>0</v>
+      </c>
+      <c r="M71" s="9">
+        <v>0</v>
+      </c>
+      <c r="N71" s="9">
+        <v>0</v>
+      </c>
+      <c r="O71" s="9">
+        <v>0</v>
+      </c>
+      <c r="P71" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>0</v>
+      </c>
+      <c r="R71" s="9">
+        <v>0</v>
+      </c>
+      <c r="S71" s="9">
+        <v>0</v>
+      </c>
+      <c r="T71" s="9">
+        <v>0</v>
+      </c>
+      <c r="U71" s="9">
+        <v>0</v>
+      </c>
+      <c r="V71" s="9">
+        <v>0</v>
+      </c>
+      <c r="W71" s="9">
+        <v>0</v>
+      </c>
+      <c r="X71" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B72" s="15"/>
-      <c r="C72" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>46</v>
-      </c>
+    <row r="72" spans="2:34">
+      <c r="B72" s="19"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="9">
-        <v>0</v>
-      </c>
-      <c r="G72" s="9">
+      <c r="F72" s="6">
+        <f>AVERAGE(F71)</f>
         <v>0.5</v>
       </c>
-      <c r="H72" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="I72" s="9">
+      <c r="G72" s="6">
+        <f t="shared" ref="G72:R72" si="28">AVERAGE(G71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H72" s="6">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="J72" s="6">
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="J72" s="9">
-        <v>0</v>
-      </c>
-      <c r="K72" s="9">
-        <v>0</v>
-      </c>
-      <c r="L72" s="9">
-        <v>0</v>
-      </c>
-      <c r="M72" s="9">
-        <v>0</v>
-      </c>
-      <c r="N72" s="9">
-        <v>0</v>
-      </c>
-      <c r="O72" s="9">
-        <v>0</v>
-      </c>
-      <c r="P72" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="9">
-        <v>0</v>
-      </c>
-      <c r="R72" s="9">
-        <v>0</v>
-      </c>
-      <c r="S72" s="9">
-        <v>0</v>
-      </c>
-      <c r="T72" s="9">
-        <v>0</v>
-      </c>
-      <c r="U72" s="9">
-        <v>0</v>
-      </c>
-      <c r="V72" s="9">
-        <v>0</v>
-      </c>
-      <c r="W72" s="9">
-        <v>0</v>
-      </c>
-      <c r="X72" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH72" s="9">
+      <c r="K72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="6">
+        <f t="shared" ref="S72:AH72" si="29">AVERAGE(S71)</f>
+        <v>0</v>
+      </c>
+      <c r="T72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AD72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH72" s="6">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:34">
-      <c r="B73" s="15"/>
-      <c r="C73" s="13"/>
+    <row r="73" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B73" s="19"/>
+      <c r="C73" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="D73" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="9">
         <v>0</v>
       </c>
       <c r="G73" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H73" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I73" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J73" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="9">
         <v>0</v>
@@ -7980,204 +7979,294 @@
       </c>
     </row>
     <row r="74" spans="2:34">
-      <c r="B74" s="16"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="7"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E74" s="7"/>
-      <c r="F74" s="6">
-        <f t="shared" ref="F74:R74" si="43">AVERAGE(F72:F73)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="6">
-        <f t="shared" si="43"/>
-        <v>0.25</v>
-      </c>
-      <c r="H74" s="6">
-        <f t="shared" si="43"/>
-        <v>0.375</v>
-      </c>
-      <c r="I74" s="6">
-        <f t="shared" si="43"/>
-        <v>0.95</v>
-      </c>
-      <c r="J74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="6">
-        <f t="shared" ref="S74:AH74" si="44">AVERAGE(S72:S73)</f>
-        <v>0</v>
-      </c>
-      <c r="T74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="X74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AB74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AC74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AE74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AF74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AG74" s="6">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AH74" s="6">
-        <f t="shared" si="44"/>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0</v>
+      </c>
+      <c r="H74" s="9">
+        <v>0</v>
+      </c>
+      <c r="I74" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J74" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K74" s="9">
+        <v>0</v>
+      </c>
+      <c r="L74" s="9">
+        <v>0</v>
+      </c>
+      <c r="M74" s="9">
+        <v>0</v>
+      </c>
+      <c r="N74" s="9">
+        <v>0</v>
+      </c>
+      <c r="O74" s="9">
+        <v>0</v>
+      </c>
+      <c r="P74" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>0</v>
+      </c>
+      <c r="R74" s="9">
+        <v>0</v>
+      </c>
+      <c r="S74" s="9">
+        <v>0</v>
+      </c>
+      <c r="T74" s="9">
+        <v>0</v>
+      </c>
+      <c r="U74" s="9">
+        <v>0</v>
+      </c>
+      <c r="V74" s="9">
+        <v>0</v>
+      </c>
+      <c r="W74" s="9">
+        <v>0</v>
+      </c>
+      <c r="X74" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:34">
-      <c r="E75" s="8"/>
-      <c r="F75" s="4"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="6">
+        <f t="shared" ref="F75:R75" si="30">AVERAGE(F73:F74)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="30"/>
+        <v>0.25</v>
+      </c>
+      <c r="H75" s="6">
+        <f t="shared" si="30"/>
+        <v>0.375</v>
+      </c>
+      <c r="I75" s="6">
+        <f t="shared" si="30"/>
+        <v>0.95</v>
+      </c>
+      <c r="J75" s="6">
+        <f t="shared" si="30"/>
+        <v>0.95</v>
+      </c>
+      <c r="K75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="6">
+        <f t="shared" ref="S75:AH75" si="31">AVERAGE(S73:S74)</f>
+        <v>0</v>
+      </c>
+      <c r="T75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AD75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH75" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="2:34">
       <c r="E76" s="8"/>
       <c r="F76" s="4"/>
     </row>
+    <row r="77" spans="2:34">
+      <c r="E77" s="8"/>
+      <c r="F77" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C6:C21"/>
-    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C54:C68"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="B54:B75"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C6:C22"/>
     <mergeCell ref="C34:C42"/>
-    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C23:C27"/>
     <mergeCell ref="B6:B33"/>
     <mergeCell ref="B34:B53"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C54:C67"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B54:B74"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C28:C33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C27 E27:E28">
-    <cfRule type="cellIs" dxfId="9" priority="159" operator="equal">
+  <conditionalFormatting sqref="B34:C34 E34:E35">
+    <cfRule type="cellIs" dxfId="8" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34 E34:E35">
-    <cfRule type="cellIs" dxfId="8" priority="92" operator="equal">
+  <conditionalFormatting sqref="C28 E28:E29">
+    <cfRule type="cellIs" dxfId="7" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:D43 D43:D49">
-    <cfRule type="cellIs" dxfId="7" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D13">
-    <cfRule type="cellIs" dxfId="6" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D20">
-    <cfRule type="cellIs" dxfId="5" priority="24" operator="equal">
+  <conditionalFormatting sqref="D14:D21 D23:D41">
+    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21 E22:E25 B54">
-    <cfRule type="cellIs" dxfId="4" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D41">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+  <conditionalFormatting sqref="D22 E23:E26 B54:B55">
+    <cfRule type="cellIs" dxfId="3" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:E51 D53:E53 C54:E54 D55:E67 C68:E68 D69:E74">
-    <cfRule type="cellIs" dxfId="1" priority="119" operator="equal">
+  <conditionalFormatting sqref="D51:E51 D53:E53 C54:E55 D56:E68 C69:E69 D70:E75">
+    <cfRule type="cellIs" dxfId="1" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E20">
-    <cfRule type="cellIs" dxfId="0" priority="400" operator="equal">
+  <conditionalFormatting sqref="E6:E21">
+    <cfRule type="cellIs" dxfId="0" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F32">
-    <cfRule type="dataBar" priority="414">
+  <conditionalFormatting sqref="F28">
+    <cfRule type="dataBar" priority="505">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8190,8 +8279,64 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C9B1CBA6-8E8F-409E-969D-8814DC7288E9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C9CC8EE-9F85-4D1B-A9FD-8B4A25562878}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CDD693AD-B56D-4CB1-9D65-1694161B4B41}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C8DCD6B3-DF0C-45B8-A4AF-072C80C9651E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F34:F37">
-    <cfRule type="dataBar" priority="406">
+    <cfRule type="dataBar" priority="432">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8205,7 +8350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F41">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8218,8 +8363,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F49 F43 F44:H44 J44:AH44">
-    <cfRule type="dataBar" priority="459">
+  <conditionalFormatting sqref="F45:F49 F43 F44:H44 J44">
+    <cfRule type="dataBar" priority="485">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8232,8 +8377,50 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51 F54 F55:AH66 F68:AH68 F70:H70">
-    <cfRule type="dataBar" priority="451">
+  <conditionalFormatting sqref="F52">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9A642850-F1AC-4A64-AB4F-37A40B9CA441}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73:F74">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2AA71A7D-0A87-47E9-8455-1690A5BCBEDB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54:I67">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6DB883C9-1F88-4735-AB90-2C226539E60C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:I71 F51">
+    <cfRule type="dataBar" priority="477">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8246,22 +8433,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A642850-F1AC-4A64-AB4F-37A40B9CA441}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G20">
-    <cfRule type="dataBar" priority="412">
+  <conditionalFormatting sqref="F6:AH21">
+    <cfRule type="dataBar" priority="438">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8274,8 +8447,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G22 F24:G25 F23:AH23">
-    <cfRule type="dataBar" priority="456">
+  <conditionalFormatting sqref="F23:AH26">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8283,13 +8456,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33F6A3E8-F39F-4486-821E-EFC74CA33142}</x14:id>
+          <x14:id>{A0E20ECF-5663-478F-8E9F-449195CDAA9F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:AH72 F73">
-    <cfRule type="dataBar" priority="462">
+  <conditionalFormatting sqref="F69:AH69">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8297,13 +8470,27 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1CEE6841-AF6F-4430-AD73-2BF608979F81}</x14:id>
+          <x14:id>{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G32">
-    <cfRule type="dataBar" priority="415">
+  <conditionalFormatting sqref="G28">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{57A8B765-FFA7-434C-9523-5857F06016E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="dataBar" priority="514">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8316,8 +8503,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G32">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6B382747-E3CF-4F61-B632-A61A74466B47}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G34:G37">
-    <cfRule type="dataBar" priority="407">
+    <cfRule type="dataBar" priority="433">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8331,7 +8532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G41">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8345,7 +8546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G49 G43">
-    <cfRule type="dataBar" priority="446">
+    <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8358,8 +8559,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54 G51">
-    <cfRule type="dataBar" priority="428">
+  <conditionalFormatting sqref="G51">
+    <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8373,7 +8574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8387,7 +8588,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="dataBar" priority="436">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E848E527-F886-47F9-86FC-B4D9ACBF8A73}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8400,8 +8615,148 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:AH20">
-    <cfRule type="dataBar" priority="464">
+  <conditionalFormatting sqref="H29:H32">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3AE68020-C365-4ABF-939B-EF0068109146}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H36">
+    <cfRule type="dataBar" priority="494">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{39544BDF-3167-4345-B25E-E17EB47629D9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H39">
+    <cfRule type="dataBar" priority="495">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:H49 H43 J45 J43">
+    <cfRule type="dataBar" priority="496">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{106CA0D7-EA4D-4861-A022-D36678D0799F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DE68A3AD-D55D-4311-89F9-78D10FCA9D91}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:J28 I29:J29 J30:J32">
+    <cfRule type="dataBar" priority="523">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:J37">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1303D586-8258-463C-8ABD-037215FABF40}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:J41">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:J73">
+    <cfRule type="dataBar" priority="488">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1CEE6841-AF6F-4430-AD73-2BF608979F81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:AH21 AI20">
+    <cfRule type="dataBar" priority="490">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8414,92 +8769,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:AH22 H24:AH25">
-    <cfRule type="dataBar" priority="465">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BCD1C124-A451-49AA-9093-315C4E8AB1D8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:AH32">
-    <cfRule type="dataBar" priority="467">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H37 K34:AH37">
-    <cfRule type="dataBar" priority="468">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39544BDF-3167-4345-B25E-E17EB47629D9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H41 K38:AH41">
-    <cfRule type="dataBar" priority="469">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H49 H43 J45:AH45 J43:AH43 K46:AH49">
-    <cfRule type="dataBar" priority="470">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:AH51 H54:AH54 I70:AH70">
-    <cfRule type="dataBar" priority="472">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H52:AH52">
-    <cfRule type="dataBar" priority="475">
+    <cfRule type="dataBar" priority="501">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8512,8 +8783,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:AH73">
-    <cfRule type="dataBar" priority="476">
+  <conditionalFormatting sqref="I30:I32">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8521,13 +8792,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E177B73-5E16-40E4-A603-861BA18F14AA}</x14:id>
+          <x14:id>{1A303F07-6070-4189-AC1D-80357A0D5D47}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I36">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0CAB636-D7F6-4060-9565-33FF484985B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EFF78A47-4D23-462B-A616-BA7687DFFB29}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8541,7 +8840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:I49 I43">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8554,8 +8853,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I37">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="I74:J74">
+    <cfRule type="dataBar" priority="502">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8563,13 +8862,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A0CAB636-D7F6-4060-9565-33FF484985B4}</x14:id>
+          <x14:id>{9E177B73-5E16-40E4-A603-861BA18F14AA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I41">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="I51:AH51">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8577,13 +8876,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EFF78A47-4D23-462B-A616-BA7687DFFB29}</x14:id>
+          <x14:id>{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J37">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="J34:J36">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8596,8 +8895,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J41">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="J38:J39">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8611,7 +8910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:J49">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8620,6 +8919,132 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71 J54">
+    <cfRule type="dataBar" priority="498">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57:AH67 J55:J56">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90455EE3-E7AD-4F59-8325-47922778E0F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:AH32">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4C3D459D-49E3-462A-B846-0FE83B131D15}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:AH40">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:AH41">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79A6E942-BB28-4C5C-B051-63D2113FB72F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:AH49">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6C5573C3-41FA-4990-9C24-439EC153DA6C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:AH56">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{018A2B3E-2548-4772-A2CF-BD33006C0FDF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71:AH71">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CBE33775-0E9E-48FA-B07E-81B3AA0F642B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:AH74">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B769FDA4-52DD-48E5-B5B4-67E966D84479}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8638,7 +9063,51 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F27:F32</xm:sqref>
+          <xm:sqref>F28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C9B1CBA6-8E8F-409E-969D-8814DC7288E9}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C9CC8EE-9F85-4D1B-A9FD-8B4A25562878}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CDD693AD-B56D-4CB1-9D65-1694161B4B41}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C8DCD6B3-DF0C-45B8-A4AF-072C80C9651E}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9C91B573-7EDD-48F1-AAE4-F942D0F94FED}">
@@ -8671,18 +9140,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F45:F49 F43 F44:H44 J44:AH44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F51 F54 F55:AH66 F68:AH68 F70:H70</xm:sqref>
+          <xm:sqref>F45:F49 F43 F44:H44 J44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
@@ -8696,6 +9154,39 @@
           <xm:sqref>F52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2AA71A7D-0A87-47E9-8455-1690A5BCBEDB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F73:F74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6DB883C9-1F88-4735-AB90-2C226539E60C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F54:I67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F71:I71 F51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -8704,10 +9195,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G20</xm:sqref>
+          <xm:sqref>F6:AH21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33F6A3E8-F39F-4486-821E-EFC74CA33142}">
+          <x14:cfRule type="dataBar" id="{A0E20ECF-5663-478F-8E9F-449195CDAA9F}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8715,10 +9206,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F22:G22 F24:G25 F23:AH23</xm:sqref>
+          <xm:sqref>F23:AH26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
+          <x14:cfRule type="dataBar" id="{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8726,7 +9217,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F72:AH72 F73</xm:sqref>
+          <xm:sqref>F69:AH69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{57A8B765-FFA7-434C-9523-5857F06016E6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D4E863B-7ADB-4930-88E8-B15E0F7C56D2}">
@@ -8737,7 +9239,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G27:G32</xm:sqref>
+          <xm:sqref>G29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6B382747-E3CF-4F61-B632-A61A74466B47}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30:G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85109038-BFED-4A1D-9EFD-DFC02076C006}">
@@ -8781,7 +9294,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G54 G51</xm:sqref>
+          <xm:sqref>G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
@@ -8795,7 +9308,7 @@
           <xm:sqref>G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
+          <x14:cfRule type="dataBar" id="{E848E527-F886-47F9-86FC-B4D9ACBF8A73}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8806,7 +9319,7 @@
           <xm:sqref>G73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
+          <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8814,10 +9327,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:AH20</xm:sqref>
+          <xm:sqref>G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BCD1C124-A451-49AA-9093-315C4E8AB1D8}">
+          <x14:cfRule type="dataBar" id="{3AE68020-C365-4ABF-939B-EF0068109146}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8825,7 +9338,62 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22:AH22 H24:AH25</xm:sqref>
+          <xm:sqref>H29:H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{39544BDF-3167-4345-B25E-E17EB47629D9}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H34:H36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38:H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H45:H49 H43 J45 J43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{106CA0D7-EA4D-4861-A022-D36678D0799F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE68A3AD-D55D-4311-89F9-78D10FCA9D91}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}">
@@ -8836,10 +9404,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H27:AH32</xm:sqref>
+          <xm:sqref>H28:J28 I29:J29 J30:J32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39544BDF-3167-4345-B25E-E17EB47629D9}">
+          <x14:cfRule type="dataBar" id="{1303D586-8258-463C-8ABD-037215FABF40}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8847,10 +9415,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34:H37 K34:AH37</xm:sqref>
+          <xm:sqref>H37:J37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
+          <x14:cfRule type="dataBar" id="{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8858,10 +9426,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38:H41 K38:AH41</xm:sqref>
+          <xm:sqref>H40:J41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
+          <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8869,10 +9437,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45:H49 H43 J45:AH45 J43:AH43 K46:AH49</xm:sqref>
+          <xm:sqref>H73:J73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
+          <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8880,7 +9448,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51:AH51 H54:AH54 I70:AH70</xm:sqref>
+          <xm:sqref>H6:AH21 AI20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
@@ -8894,7 +9462,7 @@
           <xm:sqref>H52:AH52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
+          <x14:cfRule type="dataBar" id="{1A303F07-6070-4189-AC1D-80357A0D5D47}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8902,7 +9470,29 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H73:AH73</xm:sqref>
+          <xm:sqref>I30:I32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0CAB636-D7F6-4060-9565-33FF484985B4}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I34:I36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EFF78A47-4D23-462B-A616-BA7687DFFB29}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I38:I39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1C71E1E0-EA29-4171-9159-938FC2CFE6CA}">
@@ -8927,7 +9517,7 @@
           <xm:sqref>I45:I49 I43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0CAB636-D7F6-4060-9565-33FF484985B4}">
+          <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8935,10 +9525,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I34:I37</xm:sqref>
+          <xm:sqref>I74:J74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EFF78A47-4D23-462B-A616-BA7687DFFB29}">
+          <x14:cfRule type="dataBar" id="{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8946,7 +9536,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I38:I41</xm:sqref>
+          <xm:sqref>I51:AH51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}">
@@ -8957,7 +9547,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J34:J37</xm:sqref>
+          <xm:sqref>J34:J36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{35DDF99D-E2AE-4FE5-A4EB-AC6AFA3114E3}">
@@ -8968,7 +9558,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J38:J41</xm:sqref>
+          <xm:sqref>J38:J39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}">
@@ -8981,6 +9571,105 @@
           </x14:cfRule>
           <xm:sqref>J46:J49</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J71 J54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J57:AH67 J55:J56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4C3D459D-49E3-462A-B846-0FE83B131D15}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K28:AH32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K34:AH40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79A6E942-BB28-4C5C-B051-63D2113FB72F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K41:AH41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K43:AH49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{018A2B3E-2548-4772-A2CF-BD33006C0FDF}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K54:AH56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CBE33775-0E9E-48FA-B07E-81B3AA0F642B}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K71:AH71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B769FDA4-52DD-48E5-B5B4-67E966D84479}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K73:AH74</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24EC5E3-5AFC-4A1C-911A-1936C50339D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D36CD87-508A-48C9-963E-6FAAA713DB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7995" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>참여 승인 (모집자만)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>내가 작성한 피드 목록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -121,10 +117,6 @@
   </si>
   <si>
     <t>비밀번호 변경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -232,10 +224,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">내 정보 수정 / 뱃지 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 탈퇴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -305,6 +293,22 @@
   </si>
   <si>
     <t>본인 인증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 목록 / 공지 상세</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마이 메인 페이지 / 뱃지 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자 상세 / 참여 승인 (모집자만)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,14 +512,23 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,6 +548,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -542,6 +564,16 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -585,16 +617,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -917,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AI77"/>
+  <dimension ref="B2:AI75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -928,7 +950,7 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
     <col min="7" max="13" width="10.625" style="4" bestFit="1" customWidth="1"/>
@@ -1035,32 +1057,32 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F22,F27,F33,F42,F50,F53,F68,F70,F72,F75)</f>
+        <f t="shared" ref="F3:AH3" si="0">AVERAGE(F22,F25,F31,F40,F48,F51,F66,F68,F70,F73)</f>
         <v>0.06</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:AH3" si="0">AVERAGE(G22,G27,G33,G42,G50,G53,G68,G70,G72,G75)</f>
+        <f t="shared" si="0"/>
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.24766666666666665</v>
+        <v>0.25028571428571428</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0.31883333333333336</v>
+        <v>0.32121428571428573</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0.45821428571428574</v>
+        <v>0.46714285714285708</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>7.1428571428571426E-3</v>
+        <v>0.56864285714285723</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.58410714285714282</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
@@ -1249,14 +1271,14 @@
       </c>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>25</v>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -1348,10 +1370,10 @@
       </c>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="19"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -1443,8 +1465,8 @@
       </c>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="19"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1538,8 +1560,8 @@
       </c>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="19"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1633,10 +1655,10 @@
       </c>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="19"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="7" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -1728,8 +1750,8 @@
       </c>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="19"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1823,8 +1845,8 @@
       </c>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="19"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1918,10 +1940,10 @@
       </c>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="19"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9">
@@ -2013,10 +2035,10 @@
       </c>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="19"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
@@ -2108,10 +2130,10 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="19"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
@@ -2203,10 +2225,10 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="19"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
@@ -2298,10 +2320,10 @@
       </c>
     </row>
     <row r="17" spans="2:35">
-      <c r="B17" s="19"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
@@ -2393,10 +2415,10 @@
       </c>
     </row>
     <row r="18" spans="2:35">
-      <c r="B18" s="19"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
@@ -2488,10 +2510,10 @@
       </c>
     </row>
     <row r="19" spans="2:35">
-      <c r="B19" s="19"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
@@ -2583,10 +2605,10 @@
       </c>
     </row>
     <row r="20" spans="2:35">
-      <c r="B20" s="19"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -2679,10 +2701,10 @@
       <c r="AI20" s="11"/>
     </row>
     <row r="21" spans="2:35">
-      <c r="B21" s="19"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
@@ -2774,8 +2796,8 @@
       </c>
     </row>
     <row r="22" spans="2:35" ht="16.149999999999999" customHeight="1">
-      <c r="B22" s="19"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6">
@@ -2896,12 +2918,12 @@
       </c>
     </row>
     <row r="23" spans="2:35">
-      <c r="B23" s="19"/>
-      <c r="C23" s="15" t="s">
-        <v>26</v>
+      <c r="B23" s="13"/>
+      <c r="C23" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
@@ -2920,10 +2942,10 @@
         <v>0.3</v>
       </c>
       <c r="K23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="9">
         <v>0</v>
@@ -2993,10 +3015,10 @@
       </c>
     </row>
     <row r="24" spans="2:35">
-      <c r="B24" s="19"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
@@ -3015,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="9">
         <v>0</v>
@@ -3088,127 +3110,156 @@
       </c>
     </row>
     <row r="25" spans="2:35">
-      <c r="B25" s="19"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-      <c r="P25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="9">
-        <v>0</v>
-      </c>
-      <c r="V25" s="9">
-        <v>0</v>
-      </c>
-      <c r="W25" s="9">
-        <v>0</v>
-      </c>
-      <c r="X25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="9">
+      <c r="F25" s="6">
+        <f t="shared" ref="F25:AH25" si="3">AVERAGE(F23:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:35">
-      <c r="B26" s="19"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="D26" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="9">
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I26" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="9">
         <v>0</v>
@@ -3278,156 +3329,127 @@
       </c>
     </row>
     <row r="27" spans="2:35">
-      <c r="B27" s="19"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="6">
-        <f t="shared" ref="F27:R27" si="3">AVERAGE(F23:F26)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="3"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="6">
-        <f t="shared" ref="S27:AH27" si="4">AVERAGE(S23:S26)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="6">
-        <f t="shared" si="4"/>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27" s="9">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:35">
-      <c r="B28" s="19"/>
-      <c r="C28" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
       </c>
       <c r="H28" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I28" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J28" s="9">
         <v>1</v>
       </c>
       <c r="K28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="9">
         <v>0</v>
@@ -3497,32 +3519,32 @@
       </c>
     </row>
     <row r="29" spans="2:35">
-      <c r="B29" s="19"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="7" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
         <v>0</v>
       </c>
       <c r="G29" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
       </c>
       <c r="I29" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J29" s="9">
         <v>1</v>
       </c>
       <c r="K29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="9">
         <v>0</v>
@@ -3592,10 +3614,10 @@
       </c>
     </row>
     <row r="30" spans="2:35">
-      <c r="B30" s="19"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -3614,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="9">
         <v>0</v>
@@ -3687,105 +3709,136 @@
       </c>
     </row>
     <row r="31" spans="2:35">
-      <c r="B31" s="19"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
+      <c r="F31" s="6">
+        <f t="shared" ref="F31:AH31" si="4">AVERAGE(F26:F30)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="4"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <v>0</v>
-      </c>
-      <c r="P31" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>0</v>
-      </c>
-      <c r="R31" s="9">
-        <v>0</v>
-      </c>
-      <c r="S31" s="9">
-        <v>0</v>
-      </c>
-      <c r="T31" s="9">
-        <v>0</v>
-      </c>
-      <c r="U31" s="9">
-        <v>0</v>
-      </c>
-      <c r="V31" s="9">
-        <v>0</v>
-      </c>
-      <c r="W31" s="9">
-        <v>0</v>
-      </c>
-      <c r="X31" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="9">
+      <c r="K31" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:35">
-      <c r="B32" s="19"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="D32" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -3795,19 +3848,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="9">
         <v>1</v>
       </c>
       <c r="K32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="9">
         <v>0</v>
@@ -3877,136 +3930,105 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="20"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="6">
-        <f t="shared" ref="F33:AH33" si="5">AVERAGE(F28:F32)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="5"/>
-        <v>0.16</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" si="5"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="5"/>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
         <v>1</v>
       </c>
-      <c r="K33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="6">
-        <f t="shared" si="5"/>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
+      <c r="V33" s="9">
+        <v>0</v>
+      </c>
+      <c r="W33" s="9">
+        <v>0</v>
+      </c>
+      <c r="X33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9">
@@ -4025,10 +4047,10 @@
         <v>1</v>
       </c>
       <c r="K34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="9">
         <v>0</v>
@@ -4098,10 +4120,10 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="19"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9">
@@ -4111,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="9">
         <v>0</v>
@@ -4193,10 +4215,10 @@
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="19"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="7" t="s">
-        <v>57</v>
+      <c r="B36" s="22"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
@@ -4215,10 +4237,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M36" s="9">
         <v>0</v>
@@ -4288,10 +4310,10 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="19"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="7" t="s">
-        <v>53</v>
+      <c r="B37" s="22"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="9">
@@ -4301,19 +4323,19 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="9">
         <v>0</v>
@@ -4383,10 +4405,10 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="19"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="9">
@@ -4396,19 +4418,19 @@
         <v>0</v>
       </c>
       <c r="H38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="9">
         <v>0</v>
       </c>
       <c r="L38" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M38" s="9">
         <v>0</v>
@@ -4478,10 +4500,10 @@
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="19"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9">
@@ -4491,13 +4513,13 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="9">
         <v>0</v>
@@ -4573,105 +4595,134 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="19"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-      <c r="P40" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>0</v>
-      </c>
-      <c r="R40" s="9">
-        <v>0</v>
-      </c>
-      <c r="S40" s="9">
-        <v>0</v>
-      </c>
-      <c r="T40" s="9">
-        <v>0</v>
-      </c>
-      <c r="U40" s="9">
-        <v>0</v>
-      </c>
-      <c r="V40" s="9">
-        <v>0</v>
-      </c>
-      <c r="W40" s="9">
-        <v>0</v>
-      </c>
-      <c r="X40" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="9">
+      <c r="F40" s="6">
+        <f>AVERAGE(F32:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" ref="G40:AH40" si="5">AVERAGE(G32:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="5"/>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="19"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="10" t="s">
-        <v>59</v>
+      <c r="B41" s="22"/>
+      <c r="C41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="9">
@@ -4681,19 +4732,19 @@
         <v>0</v>
       </c>
       <c r="H41" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I41" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J41" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K41" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L41" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M41" s="9">
         <v>0</v>
@@ -4763,134 +4814,105 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="19"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="7"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="6">
-        <f>AVERAGE(F34:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
-        <f t="shared" ref="G42:AH42" si="6">AVERAGE(G34:G41)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" si="6"/>
-        <v>0.625</v>
-      </c>
-      <c r="I42" s="6">
-        <f t="shared" si="6"/>
-        <v>0.625</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" si="6"/>
-        <v>0.625</v>
-      </c>
-      <c r="K42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="6">
-        <f t="shared" si="6"/>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J42" s="9">
+        <v>1</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0</v>
+      </c>
+      <c r="T42" s="9">
+        <v>0</v>
+      </c>
+      <c r="U42" s="9">
+        <v>0</v>
+      </c>
+      <c r="V42" s="9">
+        <v>0</v>
+      </c>
+      <c r="W42" s="9">
+        <v>0</v>
+      </c>
+      <c r="X42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="19"/>
-      <c r="C43" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="9">
@@ -4900,19 +4922,19 @@
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I43" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J43" s="9">
         <v>0.8</v>
       </c>
       <c r="K43" s="9">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="L43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="9">
         <v>0</v>
@@ -4982,10 +5004,10 @@
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="19"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -5001,13 +5023,13 @@
         <v>0.8</v>
       </c>
       <c r="J44" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="L44" s="9">
         <v>1</v>
-      </c>
-      <c r="K44" s="9">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <v>0</v>
       </c>
       <c r="M44" s="9">
         <v>0</v>
@@ -5077,10 +5099,10 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="19"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="7" t="s">
-        <v>62</v>
+      <c r="B45" s="22"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
@@ -5090,19 +5112,19 @@
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I45" s="9">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J45" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="9">
         <v>0</v>
@@ -5172,10 +5194,10 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="19"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="7" t="s">
-        <v>51</v>
+      <c r="B46" s="22"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="9">
@@ -5185,19 +5207,19 @@
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I46" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J46" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="9">
         <v>0</v>
@@ -5267,10 +5289,10 @@
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="19"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="10" t="s">
-        <v>61</v>
+      <c r="B47" s="22"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="9">
@@ -5289,10 +5311,10 @@
         <v>1</v>
       </c>
       <c r="K47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="9">
         <v>0</v>
@@ -5362,105 +5384,134 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="19"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9">
-        <v>1</v>
-      </c>
-      <c r="I48" s="9">
-        <v>1</v>
-      </c>
-      <c r="J48" s="9">
-        <v>1</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9">
-        <v>0</v>
-      </c>
-      <c r="N48" s="9">
-        <v>0</v>
-      </c>
-      <c r="O48" s="9">
-        <v>0</v>
-      </c>
-      <c r="P48" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="9">
-        <v>0</v>
-      </c>
-      <c r="R48" s="9">
-        <v>0</v>
-      </c>
-      <c r="S48" s="9">
-        <v>0</v>
-      </c>
-      <c r="T48" s="9">
-        <v>0</v>
-      </c>
-      <c r="U48" s="9">
-        <v>0</v>
-      </c>
-      <c r="V48" s="9">
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="9">
+      <c r="F48" s="6">
+        <f>AVERAGE(F41:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" ref="G48:AH48" si="6">AVERAGE(G41:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <f t="shared" si="6"/>
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J48" s="6">
+        <f t="shared" si="6"/>
+        <v>0.91428571428571437</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" si="6"/>
+        <v>0.98285714285714287</v>
+      </c>
+      <c r="L48" s="6">
+        <f t="shared" si="6"/>
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="M48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="19"/>
-      <c r="C49" s="16"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="D49" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="9">
@@ -5470,13 +5521,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="9">
         <v>0</v>
@@ -5552,229 +5603,231 @@
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="19"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="E50" s="7"/>
-      <c r="F50" s="6">
-        <f t="shared" ref="F50:R50" si="7">AVERAGE(F43:F48)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <f t="shared" si="7"/>
-        <v>0.81666666666666676</v>
-      </c>
-      <c r="I50" s="6">
-        <f t="shared" si="7"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J50" s="6">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
-      </c>
-      <c r="K50" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="6">
-        <f t="shared" ref="S50" si="8">AVERAGE(S43:S48)</f>
-        <v>0</v>
-      </c>
-      <c r="T50" s="6">
-        <f t="shared" ref="T50" si="9">AVERAGE(T43:T48)</f>
-        <v>0</v>
-      </c>
-      <c r="U50" s="6">
-        <f t="shared" ref="U50" si="10">AVERAGE(U43:U48)</f>
-        <v>0</v>
-      </c>
-      <c r="V50" s="6">
-        <f t="shared" ref="V50" si="11">AVERAGE(V43:V48)</f>
-        <v>0</v>
-      </c>
-      <c r="W50" s="6">
-        <f t="shared" ref="W50" si="12">AVERAGE(W43:W48)</f>
-        <v>0</v>
-      </c>
-      <c r="X50" s="6">
-        <f t="shared" ref="X50" si="13">AVERAGE(X43:X48)</f>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="6">
-        <f t="shared" ref="Y50" si="14">AVERAGE(Y43:Y48)</f>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="6">
-        <f t="shared" ref="Z50" si="15">AVERAGE(Z43:Z48)</f>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="6">
-        <f t="shared" ref="AA50" si="16">AVERAGE(AA43:AA48)</f>
-        <v>0</v>
-      </c>
-      <c r="AB50" s="6">
-        <f t="shared" ref="AB50" si="17">AVERAGE(AB43:AB48)</f>
-        <v>0</v>
-      </c>
-      <c r="AC50" s="6">
-        <f t="shared" ref="AC50" si="18">AVERAGE(AC43:AC48)</f>
-        <v>0</v>
-      </c>
-      <c r="AD50" s="6">
-        <f t="shared" ref="AD50" si="19">AVERAGE(AD43:AD48)</f>
-        <v>0</v>
-      </c>
-      <c r="AE50" s="6">
-        <f t="shared" ref="AE50" si="20">AVERAGE(AE43:AE48)</f>
-        <v>0</v>
-      </c>
-      <c r="AF50" s="6">
-        <f t="shared" ref="AF50" si="21">AVERAGE(AF43:AF48)</f>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="6">
-        <f t="shared" ref="AG50" si="22">AVERAGE(AG43:AG48)</f>
-        <v>0</v>
-      </c>
-      <c r="AH50" s="6">
-        <f t="shared" ref="AH50" si="23">AVERAGE(AH43:AH48)</f>
+      <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+      <c r="O50" s="9">
+        <v>0</v>
+      </c>
+      <c r="P50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>0</v>
+      </c>
+      <c r="R50" s="9">
+        <v>0</v>
+      </c>
+      <c r="S50" s="9">
+        <v>0</v>
+      </c>
+      <c r="T50" s="9">
+        <v>0</v>
+      </c>
+      <c r="U50" s="9">
+        <v>0</v>
+      </c>
+      <c r="V50" s="9">
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <v>0</v>
+      </c>
+      <c r="X50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="19"/>
-      <c r="C51" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="9">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0</v>
-      </c>
-      <c r="J51" s="9">
-        <v>0</v>
-      </c>
-      <c r="K51" s="9">
-        <v>0</v>
-      </c>
-      <c r="L51" s="9">
-        <v>0</v>
-      </c>
-      <c r="M51" s="9">
-        <v>0</v>
-      </c>
-      <c r="N51" s="9">
-        <v>0</v>
-      </c>
-      <c r="O51" s="9">
-        <v>0</v>
-      </c>
-      <c r="P51" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="9">
-        <v>0</v>
-      </c>
-      <c r="R51" s="9">
-        <v>0</v>
-      </c>
-      <c r="S51" s="9">
-        <v>0</v>
-      </c>
-      <c r="T51" s="9">
-        <v>0</v>
-      </c>
-      <c r="U51" s="9">
-        <v>0</v>
-      </c>
-      <c r="V51" s="9">
-        <v>0</v>
-      </c>
-      <c r="W51" s="9">
-        <v>0</v>
-      </c>
-      <c r="X51" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="9">
+      <c r="F51" s="6">
+        <f>AVERAGE(F49:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" ref="G51:AH51" si="7">AVERAGE(G49:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="6">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="19"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="D52" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="9">
@@ -5790,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="9">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="9">
         <v>0</v>
@@ -5866,136 +5919,105 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="20"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="7"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="6">
-        <f>AVERAGE(F51:F52)</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="6">
-        <f t="shared" ref="G53:AH53" si="24">AVERAGE(G51:G52)</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AE53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AF53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH53" s="6">
-        <f t="shared" si="24"/>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+      <c r="O53" s="9">
+        <v>0</v>
+      </c>
+      <c r="P53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>0</v>
+      </c>
+      <c r="R53" s="9">
+        <v>0</v>
+      </c>
+      <c r="S53" s="9">
+        <v>0</v>
+      </c>
+      <c r="T53" s="9">
+        <v>0</v>
+      </c>
+      <c r="U53" s="9">
+        <v>0</v>
+      </c>
+      <c r="V53" s="9">
+        <v>0</v>
+      </c>
+      <c r="W53" s="9">
+        <v>0</v>
+      </c>
+      <c r="X53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="15" t="s">
+      <c r="B54" s="22"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="9">
@@ -6011,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="9">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="9">
         <v>0</v>
@@ -6087,8 +6109,8 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="19"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="7" t="s">
         <v>33</v>
       </c>
@@ -6182,10 +6204,10 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="19"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9">
@@ -6277,10 +6299,10 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="19"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="9">
@@ -6372,10 +6394,10 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="19"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="9">
@@ -6467,10 +6489,10 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="19"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="9">
@@ -6562,10 +6584,10 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="19"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="9">
@@ -6657,10 +6679,10 @@
       </c>
     </row>
     <row r="61" spans="2:34">
-      <c r="B61" s="19"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="9">
@@ -6752,10 +6774,10 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="19"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="7" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="9">
@@ -6774,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L62" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="9">
         <v>0</v>
@@ -6847,10 +6869,10 @@
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="19"/>
-      <c r="C63" s="16"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="9">
@@ -6942,8 +6964,8 @@
       </c>
     </row>
     <row r="64" spans="2:34">
-      <c r="B64" s="19"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="7" t="s">
         <v>38</v>
       </c>
@@ -7037,8 +7059,8 @@
       </c>
     </row>
     <row r="65" spans="2:34">
-      <c r="B65" s="19"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="7" t="s">
         <v>39</v>
       </c>
@@ -7132,105 +7154,134 @@
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="19"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="7" t="s">
+      <c r="B66" s="22"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6">
+        <f>AVERAGE(F52:F65)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" ref="G66:R66" si="8">AVERAGE(G52:G65)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <f t="shared" si="8"/>
+        <v>3.2142857142857147E-2</v>
+      </c>
+      <c r="K66" s="6">
+        <f t="shared" si="8"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="L66" s="6">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M66" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="6">
+        <f t="shared" ref="S66:AH66" si="9">AVERAGE(S52:S65)</f>
+        <v>0</v>
+      </c>
+      <c r="T66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B67" s="22"/>
+      <c r="C67" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="9">
-        <v>0</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-      <c r="J66" s="9">
-        <v>0</v>
-      </c>
-      <c r="K66" s="9">
-        <v>0</v>
-      </c>
-      <c r="L66" s="9">
-        <v>0</v>
-      </c>
-      <c r="M66" s="9">
-        <v>0</v>
-      </c>
-      <c r="N66" s="9">
-        <v>0</v>
-      </c>
-      <c r="O66" s="9">
-        <v>0</v>
-      </c>
-      <c r="P66" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="9">
-        <v>0</v>
-      </c>
-      <c r="R66" s="9">
-        <v>0</v>
-      </c>
-      <c r="S66" s="9">
-        <v>0</v>
-      </c>
-      <c r="T66" s="9">
-        <v>0</v>
-      </c>
-      <c r="U66" s="9">
-        <v>0</v>
-      </c>
-      <c r="V66" s="9">
-        <v>0</v>
-      </c>
-      <c r="W66" s="9">
-        <v>0</v>
-      </c>
-      <c r="X66" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:34">
-      <c r="B67" s="19"/>
-      <c r="C67" s="16"/>
       <c r="D67" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="9">
@@ -7322,156 +7373,156 @@
       </c>
     </row>
     <row r="68" spans="2:34">
-      <c r="B68" s="19"/>
-      <c r="C68" s="17"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="6">
-        <f>AVERAGE(F54:F67)</f>
+        <f>AVERAGE(F67)</f>
         <v>0</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" ref="G68:R68" si="25">AVERAGE(G54:G67)</f>
+        <f t="shared" ref="G68:AH68" si="10">AVERAGE(G67)</f>
         <v>0</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" si="25"/>
-        <v>3.2142857142857147E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="25"/>
-        <v>7.1428571428571425E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R68" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S68" s="6">
-        <f t="shared" ref="S68:AH68" si="26">AVERAGE(S54:S67)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B69" s="19"/>
-      <c r="C69" s="12" t="s">
-        <v>42</v>
+    <row r="69" spans="2:34">
+      <c r="B69" s="22"/>
+      <c r="C69" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G69" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H69" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I69" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J69" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="9">
         <v>0</v>
@@ -7541,156 +7592,156 @@
       </c>
     </row>
     <row r="70" spans="2:34">
-      <c r="B70" s="19"/>
-      <c r="C70" s="14"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="6">
         <f>AVERAGE(F69)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" ref="G70:AH70" si="27">AVERAGE(G69)</f>
-        <v>0</v>
+        <f t="shared" ref="G70:R70" si="11">AVERAGE(G69)</f>
+        <v>0.5</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.5</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.5</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="L70" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="M70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="S70:AH70" si="12">AVERAGE(S69)</f>
         <v>0</v>
       </c>
       <c r="T70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH70" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:34">
-      <c r="B71" s="19"/>
-      <c r="C71" s="15" t="s">
+    <row r="71" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B71" s="22"/>
+      <c r="C71" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G71" s="9">
         <v>0.5</v>
       </c>
       <c r="H71" s="9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I71" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J71" s="9">
         <v>1</v>
       </c>
       <c r="K71" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="9">
         <v>0</v>
@@ -7760,512 +7811,291 @@
       </c>
     </row>
     <row r="72" spans="2:34">
-      <c r="B72" s="19"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="7"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="6">
-        <f>AVERAGE(F71)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G72" s="6">
-        <f t="shared" ref="G72:R72" si="28">AVERAGE(G71)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H72" s="6">
-        <f t="shared" si="28"/>
-        <v>0.5</v>
-      </c>
-      <c r="I72" s="6">
-        <f t="shared" si="28"/>
-        <v>0.5</v>
-      </c>
-      <c r="J72" s="6">
-        <f t="shared" si="28"/>
+      <c r="F72" s="9">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J72" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K72" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="L72" s="9">
         <v>1</v>
       </c>
-      <c r="K72" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N72" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Q72" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="R72" s="6">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S72" s="6">
-        <f t="shared" ref="S72:AH72" si="29">AVERAGE(S71)</f>
-        <v>0</v>
-      </c>
-      <c r="T72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="U72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="X72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Y72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Z72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AA72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AB72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AC72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AD72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AF72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG72" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH72" s="6">
-        <f t="shared" si="29"/>
+      <c r="M72" s="9">
+        <v>0</v>
+      </c>
+      <c r="N72" s="9">
+        <v>0</v>
+      </c>
+      <c r="O72" s="9">
+        <v>0</v>
+      </c>
+      <c r="P72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="9">
+        <v>0</v>
+      </c>
+      <c r="R72" s="9">
+        <v>0</v>
+      </c>
+      <c r="S72" s="9">
+        <v>0</v>
+      </c>
+      <c r="T72" s="9">
+        <v>0</v>
+      </c>
+      <c r="U72" s="9">
+        <v>0</v>
+      </c>
+      <c r="V72" s="9">
+        <v>0</v>
+      </c>
+      <c r="W72" s="9">
+        <v>0</v>
+      </c>
+      <c r="X72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B73" s="19"/>
-      <c r="C73" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>44</v>
-      </c>
+    <row r="73" spans="2:34">
+      <c r="B73" s="23"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="9">
-        <v>0</v>
-      </c>
-      <c r="G73" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H73" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="I73" s="9">
+      <c r="F73" s="6">
+        <f>AVERAGE(F71:F72)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" ref="G73:R73" si="13">AVERAGE(G71:G72)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H73" s="6">
+        <f t="shared" si="13"/>
+        <v>0.375</v>
+      </c>
+      <c r="I73" s="6">
+        <f t="shared" si="13"/>
+        <v>0.95</v>
+      </c>
+      <c r="J73" s="6">
+        <f t="shared" si="13"/>
+        <v>0.95</v>
+      </c>
+      <c r="K73" s="6">
+        <f t="shared" si="13"/>
+        <v>0.95</v>
+      </c>
+      <c r="L73" s="6">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J73" s="9">
-        <v>1</v>
-      </c>
-      <c r="K73" s="9">
-        <v>0</v>
-      </c>
-      <c r="L73" s="9">
-        <v>0</v>
-      </c>
-      <c r="M73" s="9">
-        <v>0</v>
-      </c>
-      <c r="N73" s="9">
-        <v>0</v>
-      </c>
-      <c r="O73" s="9">
-        <v>0</v>
-      </c>
-      <c r="P73" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="9">
-        <v>0</v>
-      </c>
-      <c r="R73" s="9">
-        <v>0</v>
-      </c>
-      <c r="S73" s="9">
-        <v>0</v>
-      </c>
-      <c r="T73" s="9">
-        <v>0</v>
-      </c>
-      <c r="U73" s="9">
-        <v>0</v>
-      </c>
-      <c r="V73" s="9">
-        <v>0</v>
-      </c>
-      <c r="W73" s="9">
-        <v>0</v>
-      </c>
-      <c r="X73" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH73" s="9">
+      <c r="M73" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="6">
+        <f t="shared" ref="S73:AH73" si="14">AVERAGE(S71:S72)</f>
+        <v>0</v>
+      </c>
+      <c r="T73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH73" s="6">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:34">
-      <c r="B74" s="19"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="9">
-        <v>0</v>
-      </c>
-      <c r="G74" s="9">
-        <v>0</v>
-      </c>
-      <c r="H74" s="9">
-        <v>0</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="J74" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="K74" s="9">
-        <v>0</v>
-      </c>
-      <c r="L74" s="9">
-        <v>0</v>
-      </c>
-      <c r="M74" s="9">
-        <v>0</v>
-      </c>
-      <c r="N74" s="9">
-        <v>0</v>
-      </c>
-      <c r="O74" s="9">
-        <v>0</v>
-      </c>
-      <c r="P74" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="9">
-        <v>0</v>
-      </c>
-      <c r="R74" s="9">
-        <v>0</v>
-      </c>
-      <c r="S74" s="9">
-        <v>0</v>
-      </c>
-      <c r="T74" s="9">
-        <v>0</v>
-      </c>
-      <c r="U74" s="9">
-        <v>0</v>
-      </c>
-      <c r="V74" s="9">
-        <v>0</v>
-      </c>
-      <c r="W74" s="9">
-        <v>0</v>
-      </c>
-      <c r="X74" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE74" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF74" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG74" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH74" s="9">
-        <v>0</v>
-      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="2:34">
-      <c r="B75" s="20"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="6">
-        <f t="shared" ref="F75:R75" si="30">AVERAGE(F73:F74)</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="6">
-        <f t="shared" si="30"/>
-        <v>0.25</v>
-      </c>
-      <c r="H75" s="6">
-        <f t="shared" si="30"/>
-        <v>0.375</v>
-      </c>
-      <c r="I75" s="6">
-        <f t="shared" si="30"/>
-        <v>0.95</v>
-      </c>
-      <c r="J75" s="6">
-        <f t="shared" si="30"/>
-        <v>0.95</v>
-      </c>
-      <c r="K75" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Q75" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="R75" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="S75" s="6">
-        <f t="shared" ref="S75:AH75" si="31">AVERAGE(S73:S74)</f>
-        <v>0</v>
-      </c>
-      <c r="T75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="U75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="X75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Y75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AC75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AD75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AE75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AH75" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:34">
-      <c r="E76" s="8"/>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="2:34">
-      <c r="E77" s="8"/>
-      <c r="F77" s="4"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C54:C68"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="B54:B75"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="C51:C53"/>
+  <mergeCells count="11">
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="B52:B73"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="B32:B51"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="B34:B53"/>
-    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C52:C66"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B34:C34 E34:E35">
-    <cfRule type="cellIs" dxfId="8" priority="118" operator="equal">
+  <conditionalFormatting sqref="C26 E26:E27">
+    <cfRule type="cellIs" dxfId="8" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28 E28:E29">
-    <cfRule type="cellIs" dxfId="7" priority="185" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:D43 D43:D49">
-    <cfRule type="cellIs" dxfId="6" priority="115" operator="equal">
+  <conditionalFormatting sqref="C41:D41 D41:D47">
+    <cfRule type="cellIs" dxfId="7" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D13">
-    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D21 D23:D41">
-    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
+  <conditionalFormatting sqref="D14:D21 D23:D39">
+    <cfRule type="cellIs" dxfId="5" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22 E23:E26 B54:B55">
-    <cfRule type="cellIs" dxfId="3" priority="172" operator="equal">
+  <conditionalFormatting sqref="D22 B52:B53">
+    <cfRule type="cellIs" dxfId="4" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="2" priority="37" operator="equal">
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="3" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:E51 D53:E53 C54:E55 D56:E68 C69:E69 D70:E75">
-    <cfRule type="cellIs" dxfId="1" priority="145" operator="equal">
+  <conditionalFormatting sqref="D49:E49 D51:E51 C52:E53 D54:E66 C67:E67 D68:E73">
+    <cfRule type="cellIs" dxfId="2" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E21">
-    <cfRule type="cellIs" dxfId="0" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="E23:E24 B32:C32 E32:E33">
+    <cfRule type="cellIs" dxfId="0" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="dataBar" priority="505">
       <dataBar>
         <cfvo type="min"/>
@@ -8279,7 +8109,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F27">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -8293,7 +8123,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="F28">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -8307,7 +8137,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="F29">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -8321,7 +8151,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="F30">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -8335,7 +8165,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F37">
+  <conditionalFormatting sqref="F32:F35">
     <cfRule type="dataBar" priority="432">
       <dataBar>
         <cfvo type="min"/>
@@ -8349,7 +8179,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F41">
+  <conditionalFormatting sqref="F36:F39">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
@@ -8363,7 +8193,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F49 F43 F44:H44 J44">
+  <conditionalFormatting sqref="F43:F47 F41 F42:H42 J42:K42">
     <cfRule type="dataBar" priority="485">
       <dataBar>
         <cfvo type="min"/>
@@ -8377,7 +8207,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
+  <conditionalFormatting sqref="F50">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
@@ -8391,7 +8221,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:F74">
+  <conditionalFormatting sqref="F71:F72">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -8405,7 +8235,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:I67">
+  <conditionalFormatting sqref="F52:I65">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -8419,7 +8249,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:I71 F51">
+  <conditionalFormatting sqref="F69:I69 F49">
     <cfRule type="dataBar" priority="477">
       <dataBar>
         <cfvo type="min"/>
@@ -8447,8 +8277,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:AH26">
-    <cfRule type="dataBar" priority="26">
+  <conditionalFormatting sqref="F23:AH24">
+    <cfRule type="dataBar" priority="555">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8461,7 +8291,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69:AH69">
+  <conditionalFormatting sqref="F67:AH67">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -8475,7 +8305,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G26">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -8489,7 +8319,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G27">
     <cfRule type="dataBar" priority="514">
       <dataBar>
         <cfvo type="min"/>
@@ -8503,7 +8333,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G32">
+  <conditionalFormatting sqref="G28:G30">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -8517,7 +8347,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:G37">
+  <conditionalFormatting sqref="G32:G35">
     <cfRule type="dataBar" priority="433">
       <dataBar>
         <cfvo type="min"/>
@@ -8531,7 +8361,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G41">
+  <conditionalFormatting sqref="G36:G39">
     <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
@@ -8545,7 +8375,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G49 G43">
+  <conditionalFormatting sqref="G43:G47 G41">
     <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="min"/>
@@ -8559,7 +8389,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
+  <conditionalFormatting sqref="G49">
     <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="min"/>
@@ -8573,7 +8403,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
+  <conditionalFormatting sqref="G50">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -8587,7 +8417,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
+  <conditionalFormatting sqref="G71">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8601,7 +8431,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
+  <conditionalFormatting sqref="G72">
     <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
@@ -8615,7 +8445,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H32">
+  <conditionalFormatting sqref="H27:H30">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -8629,7 +8459,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H36">
+  <conditionalFormatting sqref="H32:H34">
     <cfRule type="dataBar" priority="494">
       <dataBar>
         <cfvo type="min"/>
@@ -8643,7 +8473,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
+  <conditionalFormatting sqref="H36:H37">
     <cfRule type="dataBar" priority="495">
       <dataBar>
         <cfvo type="min"/>
@@ -8657,7 +8487,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H49 H43 J45 J43">
+  <conditionalFormatting sqref="H43:H47 H41 J43 J41">
     <cfRule type="dataBar" priority="496">
       <dataBar>
         <cfvo type="min"/>
@@ -8671,7 +8501,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H49">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -8685,7 +8515,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H72">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -8699,7 +8529,35 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:J28 I29:J29 J30:J32">
+  <conditionalFormatting sqref="H35:J35">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1303D586-8258-463C-8ABD-037215FABF40}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:J39">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:K26 I27:K27 J28:K30">
     <cfRule type="dataBar" priority="523">
       <dataBar>
         <cfvo type="min"/>
@@ -8713,35 +8571,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1303D586-8258-463C-8ABD-037215FABF40}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:J41">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73:J73">
+  <conditionalFormatting sqref="H71:K71">
     <cfRule type="dataBar" priority="488">
       <dataBar>
         <cfvo type="min"/>
@@ -8769,7 +8599,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:AH52">
+  <conditionalFormatting sqref="H50:AH50">
     <cfRule type="dataBar" priority="501">
       <dataBar>
         <cfvo type="min"/>
@@ -8783,7 +8613,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I32">
+  <conditionalFormatting sqref="I28:I30">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -8797,7 +8627,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I36">
+  <conditionalFormatting sqref="I32:I34">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -8811,7 +8641,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I39">
+  <conditionalFormatting sqref="I36:I37">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
@@ -8825,7 +8655,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="I42">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
@@ -8839,7 +8669,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:I49 I43">
+  <conditionalFormatting sqref="I43:I47 I41">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
@@ -8853,7 +8683,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:J74">
+  <conditionalFormatting sqref="I72:K72">
     <cfRule type="dataBar" priority="502">
       <dataBar>
         <cfvo type="min"/>
@@ -8867,7 +8697,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:AH51">
+  <conditionalFormatting sqref="I49:AH49">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -8881,7 +8711,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J36">
+  <conditionalFormatting sqref="J44:J47 K45:K47">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:K34">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
@@ -8895,7 +8739,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J39">
+  <conditionalFormatting sqref="J36:K37">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
@@ -8909,21 +8753,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:J49">
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71 J54">
+  <conditionalFormatting sqref="J69:K69 J52">
     <cfRule type="dataBar" priority="498">
       <dataBar>
         <cfvo type="min"/>
@@ -8937,7 +8767,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:AH67 J55:J56">
+  <conditionalFormatting sqref="J55:AH65 J53:J54">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -8951,7 +8781,63 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:AH32">
+  <conditionalFormatting sqref="K38:AH38 L36:AH37 K35:AH35 L32:AH34">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:AH39">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79A6E942-BB28-4C5C-B051-63D2113FB72F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:AH41 L45:AH47 K43:AH44 L42:AH42">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6C5573C3-41FA-4990-9C24-439EC153DA6C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:AH54">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{018A2B3E-2548-4772-A2CF-BD33006C0FDF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:AH30">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -8965,63 +8851,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:AH40">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41:AH41">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79A6E942-BB28-4C5C-B051-63D2113FB72F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43:AH49">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C5573C3-41FA-4990-9C24-439EC153DA6C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:AH56">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{018A2B3E-2548-4772-A2CF-BD33006C0FDF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71:AH71">
+  <conditionalFormatting sqref="L69:AH69">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -9035,7 +8865,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:AH74">
+  <conditionalFormatting sqref="L71:AH72">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -9063,7 +8893,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F28</xm:sqref>
+          <xm:sqref>F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C9B1CBA6-8E8F-409E-969D-8814DC7288E9}">
@@ -9074,7 +8904,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F29</xm:sqref>
+          <xm:sqref>F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2C9CC8EE-9F85-4D1B-A9FD-8B4A25562878}">
@@ -9085,7 +8915,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F30</xm:sqref>
+          <xm:sqref>F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CDD693AD-B56D-4CB1-9D65-1694161B4B41}">
@@ -9096,7 +8926,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F31</xm:sqref>
+          <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C8DCD6B3-DF0C-45B8-A4AF-072C80C9651E}">
@@ -9107,7 +8937,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F32</xm:sqref>
+          <xm:sqref>F30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9C91B573-7EDD-48F1-AAE4-F942D0F94FED}">
@@ -9118,7 +8948,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F34:F37</xm:sqref>
+          <xm:sqref>F32:F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D602E0EC-8368-4F0B-8C33-192409A1D82C}">
@@ -9129,7 +8959,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F38:F41</xm:sqref>
+          <xm:sqref>F36:F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
@@ -9140,7 +8970,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F45:F49 F43 F44:H44 J44</xm:sqref>
+          <xm:sqref>F43:F47 F41 F42:H42 J42:K42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
@@ -9151,7 +8981,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F52</xm:sqref>
+          <xm:sqref>F50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2AA71A7D-0A87-47E9-8455-1690A5BCBEDB}">
@@ -9162,7 +8992,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F73:F74</xm:sqref>
+          <xm:sqref>F71:F72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6DB883C9-1F88-4735-AB90-2C226539E60C}">
@@ -9173,7 +9003,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F54:I67</xm:sqref>
+          <xm:sqref>F52:I65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
@@ -9184,7 +9014,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F71:I71 F51</xm:sqref>
+          <xm:sqref>F69:I69 F49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
@@ -9206,7 +9036,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F23:AH26</xm:sqref>
+          <xm:sqref>F23:AH24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}">
@@ -9217,7 +9047,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F69:AH69</xm:sqref>
+          <xm:sqref>F67:AH67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{57A8B765-FFA7-434C-9523-5857F06016E6}">
@@ -9228,7 +9058,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G28</xm:sqref>
+          <xm:sqref>G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D4E863B-7ADB-4930-88E8-B15E0F7C56D2}">
@@ -9239,7 +9069,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G29</xm:sqref>
+          <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6B382747-E3CF-4F61-B632-A61A74466B47}">
@@ -9250,7 +9080,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G30:G32</xm:sqref>
+          <xm:sqref>G28:G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85109038-BFED-4A1D-9EFD-DFC02076C006}">
@@ -9261,7 +9091,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G34:G37</xm:sqref>
+          <xm:sqref>G32:G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{18AF2DD8-6640-4119-B4E6-8CC0AB6FEEE7}">
@@ -9272,7 +9102,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G38:G41</xm:sqref>
+          <xm:sqref>G36:G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8221E45B-E79D-49CA-8786-7BDF441C575C}">
@@ -9283,7 +9113,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G45:G49 G43</xm:sqref>
+          <xm:sqref>G43:G47 G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D753DFF-0685-48F3-BDEF-449EB335D13E}">
@@ -9294,7 +9124,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G51</xm:sqref>
+          <xm:sqref>G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
@@ -9305,7 +9135,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G52</xm:sqref>
+          <xm:sqref>G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E848E527-F886-47F9-86FC-B4D9ACBF8A73}">
@@ -9316,7 +9146,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G73</xm:sqref>
+          <xm:sqref>G71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
@@ -9327,7 +9157,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G74</xm:sqref>
+          <xm:sqref>G72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3AE68020-C365-4ABF-939B-EF0068109146}">
@@ -9338,7 +9168,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H29:H32</xm:sqref>
+          <xm:sqref>H27:H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{39544BDF-3167-4345-B25E-E17EB47629D9}">
@@ -9349,7 +9179,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34:H36</xm:sqref>
+          <xm:sqref>H32:H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
@@ -9360,7 +9190,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38:H39</xm:sqref>
+          <xm:sqref>H36:H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
@@ -9371,7 +9201,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45:H49 H43 J45 J43</xm:sqref>
+          <xm:sqref>H43:H47 H41 J43 J41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{106CA0D7-EA4D-4861-A022-D36678D0799F}">
@@ -9382,7 +9212,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
+          <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE68A3AD-D55D-4311-89F9-78D10FCA9D91}">
@@ -9393,7 +9223,29 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H74</xm:sqref>
+          <xm:sqref>H72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1303D586-8258-463C-8ABD-037215FABF40}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H35:J35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38:J39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}">
@@ -9404,29 +9256,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H28:J28 I29:J29 J30:J32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1303D586-8258-463C-8ABD-037215FABF40}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H37:J37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H40:J41</xm:sqref>
+          <xm:sqref>H26:K26 I27:K27 J28:K30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
@@ -9437,7 +9267,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H73:J73</xm:sqref>
+          <xm:sqref>H71:K71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
@@ -9459,7 +9289,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H52:AH52</xm:sqref>
+          <xm:sqref>H50:AH50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1A303F07-6070-4189-AC1D-80357A0D5D47}">
@@ -9470,7 +9300,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I30:I32</xm:sqref>
+          <xm:sqref>I28:I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0CAB636-D7F6-4060-9565-33FF484985B4}">
@@ -9481,7 +9311,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I34:I36</xm:sqref>
+          <xm:sqref>I32:I34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EFF78A47-4D23-462B-A616-BA7687DFFB29}">
@@ -9492,7 +9322,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I38:I39</xm:sqref>
+          <xm:sqref>I36:I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1C71E1E0-EA29-4171-9159-938FC2CFE6CA}">
@@ -9503,7 +9333,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I44</xm:sqref>
+          <xm:sqref>I42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1EB49D24-1482-4398-B2F7-B67E515088AC}">
@@ -9514,7 +9344,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I45:I49 I43</xm:sqref>
+          <xm:sqref>I43:I47 I41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
@@ -9525,7 +9355,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I74:J74</xm:sqref>
+          <xm:sqref>I72:K72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}">
@@ -9536,7 +9366,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I51:AH51</xm:sqref>
+          <xm:sqref>I49:AH49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J44:J47 K45:K47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}">
@@ -9547,7 +9388,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J34:J36</xm:sqref>
+          <xm:sqref>J32:K34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{35DDF99D-E2AE-4FE5-A4EB-AC6AFA3114E3}">
@@ -9558,18 +9399,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J38:J39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J46:J49</xm:sqref>
+          <xm:sqref>J36:K37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
@@ -9580,7 +9410,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J71 J54</xm:sqref>
+          <xm:sqref>J69:K69 J52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
@@ -9591,7 +9421,51 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J57:AH67 J55:J56</xm:sqref>
+          <xm:sqref>J55:AH65 J53:J54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K38:AH38 L36:AH37 K35:AH35 L32:AH34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79A6E942-BB28-4C5C-B051-63D2113FB72F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K39:AH39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K41:AH41 L45:AH47 K43:AH44 L42:AH42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{018A2B3E-2548-4772-A2CF-BD33006C0FDF}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K52:AH54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C3D459D-49E3-462A-B846-0FE83B131D15}">
@@ -9602,51 +9476,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K28:AH32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K34:AH40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79A6E942-BB28-4C5C-B051-63D2113FB72F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K41:AH41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K43:AH49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{018A2B3E-2548-4772-A2CF-BD33006C0FDF}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K54:AH56</xm:sqref>
+          <xm:sqref>L26:AH30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CBE33775-0E9E-48FA-B07E-81B3AA0F642B}">
@@ -9657,7 +9487,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K71:AH71</xm:sqref>
+          <xm:sqref>L69:AH69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B769FDA4-52DD-48E5-B5B4-67E966D84479}">
@@ -9668,7 +9498,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K73:AH74</xm:sqref>
+          <xm:sqref>L71:AH72</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D36CD87-508A-48C9-963E-6FAAA713DB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE16226-6173-4762-B5C1-08B940ACA618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7995" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -311,6 +311,10 @@
     <t>신청자 상세 / 참여 승인 (모집자만)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>나의 후기 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -475,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,15 +526,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,10 +546,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -941,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AI75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1082,7 +1077,7 @@
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0.58410714285714282</v>
+        <v>0.57624999999999993</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
@@ -1274,7 +1269,7 @@
       <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1300,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M6" s="9">
         <v>0</v>
@@ -1371,7 +1366,7 @@
     </row>
     <row r="7" spans="2:34">
       <c r="B7" s="13"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
@@ -1466,7 +1461,7 @@
     </row>
     <row r="8" spans="2:34">
       <c r="B8" s="13"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1561,7 +1556,7 @@
     </row>
     <row r="9" spans="2:34">
       <c r="B9" s="13"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1651,7 @@
     </row>
     <row r="10" spans="2:34">
       <c r="B10" s="13"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="7" t="s">
         <v>67</v>
       </c>
@@ -1751,7 +1746,7 @@
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1846,7 +1841,7 @@
     </row>
     <row r="12" spans="2:34">
       <c r="B12" s="13"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1941,7 +1936,7 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="7" t="s">
         <v>68</v>
       </c>
@@ -2036,7 +2031,7 @@
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
@@ -2131,7 +2126,7 @@
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
@@ -2226,7 +2221,7 @@
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="13"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
@@ -2321,7 +2316,7 @@
     </row>
     <row r="17" spans="2:35">
       <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="7" t="s">
         <v>14</v>
       </c>
@@ -2416,9 +2411,9 @@
     </row>
     <row r="18" spans="2:35">
       <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
@@ -2511,7 +2506,7 @@
     </row>
     <row r="19" spans="2:35">
       <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2606,7 +2601,7 @@
     </row>
     <row r="20" spans="2:35">
       <c r="B20" s="13"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="7" t="s">
         <v>20</v>
       </c>
@@ -2702,7 +2697,7 @@
     </row>
     <row r="21" spans="2:35">
       <c r="B21" s="13"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="7" t="s">
         <v>17</v>
       </c>
@@ -2797,7 +2792,7 @@
     </row>
     <row r="22" spans="2:35" ht="16.149999999999999" customHeight="1">
       <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6">
@@ -2826,7 +2821,7 @@
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M22" s="6">
         <f t="shared" si="1"/>
@@ -2919,7 +2914,7 @@
     </row>
     <row r="23" spans="2:35">
       <c r="B23" s="13"/>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -3016,7 +3011,7 @@
     </row>
     <row r="24" spans="2:35">
       <c r="B24" s="13"/>
-      <c r="C24" s="19"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="7" t="s">
         <v>65</v>
       </c>
@@ -3111,7 +3106,7 @@
     </row>
     <row r="25" spans="2:35">
       <c r="B25" s="13"/>
-      <c r="C25" s="20"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6">
@@ -3233,7 +3228,7 @@
     </row>
     <row r="26" spans="2:35">
       <c r="B26" s="13"/>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -3330,7 +3325,7 @@
     </row>
     <row r="27" spans="2:35">
       <c r="B27" s="13"/>
-      <c r="C27" s="25"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
@@ -3425,7 +3420,7 @@
     </row>
     <row r="28" spans="2:35">
       <c r="B28" s="13"/>
-      <c r="C28" s="25"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="7" t="s">
         <v>63</v>
       </c>
@@ -3520,7 +3515,7 @@
     </row>
     <row r="29" spans="2:35">
       <c r="B29" s="13"/>
-      <c r="C29" s="25"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="7" t="s">
         <v>64</v>
       </c>
@@ -3615,7 +3610,7 @@
     </row>
     <row r="30" spans="2:35">
       <c r="B30" s="13"/>
-      <c r="C30" s="25"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="7" t="s">
         <v>19</v>
       </c>
@@ -3710,7 +3705,7 @@
     </row>
     <row r="31" spans="2:35">
       <c r="B31" s="14"/>
-      <c r="C31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6">
@@ -3831,10 +3826,10 @@
       </c>
     </row>
     <row r="32" spans="2:35">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -3930,8 +3925,8 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="22"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="7" t="s">
         <v>49</v>
       </c>
@@ -4025,8 +4020,8 @@
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="22"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7" t="s">
         <v>54</v>
       </c>
@@ -4120,8 +4115,8 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="22"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="7" t="s">
         <v>50</v>
       </c>
@@ -4215,8 +4210,8 @@
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="22"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="10" t="s">
         <v>51</v>
       </c>
@@ -4310,8 +4305,8 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="22"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="10" t="s">
         <v>52</v>
       </c>
@@ -4405,8 +4400,8 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="22"/>
-      <c r="C38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="10" t="s">
         <v>55</v>
       </c>
@@ -4430,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M38" s="9">
         <v>0</v>
@@ -4500,8 +4495,8 @@
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="22"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="10" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4590,8 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="22"/>
-      <c r="C40" s="20"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6">
@@ -4625,7 +4620,7 @@
       </c>
       <c r="L40" s="6">
         <f t="shared" si="5"/>
-        <v>0.71250000000000002</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="M40" s="6">
         <f t="shared" si="5"/>
@@ -4717,8 +4712,8 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="22"/>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -4814,8 +4809,8 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="22"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="7" t="s">
         <v>60</v>
       </c>
@@ -4909,8 +4904,8 @@
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="22"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="7" t="s">
         <v>59</v>
       </c>
@@ -5004,8 +4999,8 @@
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="22"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="7" t="s">
         <v>48</v>
       </c>
@@ -5099,8 +5094,8 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="22"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="10" t="s">
         <v>58</v>
       </c>
@@ -5194,8 +5189,8 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="22"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="10" t="s">
         <v>57</v>
       </c>
@@ -5289,8 +5284,8 @@
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="22"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="7" t="s">
         <v>15</v>
       </c>
@@ -5314,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M47" s="9">
         <v>0</v>
@@ -5384,8 +5379,8 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="22"/>
-      <c r="C48" s="20"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="6">
@@ -5414,7 +5409,7 @@
       </c>
       <c r="L48" s="6">
         <f t="shared" si="6"/>
-        <v>0.98571428571428577</v>
+        <v>0.97142857142857153</v>
       </c>
       <c r="M48" s="6">
         <f t="shared" si="6"/>
@@ -5506,8 +5501,8 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="22"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -5603,8 +5598,8 @@
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="22"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="7" t="s">
         <v>48</v>
       </c>
@@ -5698,8 +5693,8 @@
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="23"/>
-      <c r="C51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="6">
@@ -5820,10 +5815,10 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -5919,8 +5914,8 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="22"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="7" t="s">
         <v>31</v>
       </c>
@@ -6014,8 +6009,8 @@
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="22"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="7" t="s">
         <v>32</v>
       </c>
@@ -6109,8 +6104,8 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="22"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7" t="s">
         <v>33</v>
       </c>
@@ -6204,8 +6199,8 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="22"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="7" t="s">
         <v>21</v>
       </c>
@@ -6299,8 +6294,8 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="22"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="7" t="s">
         <v>22</v>
       </c>
@@ -6394,8 +6389,8 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="22"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="7" t="s">
         <v>34</v>
       </c>
@@ -6489,8 +6484,8 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="22"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="7" t="s">
         <v>35</v>
       </c>
@@ -6584,8 +6579,8 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="22"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="7" t="s">
         <v>7</v>
       </c>
@@ -6679,8 +6674,8 @@
       </c>
     </row>
     <row r="61" spans="2:34">
-      <c r="B61" s="22"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="7" t="s">
         <v>8</v>
       </c>
@@ -6774,8 +6769,8 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="22"/>
-      <c r="C62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7" t="s">
         <v>36</v>
       </c>
@@ -6799,7 +6794,7 @@
         <v>0.8</v>
       </c>
       <c r="L62" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M62" s="9">
         <v>0</v>
@@ -6869,8 +6864,8 @@
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="22"/>
-      <c r="C63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="7" t="s">
         <v>37</v>
       </c>
@@ -6964,8 +6959,8 @@
       </c>
     </row>
     <row r="64" spans="2:34">
-      <c r="B64" s="22"/>
-      <c r="C64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="7" t="s">
         <v>38</v>
       </c>
@@ -7059,8 +7054,8 @@
       </c>
     </row>
     <row r="65" spans="2:34">
-      <c r="B65" s="22"/>
-      <c r="C65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="7" t="s">
         <v>39</v>
       </c>
@@ -7154,8 +7149,8 @@
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="22"/>
-      <c r="C66" s="20"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="6">
@@ -7184,7 +7179,7 @@
       </c>
       <c r="L66" s="6">
         <f t="shared" si="8"/>
-        <v>0.14285714285714285</v>
+        <v>0.12857142857142859</v>
       </c>
       <c r="M66" s="6">
         <f t="shared" si="8"/>
@@ -7276,8 +7271,8 @@
       </c>
     </row>
     <row r="67" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="24" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D67" s="7" t="s">
@@ -7373,8 +7368,8 @@
       </c>
     </row>
     <row r="68" spans="2:34">
-      <c r="B68" s="22"/>
-      <c r="C68" s="26"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="6">
@@ -7495,8 +7490,8 @@
       </c>
     </row>
     <row r="69" spans="2:34">
-      <c r="B69" s="22"/>
-      <c r="C69" s="18" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D69" s="7" t="s">
@@ -7592,8 +7587,8 @@
       </c>
     </row>
     <row r="70" spans="2:34">
-      <c r="B70" s="22"/>
-      <c r="C70" s="20"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="6">
@@ -7714,8 +7709,8 @@
       </c>
     </row>
     <row r="71" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="18" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -7811,8 +7806,8 @@
       </c>
     </row>
     <row r="72" spans="2:34">
-      <c r="B72" s="22"/>
-      <c r="C72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="7" t="s">
         <v>43</v>
       </c>
@@ -7906,8 +7901,8 @@
       </c>
     </row>
     <row r="73" spans="2:34">
-      <c r="B73" s="23"/>
-      <c r="C73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="6">
@@ -8036,18 +8031,19 @@
       <c r="F75" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="B52:B73"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C67:C68"/>
+  <mergeCells count="12">
+    <mergeCell ref="C6:C22"/>
     <mergeCell ref="C32:C40"/>
     <mergeCell ref="B32:B51"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="C52:C66"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="B52:B73"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C67:C68"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C26 E26:E27">

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE16226-6173-4762-B5C1-08B940ACA618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E5458-58C9-4A8E-8CEF-BA94E00D3920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7995" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -315,6 +315,18 @@
     <t>나의 후기 목록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 여행 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 코스 상세 반응형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -528,10 +540,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AI75"/>
+  <dimension ref="B2:AI76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -947,8 +959,8 @@
     <col min="3" max="3" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="13" width="10.625" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.625" style="4" customWidth="1"/>
     <col min="15" max="15" width="11.625" style="4" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="4" customWidth="1"/>
@@ -1052,119 +1064,119 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:AH3" si="0">AVERAGE(F22,F25,F31,F40,F48,F51,F66,F68,F70,F73)</f>
+        <f>AVERAGE(F22,F25,F31,F41,F49,F52,F67,F69,F71,F74)</f>
         <v>0.06</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G22,G25,G31,G41,G49,G52,G67,G69,G71,G74)</f>
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H22,H25,H31,H41,H49,H52,H67,H69,H71,H74)</f>
         <v>0.25028571428571428</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I22,I25,I31,I41,I49,I52,I67,I69,I71,I74)</f>
         <v>0.32121428571428573</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J22,J25,J31,J41,J49,J52,J67,J69,J71,J74)</f>
         <v>0.46714285714285708</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K22,K25,K31,K41,K49,K52,K67,K69,K71,K74)</f>
         <v>0.56864285714285723</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L22,L25,L31,L41,L49,L52,L67,L69,L71,L74)</f>
         <v>0.57624999999999993</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(M22,M25,M31,M41,M49,M52,M67,M69,M71,M74)</f>
+        <v>0.57800824175824173</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(N22,N25,N31,N41,N49,N52,N67,N69,N71,N74)</f>
+        <v>0.59980158730158739</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(O22,O25,O31,O41,O49,O52,O67,O69,O71,O74)</f>
+        <v>0.64924603174603168</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(P22,P25,P31,P41,P49,P52,P67,P69,P71,P74)</f>
+        <v>0.77589285714285716</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(Q22,Q25,Q31,Q41,Q49,Q52,Q67,Q69,Q71,Q74)</f>
         <v>0</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(R22,R25,R31,R41,R49,R52,R67,R69,R71,R74)</f>
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(S22,S25,S31,S41,S49,S52,S67,S69,S71,S74)</f>
         <v>0</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(T22,T25,T31,T41,T49,T52,T67,T69,T71,T74)</f>
         <v>0</v>
       </c>
       <c r="U3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(U22,U25,U31,U41,U49,U52,U67,U69,U71,U74)</f>
         <v>0</v>
       </c>
       <c r="V3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(V22,V25,V31,V41,V49,V52,V67,V69,V71,V74)</f>
         <v>0</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(W22,W25,W31,W41,W49,W52,W67,W69,W71,W74)</f>
         <v>0</v>
       </c>
       <c r="X3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(X22,X25,X31,X41,X49,X52,X67,X69,X71,X74)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(Y22,Y25,Y31,Y41,Y49,Y52,Y67,Y69,Y71,Y74)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(Z22,Z25,Z31,Z41,Z49,Z52,Z67,Z69,Z71,Z74)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AA22,AA25,AA31,AA41,AA49,AA52,AA67,AA69,AA71,AA74)</f>
         <v>0</v>
       </c>
       <c r="AB3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AB22,AB25,AB31,AB41,AB49,AB52,AB67,AB69,AB71,AB74)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AC22,AC25,AC31,AC41,AC49,AC52,AC67,AC69,AC71,AC74)</f>
         <v>0</v>
       </c>
       <c r="AD3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AD22,AD25,AD31,AD41,AD49,AD52,AD67,AD69,AD71,AD74)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AE22,AE25,AE31,AE41,AE49,AE52,AE67,AE69,AE71,AE74)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AF22,AF25,AF31,AF41,AF49,AF52,AF67,AF69,AF71,AF74)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AG22,AG25,AG31,AG41,AG49,AG52,AG67,AG69,AG71,AG74)</f>
         <v>0</v>
       </c>
       <c r="AH3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AH22,AH25,AH31,AH41,AH49,AH52,AH67,AH69,AH71,AH74)</f>
         <v>0</v>
       </c>
     </row>
@@ -1298,16 +1310,16 @@
         <v>0.8</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
@@ -1681,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>
@@ -2634,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="9">
         <v>0</v>
@@ -2796,119 +2808,119 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6">
-        <f t="shared" ref="F22:R22" si="1">AVERAGE(F6:F21)</f>
+        <f t="shared" ref="F22:R22" si="0">AVERAGE(F6:F21)</f>
         <v>0</v>
       </c>
       <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="N22" s="6">
+        <f>AVERAGE(N6:N21)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <f t="shared" ref="S22:AH22" si="1">AVERAGE(S6:S21)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="6">
+      <c r="U22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="6">
+      <c r="V22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="6">
+      <c r="W22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="6">
+      <c r="X22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="6">
+      <c r="Y22" s="6">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="6">
+      <c r="AA22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="6">
+      <c r="AB22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P22" s="6">
+      <c r="AC22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="AD22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="6">
+      <c r="AE22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S22" s="6">
-        <f t="shared" ref="S22:AH22" si="2">AVERAGE(S6:S21)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AF22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2943,16 +2955,16 @@
         <v>1</v>
       </c>
       <c r="M23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="9">
         <v>0</v>
@@ -3011,7 +3023,7 @@
     </row>
     <row r="24" spans="2:35">
       <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="7" t="s">
         <v>65</v>
       </c>
@@ -3038,16 +3050,16 @@
         <v>1</v>
       </c>
       <c r="M24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="9">
         <v>0</v>
@@ -3106,123 +3118,123 @@
     </row>
     <row r="25" spans="2:35">
       <c r="B25" s="13"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:AH25" si="3">AVERAGE(F23:F24)</f>
+        <f t="shared" ref="F25:AH25" si="2">AVERAGE(F23:F24)</f>
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>AVERAGE(N23:N24)</f>
+        <v>1</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3257,16 +3269,16 @@
         <v>1</v>
       </c>
       <c r="M26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="9">
         <v>0</v>
@@ -3352,16 +3364,16 @@
         <v>1</v>
       </c>
       <c r="M27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="9">
         <v>0</v>
@@ -3447,16 +3459,16 @@
         <v>1</v>
       </c>
       <c r="M28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="9">
         <v>0</v>
@@ -3542,16 +3554,16 @@
         <v>1</v>
       </c>
       <c r="M29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="9">
         <v>0</v>
@@ -3637,16 +3649,16 @@
         <v>1</v>
       </c>
       <c r="M30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="9">
         <v>0</v>
@@ -3709,119 +3721,119 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6">
-        <f t="shared" ref="F31:AH31" si="4">AVERAGE(F26:F30)</f>
+        <f t="shared" ref="F31:AH31" si="3">AVERAGE(F26:F30)</f>
         <v>0.1</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.27999999999999997</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>AVERAGE(N26:N30)</f>
+        <v>1</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3858,16 +3870,16 @@
         <v>1</v>
       </c>
       <c r="M32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="9">
         <v>0</v>
@@ -3926,7 +3938,7 @@
     </row>
     <row r="33" spans="2:34">
       <c r="B33" s="19"/>
-      <c r="C33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="7" t="s">
         <v>49</v>
       </c>
@@ -3953,16 +3965,16 @@
         <v>1</v>
       </c>
       <c r="M33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="9">
         <v>0</v>
@@ -4021,7 +4033,7 @@
     </row>
     <row r="34" spans="2:34">
       <c r="B34" s="19"/>
-      <c r="C34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>54</v>
       </c>
@@ -4048,16 +4060,16 @@
         <v>1</v>
       </c>
       <c r="M34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="9">
         <v>0</v>
@@ -4116,7 +4128,7 @@
     </row>
     <row r="35" spans="2:34">
       <c r="B35" s="19"/>
-      <c r="C35" s="16"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="7" t="s">
         <v>50</v>
       </c>
@@ -4149,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="9">
         <v>0</v>
@@ -4211,7 +4223,7 @@
     </row>
     <row r="36" spans="2:34">
       <c r="B36" s="19"/>
-      <c r="C36" s="16"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="10" t="s">
         <v>51</v>
       </c>
@@ -4238,16 +4250,16 @@
         <v>0.9</v>
       </c>
       <c r="M36" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N36" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="9">
         <v>0</v>
@@ -4306,7 +4318,7 @@
     </row>
     <row r="37" spans="2:34">
       <c r="B37" s="19"/>
-      <c r="C37" s="16"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="10" t="s">
         <v>52</v>
       </c>
@@ -4333,16 +4345,16 @@
         <v>1</v>
       </c>
       <c r="M37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="9">
         <v>0</v>
@@ -4401,7 +4413,7 @@
     </row>
     <row r="38" spans="2:34">
       <c r="B38" s="19"/>
-      <c r="C38" s="16"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="10" t="s">
         <v>55</v>
       </c>
@@ -4434,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="9">
         <v>0</v>
@@ -4496,7 +4508,7 @@
     </row>
     <row r="39" spans="2:34">
       <c r="B39" s="19"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="10" t="s">
         <v>56</v>
       </c>
@@ -4529,10 +4541,10 @@
         <v>0</v>
       </c>
       <c r="O39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="9">
         <v>0</v>
@@ -4592,227 +4604,211 @@
     <row r="40" spans="2:34">
       <c r="B40" s="19"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="7"/>
+      <c r="D40" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="6">
-        <f>AVERAGE(F32:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" ref="G40:AH40" si="5">AVERAGE(G32:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="5"/>
-        <v>0.625</v>
-      </c>
-      <c r="I40" s="6">
-        <f t="shared" si="5"/>
-        <v>0.625</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" si="5"/>
-        <v>0.625</v>
-      </c>
-      <c r="K40" s="6">
-        <f t="shared" si="5"/>
-        <v>0.625</v>
-      </c>
-      <c r="L40" s="6">
-        <f t="shared" si="5"/>
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="M40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="6">
-        <f t="shared" si="5"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+      <c r="R40" s="9">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0</v>
+      </c>
+      <c r="T40" s="9">
+        <v>0</v>
+      </c>
+      <c r="U40" s="9">
+        <v>0</v>
+      </c>
+      <c r="V40" s="9">
+        <v>0</v>
+      </c>
+      <c r="W40" s="9">
+        <v>0</v>
+      </c>
+      <c r="X40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:34">
       <c r="B41" s="19"/>
-      <c r="C41" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="I41" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9">
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
-        <v>0</v>
-      </c>
-      <c r="P41" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="9">
-        <v>0</v>
-      </c>
-      <c r="R41" s="9">
-        <v>0</v>
-      </c>
-      <c r="S41" s="9">
-        <v>0</v>
-      </c>
-      <c r="T41" s="9">
-        <v>0</v>
-      </c>
-      <c r="U41" s="9">
-        <v>0</v>
-      </c>
-      <c r="V41" s="9">
-        <v>0</v>
-      </c>
-      <c r="W41" s="9">
-        <v>0</v>
-      </c>
-      <c r="X41" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="9">
+      <c r="F41" s="6">
+        <f>AVERAGE(F32:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <f>AVERAGE(G32:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <f>AVERAGE(H32:H39)</f>
+        <v>0.625</v>
+      </c>
+      <c r="I41" s="6">
+        <f>AVERAGE(I32:I39)</f>
+        <v>0.625</v>
+      </c>
+      <c r="J41" s="6">
+        <f>AVERAGE(J32:J39)</f>
+        <v>0.625</v>
+      </c>
+      <c r="K41" s="6">
+        <f>AVERAGE(K32:K39)</f>
+        <v>0.625</v>
+      </c>
+      <c r="L41" s="6">
+        <f>AVERAGE(L32:L39)</f>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M41" s="6">
+        <f>AVERAGE(M32:M39)</f>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="N41" s="6">
+        <f>AVERAGE(N32:N40)</f>
+        <v>0.54444444444444451</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" ref="O41:AH41" si="4">AVERAGE(O32:O40)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="P41" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:34">
       <c r="B42" s="19"/>
-      <c r="C42" s="16"/>
+      <c r="C42" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="D42" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="9">
@@ -4828,25 +4824,25 @@
         <v>0.8</v>
       </c>
       <c r="J42" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K42" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L42" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M42" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N42" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="9">
         <v>0</v>
@@ -4905,9 +4901,9 @@
     </row>
     <row r="43" spans="2:34">
       <c r="B43" s="19"/>
-      <c r="C43" s="16"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="9">
@@ -4917,31 +4913,31 @@
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I43" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J43" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K43" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L43" s="9">
         <v>1</v>
       </c>
       <c r="M43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="9">
         <v>0</v>
@@ -5000,9 +4996,9 @@
     </row>
     <row r="44" spans="2:34">
       <c r="B44" s="19"/>
-      <c r="C44" s="16"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -5012,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I44" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J44" s="9">
         <v>0.8</v>
@@ -5027,16 +5023,16 @@
         <v>1</v>
       </c>
       <c r="M44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="9">
         <v>0</v>
@@ -5095,9 +5091,9 @@
     </row>
     <row r="45" spans="2:34">
       <c r="B45" s="19"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="10" t="s">
-        <v>58</v>
+      <c r="C45" s="17"/>
+      <c r="D45" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
@@ -5107,31 +5103,31 @@
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I45" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J45" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K45" s="9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L45" s="9">
         <v>1</v>
       </c>
       <c r="M45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="9">
         <v>0</v>
@@ -5190,9 +5186,9 @@
     </row>
     <row r="46" spans="2:34">
       <c r="B46" s="19"/>
-      <c r="C46" s="16"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="9">
@@ -5217,16 +5213,16 @@
         <v>1</v>
       </c>
       <c r="M46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="9">
         <v>0</v>
@@ -5285,9 +5281,9 @@
     </row>
     <row r="47" spans="2:34">
       <c r="B47" s="19"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="7" t="s">
-        <v>15</v>
+      <c r="C47" s="17"/>
+      <c r="D47" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="9">
@@ -5309,19 +5305,19 @@
         <v>1</v>
       </c>
       <c r="L47" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="9">
         <v>0</v>
@@ -5381,227 +5377,227 @@
     <row r="48" spans="2:34">
       <c r="B48" s="19"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E48" s="7"/>
-      <c r="F48" s="6">
-        <f>AVERAGE(F41:F47)</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="6">
-        <f t="shared" ref="G48:AH48" si="6">AVERAGE(G41:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
-        <f t="shared" si="6"/>
-        <v>0.84285714285714286</v>
-      </c>
-      <c r="I48" s="6">
-        <f t="shared" si="6"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" si="6"/>
-        <v>0.91428571428571437</v>
-      </c>
-      <c r="K48" s="6">
-        <f t="shared" si="6"/>
-        <v>0.98285714285714287</v>
-      </c>
-      <c r="L48" s="6">
-        <f t="shared" si="6"/>
-        <v>0.97142857142857153</v>
-      </c>
-      <c r="M48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="6">
-        <f t="shared" si="6"/>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1</v>
+      </c>
+      <c r="I48" s="9">
+        <v>1</v>
+      </c>
+      <c r="J48" s="9">
+        <v>1</v>
+      </c>
+      <c r="K48" s="9">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N48" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="O48" s="9">
+        <v>1</v>
+      </c>
+      <c r="P48" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>0</v>
+      </c>
+      <c r="R48" s="9">
+        <v>0</v>
+      </c>
+      <c r="S48" s="9">
+        <v>0</v>
+      </c>
+      <c r="T48" s="9">
+        <v>0</v>
+      </c>
+      <c r="U48" s="9">
+        <v>0</v>
+      </c>
+      <c r="V48" s="9">
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:34">
       <c r="B49" s="19"/>
-      <c r="C49" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-      <c r="J49" s="9">
-        <v>0</v>
-      </c>
-      <c r="K49" s="9">
-        <v>0</v>
-      </c>
-      <c r="L49" s="9">
-        <v>0</v>
-      </c>
-      <c r="M49" s="9">
-        <v>0</v>
-      </c>
-      <c r="N49" s="9">
-        <v>0</v>
-      </c>
-      <c r="O49" s="9">
-        <v>0</v>
-      </c>
-      <c r="P49" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="9">
-        <v>0</v>
-      </c>
-      <c r="R49" s="9">
-        <v>0</v>
-      </c>
-      <c r="S49" s="9">
-        <v>0</v>
-      </c>
-      <c r="T49" s="9">
-        <v>0</v>
-      </c>
-      <c r="U49" s="9">
-        <v>0</v>
-      </c>
-      <c r="V49" s="9">
-        <v>0</v>
-      </c>
-      <c r="W49" s="9">
-        <v>0</v>
-      </c>
-      <c r="X49" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="9">
+      <c r="F49" s="6">
+        <f>AVERAGE(F42:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" ref="G49:AH49" si="5">AVERAGE(G42:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.91428571428571437</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98285714285714287</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="N49" s="6">
+        <f>AVERAGE(N42:N48)</f>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P49" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:34">
       <c r="B50" s="19"/>
-      <c r="C50" s="16"/>
+      <c r="C50" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="D50" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="9">
@@ -5635,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="9">
         <v>0</v>
@@ -5693,231 +5689,231 @@
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="20"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E51" s="7"/>
-      <c r="F51" s="6">
-        <f>AVERAGE(F49:F50)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" ref="G51:AH51" si="7">AVERAGE(G49:G50)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH51" s="6">
-        <f t="shared" si="7"/>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
+      <c r="O51" s="9">
+        <v>0</v>
+      </c>
+      <c r="P51" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>0</v>
+      </c>
+      <c r="R51" s="9">
+        <v>0</v>
+      </c>
+      <c r="S51" s="9">
+        <v>0</v>
+      </c>
+      <c r="T51" s="9">
+        <v>0</v>
+      </c>
+      <c r="U51" s="9">
+        <v>0</v>
+      </c>
+      <c r="V51" s="9">
+        <v>0</v>
+      </c>
+      <c r="W51" s="9">
+        <v>0</v>
+      </c>
+      <c r="X51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="9">
-        <v>0</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-      <c r="J52" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="K52" s="9">
-        <v>1</v>
-      </c>
-      <c r="L52" s="9">
-        <v>1</v>
-      </c>
-      <c r="M52" s="9">
-        <v>0</v>
-      </c>
-      <c r="N52" s="9">
-        <v>0</v>
-      </c>
-      <c r="O52" s="9">
-        <v>0</v>
-      </c>
-      <c r="P52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>0</v>
-      </c>
-      <c r="R52" s="9">
-        <v>0</v>
-      </c>
-      <c r="S52" s="9">
-        <v>0</v>
-      </c>
-      <c r="T52" s="9">
-        <v>0</v>
-      </c>
-      <c r="U52" s="9">
-        <v>0</v>
-      </c>
-      <c r="V52" s="9">
-        <v>0</v>
-      </c>
-      <c r="W52" s="9">
-        <v>0</v>
-      </c>
-      <c r="X52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="9">
+      <c r="F52" s="6">
+        <f>AVERAGE(F50:F51)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" ref="G52:AH52" si="6">AVERAGE(G50:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <f>AVERAGE(N50:N51)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="19"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="D53" s="7" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="9">
@@ -5933,25 +5929,25 @@
         <v>0</v>
       </c>
       <c r="J53" s="9">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="9">
         <v>0</v>
@@ -6010,9 +6006,9 @@
     </row>
     <row r="54" spans="2:34">
       <c r="B54" s="19"/>
-      <c r="C54" s="16"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="9">
@@ -6105,9 +6101,9 @@
     </row>
     <row r="55" spans="2:34">
       <c r="B55" s="19"/>
-      <c r="C55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="9">
@@ -6131,17 +6127,17 @@
       <c r="L55" s="9">
         <v>0</v>
       </c>
-      <c r="M55" s="9">
-        <v>0</v>
+      <c r="M55" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="N55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="9">
         <v>0</v>
@@ -6200,9 +6196,9 @@
     </row>
     <row r="56" spans="2:34">
       <c r="B56" s="19"/>
-      <c r="C56" s="16"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9">
@@ -6230,13 +6226,13 @@
         <v>0</v>
       </c>
       <c r="N56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="9">
         <v>0</v>
@@ -6295,9 +6291,9 @@
     </row>
     <row r="57" spans="2:34">
       <c r="B57" s="19"/>
-      <c r="C57" s="16"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="9">
@@ -6325,13 +6321,13 @@
         <v>0</v>
       </c>
       <c r="N57" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="9">
         <v>0</v>
@@ -6390,9 +6386,9 @@
     </row>
     <row r="58" spans="2:34">
       <c r="B58" s="19"/>
-      <c r="C58" s="16"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="9">
@@ -6420,13 +6416,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O58" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="9">
         <v>0</v>
@@ -6485,9 +6481,9 @@
     </row>
     <row r="59" spans="2:34">
       <c r="B59" s="19"/>
-      <c r="C59" s="16"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="9">
@@ -6521,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="9">
         <v>0</v>
@@ -6580,9 +6576,9 @@
     </row>
     <row r="60" spans="2:34">
       <c r="B60" s="19"/>
-      <c r="C60" s="16"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="9">
@@ -6616,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="9">
         <v>0</v>
@@ -6675,9 +6671,9 @@
     </row>
     <row r="61" spans="2:34">
       <c r="B61" s="19"/>
-      <c r="C61" s="16"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="9">
@@ -6770,9 +6766,9 @@
     </row>
     <row r="62" spans="2:34">
       <c r="B62" s="19"/>
-      <c r="C62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="9">
@@ -6791,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L62" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M62" s="9">
         <v>0</v>
@@ -6865,9 +6861,9 @@
     </row>
     <row r="63" spans="2:34">
       <c r="B63" s="19"/>
-      <c r="C63" s="16"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="9">
@@ -6886,22 +6882,22 @@
         <v>0</v>
       </c>
       <c r="K63" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L63" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M63" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N63" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="9">
         <v>0</v>
@@ -6960,9 +6956,9 @@
     </row>
     <row r="64" spans="2:34">
       <c r="B64" s="19"/>
-      <c r="C64" s="16"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="9">
@@ -7055,9 +7051,9 @@
     </row>
     <row r="65" spans="2:34">
       <c r="B65" s="19"/>
-      <c r="C65" s="16"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="9">
@@ -7151,699 +7147,699 @@
     <row r="66" spans="2:34">
       <c r="B66" s="19"/>
       <c r="C66" s="17"/>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="6">
-        <f>AVERAGE(F52:F65)</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="6">
-        <f t="shared" ref="G66:R66" si="8">AVERAGE(G52:G65)</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="6">
+      <c r="F66" s="9">
+        <v>0</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0</v>
+      </c>
+      <c r="K66" s="9">
+        <v>0</v>
+      </c>
+      <c r="L66" s="9">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9">
+        <v>0</v>
+      </c>
+      <c r="O66" s="9">
+        <v>0</v>
+      </c>
+      <c r="P66" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>0</v>
+      </c>
+      <c r="R66" s="9">
+        <v>0</v>
+      </c>
+      <c r="S66" s="9">
+        <v>0</v>
+      </c>
+      <c r="T66" s="9">
+        <v>0</v>
+      </c>
+      <c r="U66" s="9">
+        <v>0</v>
+      </c>
+      <c r="V66" s="9">
+        <v>0</v>
+      </c>
+      <c r="W66" s="9">
+        <v>0</v>
+      </c>
+      <c r="X66" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34">
+      <c r="B67" s="19"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6">
+        <f>AVERAGE(F53:F66)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" ref="G67:R67" si="7">AVERAGE(G53:G66)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <f t="shared" si="7"/>
+        <v>3.2142857142857147E-2</v>
+      </c>
+      <c r="K67" s="6">
+        <f t="shared" si="7"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="L67" s="6">
+        <f t="shared" si="7"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="M67" s="6">
+        <f t="shared" si="7"/>
+        <v>0.14615384615384613</v>
+      </c>
+      <c r="N67" s="6">
+        <f>AVERAGE(N53:N66)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="O67" s="6">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="P67" s="6">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q67" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="6">
+        <f t="shared" ref="S67:AH67" si="8">AVERAGE(S53:S66)</f>
+        <v>0</v>
+      </c>
+      <c r="T67" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I66" s="6">
+      <c r="U67" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J66" s="6">
+      <c r="V67" s="6">
         <f t="shared" si="8"/>
-        <v>3.2142857142857147E-2</v>
-      </c>
-      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="W67" s="6">
         <f t="shared" si="8"/>
-        <v>0.12857142857142859</v>
-      </c>
-      <c r="L66" s="6">
+        <v>0</v>
+      </c>
+      <c r="X67" s="6">
         <f t="shared" si="8"/>
-        <v>0.12857142857142859</v>
-      </c>
-      <c r="M66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N66" s="6">
+      <c r="Z67" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O66" s="6">
+      <c r="AA67" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P66" s="6">
+      <c r="AB67" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q66" s="6">
+      <c r="AC67" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R66" s="6">
+      <c r="AD67" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S66" s="6">
-        <f t="shared" ref="S66:AH66" si="9">AVERAGE(S52:S65)</f>
-        <v>0</v>
-      </c>
-      <c r="T66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH66" s="6">
-        <f t="shared" si="9"/>
+      <c r="AE67" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH67" s="6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B67" s="19"/>
-      <c r="C67" s="21" t="s">
+    <row r="68" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B68" s="19"/>
+      <c r="C68" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="9">
-        <v>0</v>
-      </c>
-      <c r="G67" s="9">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9">
-        <v>0</v>
-      </c>
-      <c r="I67" s="9">
-        <v>0</v>
-      </c>
-      <c r="J67" s="9">
-        <v>0</v>
-      </c>
-      <c r="K67" s="9">
-        <v>0</v>
-      </c>
-      <c r="L67" s="9">
-        <v>0</v>
-      </c>
-      <c r="M67" s="9">
-        <v>0</v>
-      </c>
-      <c r="N67" s="9">
-        <v>0</v>
-      </c>
-      <c r="O67" s="9">
-        <v>0</v>
-      </c>
-      <c r="P67" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="9">
-        <v>0</v>
-      </c>
-      <c r="R67" s="9">
-        <v>0</v>
-      </c>
-      <c r="S67" s="9">
-        <v>0</v>
-      </c>
-      <c r="T67" s="9">
-        <v>0</v>
-      </c>
-      <c r="U67" s="9">
-        <v>0</v>
-      </c>
-      <c r="V67" s="9">
-        <v>0</v>
-      </c>
-      <c r="W67" s="9">
-        <v>0</v>
-      </c>
-      <c r="X67" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH67" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:34">
-      <c r="B68" s="19"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="6">
-        <f>AVERAGE(F67)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="6">
-        <f t="shared" ref="G68:AH68" si="10">AVERAGE(G67)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AG68" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH68" s="6">
-        <f t="shared" si="10"/>
+      <c r="F68" s="9">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0</v>
+      </c>
+      <c r="I68" s="9">
+        <v>0</v>
+      </c>
+      <c r="J68" s="9">
+        <v>0</v>
+      </c>
+      <c r="K68" s="9">
+        <v>0</v>
+      </c>
+      <c r="L68" s="9">
+        <v>0</v>
+      </c>
+      <c r="M68" s="9">
+        <v>0</v>
+      </c>
+      <c r="N68" s="9">
+        <v>0</v>
+      </c>
+      <c r="O68" s="9">
+        <v>0</v>
+      </c>
+      <c r="P68" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="9">
+        <v>0</v>
+      </c>
+      <c r="R68" s="9">
+        <v>0</v>
+      </c>
+      <c r="S68" s="9">
+        <v>0</v>
+      </c>
+      <c r="T68" s="9">
+        <v>0</v>
+      </c>
+      <c r="U68" s="9">
+        <v>0</v>
+      </c>
+      <c r="V68" s="9">
+        <v>0</v>
+      </c>
+      <c r="W68" s="9">
+        <v>0</v>
+      </c>
+      <c r="X68" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:34">
       <c r="B69" s="19"/>
-      <c r="C69" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G69" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H69" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J69" s="9">
-        <v>1</v>
-      </c>
-      <c r="K69" s="9">
-        <v>1</v>
-      </c>
-      <c r="L69" s="9">
-        <v>1</v>
-      </c>
-      <c r="M69" s="9">
-        <v>0</v>
-      </c>
-      <c r="N69" s="9">
-        <v>0</v>
-      </c>
-      <c r="O69" s="9">
-        <v>0</v>
-      </c>
-      <c r="P69" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="9">
-        <v>0</v>
-      </c>
-      <c r="R69" s="9">
-        <v>0</v>
-      </c>
-      <c r="S69" s="9">
-        <v>0</v>
-      </c>
-      <c r="T69" s="9">
-        <v>0</v>
-      </c>
-      <c r="U69" s="9">
-        <v>0</v>
-      </c>
-      <c r="V69" s="9">
-        <v>0</v>
-      </c>
-      <c r="W69" s="9">
-        <v>0</v>
-      </c>
-      <c r="X69" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="9">
+      <c r="F69" s="6">
+        <f>AVERAGE(F68)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" ref="G69:AH69" si="9">AVERAGE(G68)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="6">
+        <f>AVERAGE(N68)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH69" s="6">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:34">
       <c r="B70" s="19"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="7"/>
+      <c r="C70" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="6">
-        <f>AVERAGE(F69)</f>
+      <c r="F70" s="9">
         <v>0.5</v>
       </c>
-      <c r="G70" s="6">
-        <f t="shared" ref="G70:R70" si="11">AVERAGE(G69)</f>
+      <c r="G70" s="9">
         <v>0.5</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J70" s="9">
+        <v>1</v>
+      </c>
+      <c r="K70" s="9">
+        <v>1</v>
+      </c>
+      <c r="L70" s="9">
+        <v>1</v>
+      </c>
+      <c r="M70" s="9">
+        <v>1</v>
+      </c>
+      <c r="N70" s="9">
+        <v>1</v>
+      </c>
+      <c r="O70" s="9">
+        <v>1</v>
+      </c>
+      <c r="P70" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>0</v>
+      </c>
+      <c r="R70" s="9">
+        <v>0</v>
+      </c>
+      <c r="S70" s="9">
+        <v>0</v>
+      </c>
+      <c r="T70" s="9">
+        <v>0</v>
+      </c>
+      <c r="U70" s="9">
+        <v>0</v>
+      </c>
+      <c r="V70" s="9">
+        <v>0</v>
+      </c>
+      <c r="W70" s="9">
+        <v>0</v>
+      </c>
+      <c r="X70" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:34">
+      <c r="B71" s="19"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="6">
+        <f>AVERAGE(F70)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" ref="G71:R71" si="10">AVERAGE(G70)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H71" s="6">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="6">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J71" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L71" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M71" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N71" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O71" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P71" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q71" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="6">
+        <f t="shared" ref="S71:AH71" si="11">AVERAGE(S70)</f>
+        <v>0</v>
+      </c>
+      <c r="T71" s="6">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="U71" s="6">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="J70" s="6">
+        <v>0</v>
+      </c>
+      <c r="V71" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+      <c r="W71" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="L70" s="6">
+        <v>0</v>
+      </c>
+      <c r="X71" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M70" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N70" s="6">
+      <c r="Z71" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O70" s="6">
+      <c r="AA71" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P70" s="6">
+      <c r="AB71" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q70" s="6">
+      <c r="AC71" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R70" s="6">
+      <c r="AD71" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S70" s="6">
-        <f t="shared" ref="S70:AH70" si="12">AVERAGE(S69)</f>
-        <v>0</v>
-      </c>
-      <c r="T70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH70" s="6">
-        <f t="shared" si="12"/>
+      <c r="AE71" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH71" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B71" s="19"/>
-      <c r="C71" s="15" t="s">
+    <row r="72" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B72" s="19"/>
+      <c r="C72" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="9">
-        <v>0</v>
-      </c>
-      <c r="G71" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H71" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="I71" s="9">
-        <v>1</v>
-      </c>
-      <c r="J71" s="9">
-        <v>1</v>
-      </c>
-      <c r="K71" s="9">
-        <v>1</v>
-      </c>
-      <c r="L71" s="9">
-        <v>1</v>
-      </c>
-      <c r="M71" s="9">
-        <v>0</v>
-      </c>
-      <c r="N71" s="9">
-        <v>0</v>
-      </c>
-      <c r="O71" s="9">
-        <v>0</v>
-      </c>
-      <c r="P71" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="9">
-        <v>0</v>
-      </c>
-      <c r="R71" s="9">
-        <v>0</v>
-      </c>
-      <c r="S71" s="9">
-        <v>0</v>
-      </c>
-      <c r="T71" s="9">
-        <v>0</v>
-      </c>
-      <c r="U71" s="9">
-        <v>0</v>
-      </c>
-      <c r="V71" s="9">
-        <v>0</v>
-      </c>
-      <c r="W71" s="9">
-        <v>0</v>
-      </c>
-      <c r="X71" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE71" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF71" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG71" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH71" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:34">
-      <c r="B72" s="19"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="9">
         <v>0</v>
       </c>
       <c r="G72" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H72" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I72" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J72" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K72" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L72" s="9">
         <v>1</v>
       </c>
       <c r="M72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="9">
         <v>0</v>
@@ -7901,149 +7897,244 @@
       </c>
     </row>
     <row r="73" spans="2:34">
-      <c r="B73" s="20"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="17"/>
-      <c r="D73" s="7"/>
+      <c r="D73" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E73" s="7"/>
-      <c r="F73" s="6">
-        <f>AVERAGE(F71:F72)</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="6">
-        <f t="shared" ref="G73:R73" si="13">AVERAGE(G71:G72)</f>
-        <v>0.25</v>
-      </c>
-      <c r="H73" s="6">
-        <f t="shared" si="13"/>
-        <v>0.375</v>
-      </c>
-      <c r="I73" s="6">
-        <f t="shared" si="13"/>
-        <v>0.95</v>
-      </c>
-      <c r="J73" s="6">
-        <f t="shared" si="13"/>
-        <v>0.95</v>
-      </c>
-      <c r="K73" s="6">
-        <f t="shared" si="13"/>
-        <v>0.95</v>
-      </c>
-      <c r="L73" s="6">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M73" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="6">
-        <f t="shared" ref="S73:AH73" si="14">AVERAGE(S71:S72)</f>
-        <v>0</v>
-      </c>
-      <c r="T73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG73" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AH73" s="6">
-        <f t="shared" si="14"/>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J73" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="L73" s="9">
+        <v>1</v>
+      </c>
+      <c r="M73" s="9">
+        <v>1</v>
+      </c>
+      <c r="N73" s="9">
+        <v>1</v>
+      </c>
+      <c r="O73" s="9">
+        <v>1</v>
+      </c>
+      <c r="P73" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="9">
+        <v>0</v>
+      </c>
+      <c r="R73" s="9">
+        <v>0</v>
+      </c>
+      <c r="S73" s="9">
+        <v>0</v>
+      </c>
+      <c r="T73" s="9">
+        <v>0</v>
+      </c>
+      <c r="U73" s="9">
+        <v>0</v>
+      </c>
+      <c r="V73" s="9">
+        <v>0</v>
+      </c>
+      <c r="W73" s="9">
+        <v>0</v>
+      </c>
+      <c r="X73" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:34">
-      <c r="E74" s="8"/>
-      <c r="F74" s="4"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6">
+        <f>AVERAGE(F72:F73)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" ref="G74:R74" si="12">AVERAGE(G72:G73)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H74" s="6">
+        <f t="shared" si="12"/>
+        <v>0.375</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="J74" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="K74" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="L74" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M74" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N74" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O74" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P74" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q74" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="6">
+        <f t="shared" ref="S74:AH74" si="13">AVERAGE(S72:S73)</f>
+        <v>0</v>
+      </c>
+      <c r="T74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="2:34">
       <c r="E75" s="8"/>
       <c r="F75" s="4"/>
     </row>
+    <row r="76" spans="2:34">
+      <c r="E76" s="8"/>
+      <c r="F76" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C6:C22"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="B32:B51"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="B32:B52"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C52:C66"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="B52:B73"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C53:C67"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B53:B74"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C68:C69"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C26 E26:E27">
@@ -8051,7 +8142,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:D41 D41:D47">
+  <conditionalFormatting sqref="C42:D42 D42:D48">
     <cfRule type="cellIs" dxfId="7" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -8061,22 +8152,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D21 D23:D39">
+  <conditionalFormatting sqref="D14:D21 D23:D40">
     <cfRule type="cellIs" dxfId="5" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22 B52:B53">
+  <conditionalFormatting sqref="D22 B53:B54">
     <cfRule type="cellIs" dxfId="4" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="3" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:E49 D51:E51 C52:E53 D54:E66 C67:E67 D68:E73">
+  <conditionalFormatting sqref="D50:E50 D52:E52 C53:E54 D55:E67 C68:E68 D69:E74">
     <cfRule type="cellIs" dxfId="2" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -8175,7 +8266,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F39">
+  <conditionalFormatting sqref="F36:F40">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
@@ -8189,7 +8280,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F47 F41 F42:H42 J42:K42">
+  <conditionalFormatting sqref="F44:F48 F42 F43:H43 J43:K43">
     <cfRule type="dataBar" priority="485">
       <dataBar>
         <cfvo type="min"/>
@@ -8203,7 +8294,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+  <conditionalFormatting sqref="F51">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
@@ -8217,7 +8308,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:F72">
+  <conditionalFormatting sqref="F72:F73">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -8231,7 +8322,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52:I65">
+  <conditionalFormatting sqref="F53:I66">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -8245,7 +8336,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69:I69 F49">
+  <conditionalFormatting sqref="F70:I70 F50">
     <cfRule type="dataBar" priority="477">
       <dataBar>
         <cfvo type="min"/>
@@ -8287,7 +8378,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:AH67">
+  <conditionalFormatting sqref="F68:AH68">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -8357,7 +8448,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G39">
+  <conditionalFormatting sqref="G36:G40">
     <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
@@ -8371,7 +8462,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:G47 G41">
+  <conditionalFormatting sqref="G44:G48 G42">
     <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="min"/>
@@ -8385,7 +8476,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G50">
     <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="min"/>
@@ -8399,7 +8490,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="G51">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -8413,7 +8504,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
+  <conditionalFormatting sqref="G72">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8427,7 +8518,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72">
+  <conditionalFormatting sqref="G73">
     <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
@@ -8483,7 +8574,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H47 H41 J43 J41">
+  <conditionalFormatting sqref="H44:H48 H42 J44 J42">
     <cfRule type="dataBar" priority="496">
       <dataBar>
         <cfvo type="min"/>
@@ -8497,7 +8588,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H50">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -8511,7 +8602,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H73">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -8539,7 +8630,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:J39">
+  <conditionalFormatting sqref="H38:J40">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -8567,7 +8658,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71:K71">
+  <conditionalFormatting sqref="H72:K72">
     <cfRule type="dataBar" priority="488">
       <dataBar>
         <cfvo type="min"/>
@@ -8595,7 +8686,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:AH50">
+  <conditionalFormatting sqref="H51:AH51">
     <cfRule type="dataBar" priority="501">
       <dataBar>
         <cfvo type="min"/>
@@ -8651,7 +8742,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
+  <conditionalFormatting sqref="I43">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
@@ -8665,7 +8756,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:I47 I41">
+  <conditionalFormatting sqref="I44:I48 I42">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
@@ -8679,7 +8770,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:K72">
+  <conditionalFormatting sqref="I73:K73">
     <cfRule type="dataBar" priority="502">
       <dataBar>
         <cfvo type="min"/>
@@ -8693,7 +8784,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:AH49">
+  <conditionalFormatting sqref="I50:AH50">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -8707,7 +8798,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J47 K45:K47">
+  <conditionalFormatting sqref="J45:J48 K46:K48">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
@@ -8749,7 +8840,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J69:K69 J52">
+  <conditionalFormatting sqref="J70:K70 J53">
     <cfRule type="dataBar" priority="498">
       <dataBar>
         <cfvo type="min"/>
@@ -8763,7 +8854,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:AH65 J53:J54">
+  <conditionalFormatting sqref="J56:AH66 J54:J55">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -8777,7 +8868,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:AH38 L36:AH37 K35:AH35 L32:AH34">
+  <conditionalFormatting sqref="K38:AH38 K35:AH35 L32:AH34 L36:AH37">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -8791,7 +8882,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:AH39">
+  <conditionalFormatting sqref="K39:AH40">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -8805,21 +8896,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:AH41 L45:AH47 K43:AH44 L42:AH42">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C5573C3-41FA-4990-9C24-439EC153DA6C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:AH54">
+  <conditionalFormatting sqref="K53:AH55">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -8847,7 +8924,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:AH69">
+  <conditionalFormatting sqref="L70:AH70">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -8861,7 +8938,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71:AH72">
+  <conditionalFormatting sqref="L72:AH73">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -8871,6 +8948,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{B769FDA4-52DD-48E5-B5B4-67E966D84479}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P42:AH48 K42:O42 L46:O48 K44:O45 L43:O43">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6C5573C3-41FA-4990-9C24-439EC153DA6C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8955,7 +9046,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36:F39</xm:sqref>
+          <xm:sqref>F36:F40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
@@ -8966,7 +9057,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F43:F47 F41 F42:H42 J42:K42</xm:sqref>
+          <xm:sqref>F44:F48 F42 F43:H43 J43:K43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
@@ -8977,7 +9068,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F50</xm:sqref>
+          <xm:sqref>F51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2AA71A7D-0A87-47E9-8455-1690A5BCBEDB}">
@@ -8988,7 +9079,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F71:F72</xm:sqref>
+          <xm:sqref>F72:F73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6DB883C9-1F88-4735-AB90-2C226539E60C}">
@@ -8999,7 +9090,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F52:I65</xm:sqref>
+          <xm:sqref>F53:I66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
@@ -9010,7 +9101,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F69:I69 F49</xm:sqref>
+          <xm:sqref>F70:I70 F50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
@@ -9043,7 +9134,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F67:AH67</xm:sqref>
+          <xm:sqref>F68:AH68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{57A8B765-FFA7-434C-9523-5857F06016E6}">
@@ -9098,7 +9189,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G36:G39</xm:sqref>
+          <xm:sqref>G36:G40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8221E45B-E79D-49CA-8786-7BDF441C575C}">
@@ -9109,7 +9200,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G43:G47 G41</xm:sqref>
+          <xm:sqref>G44:G48 G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D753DFF-0685-48F3-BDEF-449EB335D13E}">
@@ -9120,7 +9211,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G49</xm:sqref>
+          <xm:sqref>G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
@@ -9131,7 +9222,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G50</xm:sqref>
+          <xm:sqref>G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E848E527-F886-47F9-86FC-B4D9ACBF8A73}">
@@ -9142,7 +9233,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G71</xm:sqref>
+          <xm:sqref>G72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
@@ -9153,7 +9244,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G72</xm:sqref>
+          <xm:sqref>G73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3AE68020-C365-4ABF-939B-EF0068109146}">
@@ -9197,7 +9288,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43:H47 H41 J43 J41</xm:sqref>
+          <xm:sqref>H44:H48 H42 J44 J42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{106CA0D7-EA4D-4861-A022-D36678D0799F}">
@@ -9208,7 +9299,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
+          <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE68A3AD-D55D-4311-89F9-78D10FCA9D91}">
@@ -9219,7 +9310,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
+          <xm:sqref>H73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1303D586-8258-463C-8ABD-037215FABF40}">
@@ -9241,7 +9332,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38:J39</xm:sqref>
+          <xm:sqref>H38:J40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}">
@@ -9263,7 +9354,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H71:K71</xm:sqref>
+          <xm:sqref>H72:K72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
@@ -9285,7 +9376,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H50:AH50</xm:sqref>
+          <xm:sqref>H51:AH51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1A303F07-6070-4189-AC1D-80357A0D5D47}">
@@ -9329,7 +9420,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I42</xm:sqref>
+          <xm:sqref>I43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1EB49D24-1482-4398-B2F7-B67E515088AC}">
@@ -9340,7 +9431,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I43:I47 I41</xm:sqref>
+          <xm:sqref>I44:I48 I42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
@@ -9351,7 +9442,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I72:K72</xm:sqref>
+          <xm:sqref>I73:K73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}">
@@ -9362,7 +9453,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I49:AH49</xm:sqref>
+          <xm:sqref>I50:AH50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}">
@@ -9373,7 +9464,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J44:J47 K45:K47</xm:sqref>
+          <xm:sqref>J45:J48 K46:K48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}">
@@ -9406,7 +9497,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J69:K69 J52</xm:sqref>
+          <xm:sqref>J70:K70 J53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
@@ -9417,7 +9508,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J55:AH65 J53:J54</xm:sqref>
+          <xm:sqref>J56:AH66 J54:J55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
@@ -9428,7 +9519,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K38:AH38 L36:AH37 K35:AH35 L32:AH34</xm:sqref>
+          <xm:sqref>K38:AH38 K35:AH35 L32:AH34 L36:AH37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79A6E942-BB28-4C5C-B051-63D2113FB72F}">
@@ -9439,18 +9530,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K39:AH39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K41:AH41 L45:AH47 K43:AH44 L42:AH42</xm:sqref>
+          <xm:sqref>K39:AH40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{018A2B3E-2548-4772-A2CF-BD33006C0FDF}">
@@ -9461,7 +9541,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K52:AH54</xm:sqref>
+          <xm:sqref>K53:AH55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C3D459D-49E3-462A-B846-0FE83B131D15}">
@@ -9483,7 +9563,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L69:AH69</xm:sqref>
+          <xm:sqref>L70:AH70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B769FDA4-52DD-48E5-B5B4-67E966D84479}">
@@ -9494,7 +9574,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L71:AH72</xm:sqref>
+          <xm:sqref>L72:AH73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P42:AH48 K42:O42 L46:O48 K44:O45 L43:O43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E5458-58C9-4A8E-8CEF-BA94E00D3920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E2A9C4-4986-4186-8CEA-069AA5B69CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7995" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -72,15 +72,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>참여한 코스 후기 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>신청자 목록 (모집자만)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 작성한 피드 목록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -101,10 +93,6 @@
   </si>
   <si>
     <t>내 댓글 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 목록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -312,10 +300,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>나의 후기 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -325,6 +309,10 @@
   </si>
   <si>
     <t>봉사 코스 상세 반응형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 내역</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,24 +516,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,12 +526,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,17 +549,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -624,16 +593,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -946,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AI76"/>
+  <dimension ref="B2:AI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -960,8 +919,7 @@
     <col min="4" max="4" width="33.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="4" customWidth="1"/>
+    <col min="7" max="14" width="10.625" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11.625" style="4" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="4" customWidth="1"/>
     <col min="17" max="17" width="11.625" style="4" customWidth="1"/>
@@ -1064,119 +1022,119 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F22,F25,F31,F41,F49,F52,F67,F69,F71,F74)</f>
+        <f t="shared" ref="F3:AH3" si="0">AVERAGE(F19,F22,F28,F38,F46,F49,F63,F65,F67,F70)</f>
         <v>0.06</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G22,G25,G31,G41,G49,G52,G67,G69,G71,G74)</f>
+        <f t="shared" si="0"/>
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H22,H25,H31,H41,H49,H52,H67,H69,H71,H74)</f>
+        <f t="shared" si="0"/>
         <v>0.25028571428571428</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I22,I25,I31,I41,I49,I52,I67,I69,I71,I74)</f>
+        <f t="shared" si="0"/>
         <v>0.32121428571428573</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J22,J25,J31,J41,J49,J52,J67,J69,J71,J74)</f>
-        <v>0.46714285714285708</v>
+        <f t="shared" si="0"/>
+        <v>0.46739010989010987</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K22,K25,K31,K41,K49,K52,K67,K69,K71,K74)</f>
-        <v>0.56864285714285723</v>
+        <f t="shared" si="0"/>
+        <v>0.56963186813186817</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L22,L25,L31,L41,L49,L52,L67,L69,L71,L74)</f>
-        <v>0.57624999999999993</v>
+        <f t="shared" si="0"/>
+        <v>0.57839285714285715</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M22,M25,M31,M41,M49,M52,M67,M69,M71,M74)</f>
-        <v>0.57800824175824173</v>
+        <f t="shared" si="0"/>
+        <v>0.58038003663003657</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N22,N25,N31,N41,N49,N52,N67,N69,N71,N74)</f>
-        <v>0.59980158730158739</v>
+        <f t="shared" si="0"/>
+        <v>0.6054334554334555</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O22,O25,O31,O41,O49,O52,O67,O69,O71,O74)</f>
-        <v>0.64924603174603168</v>
+        <f t="shared" si="0"/>
+        <v>0.65658119658119651</v>
       </c>
       <c r="P3" s="6">
-        <f>AVERAGE(P22,P25,P31,P41,P49,P52,P67,P69,P71,P74)</f>
-        <v>0.77589285714285716</v>
+        <f t="shared" si="0"/>
+        <v>0.79461538461538461</v>
       </c>
       <c r="Q3" s="6">
-        <f>AVERAGE(Q22,Q25,Q31,Q41,Q49,Q52,Q67,Q69,Q71,Q74)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.82538461538461549</v>
       </c>
       <c r="R3" s="6">
-        <f>AVERAGE(R22,R25,R31,R41,R49,R52,R67,R69,R71,R74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <f>AVERAGE(S22,S25,S31,S41,S49,S52,S67,S69,S71,S74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="6">
-        <f>AVERAGE(T22,T25,T31,T41,T49,T52,T67,T69,T71,T74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="6">
-        <f>AVERAGE(U22,U25,U31,U41,U49,U52,U67,U69,U71,U74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="6">
-        <f>AVERAGE(V22,V25,V31,V41,V49,V52,V67,V69,V71,V74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="6">
-        <f>AVERAGE(W22,W25,W31,W41,W49,W52,W67,W69,W71,W74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="6">
-        <f>AVERAGE(X22,X25,X31,X41,X49,X52,X67,X69,X71,X74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" s="6">
-        <f>AVERAGE(Y22,Y25,Y31,Y41,Y49,Y52,Y67,Y69,Y71,Y74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="6">
-        <f>AVERAGE(Z22,Z25,Z31,Z41,Z49,Z52,Z67,Z69,Z71,Z74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="6">
-        <f>AVERAGE(AA22,AA25,AA31,AA41,AA49,AA52,AA67,AA69,AA71,AA74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3" s="6">
-        <f>AVERAGE(AB22,AB25,AB31,AB41,AB49,AB52,AB67,AB69,AB71,AB74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3" s="6">
-        <f>AVERAGE(AC22,AC25,AC31,AC41,AC49,AC52,AC67,AC69,AC71,AC74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD3" s="6">
-        <f>AVERAGE(AD22,AD25,AD31,AD41,AD49,AD52,AD67,AD69,AD71,AD74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE3" s="6">
-        <f>AVERAGE(AE22,AE25,AE31,AE41,AE49,AE52,AE67,AE69,AE71,AE74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF3" s="6">
-        <f>AVERAGE(AF22,AF25,AF31,AF41,AF49,AF52,AF67,AF69,AF71,AF74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG3" s="6">
-        <f>AVERAGE(AG22,AG25,AG31,AG41,AG49,AG52,AG67,AG69,AG71,AG74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH3" s="6">
-        <f>AVERAGE(AH22,AH25,AH31,AH41,AH49,AH52,AH67,AH69,AH71,AH74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1281,11 +1239,11 @@
       <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>23</v>
+      <c r="C6" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -1322,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="9">
         <v>0</v>
@@ -1378,9 +1336,9 @@
     </row>
     <row r="7" spans="2:34">
       <c r="B7" s="13"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -1414,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="9">
         <v>0</v>
@@ -1473,7 +1431,7 @@
     </row>
     <row r="8" spans="2:34">
       <c r="B8" s="13"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1568,7 +1526,7 @@
     </row>
     <row r="9" spans="2:34">
       <c r="B9" s="13"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1663,9 +1621,9 @@
     </row>
     <row r="10" spans="2:34">
       <c r="B10" s="13"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -1702,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="9">
         <v>0</v>
@@ -1758,7 +1716,7 @@
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="13"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1853,9 +1811,9 @@
     </row>
     <row r="12" spans="2:34">
       <c r="B12" s="13"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="7" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
@@ -1948,9 +1906,9 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="13"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9">
@@ -2043,7 +2001,7 @@
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="13"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
@@ -2138,7 +2096,7 @@
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="13"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
@@ -2233,9 +2191,9 @@
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="13"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
@@ -2328,9 +2286,9 @@
     </row>
     <row r="17" spans="2:35">
       <c r="B17" s="13"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
@@ -2361,13 +2319,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="9">
         <v>0</v>
@@ -2420,10 +2378,11 @@
       <c r="AH17" s="9">
         <v>0</v>
       </c>
+      <c r="AI17" s="11"/>
     </row>
     <row r="18" spans="2:35">
       <c r="B18" s="13"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="7" t="s">
         <v>69</v>
       </c>
@@ -2462,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="9">
         <v>0</v>
@@ -2516,106 +2475,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:35">
+    <row r="19" spans="2:35" ht="16.149999999999999" customHeight="1">
       <c r="B19" s="13"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0</v>
-      </c>
-      <c r="V19" s="9">
-        <v>0</v>
-      </c>
-      <c r="W19" s="9">
-        <v>0</v>
-      </c>
-      <c r="X19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="9">
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:AH19" si="1">AVERAGE(F6:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="1"/>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="1"/>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.21538461538461537</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:35">
       <c r="B20" s="13"/>
-      <c r="C20" s="23"/>
+      <c r="C20" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="D20" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -2631,28 +2619,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P20" s="9">
         <v>1</v>
       </c>
       <c r="Q20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
@@ -2705,13 +2693,12 @@
       <c r="AH20" s="9">
         <v>0</v>
       </c>
-      <c r="AI20" s="11"/>
     </row>
     <row r="21" spans="2:35">
       <c r="B21" s="13"/>
-      <c r="C21" s="23"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
@@ -2730,25 +2717,25 @@
         <v>0</v>
       </c>
       <c r="K21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="9">
         <v>0</v>
@@ -2802,151 +2789,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:35" ht="16.149999999999999" customHeight="1">
+    <row r="22" spans="2:35">
       <c r="B22" s="13"/>
-      <c r="C22" s="22"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6">
-        <f t="shared" ref="F22:R22" si="0">AVERAGE(F6:F21)</f>
+        <f t="shared" ref="F22:AH22" si="2">AVERAGE(F20:F21)</f>
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.15</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N22" s="6">
-        <f>AVERAGE(N6:N21)</f>
-        <v>0.125</v>
+        <f>AVERAGE(N20:N21)</f>
+        <v>1</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.17499999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" ref="S22:AH22" si="1">AVERAGE(S6:S21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:35">
       <c r="B23" s="13"/>
-      <c r="C23" s="15" t="s">
-        <v>24</v>
+      <c r="C23" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="9">
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I23" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J23" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K23" s="9">
         <v>1</v>
@@ -2967,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="9">
         <v>0</v>
@@ -3023,25 +3010,25 @@
     </row>
     <row r="24" spans="2:35">
       <c r="B24" s="13"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="7" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
         <v>0</v>
       </c>
       <c r="G24" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="9">
         <v>1</v>
@@ -3062,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="9">
         <v>0</v>
@@ -3118,146 +3105,117 @@
     </row>
     <row r="25" spans="2:35">
       <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="6">
-        <f t="shared" ref="F25:AH25" si="2">AVERAGE(F23:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="6">
-        <f>AVERAGE(N23:N24)</f>
-        <v>1</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P25" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="6">
-        <f t="shared" si="2"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:35">
       <c r="B26" s="13"/>
-      <c r="C26" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="C26" s="19"/>
       <c r="D26" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G26" s="9">
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I26" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J26" s="9">
         <v>1</v>
@@ -3281,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="9">
         <v>0</v>
@@ -3337,22 +3295,22 @@
     </row>
     <row r="27" spans="2:35">
       <c r="B27" s="13"/>
-      <c r="C27" s="23"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
         <v>0</v>
       </c>
       <c r="G27" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
       </c>
       <c r="I27" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J27" s="9">
         <v>1</v>
@@ -3376,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="9">
         <v>0</v>
@@ -3431,105 +3389,136 @@
       </c>
     </row>
     <row r="28" spans="2:35">
-      <c r="B28" s="13"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>1</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1</v>
-      </c>
-      <c r="L28" s="9">
-        <v>1</v>
-      </c>
-      <c r="M28" s="9">
-        <v>1</v>
-      </c>
-      <c r="N28" s="9">
-        <v>1</v>
-      </c>
-      <c r="O28" s="9">
-        <v>1</v>
-      </c>
-      <c r="P28" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0</v>
-      </c>
-      <c r="S28" s="9">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0</v>
-      </c>
-      <c r="U28" s="9">
-        <v>0</v>
-      </c>
-      <c r="V28" s="9">
-        <v>0</v>
-      </c>
-      <c r="W28" s="9">
-        <v>0</v>
-      </c>
-      <c r="X28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="9">
+      <c r="F28" s="6">
+        <f t="shared" ref="F28:AH28" si="3">AVERAGE(F23:F27)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="3"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="6">
+        <f>AVERAGE(N23:N27)</f>
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:35">
-      <c r="B29" s="13"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D29" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
@@ -3539,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="9">
         <v>1</v>
@@ -3566,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="9">
         <v>0</v>
@@ -3622,9 +3611,9 @@
     </row>
     <row r="30" spans="2:35">
       <c r="B30" s="13"/>
-      <c r="C30" s="23"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -3634,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -3661,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="9">
         <v>0</v>
@@ -3716,136 +3705,105 @@
       </c>
     </row>
     <row r="31" spans="2:35">
-      <c r="B31" s="14"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="6">
-        <f t="shared" ref="F31:AH31" si="3">AVERAGE(F26:F30)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="3"/>
-        <v>0.16</v>
-      </c>
-      <c r="I31" s="6">
-        <f t="shared" si="3"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="6">
-        <f>AVERAGE(N26:N30)</f>
-        <v>1</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P31" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="6">
-        <f t="shared" si="3"/>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1</v>
+      </c>
+      <c r="O31" s="9">
+        <v>1</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>1</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31" s="9">
+        <v>0</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0</v>
+      </c>
+      <c r="W31" s="9">
+        <v>0</v>
+      </c>
+      <c r="X31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:35">
-      <c r="B32" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -3855,25 +3813,25 @@
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="9">
         <v>1</v>
@@ -3882,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="9">
         <v>0</v>
@@ -3937,10 +3895,10 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="19"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="7" t="s">
-        <v>49</v>
+      <c r="B33" s="13"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
@@ -3962,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="L33" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M33" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N33" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O33" s="9">
         <v>1</v>
@@ -3977,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="9">
         <v>0</v>
@@ -4032,10 +3990,10 @@
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="19"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="7" t="s">
-        <v>54</v>
+      <c r="B34" s="13"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9">
@@ -4072,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="9">
         <v>0</v>
@@ -4127,10 +4085,10 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="19"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="7" t="s">
-        <v>50</v>
+      <c r="B35" s="13"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9">
@@ -4167,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="9">
         <v>0</v>
@@ -4222,10 +4180,10 @@
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="19"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
@@ -4235,25 +4193,25 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M36" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N36" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O36" s="9">
         <v>1</v>
@@ -4262,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="9">
         <v>0</v>
@@ -4317,47 +4275,31 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="19"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="10" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>1</v>
-      </c>
-      <c r="I37" s="9">
-        <v>1</v>
-      </c>
-      <c r="J37" s="9">
-        <v>1</v>
-      </c>
-      <c r="K37" s="9">
-        <v>1</v>
-      </c>
-      <c r="L37" s="9">
-        <v>1</v>
-      </c>
-      <c r="M37" s="9">
-        <v>1</v>
-      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
       <c r="N37" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="9">
         <v>1</v>
       </c>
       <c r="Q37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="9">
         <v>0</v>
@@ -4412,105 +4354,134 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="19"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9">
-        <v>1</v>
-      </c>
-      <c r="P38" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>0</v>
-      </c>
-      <c r="R38" s="9">
-        <v>0</v>
-      </c>
-      <c r="S38" s="9">
-        <v>0</v>
-      </c>
-      <c r="T38" s="9">
-        <v>0</v>
-      </c>
-      <c r="U38" s="9">
-        <v>0</v>
-      </c>
-      <c r="V38" s="9">
-        <v>0</v>
-      </c>
-      <c r="W38" s="9">
-        <v>0</v>
-      </c>
-      <c r="X38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="9">
+      <c r="F38" s="6">
+        <f t="shared" ref="F38:M38" si="4">AVERAGE(F29:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="4"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="4"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="N38" s="6">
+        <f>AVERAGE(N29:N37)</f>
+        <v>0.54444444444444451</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" ref="O38:AH38" si="5">AVERAGE(O29:O37)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="19"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="10" t="s">
-        <v>56</v>
+      <c r="B39" s="13"/>
+      <c r="C39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9">
@@ -4520,25 +4491,25 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I39" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J39" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K39" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L39" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M39" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N39" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O39" s="9">
         <v>1</v>
@@ -4547,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="9">
         <v>0</v>
@@ -4602,31 +4573,47 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="19"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="10" t="s">
-        <v>71</v>
+      <c r="B40" s="13"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J40" s="9">
+        <v>1</v>
+      </c>
+      <c r="K40" s="9">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="9">
+        <v>1</v>
+      </c>
       <c r="N40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="9">
         <v>1</v>
       </c>
       <c r="Q40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="9">
         <v>0</v>
@@ -4681,134 +4668,105 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="19"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="6">
-        <f>AVERAGE(F32:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <f>AVERAGE(G32:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <f>AVERAGE(H32:H39)</f>
-        <v>0.625</v>
-      </c>
-      <c r="I41" s="6">
-        <f>AVERAGE(I32:I39)</f>
-        <v>0.625</v>
-      </c>
-      <c r="J41" s="6">
-        <f>AVERAGE(J32:J39)</f>
-        <v>0.625</v>
-      </c>
-      <c r="K41" s="6">
-        <f>AVERAGE(K32:K39)</f>
-        <v>0.625</v>
-      </c>
-      <c r="L41" s="6">
-        <f>AVERAGE(L32:L39)</f>
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="M41" s="6">
-        <f>AVERAGE(M32:M39)</f>
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="N41" s="6">
-        <f>AVERAGE(N32:N40)</f>
-        <v>0.54444444444444451</v>
-      </c>
-      <c r="O41" s="6">
-        <f t="shared" ref="O41:AH41" si="4">AVERAGE(O32:O40)</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="P41" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="6">
-        <f t="shared" si="4"/>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9">
+        <v>1</v>
+      </c>
+      <c r="N41" s="9">
+        <v>1</v>
+      </c>
+      <c r="O41" s="9">
+        <v>1</v>
+      </c>
+      <c r="P41" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>1</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <v>0</v>
+      </c>
+      <c r="U41" s="9">
+        <v>0</v>
+      </c>
+      <c r="V41" s="9">
+        <v>0</v>
+      </c>
+      <c r="W41" s="9">
+        <v>0</v>
+      </c>
+      <c r="X41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="19"/>
-      <c r="C42" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="9">
@@ -4827,16 +4785,16 @@
         <v>0.8</v>
       </c>
       <c r="K42" s="9">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="L42" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M42" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N42" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O42" s="9">
         <v>1</v>
@@ -4845,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="9">
         <v>0</v>
@@ -4900,10 +4858,10 @@
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="19"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="7" t="s">
-        <v>60</v>
+      <c r="B43" s="13"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="9">
@@ -4913,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I43" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J43" s="9">
         <v>1</v>
@@ -4940,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="9">
         <v>0</v>
@@ -4995,10 +4953,10 @@
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="19"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="7" t="s">
-        <v>59</v>
+      <c r="B44" s="13"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -5008,16 +4966,16 @@
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I44" s="9">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J44" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K44" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L44" s="9">
         <v>1</v>
@@ -5035,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="9">
         <v>0</v>
@@ -5090,10 +5048,10 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="19"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
@@ -5103,25 +5061,25 @@
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I45" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J45" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K45" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L45" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M45" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N45" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O45" s="9">
         <v>1</v>
@@ -5130,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="9">
         <v>0</v>
@@ -5185,105 +5143,134 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="19"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="17"/>
-      <c r="D46" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="9">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <v>1</v>
-      </c>
-      <c r="I46" s="9">
-        <v>1</v>
-      </c>
-      <c r="J46" s="9">
-        <v>1</v>
-      </c>
-      <c r="K46" s="9">
-        <v>1</v>
-      </c>
-      <c r="L46" s="9">
-        <v>1</v>
-      </c>
-      <c r="M46" s="9">
-        <v>1</v>
-      </c>
-      <c r="N46" s="9">
-        <v>1</v>
-      </c>
-      <c r="O46" s="9">
-        <v>1</v>
-      </c>
-      <c r="P46" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>0</v>
-      </c>
-      <c r="R46" s="9">
-        <v>0</v>
-      </c>
-      <c r="S46" s="9">
-        <v>0</v>
-      </c>
-      <c r="T46" s="9">
-        <v>0</v>
-      </c>
-      <c r="U46" s="9">
-        <v>0</v>
-      </c>
-      <c r="V46" s="9">
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="9">
+      <c r="F46" s="6">
+        <f>AVERAGE(F39:F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" ref="G46:AH46" si="6">AVERAGE(G39:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" si="6"/>
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J46" s="6">
+        <f t="shared" si="6"/>
+        <v>0.91428571428571437</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" si="6"/>
+        <v>0.98285714285714287</v>
+      </c>
+      <c r="L46" s="6">
+        <f t="shared" si="6"/>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="M46" s="6">
+        <f t="shared" si="6"/>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="N46" s="6">
+        <f>AVERAGE(N39:N45)</f>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P46" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="19"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="10" t="s">
-        <v>57</v>
+      <c r="B47" s="13"/>
+      <c r="C47" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="9">
@@ -5293,34 +5280,34 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="9">
         <v>1</v>
       </c>
       <c r="Q47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="9">
         <v>0</v>
@@ -5375,10 +5362,10 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="19"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="9">
@@ -5388,34 +5375,34 @@
         <v>0</v>
       </c>
       <c r="H48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M48" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N48" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="9">
         <v>1</v>
       </c>
       <c r="Q48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="9">
         <v>0</v>
@@ -5470,134 +5457,136 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="19"/>
-      <c r="C49" s="16"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6">
-        <f>AVERAGE(F42:F48)</f>
+        <f>AVERAGE(F47:F48)</f>
         <v>0</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" ref="G49:AH49" si="5">AVERAGE(G42:G48)</f>
+        <f t="shared" ref="G49:AH49" si="7">AVERAGE(G47:G48)</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="5"/>
-        <v>0.84285714285714286</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="5"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="5"/>
-        <v>0.91428571428571437</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="5"/>
-        <v>0.98285714285714287</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="L49" s="6">
-        <f t="shared" si="5"/>
-        <v>0.97142857142857153</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="M49" s="6">
-        <f t="shared" si="5"/>
-        <v>0.97142857142857153</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="N49" s="6">
-        <f>AVERAGE(N42:N48)</f>
-        <v>0.97142857142857153</v>
+        <f>AVERAGE(N47:N48)</f>
+        <v>0</v>
       </c>
       <c r="O49" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q49" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="R49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="19"/>
-      <c r="C50" s="17" t="s">
-        <v>53</v>
+      <c r="B50" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="9">
@@ -5613,28 +5602,28 @@
         <v>0</v>
       </c>
       <c r="J50" s="9">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="9">
         <v>1</v>
       </c>
       <c r="Q50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="9">
         <v>0</v>
@@ -5689,10 +5678,10 @@
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="19"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="7" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="9">
@@ -5726,10 +5715,10 @@
         <v>0</v>
       </c>
       <c r="P51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="9">
         <v>0</v>
@@ -5784,136 +5773,105 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="20"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E52" s="7"/>
-      <c r="F52" s="6">
-        <f>AVERAGE(F50:F51)</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="6">
-        <f t="shared" ref="G52:AH52" si="6">AVERAGE(G50:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <f>AVERAGE(N50:N51)</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH52" s="6">
-        <f t="shared" si="6"/>
+      <c r="F52" s="9">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52" s="9">
+        <v>1</v>
+      </c>
+      <c r="O52" s="9">
+        <v>1</v>
+      </c>
+      <c r="P52" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>1</v>
+      </c>
+      <c r="R52" s="9">
+        <v>0</v>
+      </c>
+      <c r="S52" s="9">
+        <v>0</v>
+      </c>
+      <c r="T52" s="9">
+        <v>0</v>
+      </c>
+      <c r="U52" s="9">
+        <v>0</v>
+      </c>
+      <c r="V52" s="9">
+        <v>0</v>
+      </c>
+      <c r="W52" s="9">
+        <v>0</v>
+      </c>
+      <c r="X52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="15" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="9">
@@ -5929,16 +5887,16 @@
         <v>0</v>
       </c>
       <c r="J53" s="9">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="9">
         <v>1</v>
@@ -5950,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="Q53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="9">
         <v>0</v>
@@ -6005,10 +5963,10 @@
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="19"/>
-      <c r="C54" s="17"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="9">
@@ -6036,16 +5994,16 @@
         <v>0</v>
       </c>
       <c r="N54" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="9">
         <v>0</v>
@@ -6100,10 +6058,10 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="19"/>
-      <c r="C55" s="17"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="9">
@@ -6127,11 +6085,11 @@
       <c r="L55" s="9">
         <v>0</v>
       </c>
-      <c r="M55" s="9" t="s">
-        <v>70</v>
+      <c r="M55" s="9">
+        <v>0</v>
       </c>
       <c r="N55" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O55" s="9">
         <v>1</v>
@@ -6140,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="9">
         <v>0</v>
@@ -6195,10 +6153,10 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="19"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9">
@@ -6226,16 +6184,16 @@
         <v>0</v>
       </c>
       <c r="N56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="9">
         <v>1</v>
       </c>
       <c r="Q56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="9">
         <v>0</v>
@@ -6290,10 +6248,10 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="19"/>
-      <c r="C57" s="17"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="9">
@@ -6321,16 +6279,16 @@
         <v>0</v>
       </c>
       <c r="N57" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O57" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="9">
         <v>1</v>
       </c>
       <c r="Q57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="9">
         <v>0</v>
@@ -6385,10 +6343,10 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="19"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="9">
@@ -6416,13 +6374,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="9">
         <v>0</v>
@@ -6480,10 +6438,10 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="19"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="9">
@@ -6502,25 +6460,25 @@
         <v>0</v>
       </c>
       <c r="K59" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L59" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M59" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="9">
         <v>1</v>
       </c>
       <c r="Q59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="9">
         <v>0</v>
@@ -6575,10 +6533,10 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="19"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="9">
@@ -6612,10 +6570,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Q60" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R60" s="9">
         <v>0</v>
@@ -6670,10 +6628,10 @@
       </c>
     </row>
     <row r="61" spans="2:34">
-      <c r="B61" s="19"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="9">
@@ -6710,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="9">
         <v>0</v>
@@ -6765,10 +6723,10 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="19"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="9">
@@ -6805,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="9">
         <v>0</v>
@@ -6860,103 +6818,132 @@
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="19"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="17"/>
-      <c r="D63" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="9">
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0</v>
-      </c>
-      <c r="H63" s="9">
-        <v>0</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0</v>
-      </c>
-      <c r="J63" s="9">
-        <v>0</v>
-      </c>
-      <c r="K63" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="L63" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="M63" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="N63" s="9">
-        <v>1</v>
-      </c>
-      <c r="O63" s="9">
-        <v>1</v>
-      </c>
-      <c r="P63" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="9">
-        <v>0</v>
-      </c>
-      <c r="R63" s="9">
-        <v>0</v>
-      </c>
-      <c r="S63" s="9">
-        <v>0</v>
-      </c>
-      <c r="T63" s="9">
-        <v>0</v>
-      </c>
-      <c r="U63" s="9">
-        <v>0</v>
-      </c>
-      <c r="V63" s="9">
-        <v>0</v>
-      </c>
-      <c r="W63" s="9">
-        <v>0</v>
-      </c>
-      <c r="X63" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="9">
+      <c r="F63" s="6">
+        <f t="shared" ref="F63:AH63" si="8">AVERAGE(F50:F62)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <f t="shared" si="8"/>
+        <v>3.4615384615384617E-2</v>
+      </c>
+      <c r="K63" s="6">
+        <f t="shared" si="8"/>
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="L63" s="6">
+        <f t="shared" si="8"/>
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="M63" s="6">
+        <f t="shared" si="8"/>
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="N63" s="6">
+        <f t="shared" si="8"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="8"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="P63" s="6">
+        <f t="shared" si="8"/>
+        <v>0.63846153846153852</v>
+      </c>
+      <c r="Q63" s="6">
+        <f t="shared" si="8"/>
+        <v>0.86923076923076925</v>
+      </c>
+      <c r="R63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH63" s="6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:34">
-      <c r="B64" s="19"/>
-      <c r="C64" s="17"/>
+    <row r="64" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B64" s="13"/>
+      <c r="C64" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D64" s="7" t="s">
         <v>37</v>
       </c>
@@ -7050,142 +7037,171 @@
       </c>
     </row>
     <row r="65" spans="2:34">
-      <c r="B65" s="19"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-      <c r="J65" s="9">
-        <v>0</v>
-      </c>
-      <c r="K65" s="9">
-        <v>0</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0</v>
-      </c>
-      <c r="M65" s="9">
-        <v>0</v>
-      </c>
-      <c r="N65" s="9">
-        <v>0</v>
-      </c>
-      <c r="O65" s="9">
-        <v>0</v>
-      </c>
-      <c r="P65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="9">
-        <v>0</v>
-      </c>
-      <c r="R65" s="9">
-        <v>0</v>
-      </c>
-      <c r="S65" s="9">
-        <v>0</v>
-      </c>
-      <c r="T65" s="9">
-        <v>0</v>
-      </c>
-      <c r="U65" s="9">
-        <v>0</v>
-      </c>
-      <c r="V65" s="9">
-        <v>0</v>
-      </c>
-      <c r="W65" s="9">
-        <v>0</v>
-      </c>
-      <c r="X65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="9">
+      <c r="F65" s="6">
+        <f>AVERAGE(F64)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" ref="G65:AH65" si="9">AVERAGE(G64)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="6">
+        <f>AVERAGE(N64)</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH65" s="6">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="19"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="D66" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G66" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H66" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I66" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="9">
         <v>0</v>
@@ -7240,171 +7256,171 @@
       </c>
     </row>
     <row r="67" spans="2:34">
-      <c r="B67" s="19"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="6">
-        <f>AVERAGE(F53:F66)</f>
-        <v>0</v>
+        <f>AVERAGE(F66)</f>
+        <v>0.5</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:R67" si="7">AVERAGE(G53:G66)</f>
-        <v>0</v>
+        <f t="shared" ref="G67:R67" si="10">AVERAGE(G66)</f>
+        <v>0.5</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" si="7"/>
-        <v>3.2142857142857147E-2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="7"/>
-        <v>0.12857142857142859</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="L67" s="6">
-        <f t="shared" si="7"/>
-        <v>0.12857142857142859</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" si="7"/>
-        <v>0.14615384615384613</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="N67" s="6">
-        <f>AVERAGE(N53:N66)</f>
-        <v>0.35714285714285715</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="O67" s="6">
-        <f t="shared" si="7"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="P67" s="6">
-        <f t="shared" si="7"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="R67" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S67" s="6">
-        <f t="shared" ref="S67:AH67" si="8">AVERAGE(S53:S66)</f>
+        <f t="shared" ref="S67:AH67" si="11">AVERAGE(S66)</f>
         <v>0</v>
       </c>
       <c r="T67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B68" s="19"/>
-      <c r="C68" s="21" t="s">
-        <v>40</v>
+      <c r="B68" s="13"/>
+      <c r="C68" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="9">
         <v>0</v>
       </c>
       <c r="G68" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H68" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="9">
         <v>0</v>
@@ -7459,730 +7475,283 @@
       </c>
     </row>
     <row r="69" spans="2:34">
-      <c r="B69" s="19"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="7"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="E69" s="7"/>
-      <c r="F69" s="6">
-        <f>AVERAGE(F68)</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="6">
-        <f t="shared" ref="G69:AH69" si="9">AVERAGE(G68)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="6">
-        <f>AVERAGE(N68)</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH69" s="6">
-        <f t="shared" si="9"/>
+      <c r="F69" s="9">
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J69" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K69" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="L69" s="9">
+        <v>1</v>
+      </c>
+      <c r="M69" s="9">
+        <v>1</v>
+      </c>
+      <c r="N69" s="9">
+        <v>1</v>
+      </c>
+      <c r="O69" s="9">
+        <v>1</v>
+      </c>
+      <c r="P69" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>1</v>
+      </c>
+      <c r="R69" s="9">
+        <v>0</v>
+      </c>
+      <c r="S69" s="9">
+        <v>0</v>
+      </c>
+      <c r="T69" s="9">
+        <v>0</v>
+      </c>
+      <c r="U69" s="9">
+        <v>0</v>
+      </c>
+      <c r="V69" s="9">
+        <v>0</v>
+      </c>
+      <c r="W69" s="9">
+        <v>0</v>
+      </c>
+      <c r="X69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:34">
-      <c r="B70" s="19"/>
-      <c r="C70" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G70" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H70" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I70" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J70" s="9">
-        <v>1</v>
-      </c>
-      <c r="K70" s="9">
-        <v>1</v>
-      </c>
-      <c r="L70" s="9">
-        <v>1</v>
-      </c>
-      <c r="M70" s="9">
-        <v>1</v>
-      </c>
-      <c r="N70" s="9">
-        <v>1</v>
-      </c>
-      <c r="O70" s="9">
-        <v>1</v>
-      </c>
-      <c r="P70" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="9">
-        <v>0</v>
-      </c>
-      <c r="R70" s="9">
-        <v>0</v>
-      </c>
-      <c r="S70" s="9">
-        <v>0</v>
-      </c>
-      <c r="T70" s="9">
-        <v>0</v>
-      </c>
-      <c r="U70" s="9">
-        <v>0</v>
-      </c>
-      <c r="V70" s="9">
-        <v>0</v>
-      </c>
-      <c r="W70" s="9">
-        <v>0</v>
-      </c>
-      <c r="X70" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH70" s="9">
+      <c r="F70" s="6">
+        <f>AVERAGE(F68:F69)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" ref="G70:R70" si="12">AVERAGE(G68:G69)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H70" s="6">
+        <f t="shared" si="12"/>
+        <v>0.375</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="J70" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="K70" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="L70" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M70" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P70" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q70" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R70" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="6">
+        <f t="shared" ref="S70:AH70" si="13">AVERAGE(S68:S69)</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="6">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:34">
-      <c r="B71" s="19"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="6">
-        <f>AVERAGE(F70)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G71" s="6">
-        <f t="shared" ref="G71:R71" si="10">AVERAGE(G70)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H71" s="6">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="I71" s="6">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="J71" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="K71" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L71" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="M71" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N71" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O71" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="P71" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Q71" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R71" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S71" s="6">
-        <f t="shared" ref="S71:AH71" si="11">AVERAGE(S70)</f>
-        <v>0</v>
-      </c>
-      <c r="T71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B72" s="19"/>
-      <c r="C72" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="9">
-        <v>0</v>
-      </c>
-      <c r="G72" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H72" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="I72" s="9">
-        <v>1</v>
-      </c>
-      <c r="J72" s="9">
-        <v>1</v>
-      </c>
-      <c r="K72" s="9">
-        <v>1</v>
-      </c>
-      <c r="L72" s="9">
-        <v>1</v>
-      </c>
-      <c r="M72" s="9">
-        <v>1</v>
-      </c>
-      <c r="N72" s="9">
-        <v>1</v>
-      </c>
-      <c r="O72" s="9">
-        <v>1</v>
-      </c>
-      <c r="P72" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="9">
-        <v>0</v>
-      </c>
-      <c r="R72" s="9">
-        <v>0</v>
-      </c>
-      <c r="S72" s="9">
-        <v>0</v>
-      </c>
-      <c r="T72" s="9">
-        <v>0</v>
-      </c>
-      <c r="U72" s="9">
-        <v>0</v>
-      </c>
-      <c r="V72" s="9">
-        <v>0</v>
-      </c>
-      <c r="W72" s="9">
-        <v>0</v>
-      </c>
-      <c r="X72" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH72" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:34">
-      <c r="B73" s="19"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="9">
-        <v>0</v>
-      </c>
-      <c r="G73" s="9">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9">
-        <v>0</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="J73" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="K73" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="L73" s="9">
-        <v>1</v>
-      </c>
-      <c r="M73" s="9">
-        <v>1</v>
-      </c>
-      <c r="N73" s="9">
-        <v>1</v>
-      </c>
-      <c r="O73" s="9">
-        <v>1</v>
-      </c>
-      <c r="P73" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="9">
-        <v>0</v>
-      </c>
-      <c r="R73" s="9">
-        <v>0</v>
-      </c>
-      <c r="S73" s="9">
-        <v>0</v>
-      </c>
-      <c r="T73" s="9">
-        <v>0</v>
-      </c>
-      <c r="U73" s="9">
-        <v>0</v>
-      </c>
-      <c r="V73" s="9">
-        <v>0</v>
-      </c>
-      <c r="W73" s="9">
-        <v>0</v>
-      </c>
-      <c r="X73" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH73" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:34">
-      <c r="B74" s="20"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="6">
-        <f>AVERAGE(F72:F73)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="6">
-        <f t="shared" ref="G74:R74" si="12">AVERAGE(G72:G73)</f>
-        <v>0.25</v>
-      </c>
-      <c r="H74" s="6">
-        <f t="shared" si="12"/>
-        <v>0.375</v>
-      </c>
-      <c r="I74" s="6">
-        <f t="shared" si="12"/>
-        <v>0.95</v>
-      </c>
-      <c r="J74" s="6">
-        <f t="shared" si="12"/>
-        <v>0.95</v>
-      </c>
-      <c r="K74" s="6">
-        <f t="shared" si="12"/>
-        <v>0.95</v>
-      </c>
-      <c r="L74" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M74" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N74" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O74" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="P74" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Q74" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="6">
-        <f t="shared" ref="S74:AH74" si="13">AVERAGE(S72:S73)</f>
-        <v>0</v>
-      </c>
-      <c r="T74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:34">
-      <c r="E75" s="8"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="2:34">
-      <c r="E76" s="8"/>
-      <c r="F76" s="4"/>
+    <row r="72" spans="2:34">
+      <c r="E72" s="8"/>
+      <c r="F72" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="B32:B52"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C53:C67"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B53:B74"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C68:C69"/>
+  <mergeCells count="13">
+    <mergeCell ref="B50:B70"/>
+    <mergeCell ref="C50:C63"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="B6:B28"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="B29:B49"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C64:C65"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C26 E26:E27">
-    <cfRule type="cellIs" dxfId="8" priority="185" operator="equal">
+  <conditionalFormatting sqref="C39:D39 D39:D45">
+    <cfRule type="cellIs" dxfId="6" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:D42 D42:D48">
-    <cfRule type="cellIs" dxfId="7" priority="115" operator="equal">
+  <conditionalFormatting sqref="D6:D12 E6:E18 C23 E23:E24">
+    <cfRule type="cellIs" dxfId="5" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D13">
-    <cfRule type="cellIs" dxfId="6" priority="49" operator="equal">
+  <conditionalFormatting sqref="D13:D18 D20:D37 D51:E63">
+    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D21 D23:D40">
-    <cfRule type="cellIs" dxfId="5" priority="50" operator="equal">
+  <conditionalFormatting sqref="D19 B50">
+    <cfRule type="cellIs" dxfId="3" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22 B53:B54">
-    <cfRule type="cellIs" dxfId="4" priority="172" operator="equal">
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="2" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="3" priority="37" operator="equal">
+  <conditionalFormatting sqref="D47:E47 D49:E49 C50:E50 C64:E64 D65:E70">
+    <cfRule type="cellIs" dxfId="1" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:E50 D52:E52 C53:E54 D55:E67 C68:E68 D69:E74">
-    <cfRule type="cellIs" dxfId="2" priority="145" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E21">
-    <cfRule type="cellIs" dxfId="1" priority="426" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E24 B32:C32 E32:E33">
+  <conditionalFormatting sqref="E20:E21 B29:C29 E29:E30">
     <cfRule type="cellIs" dxfId="0" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="F23">
     <cfRule type="dataBar" priority="505">
       <dataBar>
         <cfvo type="min"/>
@@ -8196,7 +7765,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F24">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -8210,7 +7779,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F25">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -8224,7 +7793,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F26">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -8238,7 +7807,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="F27">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -8252,7 +7821,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F35">
+  <conditionalFormatting sqref="F29:F32">
     <cfRule type="dataBar" priority="432">
       <dataBar>
         <cfvo type="min"/>
@@ -8266,7 +7835,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
+  <conditionalFormatting sqref="F33:F37">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
@@ -8280,7 +7849,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F48 F42 F43:H43 J43:K43">
+  <conditionalFormatting sqref="F41:F45 F39 F40:H40 J40:K40">
     <cfRule type="dataBar" priority="485">
       <dataBar>
         <cfvo type="min"/>
@@ -8294,7 +7863,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F48">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
@@ -8308,7 +7877,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:F73">
+  <conditionalFormatting sqref="F68:F69">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -8322,8 +7891,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53:I66">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="F50:I62">
+    <cfRule type="dataBar" priority="558">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8336,7 +7905,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:I70 F50">
+  <conditionalFormatting sqref="F66:I66 F47">
     <cfRule type="dataBar" priority="477">
       <dataBar>
         <cfvo type="min"/>
@@ -8350,8 +7919,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:AH21">
-    <cfRule type="dataBar" priority="438">
+  <conditionalFormatting sqref="F6:AH18">
+    <cfRule type="dataBar" priority="626">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8364,7 +7933,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:AH24">
+  <conditionalFormatting sqref="F20:AH21">
     <cfRule type="dataBar" priority="555">
       <dataBar>
         <cfvo type="min"/>
@@ -8378,7 +7947,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68:AH68">
+  <conditionalFormatting sqref="F64:AH64">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -8392,7 +7961,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G23">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -8406,7 +7975,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G24">
     <cfRule type="dataBar" priority="514">
       <dataBar>
         <cfvo type="min"/>
@@ -8420,7 +7989,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G30">
+  <conditionalFormatting sqref="G25:G27">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -8434,7 +8003,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G35">
+  <conditionalFormatting sqref="G29:G32">
     <cfRule type="dataBar" priority="433">
       <dataBar>
         <cfvo type="min"/>
@@ -8448,7 +8017,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G40">
+  <conditionalFormatting sqref="G33:G37">
     <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
@@ -8462,7 +8031,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G48 G42">
+  <conditionalFormatting sqref="G41:G45 G39">
     <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="min"/>
@@ -8476,7 +8045,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="G47">
     <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="min"/>
@@ -8490,7 +8059,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
+  <conditionalFormatting sqref="G48">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -8504,7 +8073,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72">
+  <conditionalFormatting sqref="G68">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8518,7 +8087,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
+  <conditionalFormatting sqref="G69">
     <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
@@ -8532,7 +8101,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H30">
+  <conditionalFormatting sqref="H24:H27">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -8546,7 +8115,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H34">
+  <conditionalFormatting sqref="H29:H31">
     <cfRule type="dataBar" priority="494">
       <dataBar>
         <cfvo type="min"/>
@@ -8560,7 +8129,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H37">
+  <conditionalFormatting sqref="H33:H34">
     <cfRule type="dataBar" priority="495">
       <dataBar>
         <cfvo type="min"/>
@@ -8574,7 +8143,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H48 H42 J44 J42">
+  <conditionalFormatting sqref="H41:H45 H39 J41 J39">
     <cfRule type="dataBar" priority="496">
       <dataBar>
         <cfvo type="min"/>
@@ -8588,7 +8157,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
+  <conditionalFormatting sqref="H47">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -8602,7 +8171,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H69">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -8616,7 +8185,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:J35">
+  <conditionalFormatting sqref="H32:J32">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -8630,7 +8199,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:J40">
+  <conditionalFormatting sqref="H35:J37">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -8644,7 +8213,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:K26 I27:K27 J28:K30">
+  <conditionalFormatting sqref="H23:K23 I24:K24 J25:K27">
     <cfRule type="dataBar" priority="523">
       <dataBar>
         <cfvo type="min"/>
@@ -8658,7 +8227,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72:K72">
+  <conditionalFormatting sqref="H68:K68">
     <cfRule type="dataBar" priority="488">
       <dataBar>
         <cfvo type="min"/>
@@ -8672,7 +8241,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:AH21 AI20">
+  <conditionalFormatting sqref="H6:AH18 AI17">
     <cfRule type="dataBar" priority="490">
       <dataBar>
         <cfvo type="min"/>
@@ -8686,7 +8255,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:AH51">
+  <conditionalFormatting sqref="H48:AH48">
     <cfRule type="dataBar" priority="501">
       <dataBar>
         <cfvo type="min"/>
@@ -8700,7 +8269,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I30">
+  <conditionalFormatting sqref="I25:I27">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -8714,7 +8283,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I34">
+  <conditionalFormatting sqref="I29:I31">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -8728,7 +8297,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I33:I34">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
@@ -8742,7 +8311,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
+  <conditionalFormatting sqref="I40">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
@@ -8756,7 +8325,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I48 I42">
+  <conditionalFormatting sqref="I41:I45 I39">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
@@ -8770,7 +8339,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:K73">
+  <conditionalFormatting sqref="I69:K69">
     <cfRule type="dataBar" priority="502">
       <dataBar>
         <cfvo type="min"/>
@@ -8784,7 +8353,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:AH50">
+  <conditionalFormatting sqref="I47:AH47">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -8798,7 +8367,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45:J48 K46:K48">
+  <conditionalFormatting sqref="J42:J45 K43:K45">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
@@ -8812,7 +8381,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:K34">
+  <conditionalFormatting sqref="J29:K31">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
@@ -8826,7 +8395,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:K37">
+  <conditionalFormatting sqref="J33:K34">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
@@ -8840,7 +8409,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:K70 J53">
+  <conditionalFormatting sqref="J66:K66 J50">
     <cfRule type="dataBar" priority="498">
       <dataBar>
         <cfvo type="min"/>
@@ -8854,8 +8423,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56:AH66 J54:J55">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="J53:AH62 J51:J52">
+    <cfRule type="dataBar" priority="562">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8868,7 +8437,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:AH38 K35:AH35 L32:AH34 L36:AH37">
+  <conditionalFormatting sqref="K35:AH35 K32:AH32 L29:AH31 L33:AH34">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -8882,7 +8451,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:AH40">
+  <conditionalFormatting sqref="K36:AH37">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -8896,7 +8465,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:AH55">
+  <conditionalFormatting sqref="K50:AH52">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -8910,7 +8479,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:AH30">
+  <conditionalFormatting sqref="L23:AH27">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -8924,7 +8493,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:AH70">
+  <conditionalFormatting sqref="L66:AH66">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -8938,7 +8507,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L72:AH73">
+  <conditionalFormatting sqref="L68:AH69">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -8952,7 +8521,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P42:AH48 K42:O42 L46:O48 K44:O45 L43:O43">
+  <conditionalFormatting sqref="P39:AH45 K39:O39 L43:O45 K41:O42 L40:O40">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
@@ -8980,7 +8549,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F26</xm:sqref>
+          <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C9B1CBA6-8E8F-409E-969D-8814DC7288E9}">
@@ -8991,7 +8560,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F27</xm:sqref>
+          <xm:sqref>F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2C9CC8EE-9F85-4D1B-A9FD-8B4A25562878}">
@@ -9002,7 +8571,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F28</xm:sqref>
+          <xm:sqref>F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CDD693AD-B56D-4CB1-9D65-1694161B4B41}">
@@ -9013,7 +8582,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F29</xm:sqref>
+          <xm:sqref>F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C8DCD6B3-DF0C-45B8-A4AF-072C80C9651E}">
@@ -9024,7 +8593,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F30</xm:sqref>
+          <xm:sqref>F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9C91B573-7EDD-48F1-AAE4-F942D0F94FED}">
@@ -9035,7 +8604,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F32:F35</xm:sqref>
+          <xm:sqref>F29:F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D602E0EC-8368-4F0B-8C33-192409A1D82C}">
@@ -9046,7 +8615,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36:F40</xm:sqref>
+          <xm:sqref>F33:F37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
@@ -9057,7 +8626,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F44:F48 F42 F43:H43 J43:K43</xm:sqref>
+          <xm:sqref>F41:F45 F39 F40:H40 J40:K40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
@@ -9068,7 +8637,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F51</xm:sqref>
+          <xm:sqref>F48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2AA71A7D-0A87-47E9-8455-1690A5BCBEDB}">
@@ -9079,7 +8648,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F72:F73</xm:sqref>
+          <xm:sqref>F68:F69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6DB883C9-1F88-4735-AB90-2C226539E60C}">
@@ -9090,7 +8659,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F53:I66</xm:sqref>
+          <xm:sqref>F50:I62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
@@ -9101,7 +8670,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F70:I70 F50</xm:sqref>
+          <xm:sqref>F66:I66 F47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
@@ -9112,7 +8681,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:AH21</xm:sqref>
+          <xm:sqref>F6:AH18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0E20ECF-5663-478F-8E9F-449195CDAA9F}">
@@ -9123,7 +8692,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F23:AH24</xm:sqref>
+          <xm:sqref>F20:AH21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}">
@@ -9134,7 +8703,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F68:AH68</xm:sqref>
+          <xm:sqref>F64:AH64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{57A8B765-FFA7-434C-9523-5857F06016E6}">
@@ -9145,7 +8714,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G26</xm:sqref>
+          <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D4E863B-7ADB-4930-88E8-B15E0F7C56D2}">
@@ -9156,7 +8725,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G27</xm:sqref>
+          <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6B382747-E3CF-4F61-B632-A61A74466B47}">
@@ -9167,7 +8736,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G28:G30</xm:sqref>
+          <xm:sqref>G25:G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85109038-BFED-4A1D-9EFD-DFC02076C006}">
@@ -9178,7 +8747,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G32:G35</xm:sqref>
+          <xm:sqref>G29:G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{18AF2DD8-6640-4119-B4E6-8CC0AB6FEEE7}">
@@ -9189,7 +8758,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G36:G40</xm:sqref>
+          <xm:sqref>G33:G37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8221E45B-E79D-49CA-8786-7BDF441C575C}">
@@ -9200,7 +8769,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G44:G48 G42</xm:sqref>
+          <xm:sqref>G41:G45 G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D753DFF-0685-48F3-BDEF-449EB335D13E}">
@@ -9211,7 +8780,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G50</xm:sqref>
+          <xm:sqref>G47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
@@ -9222,7 +8791,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G51</xm:sqref>
+          <xm:sqref>G48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E848E527-F886-47F9-86FC-B4D9ACBF8A73}">
@@ -9233,7 +8802,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G72</xm:sqref>
+          <xm:sqref>G68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
@@ -9244,7 +8813,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G73</xm:sqref>
+          <xm:sqref>G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3AE68020-C365-4ABF-939B-EF0068109146}">
@@ -9255,7 +8824,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H27:H30</xm:sqref>
+          <xm:sqref>H24:H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{39544BDF-3167-4345-B25E-E17EB47629D9}">
@@ -9266,7 +8835,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H32:H34</xm:sqref>
+          <xm:sqref>H29:H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
@@ -9277,7 +8846,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36:H37</xm:sqref>
+          <xm:sqref>H33:H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
@@ -9288,7 +8857,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44:H48 H42 J44 J42</xm:sqref>
+          <xm:sqref>H41:H45 H39 J41 J39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{106CA0D7-EA4D-4861-A022-D36678D0799F}">
@@ -9299,7 +8868,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
+          <xm:sqref>H47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE68A3AD-D55D-4311-89F9-78D10FCA9D91}">
@@ -9310,7 +8879,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H73</xm:sqref>
+          <xm:sqref>H69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1303D586-8258-463C-8ABD-037215FABF40}">
@@ -9321,7 +8890,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H35:J35</xm:sqref>
+          <xm:sqref>H32:J32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}">
@@ -9332,7 +8901,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38:J40</xm:sqref>
+          <xm:sqref>H35:J37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}">
@@ -9343,7 +8912,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H26:K26 I27:K27 J28:K30</xm:sqref>
+          <xm:sqref>H23:K23 I24:K24 J25:K27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
@@ -9354,7 +8923,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H72:K72</xm:sqref>
+          <xm:sqref>H68:K68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
@@ -9365,7 +8934,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:AH21 AI20</xm:sqref>
+          <xm:sqref>H6:AH18 AI17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
@@ -9376,7 +8945,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51:AH51</xm:sqref>
+          <xm:sqref>H48:AH48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1A303F07-6070-4189-AC1D-80357A0D5D47}">
@@ -9387,7 +8956,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I28:I30</xm:sqref>
+          <xm:sqref>I25:I27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0CAB636-D7F6-4060-9565-33FF484985B4}">
@@ -9398,7 +8967,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I32:I34</xm:sqref>
+          <xm:sqref>I29:I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EFF78A47-4D23-462B-A616-BA7687DFFB29}">
@@ -9409,7 +8978,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I36:I37</xm:sqref>
+          <xm:sqref>I33:I34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1C71E1E0-EA29-4171-9159-938FC2CFE6CA}">
@@ -9420,7 +8989,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I43</xm:sqref>
+          <xm:sqref>I40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1EB49D24-1482-4398-B2F7-B67E515088AC}">
@@ -9431,7 +9000,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I44:I48 I42</xm:sqref>
+          <xm:sqref>I41:I45 I39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
@@ -9442,7 +9011,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I73:K73</xm:sqref>
+          <xm:sqref>I69:K69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}">
@@ -9453,7 +9022,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I50:AH50</xm:sqref>
+          <xm:sqref>I47:AH47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}">
@@ -9464,7 +9033,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J45:J48 K46:K48</xm:sqref>
+          <xm:sqref>J42:J45 K43:K45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}">
@@ -9475,7 +9044,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J32:K34</xm:sqref>
+          <xm:sqref>J29:K31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{35DDF99D-E2AE-4FE5-A4EB-AC6AFA3114E3}">
@@ -9486,7 +9055,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J36:K37</xm:sqref>
+          <xm:sqref>J33:K34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
@@ -9497,7 +9066,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J70:K70 J53</xm:sqref>
+          <xm:sqref>J66:K66 J50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
@@ -9508,7 +9077,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J56:AH66 J54:J55</xm:sqref>
+          <xm:sqref>J53:AH62 J51:J52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
@@ -9519,7 +9088,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K38:AH38 K35:AH35 L32:AH34 L36:AH37</xm:sqref>
+          <xm:sqref>K35:AH35 K32:AH32 L29:AH31 L33:AH34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79A6E942-BB28-4C5C-B051-63D2113FB72F}">
@@ -9530,7 +9099,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K39:AH40</xm:sqref>
+          <xm:sqref>K36:AH37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{018A2B3E-2548-4772-A2CF-BD33006C0FDF}">
@@ -9541,7 +9110,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K53:AH55</xm:sqref>
+          <xm:sqref>K50:AH52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C3D459D-49E3-462A-B846-0FE83B131D15}">
@@ -9552,7 +9121,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L26:AH30</xm:sqref>
+          <xm:sqref>L23:AH27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CBE33775-0E9E-48FA-B07E-81B3AA0F642B}">
@@ -9563,7 +9132,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L70:AH70</xm:sqref>
+          <xm:sqref>L66:AH66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B769FDA4-52DD-48E5-B5B4-67E966D84479}">
@@ -9574,7 +9143,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L72:AH73</xm:sqref>
+          <xm:sqref>L68:AH69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
@@ -9585,7 +9154,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P42:AH48 K42:O42 L46:O48 K44:O45 L43:O43</xm:sqref>
+          <xm:sqref>P39:AH45 K39:O39 L43:O45 K41:O42 L40:O40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E2A9C4-4986-4186-8CEA-069AA5B69CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217544F7-3410-4EAF-8246-C3C26804E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -64,14 +64,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>코스 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>코스 상세</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>신청자 목록 (모집자만)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -81,10 +73,6 @@
   </si>
   <si>
     <t>쪽지 쓰기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쪽지 답장</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -296,10 +284,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>신청자 상세 / 참여 승인 (모집자만)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -313,6 +297,10 @@
   </si>
   <si>
     <t>결제 내역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스 조회</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,15 +504,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,11 +516,38 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -550,6 +556,16 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -593,16 +609,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -905,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AI72"/>
+  <dimension ref="B2:AI69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q61" sqref="Q61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -920,14 +926,14 @@
     <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="8" hidden="1" customWidth="1"/>
     <col min="7" max="14" width="10.625" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="4" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="4" customWidth="1"/>
     <col min="17" max="17" width="11.625" style="4" customWidth="1"/>
     <col min="18" max="18" width="11.375" style="4" customWidth="1"/>
     <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34">
+    <row r="2" spans="2:35">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45688</v>
@@ -1017,12 +1023,12 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="3" spans="2:34">
+    <row r="3" spans="2:35">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:AH3" si="0">AVERAGE(F19,F22,F28,F38,F46,F49,F63,F65,F67,F70)</f>
+        <f t="shared" ref="F3:AH3" si="0">AVERAGE(F16,F19,F25,F35,F43,F46,F60,F62,F64,F67)</f>
         <v>0.06</v>
       </c>
       <c r="G3" s="6">
@@ -1047,35 +1053,35 @@
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0.57839285714285715</v>
+        <v>0.58023901098901098</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0.58038003663003657</v>
+        <v>0.58222619047619051</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="0"/>
-        <v>0.6054334554334555</v>
+        <v>0.61004884004884008</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>0.65658119658119651</v>
+        <v>0.66304273504273503</v>
       </c>
       <c r="P3" s="6">
         <f t="shared" si="0"/>
-        <v>0.79461538461538461</v>
+        <v>0.80384615384615399</v>
       </c>
       <c r="Q3" s="6">
         <f t="shared" si="0"/>
-        <v>0.82538461538461549</v>
+        <v>0.84792307692307689</v>
       </c>
       <c r="R3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.95146153846153858</v>
       </c>
       <c r="S3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.97399999999999987</v>
       </c>
       <c r="T3" s="6">
         <f t="shared" si="0"/>
@@ -1138,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:35" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1235,15 +1241,15 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="6" spans="2:34">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:35">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>20</v>
+      <c r="C6" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -1283,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
@@ -1334,11 +1340,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:34">
-      <c r="B7" s="13"/>
-      <c r="C7" s="19"/>
+    <row r="7" spans="2:35">
+      <c r="B7" s="18"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -1378,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="9">
         <v>0</v>
@@ -1429,9 +1435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:34">
-      <c r="B8" s="13"/>
-      <c r="C8" s="19"/>
+    <row r="8" spans="2:35">
+      <c r="B8" s="18"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1470,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
@@ -1524,11 +1530,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:34">
-      <c r="B9" s="13"/>
-      <c r="C9" s="19"/>
+    <row r="9" spans="2:35">
+      <c r="B9" s="18"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="7" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
@@ -1556,22 +1562,22 @@
         <v>0</v>
       </c>
       <c r="N9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="9">
         <v>0</v>
@@ -1619,11 +1625,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:34">
-      <c r="B10" s="13"/>
-      <c r="C10" s="19"/>
+    <row r="10" spans="2:35">
+      <c r="B10" s="18"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="7" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -1651,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="N10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
@@ -1714,11 +1720,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:34">
-      <c r="B11" s="13"/>
-      <c r="C11" s="19"/>
+    <row r="11" spans="2:35">
+      <c r="B11" s="18"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
@@ -1761,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="9">
         <v>0</v>
@@ -1809,11 +1815,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:34">
-      <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
+    <row r="12" spans="2:35">
+      <c r="B12" s="18"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="7" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
@@ -1856,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
@@ -1904,11 +1910,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:34">
-      <c r="B13" s="13"/>
-      <c r="C13" s="19"/>
+    <row r="13" spans="2:35">
+      <c r="B13" s="18"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9">
@@ -1948,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="9">
         <v>0</v>
@@ -1999,11 +2005,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:34">
-      <c r="B14" s="13"/>
-      <c r="C14" s="19"/>
+    <row r="14" spans="2:35">
+      <c r="B14" s="18"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
@@ -2034,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="9">
         <v>0</v>
@@ -2093,12 +2099,13 @@
       <c r="AH14" s="9">
         <v>0</v>
       </c>
+      <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="2:34">
-      <c r="B15" s="13"/>
-      <c r="C15" s="19"/>
+    <row r="15" spans="2:35">
+      <c r="B15" s="18"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
@@ -2135,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="9">
         <v>0</v>
@@ -2189,106 +2196,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:34">
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="16" spans="2:35" ht="16.149999999999999" customHeight="1">
+      <c r="B16" s="18"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16" s="9">
-        <v>0</v>
-      </c>
-      <c r="V16" s="9">
-        <v>0</v>
-      </c>
-      <c r="W16" s="9">
-        <v>0</v>
-      </c>
-      <c r="X16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="9">
+      <c r="F16" s="6">
+        <f>AVERAGE(F6:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <f>AVERAGE(G6:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <f>AVERAGE(H6:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <f>AVERAGE(I6:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <f>AVERAGE(J6:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <f>AVERAGE(K6:K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <f>AVERAGE(L6:L15)</f>
+        <v>0.08</v>
+      </c>
+      <c r="M16" s="6">
+        <f>AVERAGE(M6:M15)</f>
+        <v>0.08</v>
+      </c>
+      <c r="N16" s="6">
+        <f>AVERAGE(N6:N15)</f>
+        <v>0.2</v>
+      </c>
+      <c r="O16" s="6">
+        <f>AVERAGE(O6:O15)</f>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="P16" s="6">
+        <f>AVERAGE(P6:P15)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>AVERAGE(Q6:Q15)</f>
+        <v>0.61</v>
+      </c>
+      <c r="R16" s="6">
+        <f>AVERAGE(R6:R15)</f>
+        <v>0.73</v>
+      </c>
+      <c r="S16" s="6">
+        <f>AVERAGE(S6:S15)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="T16" s="6">
+        <f>AVERAGE(T6:T15)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <f>AVERAGE(U6:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="6">
+        <f>AVERAGE(V6:V15)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <f>AVERAGE(W6:W15)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="6">
+        <f>AVERAGE(X6:X15)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6">
+        <f>AVERAGE(Y6:Y15)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="6">
+        <f>AVERAGE(Z6:Z15)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="6">
+        <f>AVERAGE(AA6:AA15)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="6">
+        <f>AVERAGE(AB6:AB15)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="6">
+        <f>AVERAGE(AC6:AC15)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="6">
+        <f>AVERAGE(AD6:AD15)</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="6">
+        <f>AVERAGE(AE6:AE15)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="6">
+        <f>AVERAGE(AF6:AF15)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="6">
+        <f>AVERAGE(AG6:AG15)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="6">
+        <f>AVERAGE(AH6:AH15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:35">
-      <c r="B17" s="13"/>
-      <c r="C17" s="19"/>
+    <row r="17" spans="2:34">
+      <c r="B17" s="18"/>
+      <c r="C17" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
@@ -2304,22 +2340,22 @@
         <v>0</v>
       </c>
       <c r="J17" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P17" s="9">
         <v>1</v>
@@ -2328,10 +2364,10 @@
         <v>1</v>
       </c>
       <c r="R17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="9">
         <v>0</v>
@@ -2378,13 +2414,12 @@
       <c r="AH17" s="9">
         <v>0</v>
       </c>
-      <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="2:35">
-      <c r="B18" s="13"/>
-      <c r="C18" s="19"/>
+    <row r="18" spans="2:34">
+      <c r="B18" s="18"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
@@ -2403,31 +2438,31 @@
         <v>0</v>
       </c>
       <c r="K18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="9">
         <v>1</v>
       </c>
       <c r="R18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="9">
         <v>0</v>
@@ -2475,13 +2510,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:35" ht="16.149999999999999" customHeight="1">
-      <c r="B19" s="13"/>
-      <c r="C19" s="20"/>
+    <row r="19" spans="2:34">
+      <c r="B19" s="18"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:AH19" si="1">AVERAGE(F6:F18)</f>
+        <f t="shared" ref="F19:AH19" si="1">AVERAGE(F17:F18)</f>
         <v>0</v>
       </c>
       <c r="G19" s="6">
@@ -2498,43 +2533,43 @@
       </c>
       <c r="J19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>6.1538461538461542E-2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="1"/>
-        <v>6.1538461538461542E-2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="1"/>
-        <v>0.15384615384615385</v>
+        <f>AVERAGE(N17:N18)</f>
+        <v>1</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="1"/>
-        <v>0.21538461538461537</v>
+        <v>1</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="1"/>
-        <v>0.30769230769230771</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="1"/>
-        <v>0.38461538461538464</v>
+        <f>AVERAGE(Q17:Q18)</f>
+        <v>1</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="6">
         <f t="shared" si="1"/>
@@ -2597,29 +2632,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:35">
-      <c r="B20" s="13"/>
+    <row r="20" spans="2:34">
+      <c r="B20" s="18"/>
       <c r="C20" s="15" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I20" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J20" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K20" s="9">
         <v>1</v>
@@ -2643,10 +2678,10 @@
         <v>1</v>
       </c>
       <c r="R20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="9">
         <v>0</v>
@@ -2694,27 +2729,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:35">
-      <c r="B21" s="13"/>
-      <c r="C21" s="16"/>
+    <row r="21" spans="2:34">
+      <c r="B21" s="18"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="7" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
         <v>0</v>
       </c>
       <c r="G21" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="9">
         <v>1</v>
@@ -2738,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="R21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="9">
         <v>0</v>
@@ -2789,148 +2824,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:35">
-      <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="7"/>
+    <row r="22" spans="2:34">
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="6">
-        <f t="shared" ref="F22:AH22" si="2">AVERAGE(F20:F21)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="6">
-        <f>AVERAGE(N20:N21)</f>
-        <v>1</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="6">
-        <f t="shared" si="2"/>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9">
+        <v>1</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9">
+        <v>1</v>
+      </c>
+      <c r="P22" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+      <c r="R22" s="9">
+        <v>1</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:35">
-      <c r="B23" s="13"/>
-      <c r="C23" s="18" t="s">
-        <v>42</v>
-      </c>
+    <row r="23" spans="2:34">
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="7" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G23" s="9">
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J23" s="9">
         <v>1</v>
@@ -2957,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="R23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="9">
         <v>0</v>
@@ -3008,24 +3014,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:35">
-      <c r="B24" s="13"/>
-      <c r="C24" s="19"/>
+    <row r="24" spans="2:34">
+      <c r="B24" s="18"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
         <v>0</v>
       </c>
       <c r="G24" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J24" s="9">
         <v>1</v>
@@ -3052,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="R24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="9">
         <v>0</v>
@@ -3103,106 +3109,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:35">
-      <c r="B25" s="13"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="7" t="s">
-        <v>60</v>
-      </c>
+    <row r="25" spans="2:34">
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1</v>
-      </c>
-      <c r="L25" s="9">
-        <v>1</v>
-      </c>
-      <c r="M25" s="9">
-        <v>1</v>
-      </c>
-      <c r="N25" s="9">
-        <v>1</v>
-      </c>
-      <c r="O25" s="9">
-        <v>1</v>
-      </c>
-      <c r="P25" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>1</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="9">
-        <v>0</v>
-      </c>
-      <c r="V25" s="9">
-        <v>0</v>
-      </c>
-      <c r="W25" s="9">
-        <v>0</v>
-      </c>
-      <c r="X25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="9">
+      <c r="F25" s="6">
+        <f t="shared" ref="F25:AH25" si="2">AVERAGE(F20:F24)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="6">
+        <f>AVERAGE(N20:N24)</f>
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="6">
+        <f>AVERAGE(Q20:Q24)</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S25" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:35">
-      <c r="B26" s="13"/>
-      <c r="C26" s="19"/>
+    <row r="26" spans="2:34">
+      <c r="B26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="D26" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
@@ -3212,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="9">
         <v>1</v>
@@ -3242,10 +3279,10 @@
         <v>1</v>
       </c>
       <c r="R26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="9">
         <v>0</v>
@@ -3293,11 +3330,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:35">
-      <c r="B27" s="13"/>
-      <c r="C27" s="19"/>
+    <row r="27" spans="2:34">
+      <c r="B27" s="18"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
@@ -3307,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="9">
         <v>1</v>
@@ -3337,10 +3374,10 @@
         <v>1</v>
       </c>
       <c r="R27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="9">
         <v>0</v>
@@ -3388,137 +3425,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:35">
-      <c r="B28" s="14"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="7"/>
+    <row r="28" spans="2:34">
+      <c r="B28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="6">
-        <f t="shared" ref="F28:AH28" si="3">AVERAGE(F23:F27)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="3"/>
-        <v>0.16</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" si="3"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N28" s="6">
-        <f>AVERAGE(N23:N27)</f>
-        <v>1</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P28" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="6">
-        <f t="shared" si="3"/>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9">
+        <v>1</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9">
+        <v>1</v>
+      </c>
+      <c r="P28" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>1</v>
+      </c>
+      <c r="R28" s="9">
+        <v>1</v>
+      </c>
+      <c r="S28" s="9">
+        <v>1</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+      <c r="W28" s="9">
+        <v>0</v>
+      </c>
+      <c r="X28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:35">
-      <c r="B29" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>22</v>
-      </c>
+    <row r="29" spans="2:34">
+      <c r="B29" s="18"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
@@ -3528,25 +3534,25 @@
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="9">
         <v>1</v>
@@ -3558,10 +3564,10 @@
         <v>1</v>
       </c>
       <c r="R29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="9">
         <v>0</v>
@@ -3609,11 +3615,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:35">
-      <c r="B30" s="13"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="7" t="s">
-        <v>46</v>
+    <row r="30" spans="2:34">
+      <c r="B30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -3635,13 +3641,13 @@
         <v>1</v>
       </c>
       <c r="L30" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M30" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N30" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O30" s="9">
         <v>1</v>
@@ -3653,10 +3659,10 @@
         <v>1</v>
       </c>
       <c r="R30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="9">
         <v>0</v>
@@ -3704,11 +3710,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:35">
-      <c r="B31" s="13"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="7" t="s">
-        <v>51</v>
+    <row r="31" spans="2:34">
+      <c r="B31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -3748,10 +3754,10 @@
         <v>1</v>
       </c>
       <c r="R31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="9">
         <v>0</v>
@@ -3799,11 +3805,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:35">
-      <c r="B32" s="13"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="7" t="s">
-        <v>47</v>
+    <row r="32" spans="2:34">
+      <c r="B32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -3843,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="R32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="9">
         <v>0</v>
@@ -3895,10 +3901,10 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="13"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
@@ -3908,25 +3914,25 @@
         <v>0</v>
       </c>
       <c r="H33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M33" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N33" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O33" s="9">
         <v>1</v>
@@ -3938,10 +3944,10 @@
         <v>1</v>
       </c>
       <c r="R33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="9">
         <v>0</v>
@@ -3990,41 +3996,25 @@
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="13"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="10" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1</v>
-      </c>
-      <c r="I34" s="9">
-        <v>1</v>
-      </c>
-      <c r="J34" s="9">
-        <v>1</v>
-      </c>
-      <c r="K34" s="9">
-        <v>1</v>
-      </c>
-      <c r="L34" s="9">
-        <v>1</v>
-      </c>
-      <c r="M34" s="9">
-        <v>1</v>
-      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
       <c r="N34" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="9">
         <v>1</v>
@@ -4033,10 +4023,10 @@
         <v>1</v>
       </c>
       <c r="R34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="9">
         <v>0</v>
@@ -4085,105 +4075,134 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="13"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
-        <v>1</v>
-      </c>
-      <c r="P35" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>1</v>
-      </c>
-      <c r="R35" s="9">
-        <v>0</v>
-      </c>
-      <c r="S35" s="9">
-        <v>0</v>
-      </c>
-      <c r="T35" s="9">
-        <v>0</v>
-      </c>
-      <c r="U35" s="9">
-        <v>0</v>
-      </c>
-      <c r="V35" s="9">
-        <v>0</v>
-      </c>
-      <c r="W35" s="9">
-        <v>0</v>
-      </c>
-      <c r="X35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="9">
+      <c r="F35" s="6">
+        <f t="shared" ref="F35:M35" si="3">AVERAGE(F26:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="3"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="3"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="N35" s="6">
+        <f>AVERAGE(N26:N34)</f>
+        <v>0.54444444444444451</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" ref="O35:AH35" si="4">AVERAGE(O26:O34)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="6">
+        <f>AVERAGE(Q26:Q34)</f>
+        <v>1</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="13"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="10" t="s">
-        <v>53</v>
+      <c r="B36" s="18"/>
+      <c r="C36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
@@ -4193,25 +4212,25 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I36" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J36" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K36" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M36" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N36" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O36" s="9">
         <v>1</v>
@@ -4223,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="R36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="9">
         <v>0</v>
@@ -4275,25 +4294,41 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="13"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="10" t="s">
-        <v>67</v>
+      <c r="B37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1</v>
+      </c>
       <c r="N37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="9">
         <v>1</v>
@@ -4302,10 +4337,10 @@
         <v>1</v>
       </c>
       <c r="R37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="9">
         <v>0</v>
@@ -4354,134 +4389,105 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="13"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="6">
-        <f t="shared" ref="F38:M38" si="4">AVERAGE(F29:F36)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <f t="shared" si="4"/>
-        <v>0.625</v>
-      </c>
-      <c r="I38" s="6">
-        <f t="shared" si="4"/>
-        <v>0.625</v>
-      </c>
-      <c r="J38" s="6">
-        <f t="shared" si="4"/>
-        <v>0.625</v>
-      </c>
-      <c r="K38" s="6">
-        <f t="shared" si="4"/>
-        <v>0.625</v>
-      </c>
-      <c r="L38" s="6">
-        <f t="shared" si="4"/>
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="M38" s="6">
-        <f t="shared" si="4"/>
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="N38" s="6">
-        <f>AVERAGE(N29:N37)</f>
-        <v>0.54444444444444451</v>
-      </c>
-      <c r="O38" s="6">
-        <f t="shared" ref="O38:AH38" si="5">AVERAGE(O29:O37)</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="P38" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q38" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="R38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH38" s="6">
-        <f t="shared" si="5"/>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="L38" s="9">
+        <v>1</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9">
+        <v>1</v>
+      </c>
+      <c r="P38" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>1</v>
+      </c>
+      <c r="R38" s="9">
+        <v>1</v>
+      </c>
+      <c r="S38" s="9">
+        <v>1</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+      <c r="U38" s="9">
+        <v>0</v>
+      </c>
+      <c r="V38" s="9">
+        <v>0</v>
+      </c>
+      <c r="W38" s="9">
+        <v>0</v>
+      </c>
+      <c r="X38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="13"/>
-      <c r="C39" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9">
@@ -4500,16 +4506,16 @@
         <v>0.8</v>
       </c>
       <c r="K39" s="9">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="L39" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M39" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N39" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O39" s="9">
         <v>1</v>
@@ -4521,10 +4527,10 @@
         <v>1</v>
       </c>
       <c r="R39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="9">
         <v>0</v>
@@ -4573,10 +4579,10 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="13"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="7" t="s">
-        <v>57</v>
+      <c r="B40" s="18"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="9">
@@ -4586,10 +4592,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I40" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J40" s="9">
         <v>1</v>
@@ -4616,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="R40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="9">
         <v>0</v>
@@ -4668,10 +4674,10 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="13"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="7" t="s">
-        <v>56</v>
+      <c r="B41" s="18"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="9">
@@ -4681,16 +4687,16 @@
         <v>0</v>
       </c>
       <c r="H41" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I41" s="9">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J41" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K41" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L41" s="9">
         <v>1</v>
@@ -4711,10 +4717,10 @@
         <v>1</v>
       </c>
       <c r="R41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="9">
         <v>0</v>
@@ -4763,10 +4769,10 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="13"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="9">
@@ -4776,25 +4782,25 @@
         <v>0</v>
       </c>
       <c r="H42" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I42" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J42" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K42" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L42" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M42" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N42" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O42" s="9">
         <v>1</v>
@@ -4806,10 +4812,10 @@
         <v>1</v>
       </c>
       <c r="R42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="9">
         <v>0</v>
@@ -4858,105 +4864,134 @@
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="13"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>1</v>
-      </c>
-      <c r="I43" s="9">
-        <v>1</v>
-      </c>
-      <c r="J43" s="9">
-        <v>1</v>
-      </c>
-      <c r="K43" s="9">
-        <v>1</v>
-      </c>
-      <c r="L43" s="9">
-        <v>1</v>
-      </c>
-      <c r="M43" s="9">
-        <v>1</v>
-      </c>
-      <c r="N43" s="9">
-        <v>1</v>
-      </c>
-      <c r="O43" s="9">
-        <v>1</v>
-      </c>
-      <c r="P43" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="9">
-        <v>1</v>
-      </c>
-      <c r="R43" s="9">
-        <v>0</v>
-      </c>
-      <c r="S43" s="9">
-        <v>0</v>
-      </c>
-      <c r="T43" s="9">
-        <v>0</v>
-      </c>
-      <c r="U43" s="9">
-        <v>0</v>
-      </c>
-      <c r="V43" s="9">
-        <v>0</v>
-      </c>
-      <c r="W43" s="9">
-        <v>0</v>
-      </c>
-      <c r="X43" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="9">
+      <c r="F43" s="6">
+        <f>AVERAGE(F36:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" ref="G43:AH43" si="5">AVERAGE(G36:G42)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" si="5"/>
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="5"/>
+        <v>0.91428571428571437</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98285714285714287</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="5"/>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="5"/>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="N43" s="6">
+        <f>AVERAGE(N36:N42)</f>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="6">
+        <f>AVERAGE(Q36:Q42)</f>
+        <v>1</v>
+      </c>
+      <c r="R43" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S43" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="13"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="10" t="s">
-        <v>54</v>
+      <c r="B44" s="18"/>
+      <c r="C44" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -4966,28 +5001,28 @@
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="9">
         <v>1</v>
@@ -4996,10 +5031,10 @@
         <v>1</v>
       </c>
       <c r="R44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="9">
         <v>0</v>
@@ -5048,10 +5083,10 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="13"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
@@ -5061,28 +5096,28 @@
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M45" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N45" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="9">
         <v>1</v>
@@ -5091,10 +5126,10 @@
         <v>1</v>
       </c>
       <c r="R45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="9">
         <v>0</v>
@@ -5143,49 +5178,49 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="13"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6">
-        <f>AVERAGE(F39:F45)</f>
+        <f>AVERAGE(F44:F45)</f>
         <v>0</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" ref="G46:AH46" si="6">AVERAGE(G39:G45)</f>
+        <f t="shared" ref="G46:AH46" si="6">AVERAGE(G44:G45)</f>
         <v>0</v>
       </c>
       <c r="H46" s="6">
         <f t="shared" si="6"/>
-        <v>0.84285714285714286</v>
+        <v>0</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="6"/>
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="6"/>
-        <v>0.91428571428571437</v>
+        <v>0</v>
       </c>
       <c r="K46" s="6">
         <f t="shared" si="6"/>
-        <v>0.98285714285714287</v>
+        <v>0</v>
       </c>
       <c r="L46" s="6">
         <f t="shared" si="6"/>
-        <v>0.97142857142857153</v>
+        <v>0</v>
       </c>
       <c r="M46" s="6">
         <f t="shared" si="6"/>
-        <v>0.97142857142857153</v>
+        <v>0</v>
       </c>
       <c r="N46" s="6">
-        <f>AVERAGE(N39:N45)</f>
-        <v>0.97142857142857153</v>
+        <f>AVERAGE(N44:N45)</f>
+        <v>0</v>
       </c>
       <c r="O46" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="6">
         <f t="shared" si="6"/>
@@ -5197,11 +5232,11 @@
       </c>
       <c r="R46" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="6">
         <f t="shared" si="6"/>
@@ -5265,12 +5300,14 @@
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="13"/>
-      <c r="C47" s="16" t="s">
-        <v>50</v>
+      <c r="B47" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="9">
@@ -5286,22 +5323,22 @@
         <v>0</v>
       </c>
       <c r="J47" s="9">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="9">
         <v>1</v>
@@ -5310,10 +5347,10 @@
         <v>1</v>
       </c>
       <c r="R47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="9">
         <v>0</v>
@@ -5362,10 +5399,10 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="13"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="7" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="9">
@@ -5399,16 +5436,16 @@
         <v>0</v>
       </c>
       <c r="P48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="9">
         <v>1</v>
       </c>
       <c r="R48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="9">
         <v>0</v>
@@ -5457,136 +5494,105 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="14"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="7"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E49" s="7"/>
-      <c r="F49" s="6">
-        <f>AVERAGE(F47:F48)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="6">
-        <f t="shared" ref="G49:AH49" si="7">AVERAGE(G47:G48)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="6">
-        <f>AVERAGE(N47:N48)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="6">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="6">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH49" s="6">
-        <f t="shared" si="7"/>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N49" s="9">
+        <v>1</v>
+      </c>
+      <c r="O49" s="9">
+        <v>1</v>
+      </c>
+      <c r="P49" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>1</v>
+      </c>
+      <c r="R49" s="9">
+        <v>1</v>
+      </c>
+      <c r="S49" s="9">
+        <v>1</v>
+      </c>
+      <c r="T49" s="9">
+        <v>0</v>
+      </c>
+      <c r="U49" s="9">
+        <v>0</v>
+      </c>
+      <c r="V49" s="9">
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="9">
@@ -5602,16 +5608,16 @@
         <v>0</v>
       </c>
       <c r="J50" s="9">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K50" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="9">
         <v>1</v>
@@ -5626,10 +5632,10 @@
         <v>1</v>
       </c>
       <c r="R50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="9">
         <v>0</v>
@@ -5678,10 +5684,10 @@
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="13"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="9">
@@ -5709,22 +5715,22 @@
         <v>0</v>
       </c>
       <c r="N51" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="9">
         <v>1</v>
       </c>
       <c r="R51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="9">
         <v>0</v>
@@ -5773,10 +5779,10 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="13"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="9">
@@ -5800,11 +5806,11 @@
       <c r="L52" s="9">
         <v>0</v>
       </c>
-      <c r="M52" s="9" t="s">
-        <v>66</v>
+      <c r="M52" s="9">
+        <v>0</v>
       </c>
       <c r="N52" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O52" s="9">
         <v>1</v>
@@ -5816,10 +5822,10 @@
         <v>1</v>
       </c>
       <c r="R52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="9">
         <v>0</v>
@@ -5868,10 +5874,10 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="13"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="9">
@@ -5899,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="N53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="9">
         <v>1</v>
@@ -5911,10 +5917,10 @@
         <v>1</v>
       </c>
       <c r="R53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="9">
         <v>0</v>
@@ -5963,10 +5969,10 @@
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="13"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="9">
@@ -5994,10 +6000,10 @@
         <v>0</v>
       </c>
       <c r="N54" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="9">
         <v>1</v>
@@ -6006,10 +6012,10 @@
         <v>1</v>
       </c>
       <c r="R54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="9">
         <v>0</v>
@@ -6058,10 +6064,10 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="13"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="9">
@@ -6089,16 +6095,16 @@
         <v>0</v>
       </c>
       <c r="N55" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O55" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="9">
         <v>0</v>
@@ -6153,10 +6159,10 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="13"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9">
@@ -6175,19 +6181,19 @@
         <v>0</v>
       </c>
       <c r="K56" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L56" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M56" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="9">
         <v>1</v>
@@ -6196,10 +6202,10 @@
         <v>1</v>
       </c>
       <c r="R56" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S56" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T56" s="9">
         <v>0</v>
@@ -6248,10 +6254,10 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="13"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="9">
@@ -6285,10 +6291,10 @@
         <v>0</v>
       </c>
       <c r="P57" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Q57" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R57" s="9">
         <v>0</v>
@@ -6343,10 +6349,10 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="13"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="9">
@@ -6383,13 +6389,13 @@
         <v>0</v>
       </c>
       <c r="Q58" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="9">
         <v>0</v>
@@ -6438,8 +6444,8 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="13"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="7" t="s">
         <v>33</v>
       </c>
@@ -6460,31 +6466,31 @@
         <v>0</v>
       </c>
       <c r="K59" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L59" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M59" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N59" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="9">
         <v>1</v>
       </c>
       <c r="R59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="9">
         <v>0</v>
@@ -6533,105 +6539,134 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="13"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="7" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6">
+        <f t="shared" ref="F60:AH60" si="7">AVERAGE(F47:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <f t="shared" si="7"/>
+        <v>3.4615384615384617E-2</v>
+      </c>
+      <c r="K60" s="6">
+        <f t="shared" si="7"/>
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="L60" s="6">
+        <f t="shared" si="7"/>
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="M60" s="6">
+        <f t="shared" si="7"/>
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="N60" s="6">
+        <f t="shared" si="7"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" si="7"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="P60" s="6">
+        <f t="shared" si="7"/>
+        <v>0.63846153846153852</v>
+      </c>
+      <c r="Q60" s="6">
+        <f t="shared" si="7"/>
+        <v>0.86923076923076925</v>
+      </c>
+      <c r="R60" s="6">
+        <f t="shared" si="7"/>
+        <v>0.7846153846153846</v>
+      </c>
+      <c r="S60" s="6">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="T60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B61" s="18"/>
+      <c r="C61" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="9">
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9">
-        <v>0</v>
-      </c>
-      <c r="I60" s="9">
-        <v>0</v>
-      </c>
-      <c r="J60" s="9">
-        <v>0</v>
-      </c>
-      <c r="K60" s="9">
-        <v>0</v>
-      </c>
-      <c r="L60" s="9">
-        <v>0</v>
-      </c>
-      <c r="M60" s="9">
-        <v>0</v>
-      </c>
-      <c r="N60" s="9">
-        <v>0</v>
-      </c>
-      <c r="O60" s="9">
-        <v>0</v>
-      </c>
-      <c r="P60" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Q60" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="R60" s="9">
-        <v>0</v>
-      </c>
-      <c r="S60" s="9">
-        <v>0</v>
-      </c>
-      <c r="T60" s="9">
-        <v>0</v>
-      </c>
-      <c r="U60" s="9">
-        <v>0</v>
-      </c>
-      <c r="V60" s="9">
-        <v>0</v>
-      </c>
-      <c r="W60" s="9">
-        <v>0</v>
-      </c>
-      <c r="X60" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:34">
-      <c r="B61" s="13"/>
-      <c r="C61" s="16"/>
       <c r="D61" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="9">
@@ -6668,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="Q61" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="9">
         <v>0</v>
@@ -6723,467 +6758,467 @@
       </c>
     </row>
     <row r="62" spans="2:34">
-      <c r="B62" s="13"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="16"/>
-      <c r="D62" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="9">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
-      <c r="J62" s="9">
-        <v>0</v>
-      </c>
-      <c r="K62" s="9">
-        <v>0</v>
-      </c>
-      <c r="L62" s="9">
-        <v>0</v>
-      </c>
-      <c r="M62" s="9">
-        <v>0</v>
-      </c>
-      <c r="N62" s="9">
-        <v>0</v>
-      </c>
-      <c r="O62" s="9">
-        <v>0</v>
-      </c>
-      <c r="P62" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="9">
-        <v>1</v>
-      </c>
-      <c r="R62" s="9">
-        <v>0</v>
-      </c>
-      <c r="S62" s="9">
-        <v>0</v>
-      </c>
-      <c r="T62" s="9">
-        <v>0</v>
-      </c>
-      <c r="U62" s="9">
-        <v>0</v>
-      </c>
-      <c r="V62" s="9">
-        <v>0</v>
-      </c>
-      <c r="W62" s="9">
-        <v>0</v>
-      </c>
-      <c r="X62" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="9">
+      <c r="F62" s="6">
+        <f>AVERAGE(F61)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" ref="G62:AH62" si="8">AVERAGE(G61)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <f>AVERAGE(N61)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S62" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH62" s="6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="13"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="7"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E63" s="7"/>
-      <c r="F63" s="6">
-        <f t="shared" ref="F63:AH63" si="8">AVERAGE(F50:F62)</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="6">
-        <f t="shared" si="8"/>
-        <v>3.4615384615384617E-2</v>
-      </c>
-      <c r="K63" s="6">
-        <f t="shared" si="8"/>
-        <v>0.13846153846153847</v>
-      </c>
-      <c r="L63" s="6">
-        <f t="shared" si="8"/>
-        <v>0.13846153846153847</v>
-      </c>
-      <c r="M63" s="6">
-        <f t="shared" si="8"/>
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="N63" s="6">
-        <f t="shared" si="8"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="O63" s="6">
-        <f t="shared" si="8"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="P63" s="6">
-        <f t="shared" si="8"/>
-        <v>0.63846153846153852</v>
-      </c>
-      <c r="Q63" s="6">
-        <f t="shared" si="8"/>
-        <v>0.86923076923076925</v>
-      </c>
-      <c r="R63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG63" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH63" s="6">
-        <f t="shared" si="8"/>
+      <c r="F63" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J63" s="9">
+        <v>1</v>
+      </c>
+      <c r="K63" s="9">
+        <v>1</v>
+      </c>
+      <c r="L63" s="9">
+        <v>1</v>
+      </c>
+      <c r="M63" s="9">
+        <v>1</v>
+      </c>
+      <c r="N63" s="9">
+        <v>1</v>
+      </c>
+      <c r="O63" s="9">
+        <v>1</v>
+      </c>
+      <c r="P63" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>1</v>
+      </c>
+      <c r="R63" s="9">
+        <v>1</v>
+      </c>
+      <c r="S63" s="9">
+        <v>1</v>
+      </c>
+      <c r="T63" s="9">
+        <v>0</v>
+      </c>
+      <c r="U63" s="9">
+        <v>0</v>
+      </c>
+      <c r="V63" s="9">
+        <v>0</v>
+      </c>
+      <c r="W63" s="9">
+        <v>0</v>
+      </c>
+      <c r="X63" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B64" s="13"/>
-      <c r="C64" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>37</v>
-      </c>
+    <row r="64" spans="2:34">
+      <c r="B64" s="18"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="9">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9">
-        <v>0</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-      <c r="J64" s="9">
-        <v>0</v>
-      </c>
-      <c r="K64" s="9">
-        <v>0</v>
-      </c>
-      <c r="L64" s="9">
-        <v>0</v>
-      </c>
-      <c r="M64" s="9">
-        <v>0</v>
-      </c>
-      <c r="N64" s="9">
-        <v>0</v>
-      </c>
-      <c r="O64" s="9">
-        <v>0</v>
-      </c>
-      <c r="P64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="9">
-        <v>0</v>
-      </c>
-      <c r="R64" s="9">
-        <v>0</v>
-      </c>
-      <c r="S64" s="9">
-        <v>0</v>
-      </c>
-      <c r="T64" s="9">
-        <v>0</v>
-      </c>
-      <c r="U64" s="9">
-        <v>0</v>
-      </c>
-      <c r="V64" s="9">
-        <v>0</v>
-      </c>
-      <c r="W64" s="9">
-        <v>0</v>
-      </c>
-      <c r="X64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="9">
+      <c r="F64" s="6">
+        <f>AVERAGE(F63)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" ref="G64:R64" si="9">AVERAGE(G63)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H64" s="6">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J64" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K64" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L64" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M64" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N64" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P64" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q64" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R64" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S64" s="6">
+        <f t="shared" ref="S64:AH64" si="10">AVERAGE(S63)</f>
+        <v>1</v>
+      </c>
+      <c r="T64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="6">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:34">
-      <c r="B65" s="13"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="7"/>
+    <row r="65" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B65" s="18"/>
+      <c r="C65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E65" s="7"/>
-      <c r="F65" s="6">
-        <f>AVERAGE(F64)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="6">
-        <f t="shared" ref="G65:AH65" si="9">AVERAGE(G64)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="6">
-        <f>AVERAGE(N64)</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH65" s="6">
-        <f t="shared" si="9"/>
+      <c r="F65" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="I65" s="9">
+        <v>1</v>
+      </c>
+      <c r="J65" s="9">
+        <v>1</v>
+      </c>
+      <c r="K65" s="9">
+        <v>1</v>
+      </c>
+      <c r="L65" s="9">
+        <v>1</v>
+      </c>
+      <c r="M65" s="9">
+        <v>1</v>
+      </c>
+      <c r="N65" s="9">
+        <v>1</v>
+      </c>
+      <c r="O65" s="9">
+        <v>1</v>
+      </c>
+      <c r="P65" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="9">
+        <v>1</v>
+      </c>
+      <c r="R65" s="9">
+        <v>1</v>
+      </c>
+      <c r="S65" s="9">
+        <v>1</v>
+      </c>
+      <c r="T65" s="9">
+        <v>0</v>
+      </c>
+      <c r="U65" s="9">
+        <v>0</v>
+      </c>
+      <c r="V65" s="9">
+        <v>0</v>
+      </c>
+      <c r="W65" s="9">
+        <v>0</v>
+      </c>
+      <c r="X65" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:34">
-      <c r="B66" s="13"/>
-      <c r="C66" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G66" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H66" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I66" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J66" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K66" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L66" s="9">
         <v>1</v>
@@ -7204,10 +7239,10 @@
         <v>1</v>
       </c>
       <c r="R66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="9">
         <v>0</v>
@@ -7256,502 +7291,186 @@
       </c>
     </row>
     <row r="67" spans="2:34">
-      <c r="B67" s="13"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="6">
-        <f>AVERAGE(F66)</f>
-        <v>0.5</v>
+        <f>AVERAGE(F65:F66)</f>
+        <v>0</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:R67" si="10">AVERAGE(G66)</f>
-        <v>0.5</v>
+        <f t="shared" ref="G67:R67" si="11">AVERAGE(G65:G66)</f>
+        <v>0.25</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
+        <f t="shared" si="11"/>
+        <v>0.375</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
+        <f t="shared" si="11"/>
+        <v>0.95</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0.95</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0.95</v>
       </c>
       <c r="L67" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N67" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O67" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P67" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R67" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="S67" s="6">
-        <f t="shared" ref="S67:AH67" si="11">AVERAGE(S66)</f>
-        <v>0</v>
+        <f t="shared" ref="S67:AH67" si="12">AVERAGE(S65:S66)</f>
+        <v>1</v>
       </c>
       <c r="T67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH67" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B68" s="13"/>
-      <c r="C68" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="9">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H68" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="I68" s="9">
-        <v>1</v>
-      </c>
-      <c r="J68" s="9">
-        <v>1</v>
-      </c>
-      <c r="K68" s="9">
-        <v>1</v>
-      </c>
-      <c r="L68" s="9">
-        <v>1</v>
-      </c>
-      <c r="M68" s="9">
-        <v>1</v>
-      </c>
-      <c r="N68" s="9">
-        <v>1</v>
-      </c>
-      <c r="O68" s="9">
-        <v>1</v>
-      </c>
-      <c r="P68" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="9">
-        <v>1</v>
-      </c>
-      <c r="R68" s="9">
-        <v>0</v>
-      </c>
-      <c r="S68" s="9">
-        <v>0</v>
-      </c>
-      <c r="T68" s="9">
-        <v>0</v>
-      </c>
-      <c r="U68" s="9">
-        <v>0</v>
-      </c>
-      <c r="V68" s="9">
-        <v>0</v>
-      </c>
-      <c r="W68" s="9">
-        <v>0</v>
-      </c>
-      <c r="X68" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="9">
-        <v>0</v>
-      </c>
+    <row r="68" spans="2:34">
+      <c r="E68" s="8"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="2:34">
-      <c r="B69" s="13"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="9">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9">
-        <v>0</v>
-      </c>
-      <c r="H69" s="9">
-        <v>0</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="J69" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="K69" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="L69" s="9">
-        <v>1</v>
-      </c>
-      <c r="M69" s="9">
-        <v>1</v>
-      </c>
-      <c r="N69" s="9">
-        <v>1</v>
-      </c>
-      <c r="O69" s="9">
-        <v>1</v>
-      </c>
-      <c r="P69" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="9">
-        <v>1</v>
-      </c>
-      <c r="R69" s="9">
-        <v>0</v>
-      </c>
-      <c r="S69" s="9">
-        <v>0</v>
-      </c>
-      <c r="T69" s="9">
-        <v>0</v>
-      </c>
-      <c r="U69" s="9">
-        <v>0</v>
-      </c>
-      <c r="V69" s="9">
-        <v>0</v>
-      </c>
-      <c r="W69" s="9">
-        <v>0</v>
-      </c>
-      <c r="X69" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:34">
-      <c r="B70" s="14"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="6">
-        <f>AVERAGE(F68:F69)</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="6">
-        <f t="shared" ref="G70:R70" si="12">AVERAGE(G68:G69)</f>
-        <v>0.25</v>
-      </c>
-      <c r="H70" s="6">
-        <f t="shared" si="12"/>
-        <v>0.375</v>
-      </c>
-      <c r="I70" s="6">
-        <f t="shared" si="12"/>
-        <v>0.95</v>
-      </c>
-      <c r="J70" s="6">
-        <f t="shared" si="12"/>
-        <v>0.95</v>
-      </c>
-      <c r="K70" s="6">
-        <f t="shared" si="12"/>
-        <v>0.95</v>
-      </c>
-      <c r="L70" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M70" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N70" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O70" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="P70" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Q70" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="R70" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S70" s="6">
-        <f t="shared" ref="S70:AH70" si="13">AVERAGE(S68:S69)</f>
-        <v>0</v>
-      </c>
-      <c r="T70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:34">
-      <c r="E71" s="8"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:34">
-      <c r="E72" s="8"/>
-      <c r="F72" s="4"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B50:B70"/>
-    <mergeCell ref="C50:C63"/>
-    <mergeCell ref="C6:C19"/>
-    <mergeCell ref="B6:B28"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="B29:B49"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C64:C65"/>
+  <mergeCells count="11">
+    <mergeCell ref="B47:B67"/>
+    <mergeCell ref="C47:C60"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="B26:B46"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="B6:B25"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C61:C62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C39:D39 D39:D45">
+  <conditionalFormatting sqref="D6:D10 C36:D36 D36:D42 E6:E15">
     <cfRule type="cellIs" dxfId="6" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D12 E6:E18 C23 E23:E24">
-    <cfRule type="cellIs" dxfId="5" priority="185" operator="equal">
+  <conditionalFormatting sqref="D17:D34 D48:E60 D11:D15">
+    <cfRule type="cellIs" dxfId="5" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D18 D20:D37 D51:E63">
-    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
+  <conditionalFormatting sqref="D16 B47">
+    <cfRule type="cellIs" dxfId="4" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 B50">
-    <cfRule type="cellIs" dxfId="3" priority="172" operator="equal">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="3" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="2" priority="37" operator="equal">
+  <conditionalFormatting sqref="D44:E44 D46:E46 C47:E47 C61:E61 D62:E67">
+    <cfRule type="cellIs" dxfId="2" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:E47 D49:E49 C50:E50 C64:E64 D65:E70">
-    <cfRule type="cellIs" dxfId="1" priority="145" operator="equal">
+  <conditionalFormatting sqref="C20 E20:E21">
+    <cfRule type="cellIs" dxfId="1" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21 B29:C29 E29:E30">
+  <conditionalFormatting sqref="E17:E18 B26:C26 E26:E27">
     <cfRule type="cellIs" dxfId="0" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F20">
     <cfRule type="dataBar" priority="505">
       <dataBar>
         <cfvo type="min"/>
@@ -7765,7 +7484,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F21">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -7779,7 +7498,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F22">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -7793,7 +7512,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="F23">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -7807,7 +7526,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F24">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -7821,7 +7540,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F32">
+  <conditionalFormatting sqref="F26:F29">
     <cfRule type="dataBar" priority="432">
       <dataBar>
         <cfvo type="min"/>
@@ -7835,7 +7554,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F37">
+  <conditionalFormatting sqref="F30:F34">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
@@ -7849,7 +7568,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45 F39 F40:H40 J40:K40">
+  <conditionalFormatting sqref="F38:F42 F36 F37:H37 J37:K37">
     <cfRule type="dataBar" priority="485">
       <dataBar>
         <cfvo type="min"/>
@@ -7863,7 +7582,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="F45">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
@@ -7877,7 +7596,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68:F69">
+  <conditionalFormatting sqref="F65:F66">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -7891,7 +7610,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50:I62">
+  <conditionalFormatting sqref="F47:I59">
     <cfRule type="dataBar" priority="558">
       <dataBar>
         <cfvo type="min"/>
@@ -7905,7 +7624,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66:I66 F47">
+  <conditionalFormatting sqref="F63:I63 F44">
     <cfRule type="dataBar" priority="477">
       <dataBar>
         <cfvo type="min"/>
@@ -7919,21 +7638,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:AH18">
-    <cfRule type="dataBar" priority="626">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE0275C9-A13C-4221-B9B7-203BFE7719CD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:AH21">
+  <conditionalFormatting sqref="F17:AH18">
     <cfRule type="dataBar" priority="555">
       <dataBar>
         <cfvo type="min"/>
@@ -7947,7 +7652,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64:AH64">
+  <conditionalFormatting sqref="F61:AH61">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -7961,7 +7666,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G20">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -7975,7 +7680,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G21">
     <cfRule type="dataBar" priority="514">
       <dataBar>
         <cfvo type="min"/>
@@ -7989,7 +7694,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G27">
+  <conditionalFormatting sqref="G22:G24">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -8003,7 +7708,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G32">
+  <conditionalFormatting sqref="G26:G29">
     <cfRule type="dataBar" priority="433">
       <dataBar>
         <cfvo type="min"/>
@@ -8017,7 +7722,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G37">
+  <conditionalFormatting sqref="G30:G34">
     <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
@@ -8031,7 +7736,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G45 G39">
+  <conditionalFormatting sqref="G38:G42 G36">
     <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="min"/>
@@ -8045,7 +7750,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
+  <conditionalFormatting sqref="G44">
     <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="min"/>
@@ -8059,7 +7764,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
+  <conditionalFormatting sqref="G45">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -8073,7 +7778,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
+  <conditionalFormatting sqref="G65">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8087,7 +7792,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
+  <conditionalFormatting sqref="G66">
     <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
@@ -8101,7 +7806,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H27">
+  <conditionalFormatting sqref="H21:H24">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -8115,7 +7820,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H31">
+  <conditionalFormatting sqref="H26:H28">
     <cfRule type="dataBar" priority="494">
       <dataBar>
         <cfvo type="min"/>
@@ -8129,7 +7834,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H34">
+  <conditionalFormatting sqref="H30:H31">
     <cfRule type="dataBar" priority="495">
       <dataBar>
         <cfvo type="min"/>
@@ -8143,7 +7848,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H45 H39 J41 J39">
+  <conditionalFormatting sqref="H38:H42 H36 J38 J36">
     <cfRule type="dataBar" priority="496">
       <dataBar>
         <cfvo type="min"/>
@@ -8157,7 +7862,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H44">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -8171,7 +7876,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H66">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -8185,7 +7890,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:J32">
+  <conditionalFormatting sqref="H29:J29">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -8199,7 +7904,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:J37">
+  <conditionalFormatting sqref="H32:J34">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -8213,7 +7918,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:K23 I24:K24 J25:K27">
+  <conditionalFormatting sqref="H20:K20 I21:K21 J22:K24">
     <cfRule type="dataBar" priority="523">
       <dataBar>
         <cfvo type="min"/>
@@ -8227,7 +7932,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68:K68">
+  <conditionalFormatting sqref="H65:K65">
     <cfRule type="dataBar" priority="488">
       <dataBar>
         <cfvo type="min"/>
@@ -8241,7 +7946,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:AH18 AI17">
+  <conditionalFormatting sqref="H6:AH15 AI14">
     <cfRule type="dataBar" priority="490">
       <dataBar>
         <cfvo type="min"/>
@@ -8255,7 +7960,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:AH48">
+  <conditionalFormatting sqref="H45:AH45">
     <cfRule type="dataBar" priority="501">
       <dataBar>
         <cfvo type="min"/>
@@ -8269,7 +7974,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I27">
+  <conditionalFormatting sqref="I22:I24">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -8283,7 +7988,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I31">
+  <conditionalFormatting sqref="I26:I28">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -8297,7 +8002,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I34">
+  <conditionalFormatting sqref="I30:I31">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
@@ -8311,7 +8016,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I37">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
@@ -8325,7 +8030,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I45 I39">
+  <conditionalFormatting sqref="I38:I42 I36">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
@@ -8339,7 +8044,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:K69">
+  <conditionalFormatting sqref="I66:K66">
     <cfRule type="dataBar" priority="502">
       <dataBar>
         <cfvo type="min"/>
@@ -8353,7 +8058,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:AH47">
+  <conditionalFormatting sqref="I44:AH44">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -8367,7 +8072,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:J45 K43:K45">
+  <conditionalFormatting sqref="J39:J42 K40:K42">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
@@ -8381,7 +8086,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:K31">
+  <conditionalFormatting sqref="J26:K28">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
@@ -8395,7 +8100,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:K34">
+  <conditionalFormatting sqref="J30:K31">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
@@ -8409,7 +8114,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66:K66 J50">
+  <conditionalFormatting sqref="J63:K63 J47">
     <cfRule type="dataBar" priority="498">
       <dataBar>
         <cfvo type="min"/>
@@ -8423,7 +8128,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53:AH62 J51:J52">
+  <conditionalFormatting sqref="J50:AH59 J48:J49">
     <cfRule type="dataBar" priority="562">
       <dataBar>
         <cfvo type="min"/>
@@ -8437,7 +8142,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:AH35 K32:AH32 L29:AH31 L33:AH34">
+  <conditionalFormatting sqref="K32:AH32 K29:AH29 L26:AH28 L30:AH31">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -8451,7 +8156,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:AH37">
+  <conditionalFormatting sqref="K33:AH34">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -8465,7 +8170,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:AH52">
+  <conditionalFormatting sqref="K47:AH49">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -8479,7 +8184,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23:AH27">
+  <conditionalFormatting sqref="L20:AH24">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -8493,7 +8198,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L66:AH66">
+  <conditionalFormatting sqref="L63:AH63">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -8507,7 +8212,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L68:AH69">
+  <conditionalFormatting sqref="L65:AH66">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -8521,7 +8226,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P39:AH45 K39:O39 L43:O45 K41:O42 L40:O40">
+  <conditionalFormatting sqref="P36:AH42 K36:O36 L40:O42 K38:O39 L37:O37">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
@@ -8531,6 +8236,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{6C5573C3-41FA-4990-9C24-439EC153DA6C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:AH15">
+    <cfRule type="dataBar" priority="651">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE0275C9-A13C-4221-B9B7-203BFE7719CD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8549,7 +8268,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F23</xm:sqref>
+          <xm:sqref>F20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C9B1CBA6-8E8F-409E-969D-8814DC7288E9}">
@@ -8560,7 +8279,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F24</xm:sqref>
+          <xm:sqref>F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2C9CC8EE-9F85-4D1B-A9FD-8B4A25562878}">
@@ -8571,7 +8290,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F25</xm:sqref>
+          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CDD693AD-B56D-4CB1-9D65-1694161B4B41}">
@@ -8582,7 +8301,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F26</xm:sqref>
+          <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C8DCD6B3-DF0C-45B8-A4AF-072C80C9651E}">
@@ -8593,7 +8312,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F27</xm:sqref>
+          <xm:sqref>F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9C91B573-7EDD-48F1-AAE4-F942D0F94FED}">
@@ -8604,7 +8323,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F29:F32</xm:sqref>
+          <xm:sqref>F26:F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D602E0EC-8368-4F0B-8C33-192409A1D82C}">
@@ -8615,7 +8334,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F33:F37</xm:sqref>
+          <xm:sqref>F30:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF147DFE-A319-4694-82C7-891FF6043D5B}">
@@ -8626,7 +8345,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F41:F45 F39 F40:H40 J40:K40</xm:sqref>
+          <xm:sqref>F38:F42 F36 F37:H37 J37:K37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A642850-F1AC-4A64-AB4F-37A40B9CA441}">
@@ -8637,7 +8356,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F48</xm:sqref>
+          <xm:sqref>F45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2AA71A7D-0A87-47E9-8455-1690A5BCBEDB}">
@@ -8648,7 +8367,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F68:F69</xm:sqref>
+          <xm:sqref>F65:F66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6DB883C9-1F88-4735-AB90-2C226539E60C}">
@@ -8659,7 +8378,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F50:I62</xm:sqref>
+          <xm:sqref>F47:I59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
@@ -8670,7 +8389,480 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F66:I66 F47</xm:sqref>
+          <xm:sqref>F63:I63 F44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0E20ECF-5663-478F-8E9F-449195CDAA9F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F17:AH18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F61:AH61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{57A8B765-FFA7-434C-9523-5857F06016E6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D4E863B-7ADB-4930-88E8-B15E0F7C56D2}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6B382747-E3CF-4F61-B632-A61A74466B47}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G22:G24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{85109038-BFED-4A1D-9EFD-DFC02076C006}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G26:G29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{18AF2DD8-6640-4119-B4E6-8CC0AB6FEEE7}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30:G34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8221E45B-E79D-49CA-8786-7BDF441C575C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G38:G42 G36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2D753DFF-0685-48F3-BDEF-449EB335D13E}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E848E527-F886-47F9-86FC-B4D9ACBF8A73}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3AE68020-C365-4ABF-939B-EF0068109146}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H21:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{39544BDF-3167-4345-B25E-E17EB47629D9}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H26:H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H30:H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38:H42 H36 J38 J36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{106CA0D7-EA4D-4861-A022-D36678D0799F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE68A3AD-D55D-4311-89F9-78D10FCA9D91}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1303D586-8258-463C-8ABD-037215FABF40}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H29:J29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32:J34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H20:K20 I21:K21 J22:K24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H65:K65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6:AH15 AI14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H45:AH45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A303F07-6070-4189-AC1D-80357A0D5D47}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I22:I24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0CAB636-D7F6-4060-9565-33FF484985B4}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I26:I28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EFF78A47-4D23-462B-A616-BA7687DFFB29}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I30:I31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1C71E1E0-EA29-4171-9159-938FC2CFE6CA}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1EB49D24-1482-4398-B2F7-B67E515088AC}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I38:I42 I36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I66:K66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I44:AH44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J39:J42 K40:K42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J26:K28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{35DDF99D-E2AE-4FE5-A4EB-AC6AFA3114E3}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J30:K31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J63:K63 J47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J50:AH59 J48:J49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K32:AH32 K29:AH29 L26:AH28 L30:AH31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79A6E942-BB28-4C5C-B051-63D2113FB72F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K33:AH34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{018A2B3E-2548-4772-A2CF-BD33006C0FDF}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K47:AH49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4C3D459D-49E3-462A-B846-0FE83B131D15}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L20:AH24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CBE33775-0E9E-48FA-B07E-81B3AA0F642B}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L63:AH63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B769FDA4-52DD-48E5-B5B4-67E966D84479}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L65:AH66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P36:AH42 K36:O36 L40:O42 K38:O39 L37:O37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
@@ -8681,480 +8873,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:AH18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0E20ECF-5663-478F-8E9F-449195CDAA9F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F20:AH21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F64:AH64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{57A8B765-FFA7-434C-9523-5857F06016E6}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9D4E863B-7ADB-4930-88E8-B15E0F7C56D2}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6B382747-E3CF-4F61-B632-A61A74466B47}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G25:G27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85109038-BFED-4A1D-9EFD-DFC02076C006}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G29:G32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18AF2DD8-6640-4119-B4E6-8CC0AB6FEEE7}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G33:G37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8221E45B-E79D-49CA-8786-7BDF441C575C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G41:G45 G39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2D753DFF-0685-48F3-BDEF-449EB335D13E}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{67C609FC-9661-4FF7-B05E-10F5DFEC8A7F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E848E527-F886-47F9-86FC-B4D9ACBF8A73}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G68</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3AE68020-C365-4ABF-939B-EF0068109146}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H24:H27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39544BDF-3167-4345-B25E-E17EB47629D9}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H29:H31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2663A2F3-F74A-4431-B6F9-4AA4DE126F3D}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H33:H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4163A7B0-17F4-4F65-B4D3-153EDA2700EF}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H41:H45 H39 J41 J39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{106CA0D7-EA4D-4861-A022-D36678D0799F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DE68A3AD-D55D-4311-89F9-78D10FCA9D91}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1303D586-8258-463C-8ABD-037215FABF40}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H32:J32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1BF5EDA2-883B-4EB5-9A63-EB150A9B62D8}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H35:J37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC8BD317-D95F-47F1-8E21-91FAFBDEF1BA}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H23:K23 I24:K24 J25:K27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CEE6841-AF6F-4430-AD73-2BF608979F81}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H68:K68</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H6:AH18 AI17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H48:AH48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1A303F07-6070-4189-AC1D-80357A0D5D47}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I25:I27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0CAB636-D7F6-4060-9565-33FF484985B4}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I29:I31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EFF78A47-4D23-462B-A616-BA7687DFFB29}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I33:I34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1C71E1E0-EA29-4171-9159-938FC2CFE6CA}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1EB49D24-1482-4398-B2F7-B67E515088AC}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I41:I45 I39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E177B73-5E16-40E4-A603-861BA18F14AA}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I69:K69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I47:AH47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J42:J45 K43:K45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J29:K31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{35DDF99D-E2AE-4FE5-A4EB-AC6AFA3114E3}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J33:K34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{987E1E1A-1015-49CC-BBA5-E4DEC167A76E}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J66:K66 J50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J53:AH62 J51:J52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K35:AH35 K32:AH32 L29:AH31 L33:AH34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79A6E942-BB28-4C5C-B051-63D2113FB72F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K36:AH37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{018A2B3E-2548-4772-A2CF-BD33006C0FDF}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K50:AH52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C3D459D-49E3-462A-B846-0FE83B131D15}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L23:AH27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CBE33775-0E9E-48FA-B07E-81B3AA0F642B}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L66:AH66</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B769FDA4-52DD-48E5-B5B4-67E966D84479}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L68:AH69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P39:AH45 K39:O39 L43:O45 K41:O42 L40:O40</xm:sqref>
+          <xm:sqref>F6:AH15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217544F7-3410-4EAF-8246-C3C26804E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4670D10-A393-49D0-9102-B6D0771A45D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -303,6 +303,10 @@
     <t>코스 조회</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>코스 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -467,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,9 +505,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,24 +532,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -556,16 +539,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -609,6 +582,16 @@
     <dxf>
       <font>
         <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -911,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AI69"/>
+  <dimension ref="B2:AH70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -927,13 +910,14 @@
     <col min="6" max="6" width="9.875" style="8" hidden="1" customWidth="1"/>
     <col min="7" max="14" width="10.625" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11.625" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="11.375" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="4"/>
+    <col min="16" max="16" width="11.5" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.375" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35">
+    <row r="2" spans="2:34">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45688</v>
@@ -1023,12 +1007,12 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="3" spans="2:35">
+    <row r="3" spans="2:34">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:AH3" si="0">AVERAGE(F16,F19,F25,F35,F43,F46,F60,F62,F64,F67)</f>
+        <f t="shared" ref="F3:AH3" si="0">AVERAGE(F16,F19,F25,F35,F43,F46,F61,F63,F65,F68)</f>
         <v>0.06</v>
       </c>
       <c r="G3" s="6">
@@ -1069,31 +1053,31 @@
       </c>
       <c r="P3" s="6">
         <f t="shared" si="0"/>
-        <v>0.80384615384615399</v>
+        <v>0.79928571428571427</v>
       </c>
       <c r="Q3" s="6">
         <f t="shared" si="0"/>
-        <v>0.84792307692307689</v>
+        <v>0.84171428571428564</v>
       </c>
       <c r="R3" s="6">
         <f t="shared" si="0"/>
-        <v>0.95146153846153858</v>
+        <v>0.94585714285714284</v>
       </c>
       <c r="S3" s="6">
         <f t="shared" si="0"/>
-        <v>0.97399999999999987</v>
+        <v>0.96828571428571419</v>
       </c>
       <c r="T3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.97857142857142843</v>
       </c>
       <c r="U3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99285714285714288</v>
       </c>
       <c r="V3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="6">
         <f t="shared" si="0"/>
@@ -1144,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:34" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1241,11 +1225,11 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="6" spans="2:35">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="2:34">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1295,13 +1279,13 @@
         <v>1</v>
       </c>
       <c r="T6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="9">
         <v>0</v>
@@ -1340,9 +1324,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:35">
-      <c r="B7" s="18"/>
-      <c r="C7" s="22"/>
+    <row r="7" spans="2:34">
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
         <v>41</v>
       </c>
@@ -1390,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="T7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="9">
         <v>0</v>
@@ -1435,9 +1419,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:35">
-      <c r="B8" s="18"/>
-      <c r="C8" s="22"/>
+    <row r="8" spans="2:34">
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1485,13 +1469,13 @@
         <v>1</v>
       </c>
       <c r="T8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="9">
         <v>0</v>
@@ -1530,9 +1514,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:35">
-      <c r="B9" s="18"/>
-      <c r="C9" s="22"/>
+    <row r="9" spans="2:34">
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
         <v>61</v>
       </c>
@@ -1580,13 +1564,13 @@
         <v>1</v>
       </c>
       <c r="T9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="9">
         <v>0</v>
@@ -1625,9 +1609,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:35">
-      <c r="B10" s="18"/>
-      <c r="C10" s="22"/>
+    <row r="10" spans="2:34">
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1675,13 +1659,13 @@
         <v>1</v>
       </c>
       <c r="T10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="9">
         <v>0</v>
@@ -1720,9 +1704,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:35">
-      <c r="B11" s="18"/>
-      <c r="C11" s="22"/>
+    <row r="11" spans="2:34">
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1770,13 +1754,13 @@
         <v>1</v>
       </c>
       <c r="T11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="9">
         <v>0</v>
@@ -1815,9 +1799,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:35">
-      <c r="B12" s="18"/>
-      <c r="C12" s="22"/>
+    <row r="12" spans="2:34">
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1865,13 +1849,13 @@
         <v>0.4</v>
       </c>
       <c r="T12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="9">
         <v>0</v>
@@ -1910,9 +1894,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:35">
-      <c r="B13" s="18"/>
-      <c r="C13" s="22"/>
+    <row r="13" spans="2:34">
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1960,13 +1944,13 @@
         <v>1</v>
       </c>
       <c r="T13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="9">
         <v>0</v>
@@ -2005,9 +1989,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:35">
-      <c r="B14" s="18"/>
-      <c r="C14" s="22"/>
+    <row r="14" spans="2:34">
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
@@ -2055,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="T14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="9">
         <v>0</v>
@@ -2099,11 +2083,10 @@
       <c r="AH14" s="9">
         <v>0</v>
       </c>
-      <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="2:35">
-      <c r="B15" s="18"/>
-      <c r="C15" s="22"/>
+    <row r="15" spans="2:34">
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="7" t="s">
         <v>65</v>
       </c>
@@ -2151,13 +2134,13 @@
         <v>1</v>
       </c>
       <c r="T15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="9">
         <v>0</v>
@@ -2196,131 +2179,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:35" ht="16.149999999999999" customHeight="1">
-      <c r="B16" s="18"/>
-      <c r="C16" s="23"/>
+    <row r="16" spans="2:34" ht="16.149999999999999" customHeight="1">
+      <c r="B16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6">
-        <f>AVERAGE(F6:F15)</f>
+        <f t="shared" ref="F16:AH16" si="1">AVERAGE(F6:F15)</f>
         <v>0</v>
       </c>
       <c r="G16" s="6">
-        <f>AVERAGE(G6:G15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="6">
-        <f>AVERAGE(H6:H15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="6">
-        <f>AVERAGE(I6:I15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="6">
-        <f>AVERAGE(J6:J15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="6">
-        <f>AVERAGE(K6:K15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L16" s="6">
-        <f>AVERAGE(L6:L15)</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="M16" s="6">
-        <f>AVERAGE(M6:M15)</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="N16" s="6">
-        <f>AVERAGE(N6:N15)</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="O16" s="6">
-        <f>AVERAGE(O6:O15)</f>
+        <f t="shared" si="1"/>
         <v>0.27999999999999997</v>
       </c>
       <c r="P16" s="6">
-        <f>AVERAGE(P6:P15)</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="Q16" s="6">
-        <f>AVERAGE(Q6:Q15)</f>
+        <f t="shared" si="1"/>
         <v>0.61</v>
       </c>
       <c r="R16" s="6">
-        <f>AVERAGE(R6:R15)</f>
+        <f t="shared" si="1"/>
         <v>0.73</v>
       </c>
       <c r="S16" s="6">
-        <f>AVERAGE(S6:S15)</f>
+        <f t="shared" si="1"/>
         <v>0.94000000000000006</v>
       </c>
       <c r="T16" s="6">
-        <f>AVERAGE(T6:T15)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="U16" s="6">
-        <f>AVERAGE(U6:U15)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V16" s="6">
-        <f>AVERAGE(V6:V15)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="W16" s="6">
-        <f>AVERAGE(W6:W15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X16" s="6">
-        <f>AVERAGE(X6:X15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y16" s="6">
-        <f>AVERAGE(Y6:Y15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z16" s="6">
-        <f>AVERAGE(Z6:Z15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA16" s="6">
-        <f>AVERAGE(AA6:AA15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB16" s="6">
-        <f>AVERAGE(AB6:AB15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC16" s="6">
-        <f>AVERAGE(AC6:AC15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD16" s="6">
-        <f>AVERAGE(AD6:AD15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE16" s="6">
-        <f>AVERAGE(AE6:AE15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF16" s="6">
-        <f>AVERAGE(AF6:AF15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG16" s="6">
-        <f>AVERAGE(AG6:AG15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH16" s="6">
-        <f>AVERAGE(AH6:AH15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:34">
-      <c r="B17" s="18"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -2370,13 +2353,13 @@
         <v>1</v>
       </c>
       <c r="T17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="9">
         <v>0</v>
@@ -2416,8 +2399,8 @@
       </c>
     </row>
     <row r="18" spans="2:34">
-      <c r="B18" s="18"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="7" t="s">
         <v>59</v>
       </c>
@@ -2465,13 +2448,13 @@
         <v>1</v>
       </c>
       <c r="T18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="9">
         <v>0</v>
@@ -2511,40 +2494,40 @@
       </c>
     </row>
     <row r="19" spans="2:34">
-      <c r="B19" s="18"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:AH19" si="1">AVERAGE(F17:F18)</f>
+        <f t="shared" ref="F19:AH19" si="2">AVERAGE(F17:F18)</f>
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N19" s="6">
@@ -2552,11 +2535,11 @@
         <v>1</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q19" s="6">
@@ -2564,77 +2547,77 @@
         <v>1</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:34">
-      <c r="B20" s="18"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -2684,13 +2667,13 @@
         <v>1</v>
       </c>
       <c r="T20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="9">
         <v>0</v>
@@ -2730,8 +2713,8 @@
       </c>
     </row>
     <row r="21" spans="2:34">
-      <c r="B21" s="18"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
@@ -2779,13 +2762,13 @@
         <v>1</v>
       </c>
       <c r="T21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="9">
         <v>0</v>
@@ -2825,8 +2808,8 @@
       </c>
     </row>
     <row r="22" spans="2:34">
-      <c r="B22" s="18"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="7" t="s">
         <v>57</v>
       </c>
@@ -2874,13 +2857,13 @@
         <v>1</v>
       </c>
       <c r="T22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="9">
         <v>0</v>
@@ -2920,8 +2903,8 @@
       </c>
     </row>
     <row r="23" spans="2:34">
-      <c r="B23" s="18"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="7" t="s">
         <v>58</v>
       </c>
@@ -2969,13 +2952,13 @@
         <v>1</v>
       </c>
       <c r="T23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="9">
         <v>0</v>
@@ -3015,8 +2998,8 @@
       </c>
     </row>
     <row r="24" spans="2:34">
-      <c r="B24" s="18"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="7" t="s">
         <v>13</v>
       </c>
@@ -3064,13 +3047,13 @@
         <v>1</v>
       </c>
       <c r="T24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="9">
         <v>0</v>
@@ -3110,40 +3093,40 @@
       </c>
     </row>
     <row r="25" spans="2:34">
-      <c r="B25" s="19"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:AH25" si="2">AVERAGE(F20:F24)</f>
+        <f t="shared" ref="F25:AH25" si="3">AVERAGE(F20:F24)</f>
         <v>0.1</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27999999999999997</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N25" s="6">
@@ -3151,11 +3134,11 @@
         <v>1</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q25" s="6">
@@ -3163,79 +3146,79 @@
         <v>1</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="V25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:34">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -3285,13 +3268,13 @@
         <v>1</v>
       </c>
       <c r="T26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="9">
         <v>0</v>
@@ -3331,8 +3314,8 @@
       </c>
     </row>
     <row r="27" spans="2:34">
-      <c r="B27" s="18"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="7" t="s">
         <v>43</v>
       </c>
@@ -3380,13 +3363,13 @@
         <v>1</v>
       </c>
       <c r="T27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="9">
         <v>0</v>
@@ -3426,8 +3409,8 @@
       </c>
     </row>
     <row r="28" spans="2:34">
-      <c r="B28" s="18"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="7" t="s">
         <v>48</v>
       </c>
@@ -3475,13 +3458,13 @@
         <v>1</v>
       </c>
       <c r="T28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="9">
         <v>0</v>
@@ -3521,8 +3504,8 @@
       </c>
     </row>
     <row r="29" spans="2:34">
-      <c r="B29" s="18"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="7" t="s">
         <v>44</v>
       </c>
@@ -3570,13 +3553,13 @@
         <v>1</v>
       </c>
       <c r="T29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="9">
         <v>0</v>
@@ -3616,8 +3599,8 @@
       </c>
     </row>
     <row r="30" spans="2:34">
-      <c r="B30" s="18"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="10" t="s">
         <v>45</v>
       </c>
@@ -3665,13 +3648,13 @@
         <v>1</v>
       </c>
       <c r="T30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="9">
         <v>0</v>
@@ -3711,8 +3694,8 @@
       </c>
     </row>
     <row r="31" spans="2:34">
-      <c r="B31" s="18"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="10" t="s">
         <v>46</v>
       </c>
@@ -3760,13 +3743,13 @@
         <v>1</v>
       </c>
       <c r="T31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="9">
         <v>0</v>
@@ -3806,8 +3789,8 @@
       </c>
     </row>
     <row r="32" spans="2:34">
-      <c r="B32" s="18"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="10" t="s">
         <v>49</v>
       </c>
@@ -3855,13 +3838,13 @@
         <v>1</v>
       </c>
       <c r="T32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="9">
         <v>0</v>
@@ -3901,8 +3884,8 @@
       </c>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="18"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="10" t="s">
         <v>50</v>
       </c>
@@ -3950,13 +3933,13 @@
         <v>1</v>
       </c>
       <c r="T33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="9">
         <v>0</v>
@@ -3996,8 +3979,8 @@
       </c>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="18"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="10" t="s">
         <v>63</v>
       </c>
@@ -4029,13 +4012,13 @@
         <v>1</v>
       </c>
       <c r="T34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="9">
         <v>0</v>
@@ -4075,40 +4058,40 @@
       </c>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="18"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6">
-        <f t="shared" ref="F35:M35" si="3">AVERAGE(F26:F33)</f>
+        <f t="shared" ref="F35:M35" si="4">AVERAGE(F26:F33)</f>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="N35" s="6">
@@ -4116,11 +4099,11 @@
         <v>0.54444444444444451</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" ref="O35:AH35" si="4">AVERAGE(O26:O34)</f>
+        <f t="shared" ref="O35:AH35" si="5">AVERAGE(O26:O34)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q35" s="6">
@@ -4128,77 +4111,77 @@
         <v>1</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="18"/>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -4248,13 +4231,13 @@
         <v>1</v>
       </c>
       <c r="T36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="9">
         <v>0</v>
@@ -4294,8 +4277,8 @@
       </c>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="18"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="7" t="s">
         <v>54</v>
       </c>
@@ -4343,13 +4326,13 @@
         <v>1</v>
       </c>
       <c r="T37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="9">
         <v>0</v>
@@ -4389,8 +4372,8 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="18"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="7" t="s">
         <v>53</v>
       </c>
@@ -4438,13 +4421,13 @@
         <v>1</v>
       </c>
       <c r="T38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="9">
         <v>0</v>
@@ -4484,8 +4467,8 @@
       </c>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="18"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="7" t="s">
         <v>42</v>
       </c>
@@ -4533,13 +4516,13 @@
         <v>1</v>
       </c>
       <c r="T39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="9">
         <v>0</v>
@@ -4579,8 +4562,8 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="18"/>
-      <c r="C40" s="13"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="10" t="s">
         <v>52</v>
       </c>
@@ -4628,13 +4611,13 @@
         <v>1</v>
       </c>
       <c r="T40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="9">
         <v>0</v>
@@ -4674,8 +4657,8 @@
       </c>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="18"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="10" t="s">
         <v>51</v>
       </c>
@@ -4723,13 +4706,13 @@
         <v>1</v>
       </c>
       <c r="T41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="9">
         <v>0</v>
@@ -4769,8 +4752,8 @@
       </c>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="18"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="7" t="s">
         <v>10</v>
       </c>
@@ -4818,13 +4801,13 @@
         <v>1</v>
       </c>
       <c r="T42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" s="9">
         <v>0</v>
@@ -4864,8 +4847,8 @@
       </c>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="18"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="6">
@@ -4873,31 +4856,31 @@
         <v>0</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" ref="G43:AH43" si="5">AVERAGE(G36:G42)</f>
+        <f t="shared" ref="G43:AH43" si="6">AVERAGE(G36:G42)</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84285714285714286</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91428571428571437</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98285714285714287</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.97142857142857153</v>
       </c>
       <c r="M43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.97142857142857153</v>
       </c>
       <c r="N43" s="6">
@@ -4905,11 +4888,11 @@
         <v>0.97142857142857153</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q43" s="6">
@@ -4917,77 +4900,77 @@
         <v>1</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="V43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="W43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:34">
-      <c r="B44" s="18"/>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -5037,13 +5020,13 @@
         <v>1</v>
       </c>
       <c r="T44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" s="9">
         <v>0</v>
@@ -5083,8 +5066,8 @@
       </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="B45" s="18"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="7" t="s">
         <v>64</v>
       </c>
@@ -5132,13 +5115,13 @@
         <v>1</v>
       </c>
       <c r="T45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="9">
         <v>0</v>
@@ -5178,8 +5161,8 @@
       </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="B46" s="19"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6">
@@ -5187,31 +5170,31 @@
         <v>0</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" ref="G46:AH46" si="6">AVERAGE(G44:G45)</f>
+        <f t="shared" ref="G46:AH46" si="7">AVERAGE(G44:G45)</f>
         <v>0</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N46" s="6">
@@ -5219,91 +5202,91 @@
         <v>0</v>
       </c>
       <c r="O46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T46" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="U46" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="V46" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="W46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -5353,13 +5336,13 @@
         <v>1</v>
       </c>
       <c r="T47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47" s="9">
         <v>0</v>
@@ -5399,8 +5382,8 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="18"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="7" t="s">
         <v>25</v>
       </c>
@@ -5448,13 +5431,13 @@
         <v>1</v>
       </c>
       <c r="T48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48" s="9">
         <v>0</v>
@@ -5494,8 +5477,8 @@
       </c>
     </row>
     <row r="49" spans="2:34">
-      <c r="B49" s="18"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="7" t="s">
         <v>26</v>
       </c>
@@ -5543,13 +5526,13 @@
         <v>1</v>
       </c>
       <c r="T49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="9">
         <v>0</v>
@@ -5589,8 +5572,8 @@
       </c>
     </row>
     <row r="50" spans="2:34">
-      <c r="B50" s="18"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="7" t="s">
         <v>27</v>
       </c>
@@ -5638,13 +5621,13 @@
         <v>1</v>
       </c>
       <c r="T50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="9">
         <v>0</v>
@@ -5684,8 +5667,8 @@
       </c>
     </row>
     <row r="51" spans="2:34">
-      <c r="B51" s="18"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="7" t="s">
         <v>15</v>
       </c>
@@ -5733,13 +5716,13 @@
         <v>1</v>
       </c>
       <c r="T51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="9">
         <v>0</v>
@@ -5779,8 +5762,8 @@
       </c>
     </row>
     <row r="52" spans="2:34">
-      <c r="B52" s="18"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
@@ -5828,13 +5811,13 @@
         <v>1</v>
       </c>
       <c r="T52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="9">
         <v>0</v>
@@ -5874,8 +5857,8 @@
       </c>
     </row>
     <row r="53" spans="2:34">
-      <c r="B53" s="18"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="7" t="s">
         <v>28</v>
       </c>
@@ -5923,13 +5906,13 @@
         <v>1</v>
       </c>
       <c r="T53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53" s="9">
         <v>0</v>
@@ -5969,8 +5952,8 @@
       </c>
     </row>
     <row r="54" spans="2:34">
-      <c r="B54" s="18"/>
-      <c r="C54" s="13"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="7" t="s">
         <v>29</v>
       </c>
@@ -6018,13 +6001,13 @@
         <v>1</v>
       </c>
       <c r="T54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" s="9">
         <v>0</v>
@@ -6064,42 +6047,22 @@
       </c>
     </row>
     <row r="55" spans="2:34">
-      <c r="B55" s="18"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E55" s="7"/>
-      <c r="F55" s="9">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0</v>
-      </c>
-      <c r="J55" s="9">
-        <v>0</v>
-      </c>
-      <c r="K55" s="9">
-        <v>0</v>
-      </c>
-      <c r="L55" s="9">
-        <v>0</v>
-      </c>
-      <c r="M55" s="9">
-        <v>0</v>
-      </c>
-      <c r="N55" s="9">
-        <v>0</v>
-      </c>
-      <c r="O55" s="9">
-        <v>0</v>
-      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
       <c r="P55" s="9">
         <v>0</v>
       </c>
@@ -6116,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="U55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55" s="9">
         <v>0</v>
@@ -6159,10 +6122,10 @@
       </c>
     </row>
     <row r="56" spans="2:34">
-      <c r="B56" s="18"/>
-      <c r="C56" s="13"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9">
@@ -6181,40 +6144,40 @@
         <v>0</v>
       </c>
       <c r="K56" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L56" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M56" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S56" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T56" s="9">
         <v>0</v>
       </c>
       <c r="U56" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56" s="9">
         <v>0</v>
@@ -6254,10 +6217,10 @@
       </c>
     </row>
     <row r="57" spans="2:34">
-      <c r="B57" s="18"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="9">
@@ -6276,40 +6239,40 @@
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L57" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M57" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="R57" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S57" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57" s="9">
         <v>0</v>
@@ -6349,10 +6312,10 @@
       </c>
     </row>
     <row r="58" spans="2:34">
-      <c r="B58" s="18"/>
-      <c r="C58" s="13"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="9">
@@ -6386,25 +6349,25 @@
         <v>0</v>
       </c>
       <c r="P58" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q58" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" s="9">
         <v>0</v>
       </c>
       <c r="U58" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V58" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" s="9">
         <v>0</v>
@@ -6444,10 +6407,10 @@
       </c>
     </row>
     <row r="59" spans="2:34">
-      <c r="B59" s="18"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="9">
@@ -6493,13 +6456,13 @@
         <v>1</v>
       </c>
       <c r="T59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W59" s="9">
         <v>0</v>
@@ -6539,686 +6502,686 @@
       </c>
     </row>
     <row r="60" spans="2:34">
-      <c r="B60" s="18"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="7"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E60" s="7"/>
-      <c r="F60" s="6">
-        <f t="shared" ref="F60:AH60" si="7">AVERAGE(F47:F59)</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="6">
-        <f t="shared" si="7"/>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0</v>
+      </c>
+      <c r="J60" s="9">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0</v>
+      </c>
+      <c r="L60" s="9">
+        <v>0</v>
+      </c>
+      <c r="M60" s="9">
+        <v>0</v>
+      </c>
+      <c r="N60" s="9">
+        <v>0</v>
+      </c>
+      <c r="O60" s="9">
+        <v>0</v>
+      </c>
+      <c r="P60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>1</v>
+      </c>
+      <c r="R60" s="9">
+        <v>1</v>
+      </c>
+      <c r="S60" s="9">
+        <v>1</v>
+      </c>
+      <c r="T60" s="9">
+        <v>1</v>
+      </c>
+      <c r="U60" s="9">
+        <v>1</v>
+      </c>
+      <c r="V60" s="9">
+        <v>1</v>
+      </c>
+      <c r="W60" s="9">
+        <v>0</v>
+      </c>
+      <c r="X60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:34">
+      <c r="B61" s="17"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6">
+        <f t="shared" ref="F61:AH61" si="8">AVERAGE(F47:F60)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <f t="shared" si="8"/>
         <v>3.4615384615384617E-2</v>
       </c>
-      <c r="K60" s="6">
-        <f t="shared" si="7"/>
+      <c r="K61" s="6">
+        <f t="shared" si="8"/>
         <v>0.13846153846153847</v>
       </c>
-      <c r="L60" s="6">
-        <f t="shared" si="7"/>
+      <c r="L61" s="6">
+        <f t="shared" si="8"/>
         <v>0.13846153846153847</v>
       </c>
-      <c r="M60" s="6">
-        <f t="shared" si="7"/>
+      <c r="M61" s="6">
+        <f t="shared" si="8"/>
         <v>0.15833333333333333</v>
       </c>
-      <c r="N60" s="6">
-        <f t="shared" si="7"/>
+      <c r="N61" s="6">
+        <f t="shared" si="8"/>
         <v>0.38461538461538464</v>
       </c>
-      <c r="O60" s="6">
-        <f t="shared" si="7"/>
+      <c r="O61" s="6">
+        <f t="shared" si="8"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="P60" s="6">
-        <f t="shared" si="7"/>
-        <v>0.63846153846153852</v>
-      </c>
-      <c r="Q60" s="6">
-        <f t="shared" si="7"/>
-        <v>0.86923076923076925</v>
-      </c>
-      <c r="R60" s="6">
-        <f t="shared" si="7"/>
-        <v>0.7846153846153846</v>
-      </c>
-      <c r="S60" s="6">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="T60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG60" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH60" s="6">
-        <f t="shared" si="7"/>
+      <c r="P61" s="6">
+        <f t="shared" si="8"/>
+        <v>0.59285714285714286</v>
+      </c>
+      <c r="Q61" s="6">
+        <f t="shared" si="8"/>
+        <v>0.80714285714285716</v>
+      </c>
+      <c r="R61" s="6">
+        <f t="shared" si="8"/>
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="S61" s="6">
+        <f t="shared" si="8"/>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="T61" s="6">
+        <f t="shared" si="8"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U61" s="6">
+        <f t="shared" si="8"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="V61" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH61" s="6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B61" s="18"/>
-      <c r="C61" s="15" t="s">
+    <row r="62" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B62" s="17"/>
+      <c r="C62" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0</v>
-      </c>
-      <c r="J61" s="9">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9">
-        <v>0</v>
-      </c>
-      <c r="L61" s="9">
-        <v>0</v>
-      </c>
-      <c r="M61" s="9">
-        <v>0</v>
-      </c>
-      <c r="N61" s="9">
-        <v>0</v>
-      </c>
-      <c r="O61" s="9">
-        <v>0</v>
-      </c>
-      <c r="P61" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="9">
-        <v>0</v>
-      </c>
-      <c r="R61" s="9">
-        <v>1</v>
-      </c>
-      <c r="S61" s="9">
-        <v>1</v>
-      </c>
-      <c r="T61" s="9">
-        <v>0</v>
-      </c>
-      <c r="U61" s="9">
-        <v>0</v>
-      </c>
-      <c r="V61" s="9">
-        <v>0</v>
-      </c>
-      <c r="W61" s="9">
-        <v>0</v>
-      </c>
-      <c r="X61" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:34">
-      <c r="B62" s="18"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="6">
-        <f>AVERAGE(F61)</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="6">
-        <f t="shared" ref="G62:AH62" si="8">AVERAGE(G61)</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="6">
-        <f>AVERAGE(N61)</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="6">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S62" s="6">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG62" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH62" s="6">
-        <f t="shared" si="8"/>
+      <c r="F62" s="9">
+        <v>0</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9">
+        <v>0</v>
+      </c>
+      <c r="J62" s="9">
+        <v>0</v>
+      </c>
+      <c r="K62" s="9">
+        <v>0</v>
+      </c>
+      <c r="L62" s="9">
+        <v>0</v>
+      </c>
+      <c r="M62" s="9">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9">
+        <v>0</v>
+      </c>
+      <c r="O62" s="9">
+        <v>0</v>
+      </c>
+      <c r="P62" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>0</v>
+      </c>
+      <c r="R62" s="9">
+        <v>1</v>
+      </c>
+      <c r="S62" s="9">
+        <v>1</v>
+      </c>
+      <c r="T62" s="9">
+        <v>1</v>
+      </c>
+      <c r="U62" s="9">
+        <v>1</v>
+      </c>
+      <c r="V62" s="9">
+        <v>1</v>
+      </c>
+      <c r="W62" s="9">
+        <v>0</v>
+      </c>
+      <c r="X62" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:34">
-      <c r="B63" s="18"/>
-      <c r="C63" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H63" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J63" s="9">
-        <v>1</v>
-      </c>
-      <c r="K63" s="9">
-        <v>1</v>
-      </c>
-      <c r="L63" s="9">
-        <v>1</v>
-      </c>
-      <c r="M63" s="9">
-        <v>1</v>
-      </c>
-      <c r="N63" s="9">
-        <v>1</v>
-      </c>
-      <c r="O63" s="9">
-        <v>1</v>
-      </c>
-      <c r="P63" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="9">
-        <v>1</v>
-      </c>
-      <c r="R63" s="9">
-        <v>1</v>
-      </c>
-      <c r="S63" s="9">
-        <v>1</v>
-      </c>
-      <c r="T63" s="9">
-        <v>0</v>
-      </c>
-      <c r="U63" s="9">
-        <v>0</v>
-      </c>
-      <c r="V63" s="9">
-        <v>0</v>
-      </c>
-      <c r="W63" s="9">
-        <v>0</v>
-      </c>
-      <c r="X63" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="9">
+      <c r="F63" s="6">
+        <f>AVERAGE(F62)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" ref="G63:AH63" si="9">AVERAGE(G62)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="6">
+        <f>AVERAGE(N62)</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S63" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T63" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U63" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V63" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH63" s="6">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:34">
-      <c r="B64" s="18"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="7"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E64" s="7"/>
-      <c r="F64" s="6">
-        <f>AVERAGE(F63)</f>
+      <c r="F64" s="9">
         <v>0.5</v>
       </c>
-      <c r="G64" s="6">
-        <f t="shared" ref="G64:R64" si="9">AVERAGE(G63)</f>
+      <c r="G64" s="9">
         <v>0.5</v>
       </c>
-      <c r="H64" s="6">
-        <f t="shared" si="9"/>
+      <c r="H64" s="9">
         <v>0.5</v>
       </c>
-      <c r="I64" s="6">
-        <f t="shared" si="9"/>
+      <c r="I64" s="9">
         <v>0.5</v>
       </c>
-      <c r="J64" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K64" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L64" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M64" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N64" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O64" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P64" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q64" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="R64" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S64" s="6">
-        <f t="shared" ref="S64:AH64" si="10">AVERAGE(S63)</f>
-        <v>1</v>
-      </c>
-      <c r="T64" s="6">
+      <c r="J64" s="9">
+        <v>1</v>
+      </c>
+      <c r="K64" s="9">
+        <v>1</v>
+      </c>
+      <c r="L64" s="9">
+        <v>1</v>
+      </c>
+      <c r="M64" s="9">
+        <v>1</v>
+      </c>
+      <c r="N64" s="9">
+        <v>1</v>
+      </c>
+      <c r="O64" s="9">
+        <v>1</v>
+      </c>
+      <c r="P64" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>1</v>
+      </c>
+      <c r="R64" s="9">
+        <v>1</v>
+      </c>
+      <c r="S64" s="9">
+        <v>1</v>
+      </c>
+      <c r="T64" s="9">
+        <v>1</v>
+      </c>
+      <c r="U64" s="9">
+        <v>1</v>
+      </c>
+      <c r="V64" s="9">
+        <v>1</v>
+      </c>
+      <c r="W64" s="9">
+        <v>0</v>
+      </c>
+      <c r="X64" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34">
+      <c r="B65" s="17"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6">
+        <f>AVERAGE(F64)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" ref="G65:R65" si="10">AVERAGE(G64)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V64" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X64" s="6">
+        <v>1</v>
+      </c>
+      <c r="L65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y64" s="6">
+        <v>1</v>
+      </c>
+      <c r="M65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z64" s="6">
+        <v>1</v>
+      </c>
+      <c r="N65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA64" s="6">
+        <v>1</v>
+      </c>
+      <c r="O65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB64" s="6">
+        <v>1</v>
+      </c>
+      <c r="P65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC64" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD64" s="6">
+        <v>1</v>
+      </c>
+      <c r="R65" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE64" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF64" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AG64" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH64" s="6">
-        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S65" s="6">
+        <f t="shared" ref="S65:AH65" si="11">AVERAGE(S64)</f>
+        <v>1</v>
+      </c>
+      <c r="T65" s="6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U65" s="6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="V65" s="6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH65" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B65" s="18"/>
-      <c r="C65" s="12" t="s">
+    <row r="66" spans="2:34" ht="16.5" customHeight="1">
+      <c r="B66" s="17"/>
+      <c r="C66" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="I65" s="9">
-        <v>1</v>
-      </c>
-      <c r="J65" s="9">
-        <v>1</v>
-      </c>
-      <c r="K65" s="9">
-        <v>1</v>
-      </c>
-      <c r="L65" s="9">
-        <v>1</v>
-      </c>
-      <c r="M65" s="9">
-        <v>1</v>
-      </c>
-      <c r="N65" s="9">
-        <v>1</v>
-      </c>
-      <c r="O65" s="9">
-        <v>1</v>
-      </c>
-      <c r="P65" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="9">
-        <v>1</v>
-      </c>
-      <c r="R65" s="9">
-        <v>1</v>
-      </c>
-      <c r="S65" s="9">
-        <v>1</v>
-      </c>
-      <c r="T65" s="9">
-        <v>0</v>
-      </c>
-      <c r="U65" s="9">
-        <v>0</v>
-      </c>
-      <c r="V65" s="9">
-        <v>0</v>
-      </c>
-      <c r="W65" s="9">
-        <v>0</v>
-      </c>
-      <c r="X65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:34">
-      <c r="B66" s="18"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="9">
         <v>0</v>
       </c>
       <c r="G66" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H66" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I66" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J66" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K66" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L66" s="9">
         <v>1</v>
@@ -7245,13 +7208,13 @@
         <v>1</v>
       </c>
       <c r="T66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="9">
         <v>0</v>
@@ -7291,177 +7254,274 @@
       </c>
     </row>
     <row r="67" spans="2:34">
-      <c r="B67" s="19"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="7"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="6">
-        <f>AVERAGE(F65:F66)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="6">
-        <f t="shared" ref="G67:R67" si="11">AVERAGE(G65:G66)</f>
-        <v>0.25</v>
-      </c>
-      <c r="H67" s="6">
-        <f t="shared" si="11"/>
-        <v>0.375</v>
-      </c>
-      <c r="I67" s="6">
-        <f t="shared" si="11"/>
-        <v>0.95</v>
-      </c>
-      <c r="J67" s="6">
-        <f t="shared" si="11"/>
-        <v>0.95</v>
-      </c>
-      <c r="K67" s="6">
-        <f t="shared" si="11"/>
-        <v>0.95</v>
-      </c>
-      <c r="L67" s="6">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M67" s="6">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N67" s="6">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="O67" s="6">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="P67" s="6">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Q67" s="6">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="R67" s="6">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="S67" s="6">
-        <f t="shared" ref="S67:AH67" si="12">AVERAGE(S65:S66)</f>
-        <v>1</v>
-      </c>
-      <c r="T67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH67" s="6">
-        <f t="shared" si="12"/>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="L67" s="9">
+        <v>1</v>
+      </c>
+      <c r="M67" s="9">
+        <v>1</v>
+      </c>
+      <c r="N67" s="9">
+        <v>1</v>
+      </c>
+      <c r="O67" s="9">
+        <v>1</v>
+      </c>
+      <c r="P67" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="9">
+        <v>1</v>
+      </c>
+      <c r="R67" s="9">
+        <v>1</v>
+      </c>
+      <c r="S67" s="9">
+        <v>1</v>
+      </c>
+      <c r="T67" s="9">
+        <v>1</v>
+      </c>
+      <c r="U67" s="9">
+        <v>1</v>
+      </c>
+      <c r="V67" s="9">
+        <v>1</v>
+      </c>
+      <c r="W67" s="9">
+        <v>0</v>
+      </c>
+      <c r="X67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:34">
-      <c r="E68" s="8"/>
-      <c r="F68" s="4"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6">
+        <f>AVERAGE(F66:F67)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" ref="G68:R68" si="12">AVERAGE(G66:G67)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H68" s="6">
+        <f t="shared" si="12"/>
+        <v>0.375</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="J68" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="K68" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="L68" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M68" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N68" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P68" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q68" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R68" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S68" s="6">
+        <f t="shared" ref="S68:AH68" si="13">AVERAGE(S66:S67)</f>
+        <v>1</v>
+      </c>
+      <c r="T68" s="6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U68" s="6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V68" s="6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="W68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="2:34">
       <c r="E69" s="8"/>
       <c r="F69" s="4"/>
     </row>
+    <row r="70" spans="2:34">
+      <c r="E70" s="8"/>
+      <c r="F70" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B47:B67"/>
-    <mergeCell ref="C47:C60"/>
+  <mergeCells count="13">
     <mergeCell ref="C26:C35"/>
     <mergeCell ref="B26:B46"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="B6:B25"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B47:B68"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C66:C68"/>
     <mergeCell ref="C36:C43"/>
     <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C47:C61"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D6:D10 C36:D36 D36:D42 E6:E15">
-    <cfRule type="cellIs" dxfId="6" priority="115" operator="equal">
+  <conditionalFormatting sqref="C20 E20:E21">
+    <cfRule type="cellIs" dxfId="6" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D34 D48:E60 D11:D15">
-    <cfRule type="cellIs" dxfId="5" priority="50" operator="equal">
+  <conditionalFormatting sqref="D6:D10 E6:E15 C36:D36 D36:D42">
+    <cfRule type="cellIs" dxfId="5" priority="115" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D15 D17:D34 D48:E61">
+    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 B47">
-    <cfRule type="cellIs" dxfId="4" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="3" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44:E44 D46:E46 C47:E47 C61:E61 D62:E67">
-    <cfRule type="cellIs" dxfId="2" priority="145" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20 E20:E21">
-    <cfRule type="cellIs" dxfId="1" priority="185" operator="equal">
+  <conditionalFormatting sqref="D44:E44 D46:E46 C47:E47 C62:E62 D63:E68">
+    <cfRule type="cellIs" dxfId="1" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7596,7 +7656,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65:F66">
+  <conditionalFormatting sqref="F66:F67">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -7610,7 +7670,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:I59">
+  <conditionalFormatting sqref="F47:I60">
     <cfRule type="dataBar" priority="558">
       <dataBar>
         <cfvo type="min"/>
@@ -7624,7 +7684,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63:I63 F44">
+  <conditionalFormatting sqref="F64:I64 F44">
     <cfRule type="dataBar" priority="477">
       <dataBar>
         <cfvo type="min"/>
@@ -7634,6 +7694,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{65D6EC0D-952A-420C-9BCF-6E4C561DF568}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:AH15">
+    <cfRule type="dataBar" priority="651">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE0275C9-A13C-4221-B9B7-203BFE7719CD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7652,7 +7726,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61:AH61">
+  <conditionalFormatting sqref="F62:AH62">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -7778,7 +7852,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
+  <conditionalFormatting sqref="G66">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -7792,7 +7866,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G67">
     <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
@@ -7876,7 +7950,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="H67">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -7932,7 +8006,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65:K65">
+  <conditionalFormatting sqref="H66:K66">
     <cfRule type="dataBar" priority="488">
       <dataBar>
         <cfvo type="min"/>
@@ -7946,8 +8020,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:AH15 AI14">
-    <cfRule type="dataBar" priority="490">
+  <conditionalFormatting sqref="H6:AH15">
+    <cfRule type="dataBar" priority="652">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8044,7 +8118,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:K66">
+  <conditionalFormatting sqref="I67:K67">
     <cfRule type="dataBar" priority="502">
       <dataBar>
         <cfvo type="min"/>
@@ -8086,6 +8160,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J49 J50:AH60">
+    <cfRule type="dataBar" priority="562">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90455EE3-E7AD-4F59-8325-47922778E0F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J26:K28">
     <cfRule type="dataBar" priority="28">
       <dataBar>
@@ -8114,7 +8202,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:K63 J47">
+  <conditionalFormatting sqref="J64:K64 J47">
     <cfRule type="dataBar" priority="498">
       <dataBar>
         <cfvo type="min"/>
@@ -8128,8 +8216,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50:AH59 J48:J49">
-    <cfRule type="dataBar" priority="562">
+  <conditionalFormatting sqref="K36:O36 L40:O42 K38:O39 L37:O37 P36:AH42">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8137,21 +8225,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90455EE3-E7AD-4F59-8325-47922778E0F6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:AH32 K29:AH29 L26:AH28 L30:AH31">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}</x14:id>
+          <x14:id>{6C5573C3-41FA-4990-9C24-439EC153DA6C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8198,7 +8272,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L63:AH63">
+  <conditionalFormatting sqref="L64:AH64">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -8212,7 +8286,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L65:AH66">
+  <conditionalFormatting sqref="L66:AH67">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -8226,8 +8300,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P36:AH42 K36:O36 L40:O42 K38:O39 L37:O37">
-    <cfRule type="dataBar" priority="18">
+  <conditionalFormatting sqref="W26:AH32 K32:V32 K29:V29 L26:V28 L30:V31">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8235,21 +8309,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C5573C3-41FA-4990-9C24-439EC153DA6C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:AH15">
-    <cfRule type="dataBar" priority="651">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE0275C9-A13C-4221-B9B7-203BFE7719CD}</x14:id>
+          <x14:id>{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8367,7 +8427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F65:F66</xm:sqref>
+          <xm:sqref>F66:F67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6DB883C9-1F88-4735-AB90-2C226539E60C}">
@@ -8378,7 +8438,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F47:I59</xm:sqref>
+          <xm:sqref>F47:I60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{65D6EC0D-952A-420C-9BCF-6E4C561DF568}">
@@ -8389,7 +8449,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F63:I63 F44</xm:sqref>
+          <xm:sqref>F64:I64 F44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F6:AH15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0E20ECF-5663-478F-8E9F-449195CDAA9F}">
@@ -8411,7 +8482,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F61:AH61</xm:sqref>
+          <xm:sqref>F62:AH62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{57A8B765-FFA7-434C-9523-5857F06016E6}">
@@ -8510,7 +8581,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G65</xm:sqref>
+          <xm:sqref>G66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6182F17D-C40E-44F1-A805-62C9A04B4BC8}">
@@ -8521,7 +8592,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G66</xm:sqref>
+          <xm:sqref>G67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3AE68020-C365-4ABF-939B-EF0068109146}">
@@ -8587,7 +8658,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H66</xm:sqref>
+          <xm:sqref>H67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1303D586-8258-463C-8ABD-037215FABF40}">
@@ -8631,7 +8702,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H65:K65</xm:sqref>
+          <xm:sqref>H66:K66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
@@ -8642,7 +8713,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:AH15 AI14</xm:sqref>
+          <xm:sqref>H6:AH15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
@@ -8719,7 +8790,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I66:K66</xm:sqref>
+          <xm:sqref>I67:K67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}">
@@ -8742,6 +8813,17 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>J39:J42 K40:K42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J48:J49 J50:AH60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}">
@@ -8774,10 +8856,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J63:K63 J47</xm:sqref>
+          <xm:sqref>J64:K64 J47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
+          <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8785,18 +8867,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J50:AH59 J48:J49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K32:AH32 K29:AH29 L26:AH28 L30:AH31</xm:sqref>
+          <xm:sqref>K36:O36 L40:O42 K38:O39 L37:O37 P36:AH42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79A6E942-BB28-4C5C-B051-63D2113FB72F}">
@@ -8840,7 +8911,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L63:AH63</xm:sqref>
+          <xm:sqref>L64:AH64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B769FDA4-52DD-48E5-B5B4-67E966D84479}">
@@ -8851,10 +8922,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L65:AH66</xm:sqref>
+          <xm:sqref>L66:AH67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
+          <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8862,18 +8933,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P36:AH42 K36:O36 L40:O42 K38:O39 L37:O37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F6:AH15</xm:sqref>
+          <xm:sqref>W26:AH32 K32:V32 K29:V29 L26:V28 L30:V31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/2팀(Pick+Course)보고양식.xlsx
+++ b/2팀(Pick+Course)보고양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gb_0900_jdy\git\workspace\pickcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4670D10-A393-49D0-9102-B6D0771A45D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D78182-39AA-4F8D-93D4-A5D82A16907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,12 +514,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,7 +523,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -894,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AH70"/>
+  <dimension ref="B2:V70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C19"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -917,7 +917,7 @@
     <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34">
+    <row r="2" spans="2:22">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45688</v>
@@ -970,49 +970,13 @@
       <c r="V2" s="3">
         <v>45704</v>
       </c>
-      <c r="W2" s="3">
-        <v>45705</v>
-      </c>
-      <c r="X2" s="3">
-        <v>45706</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>45707</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>45708</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>45709</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>45710</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>45711</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>45712</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>45713</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>45714</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>45715</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>45716</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34">
+    </row>
+    <row r="3" spans="2:22">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:AH3" si="0">AVERAGE(F16,F19,F25,F35,F43,F46,F61,F63,F65,F68)</f>
+        <f t="shared" ref="F3:V3" si="0">AVERAGE(F16,F19,F25,F35,F43,F46,F61,F63,F65,F68)</f>
         <v>0.06</v>
       </c>
       <c r="G3" s="6">
@@ -1079,56 +1043,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:34" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="5" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1188,48 +1104,12 @@
       <c r="V5" s="3">
         <v>45704</v>
       </c>
-      <c r="W5" s="3">
-        <v>45705</v>
-      </c>
-      <c r="X5" s="3">
-        <v>45706</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>45707</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>45708</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>45709</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>45710</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>45711</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>45712</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>45713</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>45714</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>45715</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>45716</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34">
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1287,46 +1167,10 @@
       <c r="V6" s="9">
         <v>1</v>
       </c>
-      <c r="W6" s="9">
-        <v>0</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34">
-      <c r="B7" s="17"/>
-      <c r="C7" s="19"/>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="15"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="7" t="s">
         <v>41</v>
       </c>
@@ -1382,46 +1226,10 @@
       <c r="V7" s="9">
         <v>1</v>
       </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34">
-      <c r="B8" s="17"/>
-      <c r="C8" s="19"/>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="15"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1477,46 +1285,10 @@
       <c r="V8" s="9">
         <v>1</v>
       </c>
-      <c r="W8" s="9">
-        <v>0</v>
-      </c>
-      <c r="X8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34">
-      <c r="B9" s="17"/>
-      <c r="C9" s="19"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="15"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="7" t="s">
         <v>61</v>
       </c>
@@ -1572,46 +1344,10 @@
       <c r="V9" s="9">
         <v>1</v>
       </c>
-      <c r="W9" s="9">
-        <v>0</v>
-      </c>
-      <c r="X9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34">
-      <c r="B10" s="17"/>
-      <c r="C10" s="19"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="15"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1667,46 +1403,10 @@
       <c r="V10" s="9">
         <v>1</v>
       </c>
-      <c r="W10" s="9">
-        <v>0</v>
-      </c>
-      <c r="X10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:34">
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="15"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1762,46 +1462,10 @@
       <c r="V11" s="9">
         <v>1</v>
       </c>
-      <c r="W11" s="9">
-        <v>0</v>
-      </c>
-      <c r="X11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34">
-      <c r="B12" s="17"/>
-      <c r="C12" s="19"/>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="15"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1857,46 +1521,10 @@
       <c r="V12" s="9">
         <v>1</v>
       </c>
-      <c r="W12" s="9">
-        <v>0</v>
-      </c>
-      <c r="X12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:34">
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="15"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1952,46 +1580,10 @@
       <c r="V13" s="9">
         <v>1</v>
       </c>
-      <c r="W13" s="9">
-        <v>0</v>
-      </c>
-      <c r="X13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:34">
-      <c r="B14" s="17"/>
-      <c r="C14" s="19"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="15"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
@@ -2047,46 +1639,10 @@
       <c r="V14" s="9">
         <v>1</v>
       </c>
-      <c r="W14" s="9">
-        <v>0</v>
-      </c>
-      <c r="X14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34">
-      <c r="B15" s="17"/>
-      <c r="C15" s="19"/>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="15"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="7" t="s">
         <v>65</v>
       </c>
@@ -2142,50 +1698,14 @@
       <c r="V15" s="9">
         <v>1</v>
       </c>
-      <c r="W15" s="9">
-        <v>0</v>
-      </c>
-      <c r="X15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34" ht="16.149999999999999" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="15"/>
+    </row>
+    <row r="16" spans="2:22" ht="16.149999999999999" customHeight="1">
+      <c r="B16" s="15"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:AH16" si="1">AVERAGE(F6:F15)</f>
+        <f t="shared" ref="F16:V16" si="1">AVERAGE(F6:F15)</f>
         <v>0</v>
       </c>
       <c r="G16" s="6">
@@ -2252,57 +1772,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34">
-      <c r="B17" s="17"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="15"/>
       <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
@@ -2361,45 +1833,9 @@
       <c r="V17" s="9">
         <v>1</v>
       </c>
-      <c r="W17" s="9">
-        <v>0</v>
-      </c>
-      <c r="X17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34">
-      <c r="B18" s="17"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="15"/>
       <c r="C18" s="12"/>
       <c r="D18" s="7" t="s">
         <v>59</v>
@@ -2456,50 +1892,14 @@
       <c r="V18" s="9">
         <v>1</v>
       </c>
-      <c r="W18" s="9">
-        <v>0</v>
-      </c>
-      <c r="X18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:34">
-      <c r="B19" s="17"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="15"/>
       <c r="C19" s="13"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:AH19" si="2">AVERAGE(F17:F18)</f>
+        <f t="shared" ref="F19:V19" si="2">AVERAGE(F17:F18)</f>
         <v>0</v>
       </c>
       <c r="G19" s="6">
@@ -2566,58 +1966,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34">
-      <c r="B20" s="17"/>
-      <c r="C20" s="14" t="s">
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="15"/>
+      <c r="C20" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -2675,46 +2027,10 @@
       <c r="V20" s="9">
         <v>1</v>
       </c>
-      <c r="W20" s="9">
-        <v>0</v>
-      </c>
-      <c r="X20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34">
-      <c r="B21" s="17"/>
-      <c r="C21" s="19"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
@@ -2770,46 +2086,10 @@
       <c r="V21" s="9">
         <v>1</v>
       </c>
-      <c r="W21" s="9">
-        <v>0</v>
-      </c>
-      <c r="X21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34">
-      <c r="B22" s="17"/>
-      <c r="C22" s="19"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="15"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="7" t="s">
         <v>57</v>
       </c>
@@ -2865,46 +2145,10 @@
       <c r="V22" s="9">
         <v>1</v>
       </c>
-      <c r="W22" s="9">
-        <v>0</v>
-      </c>
-      <c r="X22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34">
-      <c r="B23" s="17"/>
-      <c r="C23" s="19"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="15"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="7" t="s">
         <v>58</v>
       </c>
@@ -2960,46 +2204,10 @@
       <c r="V23" s="9">
         <v>1</v>
       </c>
-      <c r="W23" s="9">
-        <v>0</v>
-      </c>
-      <c r="X23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:34">
-      <c r="B24" s="17"/>
-      <c r="C24" s="19"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="15"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="7" t="s">
         <v>13</v>
       </c>
@@ -3055,50 +2263,14 @@
       <c r="V24" s="9">
         <v>1</v>
       </c>
-      <c r="W24" s="9">
-        <v>0</v>
-      </c>
-      <c r="X24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:34">
-      <c r="B25" s="18"/>
-      <c r="C25" s="15"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="16"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:AH25" si="3">AVERAGE(F20:F24)</f>
+        <f t="shared" ref="F25:V25" si="3">AVERAGE(F20:F24)</f>
         <v>0.1</v>
       </c>
       <c r="G25" s="6">
@@ -3165,57 +2337,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34">
-      <c r="B26" s="16" t="s">
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -3276,45 +2400,9 @@
       <c r="V26" s="9">
         <v>1</v>
       </c>
-      <c r="W26" s="9">
-        <v>0</v>
-      </c>
-      <c r="X26" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34">
-      <c r="B27" s="17"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="15"/>
       <c r="C27" s="12"/>
       <c r="D27" s="7" t="s">
         <v>43</v>
@@ -3371,45 +2459,9 @@
       <c r="V27" s="9">
         <v>1</v>
       </c>
-      <c r="W27" s="9">
-        <v>0</v>
-      </c>
-      <c r="X27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34">
-      <c r="B28" s="17"/>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="15"/>
       <c r="C28" s="12"/>
       <c r="D28" s="7" t="s">
         <v>48</v>
@@ -3466,45 +2518,9 @@
       <c r="V28" s="9">
         <v>1</v>
       </c>
-      <c r="W28" s="9">
-        <v>0</v>
-      </c>
-      <c r="X28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:34">
-      <c r="B29" s="17"/>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="15"/>
       <c r="C29" s="12"/>
       <c r="D29" s="7" t="s">
         <v>44</v>
@@ -3561,45 +2577,9 @@
       <c r="V29" s="9">
         <v>1</v>
       </c>
-      <c r="W29" s="9">
-        <v>0</v>
-      </c>
-      <c r="X29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34">
-      <c r="B30" s="17"/>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="15"/>
       <c r="C30" s="12"/>
       <c r="D30" s="10" t="s">
         <v>45</v>
@@ -3656,45 +2636,9 @@
       <c r="V30" s="9">
         <v>1</v>
       </c>
-      <c r="W30" s="9">
-        <v>0</v>
-      </c>
-      <c r="X30" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:34">
-      <c r="B31" s="17"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="15"/>
       <c r="C31" s="12"/>
       <c r="D31" s="10" t="s">
         <v>46</v>
@@ -3751,45 +2695,9 @@
       <c r="V31" s="9">
         <v>1</v>
       </c>
-      <c r="W31" s="9">
-        <v>0</v>
-      </c>
-      <c r="X31" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:34">
-      <c r="B32" s="17"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="15"/>
       <c r="C32" s="12"/>
       <c r="D32" s="10" t="s">
         <v>49</v>
@@ -3846,45 +2754,9 @@
       <c r="V32" s="9">
         <v>1</v>
       </c>
-      <c r="W32" s="9">
-        <v>0</v>
-      </c>
-      <c r="X32" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:34">
-      <c r="B33" s="17"/>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="15"/>
       <c r="C33" s="12"/>
       <c r="D33" s="10" t="s">
         <v>50</v>
@@ -3941,45 +2813,9 @@
       <c r="V33" s="9">
         <v>1</v>
       </c>
-      <c r="W33" s="9">
-        <v>0</v>
-      </c>
-      <c r="X33" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:34">
-      <c r="B34" s="17"/>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="15"/>
       <c r="C34" s="12"/>
       <c r="D34" s="10" t="s">
         <v>63</v>
@@ -4020,45 +2856,9 @@
       <c r="V34" s="9">
         <v>1</v>
       </c>
-      <c r="W34" s="9">
-        <v>0</v>
-      </c>
-      <c r="X34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:34">
-      <c r="B35" s="17"/>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="15"/>
       <c r="C35" s="13"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4099,7 +2899,7 @@
         <v>0.54444444444444451</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" ref="O35:AH35" si="5">AVERAGE(O26:O34)</f>
+        <f t="shared" ref="O35:V35" si="5">AVERAGE(O26:O34)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="P35" s="6">
@@ -4130,57 +2930,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:34">
-      <c r="B36" s="17"/>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="15"/>
       <c r="C36" s="11" t="s">
         <v>21</v>
       </c>
@@ -4239,45 +2991,9 @@
       <c r="V36" s="9">
         <v>1</v>
       </c>
-      <c r="W36" s="9">
-        <v>0</v>
-      </c>
-      <c r="X36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:34">
-      <c r="B37" s="17"/>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="15"/>
       <c r="C37" s="12"/>
       <c r="D37" s="7" t="s">
         <v>54</v>
@@ -4334,45 +3050,9 @@
       <c r="V37" s="9">
         <v>1</v>
       </c>
-      <c r="W37" s="9">
-        <v>0</v>
-      </c>
-      <c r="X37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:34">
-      <c r="B38" s="17"/>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" s="15"/>
       <c r="C38" s="12"/>
       <c r="D38" s="7" t="s">
         <v>53</v>
@@ -4429,45 +3109,9 @@
       <c r="V38" s="9">
         <v>1</v>
       </c>
-      <c r="W38" s="9">
-        <v>0</v>
-      </c>
-      <c r="X38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:34">
-      <c r="B39" s="17"/>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="B39" s="15"/>
       <c r="C39" s="12"/>
       <c r="D39" s="7" t="s">
         <v>42</v>
@@ -4524,45 +3168,9 @@
       <c r="V39" s="9">
         <v>1</v>
       </c>
-      <c r="W39" s="9">
-        <v>0</v>
-      </c>
-      <c r="X39" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:34">
-      <c r="B40" s="17"/>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40" s="15"/>
       <c r="C40" s="12"/>
       <c r="D40" s="10" t="s">
         <v>52</v>
@@ -4619,45 +3227,9 @@
       <c r="V40" s="9">
         <v>1</v>
       </c>
-      <c r="W40" s="9">
-        <v>0</v>
-      </c>
-      <c r="X40" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:34">
-      <c r="B41" s="17"/>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="B41" s="15"/>
       <c r="C41" s="12"/>
       <c r="D41" s="10" t="s">
         <v>51</v>
@@ -4714,45 +3286,9 @@
       <c r="V41" s="9">
         <v>1</v>
       </c>
-      <c r="W41" s="9">
-        <v>0</v>
-      </c>
-      <c r="X41" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:34">
-      <c r="B42" s="17"/>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="B42" s="15"/>
       <c r="C42" s="12"/>
       <c r="D42" s="7" t="s">
         <v>10</v>
@@ -4809,45 +3345,9 @@
       <c r="V42" s="9">
         <v>1</v>
       </c>
-      <c r="W42" s="9">
-        <v>0</v>
-      </c>
-      <c r="X42" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:34">
-      <c r="B43" s="17"/>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43" s="15"/>
       <c r="C43" s="13"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -4856,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" ref="G43:AH43" si="6">AVERAGE(G36:G42)</f>
+        <f t="shared" ref="G43:V43" si="6">AVERAGE(G36:G42)</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
@@ -4919,57 +3419,9 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:34">
-      <c r="B44" s="17"/>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" s="15"/>
       <c r="C44" s="12" t="s">
         <v>47</v>
       </c>
@@ -5028,45 +3480,9 @@
       <c r="V44" s="9">
         <v>1</v>
       </c>
-      <c r="W44" s="9">
-        <v>0</v>
-      </c>
-      <c r="X44" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:34">
-      <c r="B45" s="17"/>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45" s="15"/>
       <c r="C45" s="12"/>
       <c r="D45" s="7" t="s">
         <v>64</v>
@@ -5123,45 +3539,9 @@
       <c r="V45" s="9">
         <v>1</v>
       </c>
-      <c r="W45" s="9">
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:34">
-      <c r="B46" s="18"/>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" s="16"/>
       <c r="C46" s="13"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -5170,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" ref="G46:AH46" si="7">AVERAGE(G44:G45)</f>
+        <f t="shared" ref="G46:V46" si="7">AVERAGE(G44:G45)</f>
         <v>0</v>
       </c>
       <c r="H46" s="6">
@@ -5233,57 +3613,9 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="W46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:34">
-      <c r="B47" s="16" t="s">
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -5344,45 +3676,9 @@
       <c r="V47" s="9">
         <v>1</v>
       </c>
-      <c r="W47" s="9">
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:34">
-      <c r="B48" s="17"/>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="B48" s="15"/>
       <c r="C48" s="12"/>
       <c r="D48" s="7" t="s">
         <v>25</v>
@@ -5439,45 +3735,9 @@
       <c r="V48" s="9">
         <v>1</v>
       </c>
-      <c r="W48" s="9">
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:34">
-      <c r="B49" s="17"/>
+    </row>
+    <row r="49" spans="2:22">
+      <c r="B49" s="15"/>
       <c r="C49" s="12"/>
       <c r="D49" s="7" t="s">
         <v>26</v>
@@ -5534,45 +3794,9 @@
       <c r="V49" s="9">
         <v>1</v>
       </c>
-      <c r="W49" s="9">
-        <v>0</v>
-      </c>
-      <c r="X49" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:34">
-      <c r="B50" s="17"/>
+    </row>
+    <row r="50" spans="2:22">
+      <c r="B50" s="15"/>
       <c r="C50" s="12"/>
       <c r="D50" s="7" t="s">
         <v>27</v>
@@ -5629,45 +3853,9 @@
       <c r="V50" s="9">
         <v>1</v>
       </c>
-      <c r="W50" s="9">
-        <v>0</v>
-      </c>
-      <c r="X50" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:34">
-      <c r="B51" s="17"/>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" s="15"/>
       <c r="C51" s="12"/>
       <c r="D51" s="7" t="s">
         <v>15</v>
@@ -5724,45 +3912,9 @@
       <c r="V51" s="9">
         <v>1</v>
       </c>
-      <c r="W51" s="9">
-        <v>0</v>
-      </c>
-      <c r="X51" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:34">
-      <c r="B52" s="17"/>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52" s="15"/>
       <c r="C52" s="12"/>
       <c r="D52" s="7" t="s">
         <v>16</v>
@@ -5819,45 +3971,9 @@
       <c r="V52" s="9">
         <v>1</v>
       </c>
-      <c r="W52" s="9">
-        <v>0</v>
-      </c>
-      <c r="X52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:34">
-      <c r="B53" s="17"/>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="B53" s="15"/>
       <c r="C53" s="12"/>
       <c r="D53" s="7" t="s">
         <v>28</v>
@@ -5914,45 +4030,9 @@
       <c r="V53" s="9">
         <v>1</v>
       </c>
-      <c r="W53" s="9">
-        <v>0</v>
-      </c>
-      <c r="X53" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:34">
-      <c r="B54" s="17"/>
+    </row>
+    <row r="54" spans="2:22">
+      <c r="B54" s="15"/>
       <c r="C54" s="12"/>
       <c r="D54" s="7" t="s">
         <v>29</v>
@@ -6009,45 +4089,9 @@
       <c r="V54" s="9">
         <v>1</v>
       </c>
-      <c r="W54" s="9">
-        <v>0</v>
-      </c>
-      <c r="X54" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:34">
-      <c r="B55" s="17"/>
+    </row>
+    <row r="55" spans="2:22">
+      <c r="B55" s="15"/>
       <c r="C55" s="12"/>
       <c r="D55" s="7" t="s">
         <v>67</v>
@@ -6084,45 +4128,9 @@
       <c r="V55" s="9">
         <v>1</v>
       </c>
-      <c r="W55" s="9">
-        <v>0</v>
-      </c>
-      <c r="X55" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:34">
-      <c r="B56" s="17"/>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="B56" s="15"/>
       <c r="C56" s="12"/>
       <c r="D56" s="7" t="s">
         <v>66</v>
@@ -6179,45 +4187,9 @@
       <c r="V56" s="9">
         <v>1</v>
       </c>
-      <c r="W56" s="9">
-        <v>0</v>
-      </c>
-      <c r="X56" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:34">
-      <c r="B57" s="17"/>
+    </row>
+    <row r="57" spans="2:22">
+      <c r="B57" s="15"/>
       <c r="C57" s="12"/>
       <c r="D57" s="7" t="s">
         <v>30</v>
@@ -6274,45 +4246,9 @@
       <c r="V57" s="9">
         <v>1</v>
       </c>
-      <c r="W57" s="9">
-        <v>0</v>
-      </c>
-      <c r="X57" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:34">
-      <c r="B58" s="17"/>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="B58" s="15"/>
       <c r="C58" s="12"/>
       <c r="D58" s="7" t="s">
         <v>31</v>
@@ -6369,45 +4305,9 @@
       <c r="V58" s="9">
         <v>1</v>
       </c>
-      <c r="W58" s="9">
-        <v>0</v>
-      </c>
-      <c r="X58" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:34">
-      <c r="B59" s="17"/>
+    </row>
+    <row r="59" spans="2:22">
+      <c r="B59" s="15"/>
       <c r="C59" s="12"/>
       <c r="D59" s="7" t="s">
         <v>32</v>
@@ -6464,45 +4364,9 @@
       <c r="V59" s="9">
         <v>1</v>
       </c>
-      <c r="W59" s="9">
-        <v>0</v>
-      </c>
-      <c r="X59" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:34">
-      <c r="B60" s="17"/>
+    </row>
+    <row r="60" spans="2:22">
+      <c r="B60" s="15"/>
       <c r="C60" s="12"/>
       <c r="D60" s="7" t="s">
         <v>33</v>
@@ -6559,50 +4423,14 @@
       <c r="V60" s="9">
         <v>1</v>
       </c>
-      <c r="W60" s="9">
-        <v>0</v>
-      </c>
-      <c r="X60" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:34">
-      <c r="B61" s="17"/>
+    </row>
+    <row r="61" spans="2:22">
+      <c r="B61" s="15"/>
       <c r="C61" s="13"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="6">
-        <f t="shared" ref="F61:AH61" si="8">AVERAGE(F47:F60)</f>
+        <f t="shared" ref="F61:V61" si="8">AVERAGE(F47:F60)</f>
         <v>0</v>
       </c>
       <c r="G61" s="6">
@@ -6669,58 +4497,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="W61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH61" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B62" s="17"/>
-      <c r="C62" s="14" t="s">
+    </row>
+    <row r="62" spans="2:22" ht="16.5" customHeight="1">
+      <c r="B62" s="15"/>
+      <c r="C62" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -6778,46 +4558,10 @@
       <c r="V62" s="9">
         <v>1</v>
       </c>
-      <c r="W62" s="9">
-        <v>0</v>
-      </c>
-      <c r="X62" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:34">
-      <c r="B63" s="17"/>
-      <c r="C63" s="15"/>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="B63" s="15"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="6">
@@ -6825,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" ref="G63:AH63" si="9">AVERAGE(G62)</f>
+        <f t="shared" ref="G63:V63" si="9">AVERAGE(G62)</f>
         <v>0</v>
       </c>
       <c r="H63" s="6">
@@ -6888,57 +4632,9 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH63" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:34">
-      <c r="B64" s="17"/>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="B64" s="15"/>
       <c r="C64" s="11" t="s">
         <v>38</v>
       </c>
@@ -6997,45 +4693,9 @@
       <c r="V64" s="9">
         <v>1</v>
       </c>
-      <c r="W64" s="9">
-        <v>0</v>
-      </c>
-      <c r="X64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:34">
-      <c r="B65" s="17"/>
+    </row>
+    <row r="65" spans="2:22">
+      <c r="B65" s="15"/>
       <c r="C65" s="13"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -7092,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="S65" s="6">
-        <f t="shared" ref="S65:AH65" si="11">AVERAGE(S64)</f>
+        <f t="shared" ref="S65:V65" si="11">AVERAGE(S64)</f>
         <v>1</v>
       </c>
       <c r="T65" s="6">
@@ -7107,57 +4767,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="W65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH65" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B66" s="17"/>
+    </row>
+    <row r="66" spans="2:22" ht="16.5" customHeight="1">
+      <c r="B66" s="15"/>
       <c r="C66" s="11" t="s">
         <v>40</v>
       </c>
@@ -7216,45 +4828,9 @@
       <c r="V66" s="9">
         <v>1</v>
       </c>
-      <c r="W66" s="9">
-        <v>0</v>
-      </c>
-      <c r="X66" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:34">
-      <c r="B67" s="17"/>
+    </row>
+    <row r="67" spans="2:22">
+      <c r="B67" s="15"/>
       <c r="C67" s="12"/>
       <c r="D67" s="7" t="s">
         <v>37</v>
@@ -7311,45 +4887,9 @@
       <c r="V67" s="9">
         <v>1</v>
       </c>
-      <c r="W67" s="9">
-        <v>0</v>
-      </c>
-      <c r="X67" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH67" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:34">
-      <c r="B68" s="18"/>
+    </row>
+    <row r="68" spans="2:22">
+      <c r="B68" s="16"/>
       <c r="C68" s="13"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -7406,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="S68" s="6">
-        <f t="shared" ref="S68:AH68" si="13">AVERAGE(S66:S67)</f>
+        <f t="shared" ref="S68:V68" si="13">AVERAGE(S66:S67)</f>
         <v>1</v>
       </c>
       <c r="T68" s="6">
@@ -7421,60 +4961,12 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="W68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH68" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:34">
+    </row>
+    <row r="69" spans="2:22">
       <c r="E69" s="8"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="2:34">
+    <row r="70" spans="2:22">
       <c r="E70" s="8"/>
       <c r="F70" s="4"/>
     </row>
@@ -7694,48 +5186,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{65D6EC0D-952A-420C-9BCF-6E4C561DF568}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:AH15">
-    <cfRule type="dataBar" priority="651">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE0275C9-A13C-4221-B9B7-203BFE7719CD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:AH18">
-    <cfRule type="dataBar" priority="555">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A0E20ECF-5663-478F-8E9F-449195CDAA9F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62:AH62">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8020,34 +5470,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:AH15">
-    <cfRule type="dataBar" priority="652">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:AH45">
-    <cfRule type="dataBar" priority="501">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5A887C91-57E6-4A6F-9712-7D026683BD38}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I22:I24">
     <cfRule type="dataBar" priority="10">
       <dataBar>
@@ -8132,20 +5554,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:AH44">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J39:J42 K40:K42">
     <cfRule type="dataBar" priority="27">
       <dataBar>
@@ -8156,20 +5564,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J49 J50:AH60">
-    <cfRule type="dataBar" priority="562">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90455EE3-E7AD-4F59-8325-47922778E0F6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8216,8 +5610,106 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:O36 L40:O42 K38:O39 L37:O37 P36:AH42">
-    <cfRule type="dataBar" priority="18">
+  <conditionalFormatting sqref="F6:V15">
+    <cfRule type="dataBar" priority="653">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE0275C9-A13C-4221-B9B7-203BFE7719CD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:V18">
+    <cfRule type="dataBar" priority="654">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0E20ECF-5663-478F-8E9F-449195CDAA9F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:V62">
+    <cfRule type="dataBar" priority="655">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:V15">
+    <cfRule type="dataBar" priority="656">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:V45">
+    <cfRule type="dataBar" priority="657">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5A887C91-57E6-4A6F-9712-7D026683BD38}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:V44">
+    <cfRule type="dataBar" priority="658">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J49 J50:V60">
+    <cfRule type="dataBar" priority="659">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90455EE3-E7AD-4F59-8325-47922778E0F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:O36 L40:O42 K38:O39 L37:O37 P36:V42">
+    <cfRule type="dataBar" priority="661">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8230,8 +5722,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:AH34">
-    <cfRule type="dataBar" priority="16">
+  <conditionalFormatting sqref="K33:V34">
+    <cfRule type="dataBar" priority="666">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8244,8 +5736,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:AH49">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="K47:V49">
+    <cfRule type="dataBar" priority="667">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8258,8 +5750,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:AH24">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="L20:V24">
+    <cfRule type="dataBar" priority="668">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8272,8 +5764,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L64:AH64">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="L64:V64">
+    <cfRule type="dataBar" priority="669">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8286,8 +5778,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L66:AH67">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="L66:V67">
+    <cfRule type="dataBar" priority="670">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8300,8 +5792,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W26:AH32 K32:V32 K29:V29 L26:V28 L30:V31">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="K32:V32 K29:V29 L26:V28 L30:V31">
+    <cfRule type="dataBar" priority="671">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8450,39 +5942,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>F64:I64 F44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F6:AH15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0E20ECF-5663-478F-8E9F-449195CDAA9F}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F17:AH18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F62:AH62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{57A8B765-FFA7-434C-9523-5857F06016E6}">
@@ -8705,28 +6164,6 @@
           <xm:sqref>H66:K66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H6:AH15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H45:AH45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1A303F07-6070-4189-AC1D-80357A0D5D47}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -8793,17 +6230,6 @@
           <xm:sqref>I67:K67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I44:AH44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{18153AA0-6BDF-4B6B-B2C4-171DA42A3821}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -8813,17 +6239,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>J39:J42 K40:K42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J48:J49 J50:AH60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DBDB9E12-FBD7-4ED7-8AF2-CC272D920CAD}">
@@ -8859,6 +6274,83 @@
           <xm:sqref>J64:K64 J47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE0275C9-A13C-4221-B9B7-203BFE7719CD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F6:V15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0E20ECF-5663-478F-8E9F-449195CDAA9F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F17:V18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CD51EF20-327A-4158-B3A7-ED5CFD3059B4}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F62:V62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BC994E96-D1FB-4FF1-98B0-81DBE99950DE}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6:V15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5A887C91-57E6-4A6F-9712-7D026683BD38}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H45:V45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{196E49F1-0D91-4E01-BC7E-8AB3EB3E8E66}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I44:V44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90455EE3-E7AD-4F59-8325-47922778E0F6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J48:J49 J50:V60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6C5573C3-41FA-4990-9C24-439EC153DA6C}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -8867,7 +6359,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K36:O36 L40:O42 K38:O39 L37:O37 P36:AH42</xm:sqref>
+          <xm:sqref>K36:O36 L40:O42 K38:O39 L37:O37 P36:V42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79A6E942-BB28-4C5C-B051-63D2113FB72F}">
@@ -8878,7 +6370,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K33:AH34</xm:sqref>
+          <xm:sqref>K33:V34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{018A2B3E-2548-4772-A2CF-BD33006C0FDF}">
@@ -8889,7 +6381,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K47:AH49</xm:sqref>
+          <xm:sqref>K47:V49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C3D459D-49E3-462A-B846-0FE83B131D15}">
@@ -8900,7 +6392,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L20:AH24</xm:sqref>
+          <xm:sqref>L20:V24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CBE33775-0E9E-48FA-B07E-81B3AA0F642B}">
@@ -8911,7 +6403,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L64:AH64</xm:sqref>
+          <xm:sqref>L64:V64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B769FDA4-52DD-48E5-B5B4-67E966D84479}">
@@ -8922,7 +6414,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L66:AH67</xm:sqref>
+          <xm:sqref>L66:V67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5D6CA6F3-5CED-49CB-9FFA-6686FDCC177F}">
@@ -8933,7 +6425,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>W26:AH32 K32:V32 K29:V29 L26:V28 L30:V31</xm:sqref>
+          <xm:sqref>K32:V32 K29:V29 L26:V28 L30:V31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
